--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RTM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RTM - Req from States + PreCert" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Selections" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,7 +1232,7 @@
       <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="6"/>
@@ -1250,7 +1250,7 @@
       <c r="E31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="6"/>
@@ -1258,7 +1258,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>45</v>
@@ -1268,7 +1268,7 @@
       <c r="E32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="6"/>
@@ -1286,7 +1286,7 @@
       <c r="E33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="6"/>
@@ -1294,7 +1294,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>47</v>
@@ -1304,7 +1304,7 @@
       <c r="E34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="6"/>
@@ -1312,7 +1312,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>49</v>
@@ -1322,7 +1322,7 @@
       <c r="E35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="6"/>
@@ -1340,7 +1340,7 @@
       <c r="E36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="6"/>
@@ -1502,7 +1502,7 @@
       <c r="E45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="6"/>
@@ -1520,7 +1520,7 @@
       <c r="E46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G46" s="6"/>
@@ -1538,7 +1538,7 @@
       <c r="E47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="6"/>
@@ -1556,7 +1556,7 @@
       <c r="E48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="6"/>
@@ -1574,7 +1574,7 @@
       <c r="E49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G49" s="6"/>
@@ -1592,7 +1592,7 @@
       <c r="E50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G50" s="6"/>
@@ -2366,55 +2366,68 @@
     <hyperlink ref="F27" r:id="rId26" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
     <hyperlink ref="F28" r:id="rId27" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
     <hyperlink ref="F29" r:id="rId28" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="F37" r:id="rId29" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F38" r:id="rId30" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F39" r:id="rId31" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F40" r:id="rId32" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F41" r:id="rId33" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F42" r:id="rId34" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F43" r:id="rId35" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F44" r:id="rId36" display="VTMedicaidProviderManual.pdf"/>
-    <hyperlink ref="F51" r:id="rId37" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F52" r:id="rId38" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F53" r:id="rId39" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F54" r:id="rId40" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F55" r:id="rId41" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F56" r:id="rId42" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F57" r:id="rId43" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F58" r:id="rId44" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F59" r:id="rId45" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F60" r:id="rId46" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F61" r:id="rId47" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F62" r:id="rId48" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F63" r:id="rId49" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F64" r:id="rId50" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F65" r:id="rId51" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F66" r:id="rId52" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F67" r:id="rId53" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F68" r:id="rId54" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F69" r:id="rId55" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F70" r:id="rId56" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F71" r:id="rId57" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F72" r:id="rId58" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F73" r:id="rId59" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F74" r:id="rId60" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F75" r:id="rId61" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F76" r:id="rId62" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F77" r:id="rId63" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F78" r:id="rId64" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F79" r:id="rId65" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F80" r:id="rId66" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F81" r:id="rId67" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F82" r:id="rId68" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F83" r:id="rId69" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F84" r:id="rId70" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F85" r:id="rId71" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F86" r:id="rId72" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F87" r:id="rId73" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F88" r:id="rId74" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F89" r:id="rId75" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F90" r:id="rId76" display="pre-certification-requirements.md"/>
-    <hyperlink ref="F91" r:id="rId77" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F30" r:id="rId29" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F31" r:id="rId30" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F32" r:id="rId31" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F33" r:id="rId32" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F34" r:id="rId33" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F35" r:id="rId34" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F36" r:id="rId35" display="PSM State Calls Requirements_functionality needs.xlsx"/>
+    <hyperlink ref="F37" r:id="rId36" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F38" r:id="rId37" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F39" r:id="rId38" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F40" r:id="rId39" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F41" r:id="rId40" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F42" r:id="rId41" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F43" r:id="rId42" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F44" r:id="rId43" display="VTMedicaidProviderManual.pdf"/>
+    <hyperlink ref="F45" r:id="rId44" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F46" r:id="rId45" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F47" r:id="rId46" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F48" r:id="rId47" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F49" r:id="rId48" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F50" r:id="rId49" display="GrnMtnCareEnrollInst.pdf"/>
+    <hyperlink ref="F51" r:id="rId50" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F52" r:id="rId51" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F53" r:id="rId52" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F54" r:id="rId53" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F55" r:id="rId54" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F56" r:id="rId55" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F57" r:id="rId56" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F58" r:id="rId57" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F59" r:id="rId58" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F60" r:id="rId59" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F61" r:id="rId60" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F62" r:id="rId61" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F63" r:id="rId62" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F64" r:id="rId63" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F65" r:id="rId64" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F66" r:id="rId65" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F67" r:id="rId66" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F68" r:id="rId67" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F69" r:id="rId68" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F70" r:id="rId69" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F71" r:id="rId70" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F72" r:id="rId71" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F73" r:id="rId72" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F74" r:id="rId73" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F75" r:id="rId74" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F76" r:id="rId75" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F77" r:id="rId76" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F78" r:id="rId77" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F79" r:id="rId78" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F80" r:id="rId79" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F81" r:id="rId80" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F82" r:id="rId81" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F83" r:id="rId82" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F84" r:id="rId83" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F85" r:id="rId84" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F86" r:id="rId85" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F87" r:id="rId86" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F88" r:id="rId87" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F89" r:id="rId88" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F90" r:id="rId89" display="pre-certification-requirements.md"/>
+    <hyperlink ref="F91" r:id="rId90" display="pre-certification-requirements.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitre\CMS\CMCS\SGC\Phase 3 - MVP\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/dev/ots/psm/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12600" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FUNC Reqs'!$H$1:$H$92</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="247">
   <si>
     <t>MO</t>
   </si>
@@ -535,12 +541,264 @@
   </si>
   <si>
     <t>The PSM shall produce notices to applicants of pending status, approval, or rejection of their applications.</t>
+  </si>
+  <si>
+    <t>psm-1.1</t>
+  </si>
+  <si>
+    <t>psm-1.2</t>
+  </si>
+  <si>
+    <t>psm-1.3</t>
+  </si>
+  <si>
+    <t>psm-1.4</t>
+  </si>
+  <si>
+    <t>psm-1.5</t>
+  </si>
+  <si>
+    <t>psm-2.1</t>
+  </si>
+  <si>
+    <t>psm-2.2</t>
+  </si>
+  <si>
+    <t>psm-2.3</t>
+  </si>
+  <si>
+    <t>psm-2.4</t>
+  </si>
+  <si>
+    <t>psm-2.5</t>
+  </si>
+  <si>
+    <t>psm-2.6</t>
+  </si>
+  <si>
+    <t>psm-2.7</t>
+  </si>
+  <si>
+    <t>psm-2.8</t>
+  </si>
+  <si>
+    <t>psm-2.9</t>
+  </si>
+  <si>
+    <t>psm-2.10</t>
+  </si>
+  <si>
+    <t>psm-2.11</t>
+  </si>
+  <si>
+    <t>psm-2.12</t>
+  </si>
+  <si>
+    <t>psm-2.13</t>
+  </si>
+  <si>
+    <t>psm-2.14</t>
+  </si>
+  <si>
+    <t>psm-2.15</t>
+  </si>
+  <si>
+    <t>psm-2.16</t>
+  </si>
+  <si>
+    <t>psm-2.17</t>
+  </si>
+  <si>
+    <t>psm-2.18</t>
+  </si>
+  <si>
+    <t>psm-2.19</t>
+  </si>
+  <si>
+    <t>psm-3.1</t>
+  </si>
+  <si>
+    <t>psm-3.2</t>
+  </si>
+  <si>
+    <t>psm-3.3</t>
+  </si>
+  <si>
+    <t>psm-3.4</t>
+  </si>
+  <si>
+    <t>psm-3.5</t>
+  </si>
+  <si>
+    <t>psm-3.6</t>
+  </si>
+  <si>
+    <t>psm-3.7</t>
+  </si>
+  <si>
+    <t>psm-3.8</t>
+  </si>
+  <si>
+    <t>psm-3.9</t>
+  </si>
+  <si>
+    <t>psm-3.10</t>
+  </si>
+  <si>
+    <t>psm-3.11</t>
+  </si>
+  <si>
+    <t>psm-3.12</t>
+  </si>
+  <si>
+    <t>psm-3.13</t>
+  </si>
+  <si>
+    <t>psm-3.14</t>
+  </si>
+  <si>
+    <t>psm-3.15</t>
+  </si>
+  <si>
+    <t>psm-3.16</t>
+  </si>
+  <si>
+    <t>psm-3.17</t>
+  </si>
+  <si>
+    <t>psm-3.18</t>
+  </si>
+  <si>
+    <t>psm-3.19</t>
+  </si>
+  <si>
+    <t>psm-3.20</t>
+  </si>
+  <si>
+    <t>psm-3.21</t>
+  </si>
+  <si>
+    <t>psm-3.22</t>
+  </si>
+  <si>
+    <t>psm-3.23</t>
+  </si>
+  <si>
+    <t>psm-3.24</t>
+  </si>
+  <si>
+    <t>psm-4.1</t>
+  </si>
+  <si>
+    <t>psm-4.2</t>
+  </si>
+  <si>
+    <t>psm-4.3</t>
+  </si>
+  <si>
+    <t>psm-4.4</t>
+  </si>
+  <si>
+    <t>psm-4.5</t>
+  </si>
+  <si>
+    <t>psm-4.6</t>
+  </si>
+  <si>
+    <t>psm-4.7</t>
+  </si>
+  <si>
+    <t>psm-4.8</t>
+  </si>
+  <si>
+    <t>psm-4.9</t>
+  </si>
+  <si>
+    <t>psm-4.10</t>
+  </si>
+  <si>
+    <t>psm-4.11</t>
+  </si>
+  <si>
+    <t>psm-4.12</t>
+  </si>
+  <si>
+    <t>psm-4.13</t>
+  </si>
+  <si>
+    <t>psm-4.14</t>
+  </si>
+  <si>
+    <t>psm-4.15</t>
+  </si>
+  <si>
+    <t>psm-4.16</t>
+  </si>
+  <si>
+    <t>psm-5.1</t>
+  </si>
+  <si>
+    <t>psm-5.2</t>
+  </si>
+  <si>
+    <t>psm-5.3</t>
+  </si>
+  <si>
+    <t>psm-5.4</t>
+  </si>
+  <si>
+    <t>psm-6.1</t>
+  </si>
+  <si>
+    <t>psm-6.2</t>
+  </si>
+  <si>
+    <t>psm-7.1</t>
+  </si>
+  <si>
+    <t>psm-7.2</t>
+  </si>
+  <si>
+    <t>psm-7.3</t>
+  </si>
+  <si>
+    <t>psm-7.4</t>
+  </si>
+  <si>
+    <t>psm-7.5</t>
+  </si>
+  <si>
+    <t>psm-7.6</t>
+  </si>
+  <si>
+    <t>psm-7.7</t>
+  </si>
+  <si>
+    <t>psm-7.8</t>
+  </si>
+  <si>
+    <t>psm-7.9</t>
+  </si>
+  <si>
+    <t>psm-7.10</t>
+  </si>
+  <si>
+    <t>psm-7.11</t>
+  </si>
+  <si>
+    <t>psm-7.12</t>
+  </si>
+  <si>
+    <t>psm-7.13</t>
+  </si>
+  <si>
+    <t>psm-7.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,42 +967,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,7 +1169,7 @@
         <xdr:cNvPr id="2" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,24 +1541,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K92"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="43" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="32.86328125" style="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="32.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="38" t="s">
         <v>96</v>
@@ -1350,8 +1608,10 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -1371,8 +1631,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>49</v>
@@ -1396,8 +1658,10 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>60</v>
@@ -1417,8 +1681,10 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="36" t="s">
         <v>137</v>
@@ -1442,8 +1708,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
         <v>144</v>
@@ -1463,7 +1731,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="38" t="s">
         <v>97</v>
@@ -1478,8 +1746,10 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="34" t="s">
         <v>103</v>
@@ -1502,8 +1772,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="33" t="s">
         <v>105</v>
@@ -1527,8 +1799,10 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -1548,8 +1822,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>45</v>
@@ -1573,8 +1849,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>46</v>
@@ -1598,8 +1876,10 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>51</v>
@@ -1623,8 +1903,10 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>52</v>
@@ -1644,8 +1926,10 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>55</v>
@@ -1665,8 +1949,10 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>56</v>
@@ -1690,8 +1976,10 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>61</v>
@@ -1711,8 +1999,10 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>62</v>
@@ -1732,8 +2022,10 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
         <v>63</v>
@@ -1753,8 +2045,10 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>65</v>
@@ -1774,8 +2068,10 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>83</v>
@@ -1795,8 +2091,10 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>91</v>
@@ -1820,8 +2118,10 @@
       <c r="J23" s="5"/>
       <c r="K23" s="35"/>
     </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>92</v>
@@ -1845,8 +2145,10 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
         <v>94</v>
@@ -1866,8 +2168,10 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="13" t="s">
         <v>143</v>
@@ -1887,8 +2191,10 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
         <v>109</v>
@@ -1907,7 +2213,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="38" t="s">
         <v>98</v>
@@ -1922,8 +2228,10 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
         <v>106</v>
@@ -1943,8 +2251,10 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
         <v>30</v>
@@ -1963,8 +2273,10 @@
       <c r="I30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
         <v>32</v>
@@ -1984,8 +2296,10 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
         <v>33</v>
@@ -2005,8 +2319,10 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>53</v>
@@ -2026,8 +2342,10 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
         <v>54</v>
@@ -2047,8 +2365,10 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="115.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
         <v>57</v>
@@ -2068,8 +2388,10 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
         <v>66</v>
@@ -2089,8 +2411,10 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>70</v>
@@ -2114,8 +2438,10 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>71</v>
@@ -2139,8 +2465,10 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
         <v>72</v>
@@ -2160,8 +2488,10 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A40" s="5"/>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
         <v>73</v>
@@ -2185,8 +2515,10 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="115.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
         <v>74</v>
@@ -2206,8 +2538,10 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
         <v>75</v>
@@ -2227,8 +2561,10 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
         <v>76</v>
@@ -2248,8 +2584,10 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="198" x14ac:dyDescent="0.45">
-      <c r="A44" s="5"/>
+    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
         <v>77</v>
@@ -2269,8 +2607,10 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
         <v>78</v>
@@ -2290,8 +2630,10 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
         <v>79</v>
@@ -2311,8 +2653,10 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A47" s="5"/>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="33" t="s">
         <v>84</v>
@@ -2332,8 +2676,10 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
         <v>85</v>
@@ -2353,8 +2699,10 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
         <v>89</v>
@@ -2374,8 +2722,10 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A50" s="5"/>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
         <v>93</v>
@@ -2395,8 +2745,10 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6" t="s">
         <v>110</v>
@@ -2416,8 +2768,10 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A52" s="5"/>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
         <v>139</v>
@@ -2437,7 +2791,7 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="38" t="s">
         <v>99</v>
@@ -2452,8 +2806,10 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="5"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
         <v>31</v>
@@ -2473,8 +2829,10 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
         <v>34</v>
@@ -2494,8 +2852,10 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="5"/>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6" t="s">
         <v>39</v>
@@ -2515,8 +2875,10 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A57" s="5"/>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
         <v>40</v>
@@ -2536,8 +2898,10 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="5"/>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
         <v>41</v>
@@ -2561,8 +2925,10 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="5"/>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
         <v>42</v>
@@ -2586,8 +2952,10 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
         <v>43</v>
@@ -2611,8 +2979,10 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
         <v>44</v>
@@ -2636,8 +3006,10 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="5"/>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
         <v>47</v>
@@ -2661,8 +3033,10 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="5"/>
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
         <v>48</v>
@@ -2686,8 +3060,10 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="5"/>
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
         <v>59</v>
@@ -2707,8 +3083,10 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A65" s="5"/>
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
         <v>64</v>
@@ -2732,8 +3110,10 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A66" s="5"/>
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
         <v>81</v>
@@ -2753,8 +3133,10 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
         <v>86</v>
@@ -2774,8 +3156,10 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A68" s="5"/>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
         <v>90</v>
@@ -2795,8 +3179,10 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A69" s="5"/>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
         <v>162</v>
@@ -2816,7 +3202,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="38" t="s">
         <v>100</v>
@@ -2831,8 +3217,10 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A71" s="5"/>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
         <v>37</v>
@@ -2851,8 +3239,10 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="5"/>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
         <v>38</v>
@@ -2872,8 +3262,10 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A73" s="5"/>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
         <v>82</v>
@@ -2893,8 +3285,10 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A74" s="5"/>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
         <v>87</v>
@@ -2914,7 +3308,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="38" t="s">
         <v>101</v>
@@ -2929,8 +3323,10 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A76" s="5"/>
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
         <v>50</v>
@@ -2950,8 +3346,10 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A77" s="5"/>
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
         <v>58</v>
@@ -2971,7 +3369,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="38" t="s">
         <v>102</v>
@@ -2986,8 +3384,10 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="5"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
         <v>67</v>
@@ -3007,8 +3407,10 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A80" s="5"/>
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
         <v>68</v>
@@ -3028,8 +3430,10 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A81" s="5"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
         <v>69</v>
@@ -3053,8 +3457,10 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="66" x14ac:dyDescent="0.45">
-      <c r="A82" s="5"/>
+    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="32" t="s">
         <v>138</v>
@@ -3074,8 +3480,10 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A83" s="5"/>
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
         <v>88</v>
@@ -3095,8 +3503,10 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A84" s="5"/>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
         <v>111</v>
@@ -3120,8 +3530,10 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
         <v>140</v>
@@ -3141,8 +3553,10 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A86" s="5"/>
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
         <v>112</v>
@@ -3162,8 +3576,10 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A87" s="5"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
         <v>113</v>
@@ -3183,8 +3599,10 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A88" s="5"/>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
         <v>114</v>
@@ -3204,8 +3622,10 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A89" s="5"/>
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
         <v>80</v>
@@ -3225,8 +3645,10 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A90" s="5"/>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
         <v>115</v>
@@ -3246,8 +3668,10 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A91" s="5"/>
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
         <v>116</v>
@@ -3267,8 +3691,10 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="33" x14ac:dyDescent="0.45">
-      <c r="A92" s="5"/>
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
         <v>117</v>
@@ -3365,21 +3791,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="71.73046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
         <v>118</v>
       </c>
@@ -3391,7 +3817,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>120</v>
       </c>
@@ -3406,7 +3832,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>136</v>
       </c>
@@ -3420,7 +3846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>135</v>
       </c>
@@ -3430,7 +3856,7 @@
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>134</v>
       </c>
@@ -3440,7 +3866,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>133</v>
       </c>
@@ -3450,7 +3876,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>132</v>
       </c>
@@ -3460,7 +3886,7 @@
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>131</v>
       </c>
@@ -3470,7 +3896,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>130</v>
       </c>
@@ -3480,7 +3906,7 @@
       </c>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>129</v>
       </c>
@@ -3490,7 +3916,7 @@
       </c>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
@@ -3499,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" s="15" t="s">
         <v>127</v>
       </c>
@@ -3508,7 +3934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13" s="15" t="s">
         <v>128</v>
       </c>
@@ -3542,9 +3968,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3566,7 +3992,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3577,7 +4003,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3588,7 +4014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3596,12 +4022,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>28</v>
       </c>
@@ -3612,33 +4038,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Training_x0020_Document xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">false</Training_x0020_Document>
-    <Status xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">In Progress</Status>
-    <Path_All xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b" xsi:nil="true"/>
-    <State xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">N/A</State>
-    <_Contributor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Project_x002f_Task xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">Provider Screening</Project_x002f_Task>
-    <Comments_from_Title xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b" xsi:nil="true"/>
-    <Document_x0020_Owner xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">Cheng, Bill Y.</Document_x0020_Owner>
-    <MITRE_x0020_Sensitivity xmlns="http://schemas.microsoft.com/sharepoint/v3">Internal MITRE Information</MITRE_x0020_Sensitivity>
-    <Release_x0020_Statement xmlns="http://schemas.microsoft.com/sharepoint/v3">For Internal MITRE Use</Release_x0020_Statement>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Working Document" ma:contentTypeID="0x010100823A99C636F7423283FB0D200866C61300AE1A2994EE84A84F9E74D345EED6B3D10088ECA138718353438D4A052900881425" ma:contentTypeVersion="16" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2a4c09df1e3a62c3b12fd7b7bb235f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4d3e69fe-1b8b-4540-be82-e253ea88466b" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc421a2e084d263ad97b084ca96adad2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3934,42 +4342,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Training_x0020_Document xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">false</Training_x0020_Document>
+    <Status xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">In Progress</Status>
+    <Path_All xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b" xsi:nil="true"/>
+    <State xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">N/A</State>
+    <_Contributor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Project_x002f_Task xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">Provider Screening</Project_x002f_Task>
+    <Comments_from_Title xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b" xsi:nil="true"/>
+    <Document_x0020_Owner xmlns="4d3e69fe-1b8b-4540-be82-e253ea88466b">Cheng, Bill Y.</Document_x0020_Owner>
+    <MITRE_x0020_Sensitivity xmlns="http://schemas.microsoft.com/sharepoint/v3">Internal MITRE Information</MITRE_x0020_Sensitivity>
+    <Release_x0020_Statement xmlns="http://schemas.microsoft.com/sharepoint/v3">For Internal MITRE Use</Release_x0020_Statement>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A997B3-F88D-47E7-B797-DF0C796DC9A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5057FD5-666C-43F9-B052-DCBEC34E095F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d3e69fe-1b8b-4540-be82-e253ea88466b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C8154B-3453-4080-801A-FE2EC194234B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3879E760-9447-4C31-8A25-266CCF95C142}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3989,10 +4397,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C8154B-3453-4080-801A-FE2EC194234B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5057FD5-666C-43F9-B052-DCBEC34E095F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A997B3-F88D-47E7-B797-DF0C796DC9A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d3e69fe-1b8b-4540-be82-e253ea88466b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -2520,7 +2520,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2573,10 +2573,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2595,10 +2591,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2629,16 +2621,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2655,10 +2639,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2781,8 +2761,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2882,9 +2862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1913760</xdr:colOff>
+      <xdr:colOff>1913400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2894,7 +2874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="634680" y="0"/>
-          <a:ext cx="1913760" cy="676080"/>
+          <a:ext cx="1913400" cy="675720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2949,18 +2929,20 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="73.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="32.87"/>
@@ -3098,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
@@ -3125,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="7"/>
@@ -3133,10 +3115,10 @@
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="10"/>
@@ -3171,7 +3153,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
@@ -3190,19 +3172,19 @@
         <v>42</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -3212,11 +3194,11 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="7" t="n">
@@ -3225,10 +3207,10 @@
       <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -3262,7 +3244,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="10"/>
@@ -3316,7 +3298,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="99.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="10"/>
@@ -3368,7 +3350,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="10"/>
@@ -3422,7 +3404,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
@@ -3468,7 +3450,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="10"/>
@@ -3514,7 +3496,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="10"/>
@@ -3542,8 +3524,8 @@
       <c r="A24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="7" t="n">
@@ -3568,11 +3550,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="7" t="n">
@@ -3618,11 +3600,11 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="7"/>
@@ -3630,10 +3612,10 @@
       <c r="F27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>94</v>
       </c>
       <c r="I27" s="10"/>
@@ -3644,7 +3626,7 @@
       <c r="A28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>96</v>
       </c>
@@ -3653,10 +3635,10 @@
       <c r="F28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="10"/>
@@ -3690,7 +3672,7 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="6" t="s">
         <v>100</v>
       </c>
@@ -3709,7 +3691,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="7"/>
@@ -3720,7 +3702,7 @@
       <c r="G31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="8"/>
@@ -3755,7 +3737,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D33" s="7"/>
@@ -3766,7 +3748,7 @@
       <c r="G33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I33" s="10"/>
@@ -3907,10 +3889,10 @@
       <c r="F39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="10"/>
@@ -4055,7 +4037,7 @@
       <c r="F45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -4078,10 +4060,10 @@
       <c r="F46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I46" s="10"/>
@@ -4101,10 +4083,10 @@
       <c r="F47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I47" s="10"/>
@@ -4124,10 +4106,10 @@
       <c r="F48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I48" s="10"/>
@@ -4147,10 +4129,10 @@
       <c r="F49" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I49" s="10"/>
@@ -4170,7 +4152,7 @@
       <c r="F50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -4193,10 +4175,10 @@
       <c r="F51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I51" s="10"/>
@@ -4216,10 +4198,10 @@
       <c r="F52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I52" s="10"/>
@@ -4239,7 +4221,7 @@
       <c r="F53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -4277,7 +4259,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="6" t="s">
         <v>159</v>
       </c>
@@ -4342,7 +4324,7 @@
         <v>164</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>165</v>
       </c>
       <c r="D58" s="7"/>
@@ -4358,7 +4340,7 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
@@ -4411,7 +4393,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="6" t="s">
         <v>172</v>
       </c>
@@ -4454,8 +4436,8 @@
       <c r="A63" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="s">
         <v>177</v>
       </c>
       <c r="D63" s="7" t="n">
@@ -4483,8 +4465,8 @@
       <c r="A64" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="13" t="s">
         <v>180</v>
       </c>
       <c r="D64" s="7" t="n">
@@ -4527,7 +4509,7 @@
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
-      <c r="K65" s="21"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
@@ -4545,7 +4527,7 @@
       <c r="G66" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I66" s="10"/>
@@ -4557,7 +4539,7 @@
         <v>186</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="7"/>
@@ -4573,14 +4555,14 @@
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="7"/>
@@ -4594,14 +4576,14 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="21"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D69" s="7"/>
@@ -4610,7 +4592,7 @@
         <v>70</v>
       </c>
       <c r="G69" s="11"/>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="10"/>
@@ -4618,7 +4600,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="6" t="s">
         <v>192</v>
       </c>
@@ -4714,10 +4696,10 @@
       <c r="F74" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I74" s="10"/>
@@ -4769,7 +4751,7 @@
         <v>49</v>
       </c>
       <c r="I76" s="10"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
@@ -4799,7 +4781,7 @@
         <v>210</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>211</v>
       </c>
       <c r="D78" s="7"/>
@@ -4812,10 +4794,10 @@
         <v>49</v>
       </c>
       <c r="I78" s="10"/>
-      <c r="K78" s="23"/>
+      <c r="K78" s="21"/>
     </row>
     <row r="79" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="6" t="s">
         <v>212</v>
       </c>
@@ -5004,7 +4986,7 @@
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
@@ -5115,7 +5097,7 @@
         <v>235</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="13" t="s">
         <v>236</v>
       </c>
       <c r="D91" s="7"/>
@@ -5132,7 +5114,7 @@
       <c r="K91" s="10"/>
     </row>
     <row r="92" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="6" t="s">
         <v>237</v>
       </c>
@@ -5167,7 +5149,7 @@
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
@@ -5243,7 +5225,7 @@
         <v>250</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D97" s="7"/>
@@ -5260,7 +5242,7 @@
       <c r="K97" s="10"/>
     </row>
     <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="6" t="s">
         <v>252</v>
       </c>
@@ -5393,7 +5375,7 @@
       <c r="K103" s="10"/>
     </row>
     <row r="104" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="6" t="s">
         <v>266</v>
       </c>
@@ -5415,8 +5397,8 @@
       <c r="C105" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="7" t="s">
         <v>14</v>
       </c>
@@ -5445,16 +5427,16 @@
     <mergeCell ref="B104:C104"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E62:E69 E71:E78 E80:E91 E93:E95 E97 E99:E103 E105" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H71 H75 H80:H82 H89 H91 H93:H97 H99:H102 H105" type="list">
       <formula1>$C$5:$C$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D62:D69 D71:D78 D80:D91 D93:D95 D97 D99:D103 D105" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E62:E69 E71:E78 E80:E91 E93:E95 E97 E99:E103 E105" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H56:H59 H62 H65:H69 H72:H74 H76:H78" type="list">
@@ -5524,386 +5506,386 @@
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" s="27" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="33" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="29" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" s="34" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" s="34" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+    <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" s="34" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="33" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28" t="s">
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" s="34" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" s="34" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="D17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="36"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H17"/>
@@ -5951,317 +5933,317 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="73.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="34" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="35" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="30" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28" t="s">
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" s="27" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+    <row r="10" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="36" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+    <row r="11" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="36" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+    <row r="12" s="4" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" s="27" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="D13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" s="27" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H14">
@@ -6315,497 +6297,497 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="73.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="34" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="35" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="30" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="71.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="32" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="32" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="32" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="32" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="29" t="n">
+      <c r="D21" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="29" t="n">
+      <c r="D22" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="0" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6855,7 +6837,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
@@ -6864,357 +6846,357 @@
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" s="34" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" s="34" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="35" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="30" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="29" t="n">
+      <c r="D8" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="41" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="30" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" s="34" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="35" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="30" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7272,856 +7254,856 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="73.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="34" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="32" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="D9" s="29" t="n">
+      <c r="D9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="32" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="32" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="32" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="32" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="32" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="32" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="32" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28" t="s">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="32" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" s="27" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23"/>
+      <c r="B23" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="93.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="32" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="D25" s="26" t="n">
+      <c r="D25" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="32" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="32" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30" t="s">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="32" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="32" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="32" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="32" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="32" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="32" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="32" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30" t="s">
+      <c r="G35" s="26"/>
+      <c r="H35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="32" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="32" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="32" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30" t="s">
+      <c r="G38" s="26"/>
+      <c r="H38" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="D39" s="29" t="n">
+      <c r="D39" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30" t="s">
+      <c r="G39" s="26"/>
+      <c r="H39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="32" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30" t="s">
+      <c r="G40" s="26"/>
+      <c r="H40" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H40">
@@ -8176,148 +8158,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="71.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="6.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="43" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="71.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="25.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="38" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>557</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="47" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="n">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55" t="n">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="52" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55" t="n">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="n">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="n">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="51" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="n">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="n">
+      <c r="C10" s="49"/>
+      <c r="D10" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="D11" s="59" t="n">
+      <c r="D11" s="54" t="n">
         <f aca="false">SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="D12" s="60" t="n">
+      <c r="D12" s="55" t="n">
         <f aca="false">COUNT(D4:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="D13" s="61" t="n">
+      <c r="D13" s="56" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
         <v>0</v>
       </c>
@@ -8358,149 +8340,149 @@
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="32.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" s="34" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="31" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="31" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H6"/>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,9 +14,10 @@
     <sheet name="Information Architecture" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Integration and Utility" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Access and Delivery" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Performance" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="Pharmacy (MMIS)" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Selections" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Development and Maintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Performance" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="Pharmacy (MMIS)" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Selections" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Access and Delivery'!$H$1:$H$40</definedName>
@@ -24,7 +25,7 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$23</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integration and Utility'!$H$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Intermediary &amp; Interface'!$H$1:$H$17</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Pharmacy (MMIS)'!$H$1:$H$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Pharmacy (MMIS)'!$H$1:$H$6</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Standards and Conditions'!$H$1:$H$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="612">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -2138,6 +2139,90 @@
   </si>
   <si>
     <t xml:space="preserve">TA.SP.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall have an open source repository and source code base organized to be welcoming to outside contributors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall include and undergo automated testing at regular intervals, through continuous integration and deployment processes.  The PSM shall also undergo manual testing and QA as needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall use documented build, test, release, and installation processes that are automated as much as possible, for both development and production use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall use D.R.Y. coding principles to avoid unnecessary complexity, inflexibility, redundancy, and denormalization in the source code and database schemas, and to use precise terminology in data structures and operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall use system resources efficiently and in proportion to operational demands and data size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall be configurable where feasible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall be secure from unauthorized access or use, and shall sanitize inputs and outputs where possible so as to avoid compromising itself or other systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall be accessible in compliance with Section 508 of the Rehabilitation Act.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM's user interface shall be as simple, comprehensible, navigable, reliable, robust in the face of error, and responsive as possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall support searching and pattern-matching based on all fields accepted as input (and based on all reasonable combinations of such fields).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall have the ability to enforce limits on the number of providers of a given type enrolled simultaneously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall support admin-configurable automated re-screening.  C.f. psm-FR-7.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-DM-3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall support provider agents (a.k.a. service agents a.k.a. non-provider users) who act on a provider's behalf and whose authorization may be a subset of that provider's.</t>
   </si>
   <si>
     <t xml:space="preserve">Means of demonstrating compliance ---&gt;</t>
@@ -2520,7 +2605,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2671,6 +2756,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2862,9 +2963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1913400</xdr:colOff>
+      <xdr:colOff>1913040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2874,7 +2975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="634680" y="0"/>
-          <a:ext cx="1913400" cy="675720"/>
+          <a:ext cx="1913040" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2929,10 +3030,10 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5490,6 +5591,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5498,9 +5693,9 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7249,7 +7444,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8121,16 +8316,16 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E40" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D40" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H40" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E40" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8150,6 +8345,344 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D15" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H15" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E15" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -8158,148 +8691,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="71.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="6.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="38" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="71.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="42" width="25.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="42" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="C1" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>554</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>559</v>
+      <c r="B3" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="n">
+      <c r="B4" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="n">
+      <c r="B5" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="n">
+      <c r="B6" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="n">
+      <c r="B7" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="n">
+      <c r="B8" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="n">
+      <c r="B9" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50" t="n">
+      <c r="B10" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="53" t="s">
-        <v>567</v>
-      </c>
-      <c r="D11" s="54" t="n">
+      <c r="C11" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="58" t="n">
         <f aca="false">SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="D12" s="55" t="n">
+      <c r="C12" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="59" t="n">
         <f aca="false">COUNT(D4:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="D13" s="56" t="n">
+      <c r="C13" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="D13" s="60" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
         <v>0</v>
       </c>
@@ -8326,7 +8859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8388,7 +8921,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23"/>
       <c r="B2" s="25" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="24"/>
@@ -8402,16 +8935,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="27" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26" t="s">
@@ -8423,16 +8956,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="57" t="s">
-        <v>575</v>
+      <c r="C4" s="61" t="s">
+        <v>603</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="27" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
@@ -8444,16 +8977,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="27" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26" t="s">
@@ -8465,16 +8998,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="27" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26" t="s">
@@ -8512,98 +9045,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A3:C10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Information Architecture" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Integration and Utility" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Access and Delivery" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Development and Maintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Software Quality" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Performance" sheetId="8" state="hidden" r:id="rId9"/>
     <sheet name="Pharmacy (MMIS)" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Selections" sheetId="10" state="visible" r:id="rId11"/>
@@ -2141,85 +2141,85 @@
     <t xml:space="preserve">TA.SP.74</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.1</t>
+    <t xml:space="preserve">psm-SQ-1.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall have an open source repository and source code base organized to be welcoming to outside contributors.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.2</t>
+    <t xml:space="preserve">psm-SQ-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall include and undergo automated testing at regular intervals, through continuous integration and deployment processes.  The PSM shall also undergo manual testing and QA as needed.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.3</t>
+    <t xml:space="preserve">psm-SQ-1.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.4</t>
+    <t xml:space="preserve">psm-SQ-1.4</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use documented build, test, release, and installation processes that are automated as much as possible, for both development and production use.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.5</t>
+    <t xml:space="preserve">psm-SQ-1.5</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use D.R.Y. coding principles to avoid unnecessary complexity, inflexibility, redundancy, and denormalization in the source code and database schemas, and to use precise terminology in data structures and operations.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-1.6</t>
+    <t xml:space="preserve">psm-SQ-1.6</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use system resources efficiently and in proportion to operational demands and data size.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-2.1</t>
+    <t xml:space="preserve">psm-SQ-2.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall be configurable where feasible.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-2.3</t>
+    <t xml:space="preserve">psm-SQ-2.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall be secure from unauthorized access or use, and shall sanitize inputs and outputs where possible so as to avoid compromising itself or other systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.1</t>
+    <t xml:space="preserve">psm-SQ-3.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall be accessible in compliance with Section 508 of the Rehabilitation Act.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.2</t>
+    <t xml:space="preserve">psm-SQ-3.2</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM's user interface shall be as simple, comprehensible, navigable, reliable, robust in the face of error, and responsive as possible.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.3</t>
+    <t xml:space="preserve">psm-SQ-3.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support searching and pattern-matching based on all fields accepted as input (and based on all reasonable combinations of such fields).</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.4</t>
+    <t xml:space="preserve">psm-SQ-3.4</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall have the ability to enforce limits on the number of providers of a given type enrolled simultaneously.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.5</t>
+    <t xml:space="preserve">psm-SQ-3.5</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support admin-configurable automated re-screening.  C.f. psm-FR-7.3.</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-DM-3.6</t>
+    <t xml:space="preserve">psm-SQ-3.6</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support provider agents (a.k.a. service agents a.k.a. non-provider users) who act on a provider's behalf and whose authorization may be a subset of that provider's.</t>
@@ -5693,7 +5693,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
@@ -8348,7 +8348,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="614">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -1502,6 +1502,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.  S&amp;C:  Modularity Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-SA-4.0</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use regionally standardized business rule definitions in both human and machine-readable formats.</t>
@@ -2615,7 +2618,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2724,10 +2727,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2741,10 +2740,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2781,18 +2776,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2979,7 +2962,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2996,8 +2979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634680" y="0"/>
-          <a:ext cx="1913040" cy="675360"/>
+          <a:off x="635400" y="0"/>
+          <a:ext cx="1912320" cy="675360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3052,10 +3035,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8348,7 +8331,7 @@
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G95" s="20"/>
@@ -9380,11 +9363,11 @@
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G96" s="20"/>
-      <c r="H96" s="28" t="s">
+      <c r="H96" s="27" t="s">
         <v>49</v>
       </c>
       <c r="I96" s="20"/>
@@ -10688,8 +10671,8 @@
       <c r="C110" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
       <c r="F110" s="7" t="s">
         <v>14</v>
       </c>
@@ -10713,11 +10696,11 @@
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="28" t="s">
+      <c r="H111" s="27" t="s">
         <v>49</v>
       </c>
       <c r="I111" s="20"/>
@@ -11752,35 +11735,35 @@
     <mergeCell ref="B109:C109"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E98:E100 E102 E104:E108 E110" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E98:E100 E102 E104:E108 E110" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D96 D111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D98:D100 D102 D104:D108 D110" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H96 H111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H98:H102 H104:H107 H110" type="list">
+      <formula1>$C$5:$C$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H108" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E96 E111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H56:H59 H65 H68:H72 H75:H77 H79:H81" type="list">
+      <formula1>Selections!$C$5:$C$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D96 D111" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E96 E111" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H98:H102 H104:H107 H110" type="list">
-      <formula1>$C$5:$C$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D98:D100 D102 D104:D108 D110" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H56:H59 H65 H68:H72 H75:H77 H79:H81" type="list">
-      <formula1>Selections!$C$5:$C$9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H108" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H96 H111" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11845,7 +11828,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -11907,7 +11890,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -11948,10 +11931,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -11983,11 +11966,11 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="9"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -12002,7 +11985,7 @@
         <v>283</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>284</v>
       </c>
       <c r="D3" s="9" t="n">
@@ -12011,7 +11994,7 @@
       <c r="E3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>285</v>
       </c>
       <c r="G3" s="20"/>
@@ -12023,11 +12006,11 @@
       <c r="K3" s="20"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9"/>
       <c r="E4" s="20"/>
       <c r="F4" s="7"/>
@@ -12042,12 +12025,12 @@
         <v>287</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>288</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>289</v>
       </c>
       <c r="G5" s="20"/>
@@ -12056,7 +12039,7 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="32" t="s">
         <v>290</v>
       </c>
     </row>
@@ -12065,12 +12048,12 @@
         <v>291</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="24" t="s">
         <v>292</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>293</v>
       </c>
       <c r="G6" s="20"/>
@@ -12086,7 +12069,7 @@
         <v>294</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>295</v>
       </c>
       <c r="D7" s="9" t="n">
@@ -12095,7 +12078,7 @@
       <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>296</v>
       </c>
       <c r="G7" s="20"/>
@@ -12113,12 +12096,12 @@
         <v>298</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="24" t="s">
         <v>299</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="31" t="s">
         <v>300</v>
       </c>
       <c r="G8" s="20"/>
@@ -12134,12 +12117,12 @@
         <v>301</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>302</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>303</v>
       </c>
       <c r="G9" s="20"/>
@@ -12148,16 +12131,16 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="33" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9"/>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -12172,12 +12155,12 @@
         <v>306</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="24" t="s">
         <v>307</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>308</v>
       </c>
       <c r="G11" s="20"/>
@@ -12193,12 +12176,12 @@
         <v>309</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="24" t="s">
         <v>310</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>311</v>
       </c>
       <c r="G12" s="20"/>
@@ -12207,16 +12190,16 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="32" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -12231,12 +12214,12 @@
         <v>314</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="24" t="s">
         <v>315</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>316</v>
       </c>
       <c r="G14" s="20"/>
@@ -12252,12 +12235,12 @@
         <v>317</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>318</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="31" t="s">
         <v>319</v>
       </c>
       <c r="G15" s="20"/>
@@ -12273,7 +12256,7 @@
         <v>320</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="24" t="s">
         <v>321</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -12282,7 +12265,7 @@
       <c r="E16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>322</v>
       </c>
       <c r="G16" s="22"/>
@@ -12291,14 +12274,14 @@
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
         <v>323</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="24" t="s">
         <v>324</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -12307,7 +12290,7 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>322</v>
       </c>
       <c r="G17" s="22"/>
@@ -12316,14 +12299,14 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
         <v>325</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="24" t="s">
         <v>326</v>
       </c>
       <c r="D18" s="22"/>
@@ -12348,19 +12331,19 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12384,7 +12367,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12401,10 +12384,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -12435,12 +12418,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -12450,17 +12433,17 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>328</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>329</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="35" t="s">
         <v>330</v>
       </c>
       <c r="G3" s="20"/>
@@ -12471,12 +12454,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
@@ -12486,35 +12469,35 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
         <v>332</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>333</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>334</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="36" t="s">
         <v>94</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="33" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="7"/>
@@ -12529,12 +12512,12 @@
         <v>337</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>338</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>339</v>
       </c>
       <c r="G7" s="20"/>
@@ -12547,12 +12530,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="7"/>
@@ -12562,31 +12545,33 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32" t="s">
+    <row r="9" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
         <v>342</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
+        <v>343</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="39" t="s">
-        <v>343</v>
+      <c r="F9" s="37" t="s">
+        <v>344</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
         <v>346</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>2</v>
@@ -12594,7 +12579,7 @@
       <c r="E10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="31" t="s">
         <v>322</v>
       </c>
       <c r="G10" s="22"/>
@@ -12603,17 +12588,17 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
         <v>349</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>2</v>
@@ -12621,8 +12606,8 @@
       <c r="E11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>350</v>
+      <c r="F11" s="31" t="s">
+        <v>351</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
@@ -12630,22 +12615,22 @@
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="36" t="s">
-        <v>347</v>
+      <c r="K11" s="34" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
         <v>352</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>353</v>
+      <c r="F12" s="31" t="s">
+        <v>354</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20" t="s">
@@ -12657,11 +12642,11 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
         <v>355</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="24" t="s">
+        <v>356</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>1</v>
@@ -12669,8 +12654,8 @@
       <c r="E13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>356</v>
+      <c r="F13" s="31" t="s">
+        <v>357</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="20" t="s">
@@ -12682,16 +12667,16 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
         <v>358</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>359</v>
+      <c r="F14" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="20" t="s">
@@ -12716,16 +12701,16 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12747,8 +12732,8 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12765,10 +12750,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -12799,12 +12784,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -12814,18 +12799,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>362</v>
+      <c r="C3" s="24" t="s">
+        <v>363</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="37" t="s">
-        <v>363</v>
+      <c r="F3" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12834,21 +12819,21 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>366</v>
+      <c r="C4" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="33" t="s">
-        <v>367</v>
+      <c r="F4" s="31" t="s">
+        <v>368</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -12858,12 +12843,12 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="31"/>
+    <row r="5" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="7"/>
@@ -12873,18 +12858,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>370</v>
+      <c r="C6" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="33" t="s">
-        <v>371</v>
+      <c r="F6" s="31" t="s">
+        <v>372</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12894,18 +12879,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>373</v>
+      <c r="C7" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="33" t="s">
-        <v>374</v>
+      <c r="F7" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12915,12 +12900,12 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="31"/>
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="7"/>
@@ -12930,18 +12915,18 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
-        <v>377</v>
+      <c r="C9" s="24" t="s">
+        <v>378</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="33" t="s">
-        <v>378</v>
+      <c r="F9" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12951,13 +12936,13 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="32" t="s">
-        <v>380</v>
+      <c r="C10" s="24" t="s">
+        <v>381</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>1</v>
@@ -12965,8 +12950,8 @@
       <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>381</v>
+      <c r="F10" s="31" t="s">
+        <v>382</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
@@ -12974,17 +12959,17 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="35" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
-        <v>384</v>
+      <c r="C11" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>1</v>
@@ -12992,8 +12977,8 @@
       <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>385</v>
+      <c r="F11" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13003,18 +12988,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>387</v>
+      <c r="C12" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>388</v>
+      <c r="F12" s="31" t="s">
+        <v>389</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13023,21 +13008,21 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="32" t="s">
-        <v>391</v>
+      <c r="C13" s="24" t="s">
+        <v>392</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="33" t="s">
-        <v>392</v>
+      <c r="F13" s="31" t="s">
+        <v>393</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
@@ -13047,18 +13032,18 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>394</v>
+      <c r="C14" s="24" t="s">
+        <v>395</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>395</v>
+      <c r="F14" s="31" t="s">
+        <v>396</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13068,18 +13053,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="71.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>397</v>
+      <c r="C15" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="33" t="s">
-        <v>398</v>
+      <c r="F15" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13089,21 +13074,21 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
-        <v>400</v>
+      <c r="C16" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="33" t="s">
-        <v>401</v>
+      <c r="F16" s="31" t="s">
+        <v>402</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>108</v>
@@ -13112,18 +13097,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
-        <v>404</v>
+      <c r="C17" s="24" t="s">
+        <v>405</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="33" t="s">
-        <v>405</v>
+      <c r="F17" s="31" t="s">
+        <v>406</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -13133,12 +13118,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="31"/>
+    <row r="18" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="30"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="7"/>
@@ -13150,16 +13135,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="32" t="s">
-        <v>408</v>
+      <c r="C19" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
-        <v>409</v>
+      <c r="F19" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -13169,18 +13154,18 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="32" t="s">
-        <v>411</v>
+      <c r="C20" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="33" t="s">
-        <v>412</v>
+      <c r="F20" s="31" t="s">
+        <v>413</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
@@ -13190,13 +13175,13 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="32" t="s">
-        <v>414</v>
+      <c r="C21" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>4</v>
@@ -13204,11 +13189,11 @@
       <c r="E21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>415</v>
+      <c r="F21" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>21</v>
@@ -13217,13 +13202,13 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="32" t="s">
-        <v>417</v>
+      <c r="C22" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>4</v>
@@ -13231,8 +13216,8 @@
       <c r="E22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>418</v>
+      <c r="F22" s="31" t="s">
+        <v>419</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -13242,9 +13227,9 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -13262,16 +13247,16 @@
     <mergeCell ref="B18:C18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -13294,9 +13279,9 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13313,10 +13298,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -13347,12 +13332,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -13362,13 +13347,13 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>422</v>
+      <c r="C3" s="24" t="s">
+        <v>423</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -13376,8 +13361,8 @@
       <c r="E3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>423</v>
+      <c r="F3" s="31" t="s">
+        <v>424</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13387,12 +13372,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="C4" s="31"/>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="7"/>
@@ -13402,18 +13387,18 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>426</v>
+      <c r="C5" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="33" t="s">
-        <v>427</v>
+      <c r="F5" s="31" t="s">
+        <v>428</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13421,17 +13406,17 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>430</v>
+      <c r="C6" s="24" t="s">
+        <v>431</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>2</v>
@@ -13439,8 +13424,8 @@
       <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>431</v>
+      <c r="F6" s="31" t="s">
+        <v>432</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13450,18 +13435,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>433</v>
+      <c r="C7" s="24" t="s">
+        <v>434</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="33" t="s">
-        <v>434</v>
+      <c r="F7" s="31" t="s">
+        <v>435</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -13471,13 +13456,13 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>436</v>
+      <c r="C8" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>3</v>
@@ -13485,8 +13470,8 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>437</v>
+      <c r="F8" s="31" t="s">
+        <v>438</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13496,18 +13481,18 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="39" t="s">
-        <v>439</v>
+      <c r="C9" s="37" t="s">
+        <v>440</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="40" t="s">
-        <v>440</v>
+      <c r="F9" s="38" t="s">
+        <v>441</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13515,16 +13500,16 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="K9" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="31"/>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="22"/>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -13536,16 +13521,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="40" t="s">
-        <v>444</v>
+      <c r="C11" s="38" t="s">
+        <v>445</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="33" t="s">
-        <v>445</v>
+      <c r="F11" s="31" t="s">
+        <v>446</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13555,18 +13540,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>447</v>
+      <c r="C12" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="33" t="s">
-        <v>448</v>
+      <c r="F12" s="31" t="s">
+        <v>449</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13576,12 +13561,12 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="31"/>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -13591,18 +13576,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>451</v>
+      <c r="C14" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="33" t="s">
-        <v>452</v>
+      <c r="F14" s="31" t="s">
+        <v>453</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13612,18 +13597,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>454</v>
+      <c r="C15" s="24" t="s">
+        <v>455</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="33" t="s">
-        <v>455</v>
+      <c r="F15" s="31" t="s">
+        <v>456</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13635,16 +13620,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="39" t="s">
-        <v>457</v>
+      <c r="C16" s="37" t="s">
+        <v>458</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="40" t="s">
-        <v>458</v>
+      <c r="F16" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -13652,8 +13637,8 @@
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="35" t="s">
-        <v>441</v>
+      <c r="K16" s="33" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -13671,15 +13656,15 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13703,9 +13688,9 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13722,10 +13707,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -13756,12 +13741,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -13771,18 +13756,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="40" t="s">
-        <v>461</v>
+      <c r="C3" s="38" t="s">
+        <v>462</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="41" t="s">
-        <v>462</v>
+      <c r="F3" s="39" t="s">
+        <v>463</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13792,18 +13777,18 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>464</v>
+      <c r="C4" s="24" t="s">
+        <v>465</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="33" t="s">
-        <v>465</v>
+      <c r="F4" s="31" t="s">
+        <v>466</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -13813,18 +13798,18 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>467</v>
+      <c r="C5" s="24" t="s">
+        <v>468</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="33" t="s">
-        <v>468</v>
+      <c r="F5" s="31" t="s">
+        <v>469</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13834,18 +13819,18 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>470</v>
+      <c r="C6" s="24" t="s">
+        <v>471</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="33" t="s">
-        <v>471</v>
+      <c r="F6" s="31" t="s">
+        <v>472</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13855,12 +13840,12 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="31"/>
+    <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="7"/>
@@ -13870,18 +13855,18 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>474</v>
+      <c r="C8" s="24" t="s">
+        <v>475</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="33" t="s">
-        <v>475</v>
+      <c r="F8" s="31" t="s">
+        <v>476</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13891,13 +13876,13 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
-        <v>477</v>
+      <c r="C9" s="24" t="s">
+        <v>478</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -13905,8 +13890,8 @@
       <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>478</v>
+      <c r="F9" s="31" t="s">
+        <v>479</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13916,39 +13901,39 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="32" t="s">
-        <v>480</v>
+      <c r="C10" s="24" t="s">
+        <v>481</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="33" t="s">
-        <v>481</v>
+      <c r="F10" s="31" t="s">
+        <v>482</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
-        <v>483</v>
+      <c r="C11" s="24" t="s">
+        <v>484</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="33" t="s">
-        <v>484</v>
+      <c r="F11" s="31" t="s">
+        <v>485</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13960,16 +13945,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>486</v>
+      <c r="C12" s="24" t="s">
+        <v>487</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>487</v>
+      <c r="F12" s="31" t="s">
+        <v>488</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13979,12 +13964,12 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="31"/>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="7"/>
@@ -13994,18 +13979,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>490</v>
+      <c r="C14" s="24" t="s">
+        <v>491</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>491</v>
+      <c r="F14" s="31" t="s">
+        <v>492</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -14015,18 +14000,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>493</v>
+      <c r="C15" s="24" t="s">
+        <v>494</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="33" t="s">
-        <v>494</v>
+      <c r="F15" s="31" t="s">
+        <v>495</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -14036,18 +14021,18 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
-        <v>496</v>
+      <c r="C16" s="24" t="s">
+        <v>497</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="33" t="s">
-        <v>497</v>
+      <c r="F16" s="31" t="s">
+        <v>498</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -14057,18 +14042,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
-        <v>499</v>
+      <c r="C17" s="24" t="s">
+        <v>500</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="33" t="s">
-        <v>500</v>
+      <c r="F17" s="31" t="s">
+        <v>501</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -14078,18 +14063,18 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="32" t="s">
-        <v>502</v>
+      <c r="C18" s="24" t="s">
+        <v>503</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="33" t="s">
-        <v>503</v>
+      <c r="F18" s="31" t="s">
+        <v>504</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -14099,18 +14084,18 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="32" t="s">
-        <v>505</v>
+      <c r="C19" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
-        <v>506</v>
+      <c r="F19" s="31" t="s">
+        <v>507</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -14120,12 +14105,12 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="31"/>
+    <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="7"/>
@@ -14135,18 +14120,18 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="32" t="s">
-        <v>509</v>
+      <c r="C21" s="24" t="s">
+        <v>510</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="33" t="s">
-        <v>510</v>
+      <c r="F21" s="31" t="s">
+        <v>511</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
@@ -14156,18 +14141,18 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="32" t="s">
-        <v>512</v>
+      <c r="C22" s="24" t="s">
+        <v>513</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="33" t="s">
-        <v>513</v>
+      <c r="F22" s="31" t="s">
+        <v>514</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -14177,12 +14162,12 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="C23" s="31"/>
+    <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
       <c r="F23" s="7"/>
@@ -14192,18 +14177,18 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="93.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="40" t="s">
-        <v>516</v>
+      <c r="C24" s="38" t="s">
+        <v>517</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="33" t="s">
-        <v>517</v>
+      <c r="F24" s="31" t="s">
+        <v>518</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
@@ -14213,13 +14198,13 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="32" t="s">
-        <v>519</v>
+      <c r="C25" s="24" t="s">
+        <v>520</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1</v>
@@ -14227,8 +14212,8 @@
       <c r="E25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>520</v>
+      <c r="F25" s="31" t="s">
+        <v>521</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
@@ -14238,18 +14223,18 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="32" t="s">
-        <v>522</v>
+      <c r="C26" s="24" t="s">
+        <v>523</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="33" t="s">
-        <v>523</v>
+      <c r="F26" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
@@ -14261,16 +14246,16 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="32" t="s">
-        <v>525</v>
+      <c r="C27" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="33" t="s">
-        <v>526</v>
+      <c r="F27" s="31" t="s">
+        <v>527</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -14280,18 +14265,18 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="32" t="s">
-        <v>528</v>
+      <c r="C28" s="24" t="s">
+        <v>529</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="33" t="s">
-        <v>529</v>
+      <c r="F28" s="31" t="s">
+        <v>530</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
@@ -14301,18 +14286,18 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="32" t="s">
-        <v>531</v>
+      <c r="C29" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="33" t="s">
-        <v>532</v>
+      <c r="F29" s="31" t="s">
+        <v>533</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
@@ -14322,39 +14307,39 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="32" t="s">
-        <v>534</v>
+      <c r="C30" s="24" t="s">
+        <v>535</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="33" t="s">
-        <v>535</v>
+      <c r="F30" s="31" t="s">
+        <v>536</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="32" t="s">
-        <v>537</v>
+      <c r="C31" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="33" t="s">
-        <v>538</v>
+      <c r="F31" s="31" t="s">
+        <v>539</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
@@ -14364,18 +14349,18 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="32" t="s">
-        <v>540</v>
+      <c r="C32" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="33" t="s">
-        <v>541</v>
+      <c r="F32" s="31" t="s">
+        <v>542</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
@@ -14385,13 +14370,13 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="32" t="s">
-        <v>543</v>
+      <c r="C33" s="24" t="s">
+        <v>544</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
@@ -14399,8 +14384,8 @@
       <c r="E33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>544</v>
+      <c r="F33" s="31" t="s">
+        <v>545</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
@@ -14412,16 +14397,16 @@
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="32" t="s">
-        <v>546</v>
+      <c r="C34" s="24" t="s">
+        <v>547</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="33" t="s">
-        <v>547</v>
+      <c r="F34" s="31" t="s">
+        <v>548</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
@@ -14433,16 +14418,16 @@
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B35" s="20"/>
-      <c r="C35" s="32" t="s">
-        <v>549</v>
+      <c r="C35" s="24" t="s">
+        <v>550</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="33" t="s">
-        <v>550</v>
+      <c r="F35" s="31" t="s">
+        <v>551</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
@@ -14452,18 +14437,18 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="40" t="s">
-        <v>552</v>
+      <c r="C36" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="33" t="s">
-        <v>553</v>
+      <c r="F36" s="31" t="s">
+        <v>554</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
@@ -14473,18 +14458,18 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="32" t="s">
-        <v>555</v>
+      <c r="C37" s="24" t="s">
+        <v>556</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="33" t="s">
-        <v>556</v>
+      <c r="F37" s="31" t="s">
+        <v>557</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
@@ -14496,16 +14481,16 @@
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B38" s="20"/>
-      <c r="C38" s="32" t="s">
-        <v>558</v>
+      <c r="C38" s="24" t="s">
+        <v>559</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="33" t="s">
-        <v>559</v>
+      <c r="F38" s="31" t="s">
+        <v>560</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
@@ -14515,13 +14500,13 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="32" t="s">
-        <v>561</v>
+      <c r="C39" s="24" t="s">
+        <v>562</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>2</v>
@@ -14529,8 +14514,8 @@
       <c r="E39" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>562</v>
+      <c r="F39" s="31" t="s">
+        <v>563</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
@@ -14542,16 +14527,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B40" s="20"/>
-      <c r="C40" s="32" t="s">
-        <v>564</v>
+      <c r="C40" s="24" t="s">
+        <v>565</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
-      <c r="F40" s="33" t="s">
-        <v>565</v>
+      <c r="F40" s="31" t="s">
+        <v>566</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
@@ -14563,11 +14548,11 @@
     </row>
     <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="32" t="s">
-        <v>567</v>
+      <c r="C41" s="24" t="s">
+        <v>568</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
@@ -14600,15 +14585,15 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14637,23 +14622,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="42" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -14663,7 +14650,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="22"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
@@ -14684,15 +14671,15 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="40" t="s">
-        <v>569</v>
+      <c r="C2" s="38" t="s">
+        <v>570</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -14701,11 +14688,11 @@
     </row>
     <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>571</v>
+      <c r="C3" s="24" t="s">
+        <v>572</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
@@ -14718,11 +14705,11 @@
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>573</v>
+      <c r="C4" s="24" t="s">
+        <v>574</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14735,11 +14722,11 @@
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>575</v>
+      <c r="C5" s="24" t="s">
+        <v>576</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14752,11 +14739,11 @@
     </row>
     <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>577</v>
+      <c r="C6" s="24" t="s">
+        <v>578</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14769,11 +14756,11 @@
     </row>
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>579</v>
+      <c r="C7" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="23"/>
@@ -14811,15 +14798,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14847,148 +14834,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="71.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="6.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="45" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="71.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="25.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="40" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="46" t="s">
-        <v>580</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="D2" s="45" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="48" t="s">
         <v>588</v>
       </c>
+      <c r="E3" s="49" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="n">
+      <c r="B4" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="58" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57" t="n">
+      <c r="B5" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="n">
+      <c r="B6" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57" t="n">
+      <c r="B7" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="n">
+      <c r="B8" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57" t="n">
+      <c r="B9" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57" t="n">
+      <c r="B10" s="53" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="60" t="s">
-        <v>596</v>
-      </c>
-      <c r="D11" s="61" t="n">
+      <c r="C11" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" s="62" t="n">
+      <c r="C12" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="D13" s="63" t="n">
+      <c r="C13" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
         <v>0</v>
       </c>
@@ -14999,7 +14986,7 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
       <formula1>"0,1,2"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15022,7 +15009,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -15040,10 +15027,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -15075,11 +15062,11 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -15091,16 +15078,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>601</v>
+      <c r="C3" s="24" t="s">
+        <v>602</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="32" t="s">
-        <v>602</v>
+      <c r="F3" s="24" t="s">
+        <v>603</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15112,16 +15099,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="64" t="s">
-        <v>604</v>
+      <c r="C4" s="59" t="s">
+        <v>605</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="32" t="s">
-        <v>605</v>
+      <c r="F4" s="24" t="s">
+        <v>606</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15133,16 +15120,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>607</v>
+      <c r="C5" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="32" t="s">
-        <v>608</v>
+      <c r="F5" s="24" t="s">
+        <v>609</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15154,16 +15141,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>610</v>
+      <c r="C6" s="24" t="s">
+        <v>611</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="32" t="s">
-        <v>611</v>
+      <c r="F6" s="24" t="s">
+        <v>612</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -15179,16 +15166,16 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="614">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -2968,9 +2968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1913040</xdr:colOff>
+      <xdr:colOff>1912680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635400" y="0"/>
-          <a:ext cx="1912320" cy="675360"/>
+          <a:ext cx="1911960" cy="675000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3036,7 +3036,7 @@
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
@@ -12732,7 +12732,7 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -13688,7 +13688,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -14616,8 +14616,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14649,7 +14649,9 @@
       <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
@@ -15009,7 +15011,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="615">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -2193,6 +2193,9 @@
   </si>
   <si>
     <t xml:space="preserve">The PSM shall be secure from unauthorized access or use, and shall sanitize inputs and outputs where possible so as to avoid compromising itself or other systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Software Quality and Maintainability</t>
   </si>
   <si>
     <t xml:space="preserve">psm-SQ-1.1</t>
@@ -2968,9 +2971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1912680</xdr:colOff>
+      <xdr:colOff>1912320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635400" y="0"/>
-          <a:ext cx="1911960" cy="675000"/>
+          <a:ext cx="1911600" cy="674640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11828,7 +11831,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -14617,7 +14620,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14671,47 +14674,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="38" t="s">
         <v>571</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="24" t="s">
-        <v>572</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14722,13 +14723,13 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14739,13 +14740,13 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14756,15 +14757,15 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>579</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="20"/>
@@ -14773,7 +14774,23 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14800,15 +14817,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H8" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14846,10 +14863,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="41" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -14858,13 +14875,13 @@
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -14873,21 +14890,21 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="50" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="n">
@@ -14897,7 +14914,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="53" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="n">
@@ -14907,7 +14924,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="54" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="n">
@@ -14917,7 +14934,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="n">
@@ -14927,7 +14944,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="n">
@@ -14937,7 +14954,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="n">
@@ -14947,7 +14964,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="53" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="n">
@@ -14957,7 +14974,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="55" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
@@ -14966,7 +14983,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="40" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
@@ -14975,7 +14992,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
@@ -15066,7 +15083,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -15080,16 +15097,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15101,16 +15118,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="59" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15122,16 +15139,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15143,16 +15160,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Access and Delivery'!$H$1:$H$40</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$110</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$22</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integration and Utility'!$H$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Intermediary &amp; Interface'!$H$1:$H$17</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Pharmacy (MMIS)'!$H$1:$H$6</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="614">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t xml:space="preserve">TA.SP.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do PSM interface to NPI?</t>
   </si>
   <si>
     <t xml:space="preserve">1.  Technical Service Classification:  Configuration Management</t>
@@ -11831,7 +11828,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -12733,10 +12730,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13230,13 +13227,9 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="H1:H23">
+  <autoFilter ref="H1:H22">
     <filterColumn colId="0">
       <customFilters and="true">
         <customFilter operator="equal" val="MVP - Dec"/>
@@ -13338,7 +13331,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13352,11 +13345,11 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -13365,7 +13358,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13378,7 +13371,7 @@
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="22"/>
@@ -13392,16 +13385,16 @@
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13410,16 +13403,16 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>2</v>
@@ -13428,7 +13421,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13440,16 +13433,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
       <c r="F7" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -13461,11 +13454,11 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>3</v>
@@ -13474,7 +13467,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13486,16 +13479,16 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13504,13 +13497,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="22"/>
@@ -13524,16 +13517,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13545,16 +13538,16 @@
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13567,7 +13560,7 @@
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -13581,16 +13574,16 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13602,16 +13595,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13623,16 +13616,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20"/>
       <c r="F16" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -13641,7 +13634,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -13747,7 +13740,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13761,16 +13754,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13782,16 +13775,16 @@
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -13803,16 +13796,16 @@
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13824,16 +13817,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13846,7 +13839,7 @@
     <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="22"/>
@@ -13860,16 +13853,16 @@
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13881,11 +13874,11 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -13894,7 +13887,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13906,16 +13899,16 @@
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -13927,16 +13920,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13948,16 +13941,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13970,7 +13963,7 @@
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -13984,16 +13977,16 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -14005,16 +13998,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -14026,16 +14019,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -14047,16 +14040,16 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -14068,16 +14061,16 @@
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -14089,16 +14082,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -14111,7 +14104,7 @@
     <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
@@ -14125,16 +14118,16 @@
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
@@ -14146,16 +14139,16 @@
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -14168,7 +14161,7 @@
     <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="22"/>
@@ -14182,16 +14175,16 @@
     </row>
     <row r="24" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
@@ -14203,11 +14196,11 @@
     </row>
     <row r="25" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1</v>
@@ -14216,7 +14209,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
@@ -14228,16 +14221,16 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
@@ -14249,16 +14242,16 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
       <c r="F27" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -14270,16 +14263,16 @@
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
@@ -14291,16 +14284,16 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
@@ -14312,16 +14305,16 @@
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -14333,16 +14326,16 @@
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
@@ -14354,16 +14347,16 @@
     </row>
     <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
@@ -14375,11 +14368,11 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
@@ -14388,7 +14381,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
@@ -14400,16 +14393,16 @@
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
       <c r="F34" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
@@ -14421,16 +14414,16 @@
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
       <c r="F35" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
@@ -14442,16 +14435,16 @@
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
       <c r="F36" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
@@ -14463,16 +14456,16 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
@@ -14484,16 +14477,16 @@
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
@@ -14505,11 +14498,11 @@
     </row>
     <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>2</v>
@@ -14518,7 +14511,7 @@
         <v>52</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
@@ -14530,16 +14523,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
       <c r="F40" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
@@ -14551,11 +14544,11 @@
     </row>
     <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
@@ -14619,7 +14612,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14677,7 +14670,7 @@
     <row r="2" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -14691,11 +14684,11 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
@@ -14708,11 +14701,11 @@
     </row>
     <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14725,11 +14718,11 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14742,11 +14735,11 @@
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14759,11 +14752,11 @@
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -14776,11 +14769,11 @@
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="23"/>
@@ -14863,10 +14856,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>582</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>583</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -14875,13 +14868,13 @@
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="45" t="s">
         <v>585</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>586</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -14890,21 +14883,21 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>589</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="n">
@@ -14914,7 +14907,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="n">
@@ -14924,7 +14917,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="n">
@@ -14934,7 +14927,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="n">
@@ -14944,7 +14937,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="n">
@@ -14954,7 +14947,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="n">
@@ -14964,7 +14957,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="n">
@@ -14974,7 +14967,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
@@ -14983,7 +14976,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
@@ -14992,7 +14985,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
@@ -15083,7 +15076,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -15097,16 +15090,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15118,16 +15111,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15139,16 +15132,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15160,16 +15153,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1462,7 +1462,7 @@
     <t xml:space="preserve">1.  S&amp;C:  Business Results Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-1.1</t>
+    <t xml:space="preserve">psm-SC-1.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall accommodate customer preferences for communications by email, text, mobile devices, or phones.</t>
@@ -1474,7 +1474,7 @@
     <t xml:space="preserve">2.  S&amp;C:  Industry Standards Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-2.1</t>
+    <t xml:space="preserve">psm-SC-2.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall comply with standards and protocols adopted by the Secretary under sections 1104 and 1561 of the Affordable Care Act. </t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">3.  S&amp;C:  Interoperability Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-3.1</t>
+    <t xml:space="preserve">psm-SC-3.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support the architecture adopted to preserve the ability to efficiently, effectively, and appropriately exchange data with other participants in the health and human services enterprise.</t>
@@ -1504,7 +1504,7 @@
     <t xml:space="preserve">4.  S&amp;C:  Modularity Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.0</t>
+    <t xml:space="preserve">psm-SC-4.0</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use regionally standardized business rule definitions in both human and machine-readable formats.</t>
@@ -1516,7 +1516,7 @@
     <t xml:space="preserve">No in the pre-cert check list but PSM will do this</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.1</t>
+    <t xml:space="preserve">psm-SC-4.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall contain modules that can be interchanged without major system design.</t>
@@ -1525,7 +1525,7 @@
     <t xml:space="preserve">Evidence: have an architecture diagram showing rules engine is an separate component</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.2</t>
+    <t xml:space="preserve">psm-SC-4.2</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use an intrastate rules engine separate from core programming with established interstate standardized business rules definitions.</t>
@@ -1534,7 +1534,7 @@
     <t xml:space="preserve">S&amp;C.MS.16</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.3</t>
+    <t xml:space="preserve">psm-SC-4.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM design documents shall utilize a widely supported modeling language (e.g., UML, BPMN).</t>
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve">S&amp;C.MS.18</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.4</t>
+    <t xml:space="preserve">psm-SC-4.4</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support open standards between key interfaces have been considered for all and chosen where feasible.</t>
@@ -1552,7 +1552,7 @@
     <t xml:space="preserve">S&amp;C.MS.2</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.5</t>
+    <t xml:space="preserve">psm-SC-4.5</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support Modularity verification through extensive testing that demonstrates compliance with  chosen interface standards and specifications.</t>
@@ -12366,8 +12366,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12619,7 +12619,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="4" customFormat="true" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>352</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="4" customFormat="true" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
         <v>358</v>
       </c>
@@ -12732,7 +12732,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">psm-SQ-1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies.</t>
+    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies and formats.</t>
   </si>
   <si>
     <t xml:space="preserve">psm-SQ-1.4</t>
@@ -2968,9 +2968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1912320</xdr:colOff>
+      <xdr:colOff>1911960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2980,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635400" y="0"/>
-          <a:ext cx="1911600" cy="674640"/>
+          <a:ext cx="1911240" cy="674280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12366,7 +12366,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -14612,8 +14612,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="FUNC Reqs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Access and Delivery'!$H$1:$H$40</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$110</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$111</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$22</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integration and Utility'!$H$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Intermediary &amp; Interface'!$H$1:$H$17</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="616">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t xml:space="preserve">The PSM's user interface shall be as simple, comprehensible, navigable, reliable, robust in the face of error, and responsive as possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psm-FR-7.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall provide instructions for using the application as an administrator via a help link or similar feature.</t>
   </si>
   <si>
     <t xml:space="preserve">8.  Manage Provider Communication</t>
@@ -2968,9 +2974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1911960</xdr:colOff>
+      <xdr:colOff>1911600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2980,7 +2986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635400" y="0"/>
-          <a:ext cx="1911240" cy="674280"/>
+          <a:ext cx="1910880" cy="673920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,12 +3039,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ111"/>
+  <dimension ref="A1:AMJ112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10387,56 +10393,1063 @@
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15"/>
-      <c r="B97" s="6" t="s">
+    <row r="97" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
+      <c r="B97" s="20"/>
+      <c r="C97" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="7" t="s">
+      <c r="D97" s="22"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+      <c r="AE97" s="0"/>
+      <c r="AF97" s="0"/>
+      <c r="AG97" s="0"/>
+      <c r="AH97" s="0"/>
+      <c r="AI97" s="0"/>
+      <c r="AJ97" s="0"/>
+      <c r="AK97" s="0"/>
+      <c r="AL97" s="0"/>
+      <c r="AM97" s="0"/>
+      <c r="AN97" s="0"/>
+      <c r="AO97" s="0"/>
+      <c r="AP97" s="0"/>
+      <c r="AQ97" s="0"/>
+      <c r="AR97" s="0"/>
+      <c r="AS97" s="0"/>
+      <c r="AT97" s="0"/>
+      <c r="AU97" s="0"/>
+      <c r="AV97" s="0"/>
+      <c r="AW97" s="0"/>
+      <c r="AX97" s="0"/>
+      <c r="AY97" s="0"/>
+      <c r="AZ97" s="0"/>
+      <c r="BA97" s="0"/>
+      <c r="BB97" s="0"/>
+      <c r="BC97" s="0"/>
+      <c r="BD97" s="0"/>
+      <c r="BE97" s="0"/>
+      <c r="BF97" s="0"/>
+      <c r="BG97" s="0"/>
+      <c r="BH97" s="0"/>
+      <c r="BI97" s="0"/>
+      <c r="BJ97" s="0"/>
+      <c r="BK97" s="0"/>
+      <c r="BL97" s="0"/>
+      <c r="BM97" s="0"/>
+      <c r="BN97" s="0"/>
+      <c r="BO97" s="0"/>
+      <c r="BP97" s="0"/>
+      <c r="BQ97" s="0"/>
+      <c r="BR97" s="0"/>
+      <c r="BS97" s="0"/>
+      <c r="BT97" s="0"/>
+      <c r="BU97" s="0"/>
+      <c r="BV97" s="0"/>
+      <c r="BW97" s="0"/>
+      <c r="BX97" s="0"/>
+      <c r="BY97" s="0"/>
+      <c r="BZ97" s="0"/>
+      <c r="CA97" s="0"/>
+      <c r="CB97" s="0"/>
+      <c r="CC97" s="0"/>
+      <c r="CD97" s="0"/>
+      <c r="CE97" s="0"/>
+      <c r="CF97" s="0"/>
+      <c r="CG97" s="0"/>
+      <c r="CH97" s="0"/>
+      <c r="CI97" s="0"/>
+      <c r="CJ97" s="0"/>
+      <c r="CK97" s="0"/>
+      <c r="CL97" s="0"/>
+      <c r="CM97" s="0"/>
+      <c r="CN97" s="0"/>
+      <c r="CO97" s="0"/>
+      <c r="CP97" s="0"/>
+      <c r="CQ97" s="0"/>
+      <c r="CR97" s="0"/>
+      <c r="CS97" s="0"/>
+      <c r="CT97" s="0"/>
+      <c r="CU97" s="0"/>
+      <c r="CV97" s="0"/>
+      <c r="CW97" s="0"/>
+      <c r="CX97" s="0"/>
+      <c r="CY97" s="0"/>
+      <c r="CZ97" s="0"/>
+      <c r="DA97" s="0"/>
+      <c r="DB97" s="0"/>
+      <c r="DC97" s="0"/>
+      <c r="DD97" s="0"/>
+      <c r="DE97" s="0"/>
+      <c r="DF97" s="0"/>
+      <c r="DG97" s="0"/>
+      <c r="DH97" s="0"/>
+      <c r="DI97" s="0"/>
+      <c r="DJ97" s="0"/>
+      <c r="DK97" s="0"/>
+      <c r="DL97" s="0"/>
+      <c r="DM97" s="0"/>
+      <c r="DN97" s="0"/>
+      <c r="DO97" s="0"/>
+      <c r="DP97" s="0"/>
+      <c r="DQ97" s="0"/>
+      <c r="DR97" s="0"/>
+      <c r="DS97" s="0"/>
+      <c r="DT97" s="0"/>
+      <c r="DU97" s="0"/>
+      <c r="DV97" s="0"/>
+      <c r="DW97" s="0"/>
+      <c r="DX97" s="0"/>
+      <c r="DY97" s="0"/>
+      <c r="DZ97" s="0"/>
+      <c r="EA97" s="0"/>
+      <c r="EB97" s="0"/>
+      <c r="EC97" s="0"/>
+      <c r="ED97" s="0"/>
+      <c r="EE97" s="0"/>
+      <c r="EF97" s="0"/>
+      <c r="EG97" s="0"/>
+      <c r="EH97" s="0"/>
+      <c r="EI97" s="0"/>
+      <c r="EJ97" s="0"/>
+      <c r="EK97" s="0"/>
+      <c r="EL97" s="0"/>
+      <c r="EM97" s="0"/>
+      <c r="EN97" s="0"/>
+      <c r="EO97" s="0"/>
+      <c r="EP97" s="0"/>
+      <c r="EQ97" s="0"/>
+      <c r="ER97" s="0"/>
+      <c r="ES97" s="0"/>
+      <c r="ET97" s="0"/>
+      <c r="EU97" s="0"/>
+      <c r="EV97" s="0"/>
+      <c r="EW97" s="0"/>
+      <c r="EX97" s="0"/>
+      <c r="EY97" s="0"/>
+      <c r="EZ97" s="0"/>
+      <c r="FA97" s="0"/>
+      <c r="FB97" s="0"/>
+      <c r="FC97" s="0"/>
+      <c r="FD97" s="0"/>
+      <c r="FE97" s="0"/>
+      <c r="FF97" s="0"/>
+      <c r="FG97" s="0"/>
+      <c r="FH97" s="0"/>
+      <c r="FI97" s="0"/>
+      <c r="FJ97" s="0"/>
+      <c r="FK97" s="0"/>
+      <c r="FL97" s="0"/>
+      <c r="FM97" s="0"/>
+      <c r="FN97" s="0"/>
+      <c r="FO97" s="0"/>
+      <c r="FP97" s="0"/>
+      <c r="FQ97" s="0"/>
+      <c r="FR97" s="0"/>
+      <c r="FS97" s="0"/>
+      <c r="FT97" s="0"/>
+      <c r="FU97" s="0"/>
+      <c r="FV97" s="0"/>
+      <c r="FW97" s="0"/>
+      <c r="FX97" s="0"/>
+      <c r="FY97" s="0"/>
+      <c r="FZ97" s="0"/>
+      <c r="GA97" s="0"/>
+      <c r="GB97" s="0"/>
+      <c r="GC97" s="0"/>
+      <c r="GD97" s="0"/>
+      <c r="GE97" s="0"/>
+      <c r="GF97" s="0"/>
+      <c r="GG97" s="0"/>
+      <c r="GH97" s="0"/>
+      <c r="GI97" s="0"/>
+      <c r="GJ97" s="0"/>
+      <c r="GK97" s="0"/>
+      <c r="GL97" s="0"/>
+      <c r="GM97" s="0"/>
+      <c r="GN97" s="0"/>
+      <c r="GO97" s="0"/>
+      <c r="GP97" s="0"/>
+      <c r="GQ97" s="0"/>
+      <c r="GR97" s="0"/>
+      <c r="GS97" s="0"/>
+      <c r="GT97" s="0"/>
+      <c r="GU97" s="0"/>
+      <c r="GV97" s="0"/>
+      <c r="GW97" s="0"/>
+      <c r="GX97" s="0"/>
+      <c r="GY97" s="0"/>
+      <c r="GZ97" s="0"/>
+      <c r="HA97" s="0"/>
+      <c r="HB97" s="0"/>
+      <c r="HC97" s="0"/>
+      <c r="HD97" s="0"/>
+      <c r="HE97" s="0"/>
+      <c r="HF97" s="0"/>
+      <c r="HG97" s="0"/>
+      <c r="HH97" s="0"/>
+      <c r="HI97" s="0"/>
+      <c r="HJ97" s="0"/>
+      <c r="HK97" s="0"/>
+      <c r="HL97" s="0"/>
+      <c r="HM97" s="0"/>
+      <c r="HN97" s="0"/>
+      <c r="HO97" s="0"/>
+      <c r="HP97" s="0"/>
+      <c r="HQ97" s="0"/>
+      <c r="HR97" s="0"/>
+      <c r="HS97" s="0"/>
+      <c r="HT97" s="0"/>
+      <c r="HU97" s="0"/>
+      <c r="HV97" s="0"/>
+      <c r="HW97" s="0"/>
+      <c r="HX97" s="0"/>
+      <c r="HY97" s="0"/>
+      <c r="HZ97" s="0"/>
+      <c r="IA97" s="0"/>
+      <c r="IB97" s="0"/>
+      <c r="IC97" s="0"/>
+      <c r="ID97" s="0"/>
+      <c r="IE97" s="0"/>
+      <c r="IF97" s="0"/>
+      <c r="IG97" s="0"/>
+      <c r="IH97" s="0"/>
+      <c r="II97" s="0"/>
+      <c r="IJ97" s="0"/>
+      <c r="IK97" s="0"/>
+      <c r="IL97" s="0"/>
+      <c r="IM97" s="0"/>
+      <c r="IN97" s="0"/>
+      <c r="IO97" s="0"/>
+      <c r="IP97" s="0"/>
+      <c r="IQ97" s="0"/>
+      <c r="IR97" s="0"/>
+      <c r="IS97" s="0"/>
+      <c r="IT97" s="0"/>
+      <c r="IU97" s="0"/>
+      <c r="IV97" s="0"/>
+      <c r="IW97" s="0"/>
+      <c r="IX97" s="0"/>
+      <c r="IY97" s="0"/>
+      <c r="IZ97" s="0"/>
+      <c r="JA97" s="0"/>
+      <c r="JB97" s="0"/>
+      <c r="JC97" s="0"/>
+      <c r="JD97" s="0"/>
+      <c r="JE97" s="0"/>
+      <c r="JF97" s="0"/>
+      <c r="JG97" s="0"/>
+      <c r="JH97" s="0"/>
+      <c r="JI97" s="0"/>
+      <c r="JJ97" s="0"/>
+      <c r="JK97" s="0"/>
+      <c r="JL97" s="0"/>
+      <c r="JM97" s="0"/>
+      <c r="JN97" s="0"/>
+      <c r="JO97" s="0"/>
+      <c r="JP97" s="0"/>
+      <c r="JQ97" s="0"/>
+      <c r="JR97" s="0"/>
+      <c r="JS97" s="0"/>
+      <c r="JT97" s="0"/>
+      <c r="JU97" s="0"/>
+      <c r="JV97" s="0"/>
+      <c r="JW97" s="0"/>
+      <c r="JX97" s="0"/>
+      <c r="JY97" s="0"/>
+      <c r="JZ97" s="0"/>
+      <c r="KA97" s="0"/>
+      <c r="KB97" s="0"/>
+      <c r="KC97" s="0"/>
+      <c r="KD97" s="0"/>
+      <c r="KE97" s="0"/>
+      <c r="KF97" s="0"/>
+      <c r="KG97" s="0"/>
+      <c r="KH97" s="0"/>
+      <c r="KI97" s="0"/>
+      <c r="KJ97" s="0"/>
+      <c r="KK97" s="0"/>
+      <c r="KL97" s="0"/>
+      <c r="KM97" s="0"/>
+      <c r="KN97" s="0"/>
+      <c r="KO97" s="0"/>
+      <c r="KP97" s="0"/>
+      <c r="KQ97" s="0"/>
+      <c r="KR97" s="0"/>
+      <c r="KS97" s="0"/>
+      <c r="KT97" s="0"/>
+      <c r="KU97" s="0"/>
+      <c r="KV97" s="0"/>
+      <c r="KW97" s="0"/>
+      <c r="KX97" s="0"/>
+      <c r="KY97" s="0"/>
+      <c r="KZ97" s="0"/>
+      <c r="LA97" s="0"/>
+      <c r="LB97" s="0"/>
+      <c r="LC97" s="0"/>
+      <c r="LD97" s="0"/>
+      <c r="LE97" s="0"/>
+      <c r="LF97" s="0"/>
+      <c r="LG97" s="0"/>
+      <c r="LH97" s="0"/>
+      <c r="LI97" s="0"/>
+      <c r="LJ97" s="0"/>
+      <c r="LK97" s="0"/>
+      <c r="LL97" s="0"/>
+      <c r="LM97" s="0"/>
+      <c r="LN97" s="0"/>
+      <c r="LO97" s="0"/>
+      <c r="LP97" s="0"/>
+      <c r="LQ97" s="0"/>
+      <c r="LR97" s="0"/>
+      <c r="LS97" s="0"/>
+      <c r="LT97" s="0"/>
+      <c r="LU97" s="0"/>
+      <c r="LV97" s="0"/>
+      <c r="LW97" s="0"/>
+      <c r="LX97" s="0"/>
+      <c r="LY97" s="0"/>
+      <c r="LZ97" s="0"/>
+      <c r="MA97" s="0"/>
+      <c r="MB97" s="0"/>
+      <c r="MC97" s="0"/>
+      <c r="MD97" s="0"/>
+      <c r="ME97" s="0"/>
+      <c r="MF97" s="0"/>
+      <c r="MG97" s="0"/>
+      <c r="MH97" s="0"/>
+      <c r="MI97" s="0"/>
+      <c r="MJ97" s="0"/>
+      <c r="MK97" s="0"/>
+      <c r="ML97" s="0"/>
+      <c r="MM97" s="0"/>
+      <c r="MN97" s="0"/>
+      <c r="MO97" s="0"/>
+      <c r="MP97" s="0"/>
+      <c r="MQ97" s="0"/>
+      <c r="MR97" s="0"/>
+      <c r="MS97" s="0"/>
+      <c r="MT97" s="0"/>
+      <c r="MU97" s="0"/>
+      <c r="MV97" s="0"/>
+      <c r="MW97" s="0"/>
+      <c r="MX97" s="0"/>
+      <c r="MY97" s="0"/>
+      <c r="MZ97" s="0"/>
+      <c r="NA97" s="0"/>
+      <c r="NB97" s="0"/>
+      <c r="NC97" s="0"/>
+      <c r="ND97" s="0"/>
+      <c r="NE97" s="0"/>
+      <c r="NF97" s="0"/>
+      <c r="NG97" s="0"/>
+      <c r="NH97" s="0"/>
+      <c r="NI97" s="0"/>
+      <c r="NJ97" s="0"/>
+      <c r="NK97" s="0"/>
+      <c r="NL97" s="0"/>
+      <c r="NM97" s="0"/>
+      <c r="NN97" s="0"/>
+      <c r="NO97" s="0"/>
+      <c r="NP97" s="0"/>
+      <c r="NQ97" s="0"/>
+      <c r="NR97" s="0"/>
+      <c r="NS97" s="0"/>
+      <c r="NT97" s="0"/>
+      <c r="NU97" s="0"/>
+      <c r="NV97" s="0"/>
+      <c r="NW97" s="0"/>
+      <c r="NX97" s="0"/>
+      <c r="NY97" s="0"/>
+      <c r="NZ97" s="0"/>
+      <c r="OA97" s="0"/>
+      <c r="OB97" s="0"/>
+      <c r="OC97" s="0"/>
+      <c r="OD97" s="0"/>
+      <c r="OE97" s="0"/>
+      <c r="OF97" s="0"/>
+      <c r="OG97" s="0"/>
+      <c r="OH97" s="0"/>
+      <c r="OI97" s="0"/>
+      <c r="OJ97" s="0"/>
+      <c r="OK97" s="0"/>
+      <c r="OL97" s="0"/>
+      <c r="OM97" s="0"/>
+      <c r="ON97" s="0"/>
+      <c r="OO97" s="0"/>
+      <c r="OP97" s="0"/>
+      <c r="OQ97" s="0"/>
+      <c r="OR97" s="0"/>
+      <c r="OS97" s="0"/>
+      <c r="OT97" s="0"/>
+      <c r="OU97" s="0"/>
+      <c r="OV97" s="0"/>
+      <c r="OW97" s="0"/>
+      <c r="OX97" s="0"/>
+      <c r="OY97" s="0"/>
+      <c r="OZ97" s="0"/>
+      <c r="PA97" s="0"/>
+      <c r="PB97" s="0"/>
+      <c r="PC97" s="0"/>
+      <c r="PD97" s="0"/>
+      <c r="PE97" s="0"/>
+      <c r="PF97" s="0"/>
+      <c r="PG97" s="0"/>
+      <c r="PH97" s="0"/>
+      <c r="PI97" s="0"/>
+      <c r="PJ97" s="0"/>
+      <c r="PK97" s="0"/>
+      <c r="PL97" s="0"/>
+      <c r="PM97" s="0"/>
+      <c r="PN97" s="0"/>
+      <c r="PO97" s="0"/>
+      <c r="PP97" s="0"/>
+      <c r="PQ97" s="0"/>
+      <c r="PR97" s="0"/>
+      <c r="PS97" s="0"/>
+      <c r="PT97" s="0"/>
+      <c r="PU97" s="0"/>
+      <c r="PV97" s="0"/>
+      <c r="PW97" s="0"/>
+      <c r="PX97" s="0"/>
+      <c r="PY97" s="0"/>
+      <c r="PZ97" s="0"/>
+      <c r="QA97" s="0"/>
+      <c r="QB97" s="0"/>
+      <c r="QC97" s="0"/>
+      <c r="QD97" s="0"/>
+      <c r="QE97" s="0"/>
+      <c r="QF97" s="0"/>
+      <c r="QG97" s="0"/>
+      <c r="QH97" s="0"/>
+      <c r="QI97" s="0"/>
+      <c r="QJ97" s="0"/>
+      <c r="QK97" s="0"/>
+      <c r="QL97" s="0"/>
+      <c r="QM97" s="0"/>
+      <c r="QN97" s="0"/>
+      <c r="QO97" s="0"/>
+      <c r="QP97" s="0"/>
+      <c r="QQ97" s="0"/>
+      <c r="QR97" s="0"/>
+      <c r="QS97" s="0"/>
+      <c r="QT97" s="0"/>
+      <c r="QU97" s="0"/>
+      <c r="QV97" s="0"/>
+      <c r="QW97" s="0"/>
+      <c r="QX97" s="0"/>
+      <c r="QY97" s="0"/>
+      <c r="QZ97" s="0"/>
+      <c r="RA97" s="0"/>
+      <c r="RB97" s="0"/>
+      <c r="RC97" s="0"/>
+      <c r="RD97" s="0"/>
+      <c r="RE97" s="0"/>
+      <c r="RF97" s="0"/>
+      <c r="RG97" s="0"/>
+      <c r="RH97" s="0"/>
+      <c r="RI97" s="0"/>
+      <c r="RJ97" s="0"/>
+      <c r="RK97" s="0"/>
+      <c r="RL97" s="0"/>
+      <c r="RM97" s="0"/>
+      <c r="RN97" s="0"/>
+      <c r="RO97" s="0"/>
+      <c r="RP97" s="0"/>
+      <c r="RQ97" s="0"/>
+      <c r="RR97" s="0"/>
+      <c r="RS97" s="0"/>
+      <c r="RT97" s="0"/>
+      <c r="RU97" s="0"/>
+      <c r="RV97" s="0"/>
+      <c r="RW97" s="0"/>
+      <c r="RX97" s="0"/>
+      <c r="RY97" s="0"/>
+      <c r="RZ97" s="0"/>
+      <c r="SA97" s="0"/>
+      <c r="SB97" s="0"/>
+      <c r="SC97" s="0"/>
+      <c r="SD97" s="0"/>
+      <c r="SE97" s="0"/>
+      <c r="SF97" s="0"/>
+      <c r="SG97" s="0"/>
+      <c r="SH97" s="0"/>
+      <c r="SI97" s="0"/>
+      <c r="SJ97" s="0"/>
+      <c r="SK97" s="0"/>
+      <c r="SL97" s="0"/>
+      <c r="SM97" s="0"/>
+      <c r="SN97" s="0"/>
+      <c r="SO97" s="0"/>
+      <c r="SP97" s="0"/>
+      <c r="SQ97" s="0"/>
+      <c r="SR97" s="0"/>
+      <c r="SS97" s="0"/>
+      <c r="ST97" s="0"/>
+      <c r="SU97" s="0"/>
+      <c r="SV97" s="0"/>
+      <c r="SW97" s="0"/>
+      <c r="SX97" s="0"/>
+      <c r="SY97" s="0"/>
+      <c r="SZ97" s="0"/>
+      <c r="TA97" s="0"/>
+      <c r="TB97" s="0"/>
+      <c r="TC97" s="0"/>
+      <c r="TD97" s="0"/>
+      <c r="TE97" s="0"/>
+      <c r="TF97" s="0"/>
+      <c r="TG97" s="0"/>
+      <c r="TH97" s="0"/>
+      <c r="TI97" s="0"/>
+      <c r="TJ97" s="0"/>
+      <c r="TK97" s="0"/>
+      <c r="TL97" s="0"/>
+      <c r="TM97" s="0"/>
+      <c r="TN97" s="0"/>
+      <c r="TO97" s="0"/>
+      <c r="TP97" s="0"/>
+      <c r="TQ97" s="0"/>
+      <c r="TR97" s="0"/>
+      <c r="TS97" s="0"/>
+      <c r="TT97" s="0"/>
+      <c r="TU97" s="0"/>
+      <c r="TV97" s="0"/>
+      <c r="TW97" s="0"/>
+      <c r="TX97" s="0"/>
+      <c r="TY97" s="0"/>
+      <c r="TZ97" s="0"/>
+      <c r="UA97" s="0"/>
+      <c r="UB97" s="0"/>
+      <c r="UC97" s="0"/>
+      <c r="UD97" s="0"/>
+      <c r="UE97" s="0"/>
+      <c r="UF97" s="0"/>
+      <c r="UG97" s="0"/>
+      <c r="UH97" s="0"/>
+      <c r="UI97" s="0"/>
+      <c r="UJ97" s="0"/>
+      <c r="UK97" s="0"/>
+      <c r="UL97" s="0"/>
+      <c r="UM97" s="0"/>
+      <c r="UN97" s="0"/>
+      <c r="UO97" s="0"/>
+      <c r="UP97" s="0"/>
+      <c r="UQ97" s="0"/>
+      <c r="UR97" s="0"/>
+      <c r="US97" s="0"/>
+      <c r="UT97" s="0"/>
+      <c r="UU97" s="0"/>
+      <c r="UV97" s="0"/>
+      <c r="UW97" s="0"/>
+      <c r="UX97" s="0"/>
+      <c r="UY97" s="0"/>
+      <c r="UZ97" s="0"/>
+      <c r="VA97" s="0"/>
+      <c r="VB97" s="0"/>
+      <c r="VC97" s="0"/>
+      <c r="VD97" s="0"/>
+      <c r="VE97" s="0"/>
+      <c r="VF97" s="0"/>
+      <c r="VG97" s="0"/>
+      <c r="VH97" s="0"/>
+      <c r="VI97" s="0"/>
+      <c r="VJ97" s="0"/>
+      <c r="VK97" s="0"/>
+      <c r="VL97" s="0"/>
+      <c r="VM97" s="0"/>
+      <c r="VN97" s="0"/>
+      <c r="VO97" s="0"/>
+      <c r="VP97" s="0"/>
+      <c r="VQ97" s="0"/>
+      <c r="VR97" s="0"/>
+      <c r="VS97" s="0"/>
+      <c r="VT97" s="0"/>
+      <c r="VU97" s="0"/>
+      <c r="VV97" s="0"/>
+      <c r="VW97" s="0"/>
+      <c r="VX97" s="0"/>
+      <c r="VY97" s="0"/>
+      <c r="VZ97" s="0"/>
+      <c r="WA97" s="0"/>
+      <c r="WB97" s="0"/>
+      <c r="WC97" s="0"/>
+      <c r="WD97" s="0"/>
+      <c r="WE97" s="0"/>
+      <c r="WF97" s="0"/>
+      <c r="WG97" s="0"/>
+      <c r="WH97" s="0"/>
+      <c r="WI97" s="0"/>
+      <c r="WJ97" s="0"/>
+      <c r="WK97" s="0"/>
+      <c r="WL97" s="0"/>
+      <c r="WM97" s="0"/>
+      <c r="WN97" s="0"/>
+      <c r="WO97" s="0"/>
+      <c r="WP97" s="0"/>
+      <c r="WQ97" s="0"/>
+      <c r="WR97" s="0"/>
+      <c r="WS97" s="0"/>
+      <c r="WT97" s="0"/>
+      <c r="WU97" s="0"/>
+      <c r="WV97" s="0"/>
+      <c r="WW97" s="0"/>
+      <c r="WX97" s="0"/>
+      <c r="WY97" s="0"/>
+      <c r="WZ97" s="0"/>
+      <c r="XA97" s="0"/>
+      <c r="XB97" s="0"/>
+      <c r="XC97" s="0"/>
+      <c r="XD97" s="0"/>
+      <c r="XE97" s="0"/>
+      <c r="XF97" s="0"/>
+      <c r="XG97" s="0"/>
+      <c r="XH97" s="0"/>
+      <c r="XI97" s="0"/>
+      <c r="XJ97" s="0"/>
+      <c r="XK97" s="0"/>
+      <c r="XL97" s="0"/>
+      <c r="XM97" s="0"/>
+      <c r="XN97" s="0"/>
+      <c r="XO97" s="0"/>
+      <c r="XP97" s="0"/>
+      <c r="XQ97" s="0"/>
+      <c r="XR97" s="0"/>
+      <c r="XS97" s="0"/>
+      <c r="XT97" s="0"/>
+      <c r="XU97" s="0"/>
+      <c r="XV97" s="0"/>
+      <c r="XW97" s="0"/>
+      <c r="XX97" s="0"/>
+      <c r="XY97" s="0"/>
+      <c r="XZ97" s="0"/>
+      <c r="YA97" s="0"/>
+      <c r="YB97" s="0"/>
+      <c r="YC97" s="0"/>
+      <c r="YD97" s="0"/>
+      <c r="YE97" s="0"/>
+      <c r="YF97" s="0"/>
+      <c r="YG97" s="0"/>
+      <c r="YH97" s="0"/>
+      <c r="YI97" s="0"/>
+      <c r="YJ97" s="0"/>
+      <c r="YK97" s="0"/>
+      <c r="YL97" s="0"/>
+      <c r="YM97" s="0"/>
+      <c r="YN97" s="0"/>
+      <c r="YO97" s="0"/>
+      <c r="YP97" s="0"/>
+      <c r="YQ97" s="0"/>
+      <c r="YR97" s="0"/>
+      <c r="YS97" s="0"/>
+      <c r="YT97" s="0"/>
+      <c r="YU97" s="0"/>
+      <c r="YV97" s="0"/>
+      <c r="YW97" s="0"/>
+      <c r="YX97" s="0"/>
+      <c r="YY97" s="0"/>
+      <c r="YZ97" s="0"/>
+      <c r="ZA97" s="0"/>
+      <c r="ZB97" s="0"/>
+      <c r="ZC97" s="0"/>
+      <c r="ZD97" s="0"/>
+      <c r="ZE97" s="0"/>
+      <c r="ZF97" s="0"/>
+      <c r="ZG97" s="0"/>
+      <c r="ZH97" s="0"/>
+      <c r="ZI97" s="0"/>
+      <c r="ZJ97" s="0"/>
+      <c r="ZK97" s="0"/>
+      <c r="ZL97" s="0"/>
+      <c r="ZM97" s="0"/>
+      <c r="ZN97" s="0"/>
+      <c r="ZO97" s="0"/>
+      <c r="ZP97" s="0"/>
+      <c r="ZQ97" s="0"/>
+      <c r="ZR97" s="0"/>
+      <c r="ZS97" s="0"/>
+      <c r="ZT97" s="0"/>
+      <c r="ZU97" s="0"/>
+      <c r="ZV97" s="0"/>
+      <c r="ZW97" s="0"/>
+      <c r="ZX97" s="0"/>
+      <c r="ZY97" s="0"/>
+      <c r="ZZ97" s="0"/>
+      <c r="AAA97" s="0"/>
+      <c r="AAB97" s="0"/>
+      <c r="AAC97" s="0"/>
+      <c r="AAD97" s="0"/>
+      <c r="AAE97" s="0"/>
+      <c r="AAF97" s="0"/>
+      <c r="AAG97" s="0"/>
+      <c r="AAH97" s="0"/>
+      <c r="AAI97" s="0"/>
+      <c r="AAJ97" s="0"/>
+      <c r="AAK97" s="0"/>
+      <c r="AAL97" s="0"/>
+      <c r="AAM97" s="0"/>
+      <c r="AAN97" s="0"/>
+      <c r="AAO97" s="0"/>
+      <c r="AAP97" s="0"/>
+      <c r="AAQ97" s="0"/>
+      <c r="AAR97" s="0"/>
+      <c r="AAS97" s="0"/>
+      <c r="AAT97" s="0"/>
+      <c r="AAU97" s="0"/>
+      <c r="AAV97" s="0"/>
+      <c r="AAW97" s="0"/>
+      <c r="AAX97" s="0"/>
+      <c r="AAY97" s="0"/>
+      <c r="AAZ97" s="0"/>
+      <c r="ABA97" s="0"/>
+      <c r="ABB97" s="0"/>
+      <c r="ABC97" s="0"/>
+      <c r="ABD97" s="0"/>
+      <c r="ABE97" s="0"/>
+      <c r="ABF97" s="0"/>
+      <c r="ABG97" s="0"/>
+      <c r="ABH97" s="0"/>
+      <c r="ABI97" s="0"/>
+      <c r="ABJ97" s="0"/>
+      <c r="ABK97" s="0"/>
+      <c r="ABL97" s="0"/>
+      <c r="ABM97" s="0"/>
+      <c r="ABN97" s="0"/>
+      <c r="ABO97" s="0"/>
+      <c r="ABP97" s="0"/>
+      <c r="ABQ97" s="0"/>
+      <c r="ABR97" s="0"/>
+      <c r="ABS97" s="0"/>
+      <c r="ABT97" s="0"/>
+      <c r="ABU97" s="0"/>
+      <c r="ABV97" s="0"/>
+      <c r="ABW97" s="0"/>
+      <c r="ABX97" s="0"/>
+      <c r="ABY97" s="0"/>
+      <c r="ABZ97" s="0"/>
+      <c r="ACA97" s="0"/>
+      <c r="ACB97" s="0"/>
+      <c r="ACC97" s="0"/>
+      <c r="ACD97" s="0"/>
+      <c r="ACE97" s="0"/>
+      <c r="ACF97" s="0"/>
+      <c r="ACG97" s="0"/>
+      <c r="ACH97" s="0"/>
+      <c r="ACI97" s="0"/>
+      <c r="ACJ97" s="0"/>
+      <c r="ACK97" s="0"/>
+      <c r="ACL97" s="0"/>
+      <c r="ACM97" s="0"/>
+      <c r="ACN97" s="0"/>
+      <c r="ACO97" s="0"/>
+      <c r="ACP97" s="0"/>
+      <c r="ACQ97" s="0"/>
+      <c r="ACR97" s="0"/>
+      <c r="ACS97" s="0"/>
+      <c r="ACT97" s="0"/>
+      <c r="ACU97" s="0"/>
+      <c r="ACV97" s="0"/>
+      <c r="ACW97" s="0"/>
+      <c r="ACX97" s="0"/>
+      <c r="ACY97" s="0"/>
+      <c r="ACZ97" s="0"/>
+      <c r="ADA97" s="0"/>
+      <c r="ADB97" s="0"/>
+      <c r="ADC97" s="0"/>
+      <c r="ADD97" s="0"/>
+      <c r="ADE97" s="0"/>
+      <c r="ADF97" s="0"/>
+      <c r="ADG97" s="0"/>
+      <c r="ADH97" s="0"/>
+      <c r="ADI97" s="0"/>
+      <c r="ADJ97" s="0"/>
+      <c r="ADK97" s="0"/>
+      <c r="ADL97" s="0"/>
+      <c r="ADM97" s="0"/>
+      <c r="ADN97" s="0"/>
+      <c r="ADO97" s="0"/>
+      <c r="ADP97" s="0"/>
+      <c r="ADQ97" s="0"/>
+      <c r="ADR97" s="0"/>
+      <c r="ADS97" s="0"/>
+      <c r="ADT97" s="0"/>
+      <c r="ADU97" s="0"/>
+      <c r="ADV97" s="0"/>
+      <c r="ADW97" s="0"/>
+      <c r="ADX97" s="0"/>
+      <c r="ADY97" s="0"/>
+      <c r="ADZ97" s="0"/>
+      <c r="AEA97" s="0"/>
+      <c r="AEB97" s="0"/>
+      <c r="AEC97" s="0"/>
+      <c r="AED97" s="0"/>
+      <c r="AEE97" s="0"/>
+      <c r="AEF97" s="0"/>
+      <c r="AEG97" s="0"/>
+      <c r="AEH97" s="0"/>
+      <c r="AEI97" s="0"/>
+      <c r="AEJ97" s="0"/>
+      <c r="AEK97" s="0"/>
+      <c r="AEL97" s="0"/>
+      <c r="AEM97" s="0"/>
+      <c r="AEN97" s="0"/>
+      <c r="AEO97" s="0"/>
+      <c r="AEP97" s="0"/>
+      <c r="AEQ97" s="0"/>
+      <c r="AER97" s="0"/>
+      <c r="AES97" s="0"/>
+      <c r="AET97" s="0"/>
+      <c r="AEU97" s="0"/>
+      <c r="AEV97" s="0"/>
+      <c r="AEW97" s="0"/>
+      <c r="AEX97" s="0"/>
+      <c r="AEY97" s="0"/>
+      <c r="AEZ97" s="0"/>
+      <c r="AFA97" s="0"/>
+      <c r="AFB97" s="0"/>
+      <c r="AFC97" s="0"/>
+      <c r="AFD97" s="0"/>
+      <c r="AFE97" s="0"/>
+      <c r="AFF97" s="0"/>
+      <c r="AFG97" s="0"/>
+      <c r="AFH97" s="0"/>
+      <c r="AFI97" s="0"/>
+      <c r="AFJ97" s="0"/>
+      <c r="AFK97" s="0"/>
+      <c r="AFL97" s="0"/>
+      <c r="AFM97" s="0"/>
+      <c r="AFN97" s="0"/>
+      <c r="AFO97" s="0"/>
+      <c r="AFP97" s="0"/>
+      <c r="AFQ97" s="0"/>
+      <c r="AFR97" s="0"/>
+      <c r="AFS97" s="0"/>
+      <c r="AFT97" s="0"/>
+      <c r="AFU97" s="0"/>
+      <c r="AFV97" s="0"/>
+      <c r="AFW97" s="0"/>
+      <c r="AFX97" s="0"/>
+      <c r="AFY97" s="0"/>
+      <c r="AFZ97" s="0"/>
+      <c r="AGA97" s="0"/>
+      <c r="AGB97" s="0"/>
+      <c r="AGC97" s="0"/>
+      <c r="AGD97" s="0"/>
+      <c r="AGE97" s="0"/>
+      <c r="AGF97" s="0"/>
+      <c r="AGG97" s="0"/>
+      <c r="AGH97" s="0"/>
+      <c r="AGI97" s="0"/>
+      <c r="AGJ97" s="0"/>
+      <c r="AGK97" s="0"/>
+      <c r="AGL97" s="0"/>
+      <c r="AGM97" s="0"/>
+      <c r="AGN97" s="0"/>
+      <c r="AGO97" s="0"/>
+      <c r="AGP97" s="0"/>
+      <c r="AGQ97" s="0"/>
+      <c r="AGR97" s="0"/>
+      <c r="AGS97" s="0"/>
+      <c r="AGT97" s="0"/>
+      <c r="AGU97" s="0"/>
+      <c r="AGV97" s="0"/>
+      <c r="AGW97" s="0"/>
+      <c r="AGX97" s="0"/>
+      <c r="AGY97" s="0"/>
+      <c r="AGZ97" s="0"/>
+      <c r="AHA97" s="0"/>
+      <c r="AHB97" s="0"/>
+      <c r="AHC97" s="0"/>
+      <c r="AHD97" s="0"/>
+      <c r="AHE97" s="0"/>
+      <c r="AHF97" s="0"/>
+      <c r="AHG97" s="0"/>
+      <c r="AHH97" s="0"/>
+      <c r="AHI97" s="0"/>
+      <c r="AHJ97" s="0"/>
+      <c r="AHK97" s="0"/>
+      <c r="AHL97" s="0"/>
+      <c r="AHM97" s="0"/>
+      <c r="AHN97" s="0"/>
+      <c r="AHO97" s="0"/>
+      <c r="AHP97" s="0"/>
+      <c r="AHQ97" s="0"/>
+      <c r="AHR97" s="0"/>
+      <c r="AHS97" s="0"/>
+      <c r="AHT97" s="0"/>
+      <c r="AHU97" s="0"/>
+      <c r="AHV97" s="0"/>
+      <c r="AHW97" s="0"/>
+      <c r="AHX97" s="0"/>
+      <c r="AHY97" s="0"/>
+      <c r="AHZ97" s="0"/>
+      <c r="AIA97" s="0"/>
+      <c r="AIB97" s="0"/>
+      <c r="AIC97" s="0"/>
+      <c r="AID97" s="0"/>
+      <c r="AIE97" s="0"/>
+      <c r="AIF97" s="0"/>
+      <c r="AIG97" s="0"/>
+      <c r="AIH97" s="0"/>
+      <c r="AII97" s="0"/>
+      <c r="AIJ97" s="0"/>
+      <c r="AIK97" s="0"/>
+      <c r="AIL97" s="0"/>
+      <c r="AIM97" s="0"/>
+      <c r="AIN97" s="0"/>
+      <c r="AIO97" s="0"/>
+      <c r="AIP97" s="0"/>
+      <c r="AIQ97" s="0"/>
+      <c r="AIR97" s="0"/>
+      <c r="AIS97" s="0"/>
+      <c r="AIT97" s="0"/>
+      <c r="AIU97" s="0"/>
+      <c r="AIV97" s="0"/>
+      <c r="AIW97" s="0"/>
+      <c r="AIX97" s="0"/>
+      <c r="AIY97" s="0"/>
+      <c r="AIZ97" s="0"/>
+      <c r="AJA97" s="0"/>
+      <c r="AJB97" s="0"/>
+      <c r="AJC97" s="0"/>
+      <c r="AJD97" s="0"/>
+      <c r="AJE97" s="0"/>
+      <c r="AJF97" s="0"/>
+      <c r="AJG97" s="0"/>
+      <c r="AJH97" s="0"/>
+      <c r="AJI97" s="0"/>
+      <c r="AJJ97" s="0"/>
+      <c r="AJK97" s="0"/>
+      <c r="AJL97" s="0"/>
+      <c r="AJM97" s="0"/>
+      <c r="AJN97" s="0"/>
+      <c r="AJO97" s="0"/>
+      <c r="AJP97" s="0"/>
+      <c r="AJQ97" s="0"/>
+      <c r="AJR97" s="0"/>
+      <c r="AJS97" s="0"/>
+      <c r="AJT97" s="0"/>
+      <c r="AJU97" s="0"/>
+      <c r="AJV97" s="0"/>
+      <c r="AJW97" s="0"/>
+      <c r="AJX97" s="0"/>
+      <c r="AJY97" s="0"/>
+      <c r="AJZ97" s="0"/>
+      <c r="AKA97" s="0"/>
+      <c r="AKB97" s="0"/>
+      <c r="AKC97" s="0"/>
+      <c r="AKD97" s="0"/>
+      <c r="AKE97" s="0"/>
+      <c r="AKF97" s="0"/>
+      <c r="AKG97" s="0"/>
+      <c r="AKH97" s="0"/>
+      <c r="AKI97" s="0"/>
+      <c r="AKJ97" s="0"/>
+      <c r="AKK97" s="0"/>
+      <c r="AKL97" s="0"/>
+      <c r="AKM97" s="0"/>
+      <c r="AKN97" s="0"/>
+      <c r="AKO97" s="0"/>
+      <c r="AKP97" s="0"/>
+      <c r="AKQ97" s="0"/>
+      <c r="AKR97" s="0"/>
+      <c r="AKS97" s="0"/>
+      <c r="AKT97" s="0"/>
+      <c r="AKU97" s="0"/>
+      <c r="AKV97" s="0"/>
+      <c r="AKW97" s="0"/>
+      <c r="AKX97" s="0"/>
+      <c r="AKY97" s="0"/>
+      <c r="AKZ97" s="0"/>
+      <c r="ALA97" s="0"/>
+      <c r="ALB97" s="0"/>
+      <c r="ALC97" s="0"/>
+      <c r="ALD97" s="0"/>
+      <c r="ALE97" s="0"/>
+      <c r="ALF97" s="0"/>
+      <c r="ALG97" s="0"/>
+      <c r="ALH97" s="0"/>
+      <c r="ALI97" s="0"/>
+      <c r="ALJ97" s="0"/>
+      <c r="ALK97" s="0"/>
+      <c r="ALL97" s="0"/>
+      <c r="ALM97" s="0"/>
+      <c r="ALN97" s="0"/>
+      <c r="ALO97" s="0"/>
+      <c r="ALP97" s="0"/>
+      <c r="ALQ97" s="0"/>
+      <c r="ALR97" s="0"/>
+      <c r="ALS97" s="0"/>
+      <c r="ALT97" s="0"/>
+      <c r="ALU97" s="0"/>
+      <c r="ALV97" s="0"/>
+      <c r="ALW97" s="0"/>
+      <c r="ALX97" s="0"/>
+      <c r="ALY97" s="0"/>
+      <c r="ALZ97" s="0"/>
+      <c r="AMA97" s="0"/>
+      <c r="AMB97" s="0"/>
+      <c r="AMC97" s="0"/>
+      <c r="AMD97" s="0"/>
+      <c r="AME97" s="0"/>
+      <c r="AMF97" s="0"/>
+      <c r="AMG97" s="0"/>
+      <c r="AMH97" s="0"/>
+      <c r="AMI97" s="0"/>
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15"/>
+      <c r="B98" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="19"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>31</v>
@@ -10446,20 +11459,20 @@
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="K99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>31</v>
@@ -10473,16 +11486,16 @@
     </row>
     <row r="101" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>31</v>
@@ -10496,63 +11509,64 @@
     </row>
     <row r="102" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="13" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G102" s="11"/>
+      <c r="G102" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15"/>
-      <c r="B103" s="6" t="s">
+    <row r="103" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="7" t="s">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15"/>
+      <c r="B104" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-    </row>
-    <row r="105" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="6"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
         <v>266</v>
       </c>
@@ -10569,13 +11583,12 @@
         <v>15</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I105" s="10"/>
+        <v>94</v>
+      </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>268</v>
       </c>
@@ -10586,13 +11599,13 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -10600,16 +11613,16 @@
     </row>
     <row r="107" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>31</v>
@@ -10623,1105 +11636,1128 @@
     </row>
     <row r="108" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>276</v>
+      <c r="G108" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15"/>
-      <c r="B109" s="6" t="s">
+    <row r="109" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+      <c r="D109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="7" t="s">
+      <c r="H109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15"/>
+      <c r="B110" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="7" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G111" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-    </row>
-    <row r="111" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="21" t="s">
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="22"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="27" t="s">
+      <c r="G112" s="20"/>
+      <c r="H112" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="0"/>
-      <c r="M111" s="0"/>
-      <c r="N111" s="0"/>
-      <c r="O111" s="0"/>
-      <c r="P111" s="0"/>
-      <c r="Q111" s="0"/>
-      <c r="R111" s="0"/>
-      <c r="S111" s="0"/>
-      <c r="T111" s="0"/>
-      <c r="U111" s="0"/>
-      <c r="V111" s="0"/>
-      <c r="W111" s="0"/>
-      <c r="X111" s="0"/>
-      <c r="Y111" s="0"/>
-      <c r="Z111" s="0"/>
-      <c r="AA111" s="0"/>
-      <c r="AB111" s="0"/>
-      <c r="AC111" s="0"/>
-      <c r="AD111" s="0"/>
-      <c r="AE111" s="0"/>
-      <c r="AF111" s="0"/>
-      <c r="AG111" s="0"/>
-      <c r="AH111" s="0"/>
-      <c r="AI111" s="0"/>
-      <c r="AJ111" s="0"/>
-      <c r="AK111" s="0"/>
-      <c r="AL111" s="0"/>
-      <c r="AM111" s="0"/>
-      <c r="AN111" s="0"/>
-      <c r="AO111" s="0"/>
-      <c r="AP111" s="0"/>
-      <c r="AQ111" s="0"/>
-      <c r="AR111" s="0"/>
-      <c r="AS111" s="0"/>
-      <c r="AT111" s="0"/>
-      <c r="AU111" s="0"/>
-      <c r="AV111" s="0"/>
-      <c r="AW111" s="0"/>
-      <c r="AX111" s="0"/>
-      <c r="AY111" s="0"/>
-      <c r="AZ111" s="0"/>
-      <c r="BA111" s="0"/>
-      <c r="BB111" s="0"/>
-      <c r="BC111" s="0"/>
-      <c r="BD111" s="0"/>
-      <c r="BE111" s="0"/>
-      <c r="BF111" s="0"/>
-      <c r="BG111" s="0"/>
-      <c r="BH111" s="0"/>
-      <c r="BI111" s="0"/>
-      <c r="BJ111" s="0"/>
-      <c r="BK111" s="0"/>
-      <c r="BL111" s="0"/>
-      <c r="BM111" s="0"/>
-      <c r="BN111" s="0"/>
-      <c r="BO111" s="0"/>
-      <c r="BP111" s="0"/>
-      <c r="BQ111" s="0"/>
-      <c r="BR111" s="0"/>
-      <c r="BS111" s="0"/>
-      <c r="BT111" s="0"/>
-      <c r="BU111" s="0"/>
-      <c r="BV111" s="0"/>
-      <c r="BW111" s="0"/>
-      <c r="BX111" s="0"/>
-      <c r="BY111" s="0"/>
-      <c r="BZ111" s="0"/>
-      <c r="CA111" s="0"/>
-      <c r="CB111" s="0"/>
-      <c r="CC111" s="0"/>
-      <c r="CD111" s="0"/>
-      <c r="CE111" s="0"/>
-      <c r="CF111" s="0"/>
-      <c r="CG111" s="0"/>
-      <c r="CH111" s="0"/>
-      <c r="CI111" s="0"/>
-      <c r="CJ111" s="0"/>
-      <c r="CK111" s="0"/>
-      <c r="CL111" s="0"/>
-      <c r="CM111" s="0"/>
-      <c r="CN111" s="0"/>
-      <c r="CO111" s="0"/>
-      <c r="CP111" s="0"/>
-      <c r="CQ111" s="0"/>
-      <c r="CR111" s="0"/>
-      <c r="CS111" s="0"/>
-      <c r="CT111" s="0"/>
-      <c r="CU111" s="0"/>
-      <c r="CV111" s="0"/>
-      <c r="CW111" s="0"/>
-      <c r="CX111" s="0"/>
-      <c r="CY111" s="0"/>
-      <c r="CZ111" s="0"/>
-      <c r="DA111" s="0"/>
-      <c r="DB111" s="0"/>
-      <c r="DC111" s="0"/>
-      <c r="DD111" s="0"/>
-      <c r="DE111" s="0"/>
-      <c r="DF111" s="0"/>
-      <c r="DG111" s="0"/>
-      <c r="DH111" s="0"/>
-      <c r="DI111" s="0"/>
-      <c r="DJ111" s="0"/>
-      <c r="DK111" s="0"/>
-      <c r="DL111" s="0"/>
-      <c r="DM111" s="0"/>
-      <c r="DN111" s="0"/>
-      <c r="DO111" s="0"/>
-      <c r="DP111" s="0"/>
-      <c r="DQ111" s="0"/>
-      <c r="DR111" s="0"/>
-      <c r="DS111" s="0"/>
-      <c r="DT111" s="0"/>
-      <c r="DU111" s="0"/>
-      <c r="DV111" s="0"/>
-      <c r="DW111" s="0"/>
-      <c r="DX111" s="0"/>
-      <c r="DY111" s="0"/>
-      <c r="DZ111" s="0"/>
-      <c r="EA111" s="0"/>
-      <c r="EB111" s="0"/>
-      <c r="EC111" s="0"/>
-      <c r="ED111" s="0"/>
-      <c r="EE111" s="0"/>
-      <c r="EF111" s="0"/>
-      <c r="EG111" s="0"/>
-      <c r="EH111" s="0"/>
-      <c r="EI111" s="0"/>
-      <c r="EJ111" s="0"/>
-      <c r="EK111" s="0"/>
-      <c r="EL111" s="0"/>
-      <c r="EM111" s="0"/>
-      <c r="EN111" s="0"/>
-      <c r="EO111" s="0"/>
-      <c r="EP111" s="0"/>
-      <c r="EQ111" s="0"/>
-      <c r="ER111" s="0"/>
-      <c r="ES111" s="0"/>
-      <c r="ET111" s="0"/>
-      <c r="EU111" s="0"/>
-      <c r="EV111" s="0"/>
-      <c r="EW111" s="0"/>
-      <c r="EX111" s="0"/>
-      <c r="EY111" s="0"/>
-      <c r="EZ111" s="0"/>
-      <c r="FA111" s="0"/>
-      <c r="FB111" s="0"/>
-      <c r="FC111" s="0"/>
-      <c r="FD111" s="0"/>
-      <c r="FE111" s="0"/>
-      <c r="FF111" s="0"/>
-      <c r="FG111" s="0"/>
-      <c r="FH111" s="0"/>
-      <c r="FI111" s="0"/>
-      <c r="FJ111" s="0"/>
-      <c r="FK111" s="0"/>
-      <c r="FL111" s="0"/>
-      <c r="FM111" s="0"/>
-      <c r="FN111" s="0"/>
-      <c r="FO111" s="0"/>
-      <c r="FP111" s="0"/>
-      <c r="FQ111" s="0"/>
-      <c r="FR111" s="0"/>
-      <c r="FS111" s="0"/>
-      <c r="FT111" s="0"/>
-      <c r="FU111" s="0"/>
-      <c r="FV111" s="0"/>
-      <c r="FW111" s="0"/>
-      <c r="FX111" s="0"/>
-      <c r="FY111" s="0"/>
-      <c r="FZ111" s="0"/>
-      <c r="GA111" s="0"/>
-      <c r="GB111" s="0"/>
-      <c r="GC111" s="0"/>
-      <c r="GD111" s="0"/>
-      <c r="GE111" s="0"/>
-      <c r="GF111" s="0"/>
-      <c r="GG111" s="0"/>
-      <c r="GH111" s="0"/>
-      <c r="GI111" s="0"/>
-      <c r="GJ111" s="0"/>
-      <c r="GK111" s="0"/>
-      <c r="GL111" s="0"/>
-      <c r="GM111" s="0"/>
-      <c r="GN111" s="0"/>
-      <c r="GO111" s="0"/>
-      <c r="GP111" s="0"/>
-      <c r="GQ111" s="0"/>
-      <c r="GR111" s="0"/>
-      <c r="GS111" s="0"/>
-      <c r="GT111" s="0"/>
-      <c r="GU111" s="0"/>
-      <c r="GV111" s="0"/>
-      <c r="GW111" s="0"/>
-      <c r="GX111" s="0"/>
-      <c r="GY111" s="0"/>
-      <c r="GZ111" s="0"/>
-      <c r="HA111" s="0"/>
-      <c r="HB111" s="0"/>
-      <c r="HC111" s="0"/>
-      <c r="HD111" s="0"/>
-      <c r="HE111" s="0"/>
-      <c r="HF111" s="0"/>
-      <c r="HG111" s="0"/>
-      <c r="HH111" s="0"/>
-      <c r="HI111" s="0"/>
-      <c r="HJ111" s="0"/>
-      <c r="HK111" s="0"/>
-      <c r="HL111" s="0"/>
-      <c r="HM111" s="0"/>
-      <c r="HN111" s="0"/>
-      <c r="HO111" s="0"/>
-      <c r="HP111" s="0"/>
-      <c r="HQ111" s="0"/>
-      <c r="HR111" s="0"/>
-      <c r="HS111" s="0"/>
-      <c r="HT111" s="0"/>
-      <c r="HU111" s="0"/>
-      <c r="HV111" s="0"/>
-      <c r="HW111" s="0"/>
-      <c r="HX111" s="0"/>
-      <c r="HY111" s="0"/>
-      <c r="HZ111" s="0"/>
-      <c r="IA111" s="0"/>
-      <c r="IB111" s="0"/>
-      <c r="IC111" s="0"/>
-      <c r="ID111" s="0"/>
-      <c r="IE111" s="0"/>
-      <c r="IF111" s="0"/>
-      <c r="IG111" s="0"/>
-      <c r="IH111" s="0"/>
-      <c r="II111" s="0"/>
-      <c r="IJ111" s="0"/>
-      <c r="IK111" s="0"/>
-      <c r="IL111" s="0"/>
-      <c r="IM111" s="0"/>
-      <c r="IN111" s="0"/>
-      <c r="IO111" s="0"/>
-      <c r="IP111" s="0"/>
-      <c r="IQ111" s="0"/>
-      <c r="IR111" s="0"/>
-      <c r="IS111" s="0"/>
-      <c r="IT111" s="0"/>
-      <c r="IU111" s="0"/>
-      <c r="IV111" s="0"/>
-      <c r="IW111" s="0"/>
-      <c r="IX111" s="0"/>
-      <c r="IY111" s="0"/>
-      <c r="IZ111" s="0"/>
-      <c r="JA111" s="0"/>
-      <c r="JB111" s="0"/>
-      <c r="JC111" s="0"/>
-      <c r="JD111" s="0"/>
-      <c r="JE111" s="0"/>
-      <c r="JF111" s="0"/>
-      <c r="JG111" s="0"/>
-      <c r="JH111" s="0"/>
-      <c r="JI111" s="0"/>
-      <c r="JJ111" s="0"/>
-      <c r="JK111" s="0"/>
-      <c r="JL111" s="0"/>
-      <c r="JM111" s="0"/>
-      <c r="JN111" s="0"/>
-      <c r="JO111" s="0"/>
-      <c r="JP111" s="0"/>
-      <c r="JQ111" s="0"/>
-      <c r="JR111" s="0"/>
-      <c r="JS111" s="0"/>
-      <c r="JT111" s="0"/>
-      <c r="JU111" s="0"/>
-      <c r="JV111" s="0"/>
-      <c r="JW111" s="0"/>
-      <c r="JX111" s="0"/>
-      <c r="JY111" s="0"/>
-      <c r="JZ111" s="0"/>
-      <c r="KA111" s="0"/>
-      <c r="KB111" s="0"/>
-      <c r="KC111" s="0"/>
-      <c r="KD111" s="0"/>
-      <c r="KE111" s="0"/>
-      <c r="KF111" s="0"/>
-      <c r="KG111" s="0"/>
-      <c r="KH111" s="0"/>
-      <c r="KI111" s="0"/>
-      <c r="KJ111" s="0"/>
-      <c r="KK111" s="0"/>
-      <c r="KL111" s="0"/>
-      <c r="KM111" s="0"/>
-      <c r="KN111" s="0"/>
-      <c r="KO111" s="0"/>
-      <c r="KP111" s="0"/>
-      <c r="KQ111" s="0"/>
-      <c r="KR111" s="0"/>
-      <c r="KS111" s="0"/>
-      <c r="KT111" s="0"/>
-      <c r="KU111" s="0"/>
-      <c r="KV111" s="0"/>
-      <c r="KW111" s="0"/>
-      <c r="KX111" s="0"/>
-      <c r="KY111" s="0"/>
-      <c r="KZ111" s="0"/>
-      <c r="LA111" s="0"/>
-      <c r="LB111" s="0"/>
-      <c r="LC111" s="0"/>
-      <c r="LD111" s="0"/>
-      <c r="LE111" s="0"/>
-      <c r="LF111" s="0"/>
-      <c r="LG111" s="0"/>
-      <c r="LH111" s="0"/>
-      <c r="LI111" s="0"/>
-      <c r="LJ111" s="0"/>
-      <c r="LK111" s="0"/>
-      <c r="LL111" s="0"/>
-      <c r="LM111" s="0"/>
-      <c r="LN111" s="0"/>
-      <c r="LO111" s="0"/>
-      <c r="LP111" s="0"/>
-      <c r="LQ111" s="0"/>
-      <c r="LR111" s="0"/>
-      <c r="LS111" s="0"/>
-      <c r="LT111" s="0"/>
-      <c r="LU111" s="0"/>
-      <c r="LV111" s="0"/>
-      <c r="LW111" s="0"/>
-      <c r="LX111" s="0"/>
-      <c r="LY111" s="0"/>
-      <c r="LZ111" s="0"/>
-      <c r="MA111" s="0"/>
-      <c r="MB111" s="0"/>
-      <c r="MC111" s="0"/>
-      <c r="MD111" s="0"/>
-      <c r="ME111" s="0"/>
-      <c r="MF111" s="0"/>
-      <c r="MG111" s="0"/>
-      <c r="MH111" s="0"/>
-      <c r="MI111" s="0"/>
-      <c r="MJ111" s="0"/>
-      <c r="MK111" s="0"/>
-      <c r="ML111" s="0"/>
-      <c r="MM111" s="0"/>
-      <c r="MN111" s="0"/>
-      <c r="MO111" s="0"/>
-      <c r="MP111" s="0"/>
-      <c r="MQ111" s="0"/>
-      <c r="MR111" s="0"/>
-      <c r="MS111" s="0"/>
-      <c r="MT111" s="0"/>
-      <c r="MU111" s="0"/>
-      <c r="MV111" s="0"/>
-      <c r="MW111" s="0"/>
-      <c r="MX111" s="0"/>
-      <c r="MY111" s="0"/>
-      <c r="MZ111" s="0"/>
-      <c r="NA111" s="0"/>
-      <c r="NB111" s="0"/>
-      <c r="NC111" s="0"/>
-      <c r="ND111" s="0"/>
-      <c r="NE111" s="0"/>
-      <c r="NF111" s="0"/>
-      <c r="NG111" s="0"/>
-      <c r="NH111" s="0"/>
-      <c r="NI111" s="0"/>
-      <c r="NJ111" s="0"/>
-      <c r="NK111" s="0"/>
-      <c r="NL111" s="0"/>
-      <c r="NM111" s="0"/>
-      <c r="NN111" s="0"/>
-      <c r="NO111" s="0"/>
-      <c r="NP111" s="0"/>
-      <c r="NQ111" s="0"/>
-      <c r="NR111" s="0"/>
-      <c r="NS111" s="0"/>
-      <c r="NT111" s="0"/>
-      <c r="NU111" s="0"/>
-      <c r="NV111" s="0"/>
-      <c r="NW111" s="0"/>
-      <c r="NX111" s="0"/>
-      <c r="NY111" s="0"/>
-      <c r="NZ111" s="0"/>
-      <c r="OA111" s="0"/>
-      <c r="OB111" s="0"/>
-      <c r="OC111" s="0"/>
-      <c r="OD111" s="0"/>
-      <c r="OE111" s="0"/>
-      <c r="OF111" s="0"/>
-      <c r="OG111" s="0"/>
-      <c r="OH111" s="0"/>
-      <c r="OI111" s="0"/>
-      <c r="OJ111" s="0"/>
-      <c r="OK111" s="0"/>
-      <c r="OL111" s="0"/>
-      <c r="OM111" s="0"/>
-      <c r="ON111" s="0"/>
-      <c r="OO111" s="0"/>
-      <c r="OP111" s="0"/>
-      <c r="OQ111" s="0"/>
-      <c r="OR111" s="0"/>
-      <c r="OS111" s="0"/>
-      <c r="OT111" s="0"/>
-      <c r="OU111" s="0"/>
-      <c r="OV111" s="0"/>
-      <c r="OW111" s="0"/>
-      <c r="OX111" s="0"/>
-      <c r="OY111" s="0"/>
-      <c r="OZ111" s="0"/>
-      <c r="PA111" s="0"/>
-      <c r="PB111" s="0"/>
-      <c r="PC111" s="0"/>
-      <c r="PD111" s="0"/>
-      <c r="PE111" s="0"/>
-      <c r="PF111" s="0"/>
-      <c r="PG111" s="0"/>
-      <c r="PH111" s="0"/>
-      <c r="PI111" s="0"/>
-      <c r="PJ111" s="0"/>
-      <c r="PK111" s="0"/>
-      <c r="PL111" s="0"/>
-      <c r="PM111" s="0"/>
-      <c r="PN111" s="0"/>
-      <c r="PO111" s="0"/>
-      <c r="PP111" s="0"/>
-      <c r="PQ111" s="0"/>
-      <c r="PR111" s="0"/>
-      <c r="PS111" s="0"/>
-      <c r="PT111" s="0"/>
-      <c r="PU111" s="0"/>
-      <c r="PV111" s="0"/>
-      <c r="PW111" s="0"/>
-      <c r="PX111" s="0"/>
-      <c r="PY111" s="0"/>
-      <c r="PZ111" s="0"/>
-      <c r="QA111" s="0"/>
-      <c r="QB111" s="0"/>
-      <c r="QC111" s="0"/>
-      <c r="QD111" s="0"/>
-      <c r="QE111" s="0"/>
-      <c r="QF111" s="0"/>
-      <c r="QG111" s="0"/>
-      <c r="QH111" s="0"/>
-      <c r="QI111" s="0"/>
-      <c r="QJ111" s="0"/>
-      <c r="QK111" s="0"/>
-      <c r="QL111" s="0"/>
-      <c r="QM111" s="0"/>
-      <c r="QN111" s="0"/>
-      <c r="QO111" s="0"/>
-      <c r="QP111" s="0"/>
-      <c r="QQ111" s="0"/>
-      <c r="QR111" s="0"/>
-      <c r="QS111" s="0"/>
-      <c r="QT111" s="0"/>
-      <c r="QU111" s="0"/>
-      <c r="QV111" s="0"/>
-      <c r="QW111" s="0"/>
-      <c r="QX111" s="0"/>
-      <c r="QY111" s="0"/>
-      <c r="QZ111" s="0"/>
-      <c r="RA111" s="0"/>
-      <c r="RB111" s="0"/>
-      <c r="RC111" s="0"/>
-      <c r="RD111" s="0"/>
-      <c r="RE111" s="0"/>
-      <c r="RF111" s="0"/>
-      <c r="RG111" s="0"/>
-      <c r="RH111" s="0"/>
-      <c r="RI111" s="0"/>
-      <c r="RJ111" s="0"/>
-      <c r="RK111" s="0"/>
-      <c r="RL111" s="0"/>
-      <c r="RM111" s="0"/>
-      <c r="RN111" s="0"/>
-      <c r="RO111" s="0"/>
-      <c r="RP111" s="0"/>
-      <c r="RQ111" s="0"/>
-      <c r="RR111" s="0"/>
-      <c r="RS111" s="0"/>
-      <c r="RT111" s="0"/>
-      <c r="RU111" s="0"/>
-      <c r="RV111" s="0"/>
-      <c r="RW111" s="0"/>
-      <c r="RX111" s="0"/>
-      <c r="RY111" s="0"/>
-      <c r="RZ111" s="0"/>
-      <c r="SA111" s="0"/>
-      <c r="SB111" s="0"/>
-      <c r="SC111" s="0"/>
-      <c r="SD111" s="0"/>
-      <c r="SE111" s="0"/>
-      <c r="SF111" s="0"/>
-      <c r="SG111" s="0"/>
-      <c r="SH111" s="0"/>
-      <c r="SI111" s="0"/>
-      <c r="SJ111" s="0"/>
-      <c r="SK111" s="0"/>
-      <c r="SL111" s="0"/>
-      <c r="SM111" s="0"/>
-      <c r="SN111" s="0"/>
-      <c r="SO111" s="0"/>
-      <c r="SP111" s="0"/>
-      <c r="SQ111" s="0"/>
-      <c r="SR111" s="0"/>
-      <c r="SS111" s="0"/>
-      <c r="ST111" s="0"/>
-      <c r="SU111" s="0"/>
-      <c r="SV111" s="0"/>
-      <c r="SW111" s="0"/>
-      <c r="SX111" s="0"/>
-      <c r="SY111" s="0"/>
-      <c r="SZ111" s="0"/>
-      <c r="TA111" s="0"/>
-      <c r="TB111" s="0"/>
-      <c r="TC111" s="0"/>
-      <c r="TD111" s="0"/>
-      <c r="TE111" s="0"/>
-      <c r="TF111" s="0"/>
-      <c r="TG111" s="0"/>
-      <c r="TH111" s="0"/>
-      <c r="TI111" s="0"/>
-      <c r="TJ111" s="0"/>
-      <c r="TK111" s="0"/>
-      <c r="TL111" s="0"/>
-      <c r="TM111" s="0"/>
-      <c r="TN111" s="0"/>
-      <c r="TO111" s="0"/>
-      <c r="TP111" s="0"/>
-      <c r="TQ111" s="0"/>
-      <c r="TR111" s="0"/>
-      <c r="TS111" s="0"/>
-      <c r="TT111" s="0"/>
-      <c r="TU111" s="0"/>
-      <c r="TV111" s="0"/>
-      <c r="TW111" s="0"/>
-      <c r="TX111" s="0"/>
-      <c r="TY111" s="0"/>
-      <c r="TZ111" s="0"/>
-      <c r="UA111" s="0"/>
-      <c r="UB111" s="0"/>
-      <c r="UC111" s="0"/>
-      <c r="UD111" s="0"/>
-      <c r="UE111" s="0"/>
-      <c r="UF111" s="0"/>
-      <c r="UG111" s="0"/>
-      <c r="UH111" s="0"/>
-      <c r="UI111" s="0"/>
-      <c r="UJ111" s="0"/>
-      <c r="UK111" s="0"/>
-      <c r="UL111" s="0"/>
-      <c r="UM111" s="0"/>
-      <c r="UN111" s="0"/>
-      <c r="UO111" s="0"/>
-      <c r="UP111" s="0"/>
-      <c r="UQ111" s="0"/>
-      <c r="UR111" s="0"/>
-      <c r="US111" s="0"/>
-      <c r="UT111" s="0"/>
-      <c r="UU111" s="0"/>
-      <c r="UV111" s="0"/>
-      <c r="UW111" s="0"/>
-      <c r="UX111" s="0"/>
-      <c r="UY111" s="0"/>
-      <c r="UZ111" s="0"/>
-      <c r="VA111" s="0"/>
-      <c r="VB111" s="0"/>
-      <c r="VC111" s="0"/>
-      <c r="VD111" s="0"/>
-      <c r="VE111" s="0"/>
-      <c r="VF111" s="0"/>
-      <c r="VG111" s="0"/>
-      <c r="VH111" s="0"/>
-      <c r="VI111" s="0"/>
-      <c r="VJ111" s="0"/>
-      <c r="VK111" s="0"/>
-      <c r="VL111" s="0"/>
-      <c r="VM111" s="0"/>
-      <c r="VN111" s="0"/>
-      <c r="VO111" s="0"/>
-      <c r="VP111" s="0"/>
-      <c r="VQ111" s="0"/>
-      <c r="VR111" s="0"/>
-      <c r="VS111" s="0"/>
-      <c r="VT111" s="0"/>
-      <c r="VU111" s="0"/>
-      <c r="VV111" s="0"/>
-      <c r="VW111" s="0"/>
-      <c r="VX111" s="0"/>
-      <c r="VY111" s="0"/>
-      <c r="VZ111" s="0"/>
-      <c r="WA111" s="0"/>
-      <c r="WB111" s="0"/>
-      <c r="WC111" s="0"/>
-      <c r="WD111" s="0"/>
-      <c r="WE111" s="0"/>
-      <c r="WF111" s="0"/>
-      <c r="WG111" s="0"/>
-      <c r="WH111" s="0"/>
-      <c r="WI111" s="0"/>
-      <c r="WJ111" s="0"/>
-      <c r="WK111" s="0"/>
-      <c r="WL111" s="0"/>
-      <c r="WM111" s="0"/>
-      <c r="WN111" s="0"/>
-      <c r="WO111" s="0"/>
-      <c r="WP111" s="0"/>
-      <c r="WQ111" s="0"/>
-      <c r="WR111" s="0"/>
-      <c r="WS111" s="0"/>
-      <c r="WT111" s="0"/>
-      <c r="WU111" s="0"/>
-      <c r="WV111" s="0"/>
-      <c r="WW111" s="0"/>
-      <c r="WX111" s="0"/>
-      <c r="WY111" s="0"/>
-      <c r="WZ111" s="0"/>
-      <c r="XA111" s="0"/>
-      <c r="XB111" s="0"/>
-      <c r="XC111" s="0"/>
-      <c r="XD111" s="0"/>
-      <c r="XE111" s="0"/>
-      <c r="XF111" s="0"/>
-      <c r="XG111" s="0"/>
-      <c r="XH111" s="0"/>
-      <c r="XI111" s="0"/>
-      <c r="XJ111" s="0"/>
-      <c r="XK111" s="0"/>
-      <c r="XL111" s="0"/>
-      <c r="XM111" s="0"/>
-      <c r="XN111" s="0"/>
-      <c r="XO111" s="0"/>
-      <c r="XP111" s="0"/>
-      <c r="XQ111" s="0"/>
-      <c r="XR111" s="0"/>
-      <c r="XS111" s="0"/>
-      <c r="XT111" s="0"/>
-      <c r="XU111" s="0"/>
-      <c r="XV111" s="0"/>
-      <c r="XW111" s="0"/>
-      <c r="XX111" s="0"/>
-      <c r="XY111" s="0"/>
-      <c r="XZ111" s="0"/>
-      <c r="YA111" s="0"/>
-      <c r="YB111" s="0"/>
-      <c r="YC111" s="0"/>
-      <c r="YD111" s="0"/>
-      <c r="YE111" s="0"/>
-      <c r="YF111" s="0"/>
-      <c r="YG111" s="0"/>
-      <c r="YH111" s="0"/>
-      <c r="YI111" s="0"/>
-      <c r="YJ111" s="0"/>
-      <c r="YK111" s="0"/>
-      <c r="YL111" s="0"/>
-      <c r="YM111" s="0"/>
-      <c r="YN111" s="0"/>
-      <c r="YO111" s="0"/>
-      <c r="YP111" s="0"/>
-      <c r="YQ111" s="0"/>
-      <c r="YR111" s="0"/>
-      <c r="YS111" s="0"/>
-      <c r="YT111" s="0"/>
-      <c r="YU111" s="0"/>
-      <c r="YV111" s="0"/>
-      <c r="YW111" s="0"/>
-      <c r="YX111" s="0"/>
-      <c r="YY111" s="0"/>
-      <c r="YZ111" s="0"/>
-      <c r="ZA111" s="0"/>
-      <c r="ZB111" s="0"/>
-      <c r="ZC111" s="0"/>
-      <c r="ZD111" s="0"/>
-      <c r="ZE111" s="0"/>
-      <c r="ZF111" s="0"/>
-      <c r="ZG111" s="0"/>
-      <c r="ZH111" s="0"/>
-      <c r="ZI111" s="0"/>
-      <c r="ZJ111" s="0"/>
-      <c r="ZK111" s="0"/>
-      <c r="ZL111" s="0"/>
-      <c r="ZM111" s="0"/>
-      <c r="ZN111" s="0"/>
-      <c r="ZO111" s="0"/>
-      <c r="ZP111" s="0"/>
-      <c r="ZQ111" s="0"/>
-      <c r="ZR111" s="0"/>
-      <c r="ZS111" s="0"/>
-      <c r="ZT111" s="0"/>
-      <c r="ZU111" s="0"/>
-      <c r="ZV111" s="0"/>
-      <c r="ZW111" s="0"/>
-      <c r="ZX111" s="0"/>
-      <c r="ZY111" s="0"/>
-      <c r="ZZ111" s="0"/>
-      <c r="AAA111" s="0"/>
-      <c r="AAB111" s="0"/>
-      <c r="AAC111" s="0"/>
-      <c r="AAD111" s="0"/>
-      <c r="AAE111" s="0"/>
-      <c r="AAF111" s="0"/>
-      <c r="AAG111" s="0"/>
-      <c r="AAH111" s="0"/>
-      <c r="AAI111" s="0"/>
-      <c r="AAJ111" s="0"/>
-      <c r="AAK111" s="0"/>
-      <c r="AAL111" s="0"/>
-      <c r="AAM111" s="0"/>
-      <c r="AAN111" s="0"/>
-      <c r="AAO111" s="0"/>
-      <c r="AAP111" s="0"/>
-      <c r="AAQ111" s="0"/>
-      <c r="AAR111" s="0"/>
-      <c r="AAS111" s="0"/>
-      <c r="AAT111" s="0"/>
-      <c r="AAU111" s="0"/>
-      <c r="AAV111" s="0"/>
-      <c r="AAW111" s="0"/>
-      <c r="AAX111" s="0"/>
-      <c r="AAY111" s="0"/>
-      <c r="AAZ111" s="0"/>
-      <c r="ABA111" s="0"/>
-      <c r="ABB111" s="0"/>
-      <c r="ABC111" s="0"/>
-      <c r="ABD111" s="0"/>
-      <c r="ABE111" s="0"/>
-      <c r="ABF111" s="0"/>
-      <c r="ABG111" s="0"/>
-      <c r="ABH111" s="0"/>
-      <c r="ABI111" s="0"/>
-      <c r="ABJ111" s="0"/>
-      <c r="ABK111" s="0"/>
-      <c r="ABL111" s="0"/>
-      <c r="ABM111" s="0"/>
-      <c r="ABN111" s="0"/>
-      <c r="ABO111" s="0"/>
-      <c r="ABP111" s="0"/>
-      <c r="ABQ111" s="0"/>
-      <c r="ABR111" s="0"/>
-      <c r="ABS111" s="0"/>
-      <c r="ABT111" s="0"/>
-      <c r="ABU111" s="0"/>
-      <c r="ABV111" s="0"/>
-      <c r="ABW111" s="0"/>
-      <c r="ABX111" s="0"/>
-      <c r="ABY111" s="0"/>
-      <c r="ABZ111" s="0"/>
-      <c r="ACA111" s="0"/>
-      <c r="ACB111" s="0"/>
-      <c r="ACC111" s="0"/>
-      <c r="ACD111" s="0"/>
-      <c r="ACE111" s="0"/>
-      <c r="ACF111" s="0"/>
-      <c r="ACG111" s="0"/>
-      <c r="ACH111" s="0"/>
-      <c r="ACI111" s="0"/>
-      <c r="ACJ111" s="0"/>
-      <c r="ACK111" s="0"/>
-      <c r="ACL111" s="0"/>
-      <c r="ACM111" s="0"/>
-      <c r="ACN111" s="0"/>
-      <c r="ACO111" s="0"/>
-      <c r="ACP111" s="0"/>
-      <c r="ACQ111" s="0"/>
-      <c r="ACR111" s="0"/>
-      <c r="ACS111" s="0"/>
-      <c r="ACT111" s="0"/>
-      <c r="ACU111" s="0"/>
-      <c r="ACV111" s="0"/>
-      <c r="ACW111" s="0"/>
-      <c r="ACX111" s="0"/>
-      <c r="ACY111" s="0"/>
-      <c r="ACZ111" s="0"/>
-      <c r="ADA111" s="0"/>
-      <c r="ADB111" s="0"/>
-      <c r="ADC111" s="0"/>
-      <c r="ADD111" s="0"/>
-      <c r="ADE111" s="0"/>
-      <c r="ADF111" s="0"/>
-      <c r="ADG111" s="0"/>
-      <c r="ADH111" s="0"/>
-      <c r="ADI111" s="0"/>
-      <c r="ADJ111" s="0"/>
-      <c r="ADK111" s="0"/>
-      <c r="ADL111" s="0"/>
-      <c r="ADM111" s="0"/>
-      <c r="ADN111" s="0"/>
-      <c r="ADO111" s="0"/>
-      <c r="ADP111" s="0"/>
-      <c r="ADQ111" s="0"/>
-      <c r="ADR111" s="0"/>
-      <c r="ADS111" s="0"/>
-      <c r="ADT111" s="0"/>
-      <c r="ADU111" s="0"/>
-      <c r="ADV111" s="0"/>
-      <c r="ADW111" s="0"/>
-      <c r="ADX111" s="0"/>
-      <c r="ADY111" s="0"/>
-      <c r="ADZ111" s="0"/>
-      <c r="AEA111" s="0"/>
-      <c r="AEB111" s="0"/>
-      <c r="AEC111" s="0"/>
-      <c r="AED111" s="0"/>
-      <c r="AEE111" s="0"/>
-      <c r="AEF111" s="0"/>
-      <c r="AEG111" s="0"/>
-      <c r="AEH111" s="0"/>
-      <c r="AEI111" s="0"/>
-      <c r="AEJ111" s="0"/>
-      <c r="AEK111" s="0"/>
-      <c r="AEL111" s="0"/>
-      <c r="AEM111" s="0"/>
-      <c r="AEN111" s="0"/>
-      <c r="AEO111" s="0"/>
-      <c r="AEP111" s="0"/>
-      <c r="AEQ111" s="0"/>
-      <c r="AER111" s="0"/>
-      <c r="AES111" s="0"/>
-      <c r="AET111" s="0"/>
-      <c r="AEU111" s="0"/>
-      <c r="AEV111" s="0"/>
-      <c r="AEW111" s="0"/>
-      <c r="AEX111" s="0"/>
-      <c r="AEY111" s="0"/>
-      <c r="AEZ111" s="0"/>
-      <c r="AFA111" s="0"/>
-      <c r="AFB111" s="0"/>
-      <c r="AFC111" s="0"/>
-      <c r="AFD111" s="0"/>
-      <c r="AFE111" s="0"/>
-      <c r="AFF111" s="0"/>
-      <c r="AFG111" s="0"/>
-      <c r="AFH111" s="0"/>
-      <c r="AFI111" s="0"/>
-      <c r="AFJ111" s="0"/>
-      <c r="AFK111" s="0"/>
-      <c r="AFL111" s="0"/>
-      <c r="AFM111" s="0"/>
-      <c r="AFN111" s="0"/>
-      <c r="AFO111" s="0"/>
-      <c r="AFP111" s="0"/>
-      <c r="AFQ111" s="0"/>
-      <c r="AFR111" s="0"/>
-      <c r="AFS111" s="0"/>
-      <c r="AFT111" s="0"/>
-      <c r="AFU111" s="0"/>
-      <c r="AFV111" s="0"/>
-      <c r="AFW111" s="0"/>
-      <c r="AFX111" s="0"/>
-      <c r="AFY111" s="0"/>
-      <c r="AFZ111" s="0"/>
-      <c r="AGA111" s="0"/>
-      <c r="AGB111" s="0"/>
-      <c r="AGC111" s="0"/>
-      <c r="AGD111" s="0"/>
-      <c r="AGE111" s="0"/>
-      <c r="AGF111" s="0"/>
-      <c r="AGG111" s="0"/>
-      <c r="AGH111" s="0"/>
-      <c r="AGI111" s="0"/>
-      <c r="AGJ111" s="0"/>
-      <c r="AGK111" s="0"/>
-      <c r="AGL111" s="0"/>
-      <c r="AGM111" s="0"/>
-      <c r="AGN111" s="0"/>
-      <c r="AGO111" s="0"/>
-      <c r="AGP111" s="0"/>
-      <c r="AGQ111" s="0"/>
-      <c r="AGR111" s="0"/>
-      <c r="AGS111" s="0"/>
-      <c r="AGT111" s="0"/>
-      <c r="AGU111" s="0"/>
-      <c r="AGV111" s="0"/>
-      <c r="AGW111" s="0"/>
-      <c r="AGX111" s="0"/>
-      <c r="AGY111" s="0"/>
-      <c r="AGZ111" s="0"/>
-      <c r="AHA111" s="0"/>
-      <c r="AHB111" s="0"/>
-      <c r="AHC111" s="0"/>
-      <c r="AHD111" s="0"/>
-      <c r="AHE111" s="0"/>
-      <c r="AHF111" s="0"/>
-      <c r="AHG111" s="0"/>
-      <c r="AHH111" s="0"/>
-      <c r="AHI111" s="0"/>
-      <c r="AHJ111" s="0"/>
-      <c r="AHK111" s="0"/>
-      <c r="AHL111" s="0"/>
-      <c r="AHM111" s="0"/>
-      <c r="AHN111" s="0"/>
-      <c r="AHO111" s="0"/>
-      <c r="AHP111" s="0"/>
-      <c r="AHQ111" s="0"/>
-      <c r="AHR111" s="0"/>
-      <c r="AHS111" s="0"/>
-      <c r="AHT111" s="0"/>
-      <c r="AHU111" s="0"/>
-      <c r="AHV111" s="0"/>
-      <c r="AHW111" s="0"/>
-      <c r="AHX111" s="0"/>
-      <c r="AHY111" s="0"/>
-      <c r="AHZ111" s="0"/>
-      <c r="AIA111" s="0"/>
-      <c r="AIB111" s="0"/>
-      <c r="AIC111" s="0"/>
-      <c r="AID111" s="0"/>
-      <c r="AIE111" s="0"/>
-      <c r="AIF111" s="0"/>
-      <c r="AIG111" s="0"/>
-      <c r="AIH111" s="0"/>
-      <c r="AII111" s="0"/>
-      <c r="AIJ111" s="0"/>
-      <c r="AIK111" s="0"/>
-      <c r="AIL111" s="0"/>
-      <c r="AIM111" s="0"/>
-      <c r="AIN111" s="0"/>
-      <c r="AIO111" s="0"/>
-      <c r="AIP111" s="0"/>
-      <c r="AIQ111" s="0"/>
-      <c r="AIR111" s="0"/>
-      <c r="AIS111" s="0"/>
-      <c r="AIT111" s="0"/>
-      <c r="AIU111" s="0"/>
-      <c r="AIV111" s="0"/>
-      <c r="AIW111" s="0"/>
-      <c r="AIX111" s="0"/>
-      <c r="AIY111" s="0"/>
-      <c r="AIZ111" s="0"/>
-      <c r="AJA111" s="0"/>
-      <c r="AJB111" s="0"/>
-      <c r="AJC111" s="0"/>
-      <c r="AJD111" s="0"/>
-      <c r="AJE111" s="0"/>
-      <c r="AJF111" s="0"/>
-      <c r="AJG111" s="0"/>
-      <c r="AJH111" s="0"/>
-      <c r="AJI111" s="0"/>
-      <c r="AJJ111" s="0"/>
-      <c r="AJK111" s="0"/>
-      <c r="AJL111" s="0"/>
-      <c r="AJM111" s="0"/>
-      <c r="AJN111" s="0"/>
-      <c r="AJO111" s="0"/>
-      <c r="AJP111" s="0"/>
-      <c r="AJQ111" s="0"/>
-      <c r="AJR111" s="0"/>
-      <c r="AJS111" s="0"/>
-      <c r="AJT111" s="0"/>
-      <c r="AJU111" s="0"/>
-      <c r="AJV111" s="0"/>
-      <c r="AJW111" s="0"/>
-      <c r="AJX111" s="0"/>
-      <c r="AJY111" s="0"/>
-      <c r="AJZ111" s="0"/>
-      <c r="AKA111" s="0"/>
-      <c r="AKB111" s="0"/>
-      <c r="AKC111" s="0"/>
-      <c r="AKD111" s="0"/>
-      <c r="AKE111" s="0"/>
-      <c r="AKF111" s="0"/>
-      <c r="AKG111" s="0"/>
-      <c r="AKH111" s="0"/>
-      <c r="AKI111" s="0"/>
-      <c r="AKJ111" s="0"/>
-      <c r="AKK111" s="0"/>
-      <c r="AKL111" s="0"/>
-      <c r="AKM111" s="0"/>
-      <c r="AKN111" s="0"/>
-      <c r="AKO111" s="0"/>
-      <c r="AKP111" s="0"/>
-      <c r="AKQ111" s="0"/>
-      <c r="AKR111" s="0"/>
-      <c r="AKS111" s="0"/>
-      <c r="AKT111" s="0"/>
-      <c r="AKU111" s="0"/>
-      <c r="AKV111" s="0"/>
-      <c r="AKW111" s="0"/>
-      <c r="AKX111" s="0"/>
-      <c r="AKY111" s="0"/>
-      <c r="AKZ111" s="0"/>
-      <c r="ALA111" s="0"/>
-      <c r="ALB111" s="0"/>
-      <c r="ALC111" s="0"/>
-      <c r="ALD111" s="0"/>
-      <c r="ALE111" s="0"/>
-      <c r="ALF111" s="0"/>
-      <c r="ALG111" s="0"/>
-      <c r="ALH111" s="0"/>
-      <c r="ALI111" s="0"/>
-      <c r="ALJ111" s="0"/>
-      <c r="ALK111" s="0"/>
-      <c r="ALL111" s="0"/>
-      <c r="ALM111" s="0"/>
-      <c r="ALN111" s="0"/>
-      <c r="ALO111" s="0"/>
-      <c r="ALP111" s="0"/>
-      <c r="ALQ111" s="0"/>
-      <c r="ALR111" s="0"/>
-      <c r="ALS111" s="0"/>
-      <c r="ALT111" s="0"/>
-      <c r="ALU111" s="0"/>
-      <c r="ALV111" s="0"/>
-      <c r="ALW111" s="0"/>
-      <c r="ALX111" s="0"/>
-      <c r="ALY111" s="0"/>
-      <c r="ALZ111" s="0"/>
-      <c r="AMA111" s="0"/>
-      <c r="AMB111" s="0"/>
-      <c r="AMC111" s="0"/>
-      <c r="AMD111" s="0"/>
-      <c r="AME111" s="0"/>
-      <c r="AMF111" s="0"/>
-      <c r="AMG111" s="0"/>
-      <c r="AMH111" s="0"/>
-      <c r="AMI111" s="0"/>
-      <c r="AMJ111" s="0"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="0"/>
+      <c r="M112" s="0"/>
+      <c r="N112" s="0"/>
+      <c r="O112" s="0"/>
+      <c r="P112" s="0"/>
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0"/>
+      <c r="S112" s="0"/>
+      <c r="T112" s="0"/>
+      <c r="U112" s="0"/>
+      <c r="V112" s="0"/>
+      <c r="W112" s="0"/>
+      <c r="X112" s="0"/>
+      <c r="Y112" s="0"/>
+      <c r="Z112" s="0"/>
+      <c r="AA112" s="0"/>
+      <c r="AB112" s="0"/>
+      <c r="AC112" s="0"/>
+      <c r="AD112" s="0"/>
+      <c r="AE112" s="0"/>
+      <c r="AF112" s="0"/>
+      <c r="AG112" s="0"/>
+      <c r="AH112" s="0"/>
+      <c r="AI112" s="0"/>
+      <c r="AJ112" s="0"/>
+      <c r="AK112" s="0"/>
+      <c r="AL112" s="0"/>
+      <c r="AM112" s="0"/>
+      <c r="AN112" s="0"/>
+      <c r="AO112" s="0"/>
+      <c r="AP112" s="0"/>
+      <c r="AQ112" s="0"/>
+      <c r="AR112" s="0"/>
+      <c r="AS112" s="0"/>
+      <c r="AT112" s="0"/>
+      <c r="AU112" s="0"/>
+      <c r="AV112" s="0"/>
+      <c r="AW112" s="0"/>
+      <c r="AX112" s="0"/>
+      <c r="AY112" s="0"/>
+      <c r="AZ112" s="0"/>
+      <c r="BA112" s="0"/>
+      <c r="BB112" s="0"/>
+      <c r="BC112" s="0"/>
+      <c r="BD112" s="0"/>
+      <c r="BE112" s="0"/>
+      <c r="BF112" s="0"/>
+      <c r="BG112" s="0"/>
+      <c r="BH112" s="0"/>
+      <c r="BI112" s="0"/>
+      <c r="BJ112" s="0"/>
+      <c r="BK112" s="0"/>
+      <c r="BL112" s="0"/>
+      <c r="BM112" s="0"/>
+      <c r="BN112" s="0"/>
+      <c r="BO112" s="0"/>
+      <c r="BP112" s="0"/>
+      <c r="BQ112" s="0"/>
+      <c r="BR112" s="0"/>
+      <c r="BS112" s="0"/>
+      <c r="BT112" s="0"/>
+      <c r="BU112" s="0"/>
+      <c r="BV112" s="0"/>
+      <c r="BW112" s="0"/>
+      <c r="BX112" s="0"/>
+      <c r="BY112" s="0"/>
+      <c r="BZ112" s="0"/>
+      <c r="CA112" s="0"/>
+      <c r="CB112" s="0"/>
+      <c r="CC112" s="0"/>
+      <c r="CD112" s="0"/>
+      <c r="CE112" s="0"/>
+      <c r="CF112" s="0"/>
+      <c r="CG112" s="0"/>
+      <c r="CH112" s="0"/>
+      <c r="CI112" s="0"/>
+      <c r="CJ112" s="0"/>
+      <c r="CK112" s="0"/>
+      <c r="CL112" s="0"/>
+      <c r="CM112" s="0"/>
+      <c r="CN112" s="0"/>
+      <c r="CO112" s="0"/>
+      <c r="CP112" s="0"/>
+      <c r="CQ112" s="0"/>
+      <c r="CR112" s="0"/>
+      <c r="CS112" s="0"/>
+      <c r="CT112" s="0"/>
+      <c r="CU112" s="0"/>
+      <c r="CV112" s="0"/>
+      <c r="CW112" s="0"/>
+      <c r="CX112" s="0"/>
+      <c r="CY112" s="0"/>
+      <c r="CZ112" s="0"/>
+      <c r="DA112" s="0"/>
+      <c r="DB112" s="0"/>
+      <c r="DC112" s="0"/>
+      <c r="DD112" s="0"/>
+      <c r="DE112" s="0"/>
+      <c r="DF112" s="0"/>
+      <c r="DG112" s="0"/>
+      <c r="DH112" s="0"/>
+      <c r="DI112" s="0"/>
+      <c r="DJ112" s="0"/>
+      <c r="DK112" s="0"/>
+      <c r="DL112" s="0"/>
+      <c r="DM112" s="0"/>
+      <c r="DN112" s="0"/>
+      <c r="DO112" s="0"/>
+      <c r="DP112" s="0"/>
+      <c r="DQ112" s="0"/>
+      <c r="DR112" s="0"/>
+      <c r="DS112" s="0"/>
+      <c r="DT112" s="0"/>
+      <c r="DU112" s="0"/>
+      <c r="DV112" s="0"/>
+      <c r="DW112" s="0"/>
+      <c r="DX112" s="0"/>
+      <c r="DY112" s="0"/>
+      <c r="DZ112" s="0"/>
+      <c r="EA112" s="0"/>
+      <c r="EB112" s="0"/>
+      <c r="EC112" s="0"/>
+      <c r="ED112" s="0"/>
+      <c r="EE112" s="0"/>
+      <c r="EF112" s="0"/>
+      <c r="EG112" s="0"/>
+      <c r="EH112" s="0"/>
+      <c r="EI112" s="0"/>
+      <c r="EJ112" s="0"/>
+      <c r="EK112" s="0"/>
+      <c r="EL112" s="0"/>
+      <c r="EM112" s="0"/>
+      <c r="EN112" s="0"/>
+      <c r="EO112" s="0"/>
+      <c r="EP112" s="0"/>
+      <c r="EQ112" s="0"/>
+      <c r="ER112" s="0"/>
+      <c r="ES112" s="0"/>
+      <c r="ET112" s="0"/>
+      <c r="EU112" s="0"/>
+      <c r="EV112" s="0"/>
+      <c r="EW112" s="0"/>
+      <c r="EX112" s="0"/>
+      <c r="EY112" s="0"/>
+      <c r="EZ112" s="0"/>
+      <c r="FA112" s="0"/>
+      <c r="FB112" s="0"/>
+      <c r="FC112" s="0"/>
+      <c r="FD112" s="0"/>
+      <c r="FE112" s="0"/>
+      <c r="FF112" s="0"/>
+      <c r="FG112" s="0"/>
+      <c r="FH112" s="0"/>
+      <c r="FI112" s="0"/>
+      <c r="FJ112" s="0"/>
+      <c r="FK112" s="0"/>
+      <c r="FL112" s="0"/>
+      <c r="FM112" s="0"/>
+      <c r="FN112" s="0"/>
+      <c r="FO112" s="0"/>
+      <c r="FP112" s="0"/>
+      <c r="FQ112" s="0"/>
+      <c r="FR112" s="0"/>
+      <c r="FS112" s="0"/>
+      <c r="FT112" s="0"/>
+      <c r="FU112" s="0"/>
+      <c r="FV112" s="0"/>
+      <c r="FW112" s="0"/>
+      <c r="FX112" s="0"/>
+      <c r="FY112" s="0"/>
+      <c r="FZ112" s="0"/>
+      <c r="GA112" s="0"/>
+      <c r="GB112" s="0"/>
+      <c r="GC112" s="0"/>
+      <c r="GD112" s="0"/>
+      <c r="GE112" s="0"/>
+      <c r="GF112" s="0"/>
+      <c r="GG112" s="0"/>
+      <c r="GH112" s="0"/>
+      <c r="GI112" s="0"/>
+      <c r="GJ112" s="0"/>
+      <c r="GK112" s="0"/>
+      <c r="GL112" s="0"/>
+      <c r="GM112" s="0"/>
+      <c r="GN112" s="0"/>
+      <c r="GO112" s="0"/>
+      <c r="GP112" s="0"/>
+      <c r="GQ112" s="0"/>
+      <c r="GR112" s="0"/>
+      <c r="GS112" s="0"/>
+      <c r="GT112" s="0"/>
+      <c r="GU112" s="0"/>
+      <c r="GV112" s="0"/>
+      <c r="GW112" s="0"/>
+      <c r="GX112" s="0"/>
+      <c r="GY112" s="0"/>
+      <c r="GZ112" s="0"/>
+      <c r="HA112" s="0"/>
+      <c r="HB112" s="0"/>
+      <c r="HC112" s="0"/>
+      <c r="HD112" s="0"/>
+      <c r="HE112" s="0"/>
+      <c r="HF112" s="0"/>
+      <c r="HG112" s="0"/>
+      <c r="HH112" s="0"/>
+      <c r="HI112" s="0"/>
+      <c r="HJ112" s="0"/>
+      <c r="HK112" s="0"/>
+      <c r="HL112" s="0"/>
+      <c r="HM112" s="0"/>
+      <c r="HN112" s="0"/>
+      <c r="HO112" s="0"/>
+      <c r="HP112" s="0"/>
+      <c r="HQ112" s="0"/>
+      <c r="HR112" s="0"/>
+      <c r="HS112" s="0"/>
+      <c r="HT112" s="0"/>
+      <c r="HU112" s="0"/>
+      <c r="HV112" s="0"/>
+      <c r="HW112" s="0"/>
+      <c r="HX112" s="0"/>
+      <c r="HY112" s="0"/>
+      <c r="HZ112" s="0"/>
+      <c r="IA112" s="0"/>
+      <c r="IB112" s="0"/>
+      <c r="IC112" s="0"/>
+      <c r="ID112" s="0"/>
+      <c r="IE112" s="0"/>
+      <c r="IF112" s="0"/>
+      <c r="IG112" s="0"/>
+      <c r="IH112" s="0"/>
+      <c r="II112" s="0"/>
+      <c r="IJ112" s="0"/>
+      <c r="IK112" s="0"/>
+      <c r="IL112" s="0"/>
+      <c r="IM112" s="0"/>
+      <c r="IN112" s="0"/>
+      <c r="IO112" s="0"/>
+      <c r="IP112" s="0"/>
+      <c r="IQ112" s="0"/>
+      <c r="IR112" s="0"/>
+      <c r="IS112" s="0"/>
+      <c r="IT112" s="0"/>
+      <c r="IU112" s="0"/>
+      <c r="IV112" s="0"/>
+      <c r="IW112" s="0"/>
+      <c r="IX112" s="0"/>
+      <c r="IY112" s="0"/>
+      <c r="IZ112" s="0"/>
+      <c r="JA112" s="0"/>
+      <c r="JB112" s="0"/>
+      <c r="JC112" s="0"/>
+      <c r="JD112" s="0"/>
+      <c r="JE112" s="0"/>
+      <c r="JF112" s="0"/>
+      <c r="JG112" s="0"/>
+      <c r="JH112" s="0"/>
+      <c r="JI112" s="0"/>
+      <c r="JJ112" s="0"/>
+      <c r="JK112" s="0"/>
+      <c r="JL112" s="0"/>
+      <c r="JM112" s="0"/>
+      <c r="JN112" s="0"/>
+      <c r="JO112" s="0"/>
+      <c r="JP112" s="0"/>
+      <c r="JQ112" s="0"/>
+      <c r="JR112" s="0"/>
+      <c r="JS112" s="0"/>
+      <c r="JT112" s="0"/>
+      <c r="JU112" s="0"/>
+      <c r="JV112" s="0"/>
+      <c r="JW112" s="0"/>
+      <c r="JX112" s="0"/>
+      <c r="JY112" s="0"/>
+      <c r="JZ112" s="0"/>
+      <c r="KA112" s="0"/>
+      <c r="KB112" s="0"/>
+      <c r="KC112" s="0"/>
+      <c r="KD112" s="0"/>
+      <c r="KE112" s="0"/>
+      <c r="KF112" s="0"/>
+      <c r="KG112" s="0"/>
+      <c r="KH112" s="0"/>
+      <c r="KI112" s="0"/>
+      <c r="KJ112" s="0"/>
+      <c r="KK112" s="0"/>
+      <c r="KL112" s="0"/>
+      <c r="KM112" s="0"/>
+      <c r="KN112" s="0"/>
+      <c r="KO112" s="0"/>
+      <c r="KP112" s="0"/>
+      <c r="KQ112" s="0"/>
+      <c r="KR112" s="0"/>
+      <c r="KS112" s="0"/>
+      <c r="KT112" s="0"/>
+      <c r="KU112" s="0"/>
+      <c r="KV112" s="0"/>
+      <c r="KW112" s="0"/>
+      <c r="KX112" s="0"/>
+      <c r="KY112" s="0"/>
+      <c r="KZ112" s="0"/>
+      <c r="LA112" s="0"/>
+      <c r="LB112" s="0"/>
+      <c r="LC112" s="0"/>
+      <c r="LD112" s="0"/>
+      <c r="LE112" s="0"/>
+      <c r="LF112" s="0"/>
+      <c r="LG112" s="0"/>
+      <c r="LH112" s="0"/>
+      <c r="LI112" s="0"/>
+      <c r="LJ112" s="0"/>
+      <c r="LK112" s="0"/>
+      <c r="LL112" s="0"/>
+      <c r="LM112" s="0"/>
+      <c r="LN112" s="0"/>
+      <c r="LO112" s="0"/>
+      <c r="LP112" s="0"/>
+      <c r="LQ112" s="0"/>
+      <c r="LR112" s="0"/>
+      <c r="LS112" s="0"/>
+      <c r="LT112" s="0"/>
+      <c r="LU112" s="0"/>
+      <c r="LV112" s="0"/>
+      <c r="LW112" s="0"/>
+      <c r="LX112" s="0"/>
+      <c r="LY112" s="0"/>
+      <c r="LZ112" s="0"/>
+      <c r="MA112" s="0"/>
+      <c r="MB112" s="0"/>
+      <c r="MC112" s="0"/>
+      <c r="MD112" s="0"/>
+      <c r="ME112" s="0"/>
+      <c r="MF112" s="0"/>
+      <c r="MG112" s="0"/>
+      <c r="MH112" s="0"/>
+      <c r="MI112" s="0"/>
+      <c r="MJ112" s="0"/>
+      <c r="MK112" s="0"/>
+      <c r="ML112" s="0"/>
+      <c r="MM112" s="0"/>
+      <c r="MN112" s="0"/>
+      <c r="MO112" s="0"/>
+      <c r="MP112" s="0"/>
+      <c r="MQ112" s="0"/>
+      <c r="MR112" s="0"/>
+      <c r="MS112" s="0"/>
+      <c r="MT112" s="0"/>
+      <c r="MU112" s="0"/>
+      <c r="MV112" s="0"/>
+      <c r="MW112" s="0"/>
+      <c r="MX112" s="0"/>
+      <c r="MY112" s="0"/>
+      <c r="MZ112" s="0"/>
+      <c r="NA112" s="0"/>
+      <c r="NB112" s="0"/>
+      <c r="NC112" s="0"/>
+      <c r="ND112" s="0"/>
+      <c r="NE112" s="0"/>
+      <c r="NF112" s="0"/>
+      <c r="NG112" s="0"/>
+      <c r="NH112" s="0"/>
+      <c r="NI112" s="0"/>
+      <c r="NJ112" s="0"/>
+      <c r="NK112" s="0"/>
+      <c r="NL112" s="0"/>
+      <c r="NM112" s="0"/>
+      <c r="NN112" s="0"/>
+      <c r="NO112" s="0"/>
+      <c r="NP112" s="0"/>
+      <c r="NQ112" s="0"/>
+      <c r="NR112" s="0"/>
+      <c r="NS112" s="0"/>
+      <c r="NT112" s="0"/>
+      <c r="NU112" s="0"/>
+      <c r="NV112" s="0"/>
+      <c r="NW112" s="0"/>
+      <c r="NX112" s="0"/>
+      <c r="NY112" s="0"/>
+      <c r="NZ112" s="0"/>
+      <c r="OA112" s="0"/>
+      <c r="OB112" s="0"/>
+      <c r="OC112" s="0"/>
+      <c r="OD112" s="0"/>
+      <c r="OE112" s="0"/>
+      <c r="OF112" s="0"/>
+      <c r="OG112" s="0"/>
+      <c r="OH112" s="0"/>
+      <c r="OI112" s="0"/>
+      <c r="OJ112" s="0"/>
+      <c r="OK112" s="0"/>
+      <c r="OL112" s="0"/>
+      <c r="OM112" s="0"/>
+      <c r="ON112" s="0"/>
+      <c r="OO112" s="0"/>
+      <c r="OP112" s="0"/>
+      <c r="OQ112" s="0"/>
+      <c r="OR112" s="0"/>
+      <c r="OS112" s="0"/>
+      <c r="OT112" s="0"/>
+      <c r="OU112" s="0"/>
+      <c r="OV112" s="0"/>
+      <c r="OW112" s="0"/>
+      <c r="OX112" s="0"/>
+      <c r="OY112" s="0"/>
+      <c r="OZ112" s="0"/>
+      <c r="PA112" s="0"/>
+      <c r="PB112" s="0"/>
+      <c r="PC112" s="0"/>
+      <c r="PD112" s="0"/>
+      <c r="PE112" s="0"/>
+      <c r="PF112" s="0"/>
+      <c r="PG112" s="0"/>
+      <c r="PH112" s="0"/>
+      <c r="PI112" s="0"/>
+      <c r="PJ112" s="0"/>
+      <c r="PK112" s="0"/>
+      <c r="PL112" s="0"/>
+      <c r="PM112" s="0"/>
+      <c r="PN112" s="0"/>
+      <c r="PO112" s="0"/>
+      <c r="PP112" s="0"/>
+      <c r="PQ112" s="0"/>
+      <c r="PR112" s="0"/>
+      <c r="PS112" s="0"/>
+      <c r="PT112" s="0"/>
+      <c r="PU112" s="0"/>
+      <c r="PV112" s="0"/>
+      <c r="PW112" s="0"/>
+      <c r="PX112" s="0"/>
+      <c r="PY112" s="0"/>
+      <c r="PZ112" s="0"/>
+      <c r="QA112" s="0"/>
+      <c r="QB112" s="0"/>
+      <c r="QC112" s="0"/>
+      <c r="QD112" s="0"/>
+      <c r="QE112" s="0"/>
+      <c r="QF112" s="0"/>
+      <c r="QG112" s="0"/>
+      <c r="QH112" s="0"/>
+      <c r="QI112" s="0"/>
+      <c r="QJ112" s="0"/>
+      <c r="QK112" s="0"/>
+      <c r="QL112" s="0"/>
+      <c r="QM112" s="0"/>
+      <c r="QN112" s="0"/>
+      <c r="QO112" s="0"/>
+      <c r="QP112" s="0"/>
+      <c r="QQ112" s="0"/>
+      <c r="QR112" s="0"/>
+      <c r="QS112" s="0"/>
+      <c r="QT112" s="0"/>
+      <c r="QU112" s="0"/>
+      <c r="QV112" s="0"/>
+      <c r="QW112" s="0"/>
+      <c r="QX112" s="0"/>
+      <c r="QY112" s="0"/>
+      <c r="QZ112" s="0"/>
+      <c r="RA112" s="0"/>
+      <c r="RB112" s="0"/>
+      <c r="RC112" s="0"/>
+      <c r="RD112" s="0"/>
+      <c r="RE112" s="0"/>
+      <c r="RF112" s="0"/>
+      <c r="RG112" s="0"/>
+      <c r="RH112" s="0"/>
+      <c r="RI112" s="0"/>
+      <c r="RJ112" s="0"/>
+      <c r="RK112" s="0"/>
+      <c r="RL112" s="0"/>
+      <c r="RM112" s="0"/>
+      <c r="RN112" s="0"/>
+      <c r="RO112" s="0"/>
+      <c r="RP112" s="0"/>
+      <c r="RQ112" s="0"/>
+      <c r="RR112" s="0"/>
+      <c r="RS112" s="0"/>
+      <c r="RT112" s="0"/>
+      <c r="RU112" s="0"/>
+      <c r="RV112" s="0"/>
+      <c r="RW112" s="0"/>
+      <c r="RX112" s="0"/>
+      <c r="RY112" s="0"/>
+      <c r="RZ112" s="0"/>
+      <c r="SA112" s="0"/>
+      <c r="SB112" s="0"/>
+      <c r="SC112" s="0"/>
+      <c r="SD112" s="0"/>
+      <c r="SE112" s="0"/>
+      <c r="SF112" s="0"/>
+      <c r="SG112" s="0"/>
+      <c r="SH112" s="0"/>
+      <c r="SI112" s="0"/>
+      <c r="SJ112" s="0"/>
+      <c r="SK112" s="0"/>
+      <c r="SL112" s="0"/>
+      <c r="SM112" s="0"/>
+      <c r="SN112" s="0"/>
+      <c r="SO112" s="0"/>
+      <c r="SP112" s="0"/>
+      <c r="SQ112" s="0"/>
+      <c r="SR112" s="0"/>
+      <c r="SS112" s="0"/>
+      <c r="ST112" s="0"/>
+      <c r="SU112" s="0"/>
+      <c r="SV112" s="0"/>
+      <c r="SW112" s="0"/>
+      <c r="SX112" s="0"/>
+      <c r="SY112" s="0"/>
+      <c r="SZ112" s="0"/>
+      <c r="TA112" s="0"/>
+      <c r="TB112" s="0"/>
+      <c r="TC112" s="0"/>
+      <c r="TD112" s="0"/>
+      <c r="TE112" s="0"/>
+      <c r="TF112" s="0"/>
+      <c r="TG112" s="0"/>
+      <c r="TH112" s="0"/>
+      <c r="TI112" s="0"/>
+      <c r="TJ112" s="0"/>
+      <c r="TK112" s="0"/>
+      <c r="TL112" s="0"/>
+      <c r="TM112" s="0"/>
+      <c r="TN112" s="0"/>
+      <c r="TO112" s="0"/>
+      <c r="TP112" s="0"/>
+      <c r="TQ112" s="0"/>
+      <c r="TR112" s="0"/>
+      <c r="TS112" s="0"/>
+      <c r="TT112" s="0"/>
+      <c r="TU112" s="0"/>
+      <c r="TV112" s="0"/>
+      <c r="TW112" s="0"/>
+      <c r="TX112" s="0"/>
+      <c r="TY112" s="0"/>
+      <c r="TZ112" s="0"/>
+      <c r="UA112" s="0"/>
+      <c r="UB112" s="0"/>
+      <c r="UC112" s="0"/>
+      <c r="UD112" s="0"/>
+      <c r="UE112" s="0"/>
+      <c r="UF112" s="0"/>
+      <c r="UG112" s="0"/>
+      <c r="UH112" s="0"/>
+      <c r="UI112" s="0"/>
+      <c r="UJ112" s="0"/>
+      <c r="UK112" s="0"/>
+      <c r="UL112" s="0"/>
+      <c r="UM112" s="0"/>
+      <c r="UN112" s="0"/>
+      <c r="UO112" s="0"/>
+      <c r="UP112" s="0"/>
+      <c r="UQ112" s="0"/>
+      <c r="UR112" s="0"/>
+      <c r="US112" s="0"/>
+      <c r="UT112" s="0"/>
+      <c r="UU112" s="0"/>
+      <c r="UV112" s="0"/>
+      <c r="UW112" s="0"/>
+      <c r="UX112" s="0"/>
+      <c r="UY112" s="0"/>
+      <c r="UZ112" s="0"/>
+      <c r="VA112" s="0"/>
+      <c r="VB112" s="0"/>
+      <c r="VC112" s="0"/>
+      <c r="VD112" s="0"/>
+      <c r="VE112" s="0"/>
+      <c r="VF112" s="0"/>
+      <c r="VG112" s="0"/>
+      <c r="VH112" s="0"/>
+      <c r="VI112" s="0"/>
+      <c r="VJ112" s="0"/>
+      <c r="VK112" s="0"/>
+      <c r="VL112" s="0"/>
+      <c r="VM112" s="0"/>
+      <c r="VN112" s="0"/>
+      <c r="VO112" s="0"/>
+      <c r="VP112" s="0"/>
+      <c r="VQ112" s="0"/>
+      <c r="VR112" s="0"/>
+      <c r="VS112" s="0"/>
+      <c r="VT112" s="0"/>
+      <c r="VU112" s="0"/>
+      <c r="VV112" s="0"/>
+      <c r="VW112" s="0"/>
+      <c r="VX112" s="0"/>
+      <c r="VY112" s="0"/>
+      <c r="VZ112" s="0"/>
+      <c r="WA112" s="0"/>
+      <c r="WB112" s="0"/>
+      <c r="WC112" s="0"/>
+      <c r="WD112" s="0"/>
+      <c r="WE112" s="0"/>
+      <c r="WF112" s="0"/>
+      <c r="WG112" s="0"/>
+      <c r="WH112" s="0"/>
+      <c r="WI112" s="0"/>
+      <c r="WJ112" s="0"/>
+      <c r="WK112" s="0"/>
+      <c r="WL112" s="0"/>
+      <c r="WM112" s="0"/>
+      <c r="WN112" s="0"/>
+      <c r="WO112" s="0"/>
+      <c r="WP112" s="0"/>
+      <c r="WQ112" s="0"/>
+      <c r="WR112" s="0"/>
+      <c r="WS112" s="0"/>
+      <c r="WT112" s="0"/>
+      <c r="WU112" s="0"/>
+      <c r="WV112" s="0"/>
+      <c r="WW112" s="0"/>
+      <c r="WX112" s="0"/>
+      <c r="WY112" s="0"/>
+      <c r="WZ112" s="0"/>
+      <c r="XA112" s="0"/>
+      <c r="XB112" s="0"/>
+      <c r="XC112" s="0"/>
+      <c r="XD112" s="0"/>
+      <c r="XE112" s="0"/>
+      <c r="XF112" s="0"/>
+      <c r="XG112" s="0"/>
+      <c r="XH112" s="0"/>
+      <c r="XI112" s="0"/>
+      <c r="XJ112" s="0"/>
+      <c r="XK112" s="0"/>
+      <c r="XL112" s="0"/>
+      <c r="XM112" s="0"/>
+      <c r="XN112" s="0"/>
+      <c r="XO112" s="0"/>
+      <c r="XP112" s="0"/>
+      <c r="XQ112" s="0"/>
+      <c r="XR112" s="0"/>
+      <c r="XS112" s="0"/>
+      <c r="XT112" s="0"/>
+      <c r="XU112" s="0"/>
+      <c r="XV112" s="0"/>
+      <c r="XW112" s="0"/>
+      <c r="XX112" s="0"/>
+      <c r="XY112" s="0"/>
+      <c r="XZ112" s="0"/>
+      <c r="YA112" s="0"/>
+      <c r="YB112" s="0"/>
+      <c r="YC112" s="0"/>
+      <c r="YD112" s="0"/>
+      <c r="YE112" s="0"/>
+      <c r="YF112" s="0"/>
+      <c r="YG112" s="0"/>
+      <c r="YH112" s="0"/>
+      <c r="YI112" s="0"/>
+      <c r="YJ112" s="0"/>
+      <c r="YK112" s="0"/>
+      <c r="YL112" s="0"/>
+      <c r="YM112" s="0"/>
+      <c r="YN112" s="0"/>
+      <c r="YO112" s="0"/>
+      <c r="YP112" s="0"/>
+      <c r="YQ112" s="0"/>
+      <c r="YR112" s="0"/>
+      <c r="YS112" s="0"/>
+      <c r="YT112" s="0"/>
+      <c r="YU112" s="0"/>
+      <c r="YV112" s="0"/>
+      <c r="YW112" s="0"/>
+      <c r="YX112" s="0"/>
+      <c r="YY112" s="0"/>
+      <c r="YZ112" s="0"/>
+      <c r="ZA112" s="0"/>
+      <c r="ZB112" s="0"/>
+      <c r="ZC112" s="0"/>
+      <c r="ZD112" s="0"/>
+      <c r="ZE112" s="0"/>
+      <c r="ZF112" s="0"/>
+      <c r="ZG112" s="0"/>
+      <c r="ZH112" s="0"/>
+      <c r="ZI112" s="0"/>
+      <c r="ZJ112" s="0"/>
+      <c r="ZK112" s="0"/>
+      <c r="ZL112" s="0"/>
+      <c r="ZM112" s="0"/>
+      <c r="ZN112" s="0"/>
+      <c r="ZO112" s="0"/>
+      <c r="ZP112" s="0"/>
+      <c r="ZQ112" s="0"/>
+      <c r="ZR112" s="0"/>
+      <c r="ZS112" s="0"/>
+      <c r="ZT112" s="0"/>
+      <c r="ZU112" s="0"/>
+      <c r="ZV112" s="0"/>
+      <c r="ZW112" s="0"/>
+      <c r="ZX112" s="0"/>
+      <c r="ZY112" s="0"/>
+      <c r="ZZ112" s="0"/>
+      <c r="AAA112" s="0"/>
+      <c r="AAB112" s="0"/>
+      <c r="AAC112" s="0"/>
+      <c r="AAD112" s="0"/>
+      <c r="AAE112" s="0"/>
+      <c r="AAF112" s="0"/>
+      <c r="AAG112" s="0"/>
+      <c r="AAH112" s="0"/>
+      <c r="AAI112" s="0"/>
+      <c r="AAJ112" s="0"/>
+      <c r="AAK112" s="0"/>
+      <c r="AAL112" s="0"/>
+      <c r="AAM112" s="0"/>
+      <c r="AAN112" s="0"/>
+      <c r="AAO112" s="0"/>
+      <c r="AAP112" s="0"/>
+      <c r="AAQ112" s="0"/>
+      <c r="AAR112" s="0"/>
+      <c r="AAS112" s="0"/>
+      <c r="AAT112" s="0"/>
+      <c r="AAU112" s="0"/>
+      <c r="AAV112" s="0"/>
+      <c r="AAW112" s="0"/>
+      <c r="AAX112" s="0"/>
+      <c r="AAY112" s="0"/>
+      <c r="AAZ112" s="0"/>
+      <c r="ABA112" s="0"/>
+      <c r="ABB112" s="0"/>
+      <c r="ABC112" s="0"/>
+      <c r="ABD112" s="0"/>
+      <c r="ABE112" s="0"/>
+      <c r="ABF112" s="0"/>
+      <c r="ABG112" s="0"/>
+      <c r="ABH112" s="0"/>
+      <c r="ABI112" s="0"/>
+      <c r="ABJ112" s="0"/>
+      <c r="ABK112" s="0"/>
+      <c r="ABL112" s="0"/>
+      <c r="ABM112" s="0"/>
+      <c r="ABN112" s="0"/>
+      <c r="ABO112" s="0"/>
+      <c r="ABP112" s="0"/>
+      <c r="ABQ112" s="0"/>
+      <c r="ABR112" s="0"/>
+      <c r="ABS112" s="0"/>
+      <c r="ABT112" s="0"/>
+      <c r="ABU112" s="0"/>
+      <c r="ABV112" s="0"/>
+      <c r="ABW112" s="0"/>
+      <c r="ABX112" s="0"/>
+      <c r="ABY112" s="0"/>
+      <c r="ABZ112" s="0"/>
+      <c r="ACA112" s="0"/>
+      <c r="ACB112" s="0"/>
+      <c r="ACC112" s="0"/>
+      <c r="ACD112" s="0"/>
+      <c r="ACE112" s="0"/>
+      <c r="ACF112" s="0"/>
+      <c r="ACG112" s="0"/>
+      <c r="ACH112" s="0"/>
+      <c r="ACI112" s="0"/>
+      <c r="ACJ112" s="0"/>
+      <c r="ACK112" s="0"/>
+      <c r="ACL112" s="0"/>
+      <c r="ACM112" s="0"/>
+      <c r="ACN112" s="0"/>
+      <c r="ACO112" s="0"/>
+      <c r="ACP112" s="0"/>
+      <c r="ACQ112" s="0"/>
+      <c r="ACR112" s="0"/>
+      <c r="ACS112" s="0"/>
+      <c r="ACT112" s="0"/>
+      <c r="ACU112" s="0"/>
+      <c r="ACV112" s="0"/>
+      <c r="ACW112" s="0"/>
+      <c r="ACX112" s="0"/>
+      <c r="ACY112" s="0"/>
+      <c r="ACZ112" s="0"/>
+      <c r="ADA112" s="0"/>
+      <c r="ADB112" s="0"/>
+      <c r="ADC112" s="0"/>
+      <c r="ADD112" s="0"/>
+      <c r="ADE112" s="0"/>
+      <c r="ADF112" s="0"/>
+      <c r="ADG112" s="0"/>
+      <c r="ADH112" s="0"/>
+      <c r="ADI112" s="0"/>
+      <c r="ADJ112" s="0"/>
+      <c r="ADK112" s="0"/>
+      <c r="ADL112" s="0"/>
+      <c r="ADM112" s="0"/>
+      <c r="ADN112" s="0"/>
+      <c r="ADO112" s="0"/>
+      <c r="ADP112" s="0"/>
+      <c r="ADQ112" s="0"/>
+      <c r="ADR112" s="0"/>
+      <c r="ADS112" s="0"/>
+      <c r="ADT112" s="0"/>
+      <c r="ADU112" s="0"/>
+      <c r="ADV112" s="0"/>
+      <c r="ADW112" s="0"/>
+      <c r="ADX112" s="0"/>
+      <c r="ADY112" s="0"/>
+      <c r="ADZ112" s="0"/>
+      <c r="AEA112" s="0"/>
+      <c r="AEB112" s="0"/>
+      <c r="AEC112" s="0"/>
+      <c r="AED112" s="0"/>
+      <c r="AEE112" s="0"/>
+      <c r="AEF112" s="0"/>
+      <c r="AEG112" s="0"/>
+      <c r="AEH112" s="0"/>
+      <c r="AEI112" s="0"/>
+      <c r="AEJ112" s="0"/>
+      <c r="AEK112" s="0"/>
+      <c r="AEL112" s="0"/>
+      <c r="AEM112" s="0"/>
+      <c r="AEN112" s="0"/>
+      <c r="AEO112" s="0"/>
+      <c r="AEP112" s="0"/>
+      <c r="AEQ112" s="0"/>
+      <c r="AER112" s="0"/>
+      <c r="AES112" s="0"/>
+      <c r="AET112" s="0"/>
+      <c r="AEU112" s="0"/>
+      <c r="AEV112" s="0"/>
+      <c r="AEW112" s="0"/>
+      <c r="AEX112" s="0"/>
+      <c r="AEY112" s="0"/>
+      <c r="AEZ112" s="0"/>
+      <c r="AFA112" s="0"/>
+      <c r="AFB112" s="0"/>
+      <c r="AFC112" s="0"/>
+      <c r="AFD112" s="0"/>
+      <c r="AFE112" s="0"/>
+      <c r="AFF112" s="0"/>
+      <c r="AFG112" s="0"/>
+      <c r="AFH112" s="0"/>
+      <c r="AFI112" s="0"/>
+      <c r="AFJ112" s="0"/>
+      <c r="AFK112" s="0"/>
+      <c r="AFL112" s="0"/>
+      <c r="AFM112" s="0"/>
+      <c r="AFN112" s="0"/>
+      <c r="AFO112" s="0"/>
+      <c r="AFP112" s="0"/>
+      <c r="AFQ112" s="0"/>
+      <c r="AFR112" s="0"/>
+      <c r="AFS112" s="0"/>
+      <c r="AFT112" s="0"/>
+      <c r="AFU112" s="0"/>
+      <c r="AFV112" s="0"/>
+      <c r="AFW112" s="0"/>
+      <c r="AFX112" s="0"/>
+      <c r="AFY112" s="0"/>
+      <c r="AFZ112" s="0"/>
+      <c r="AGA112" s="0"/>
+      <c r="AGB112" s="0"/>
+      <c r="AGC112" s="0"/>
+      <c r="AGD112" s="0"/>
+      <c r="AGE112" s="0"/>
+      <c r="AGF112" s="0"/>
+      <c r="AGG112" s="0"/>
+      <c r="AGH112" s="0"/>
+      <c r="AGI112" s="0"/>
+      <c r="AGJ112" s="0"/>
+      <c r="AGK112" s="0"/>
+      <c r="AGL112" s="0"/>
+      <c r="AGM112" s="0"/>
+      <c r="AGN112" s="0"/>
+      <c r="AGO112" s="0"/>
+      <c r="AGP112" s="0"/>
+      <c r="AGQ112" s="0"/>
+      <c r="AGR112" s="0"/>
+      <c r="AGS112" s="0"/>
+      <c r="AGT112" s="0"/>
+      <c r="AGU112" s="0"/>
+      <c r="AGV112" s="0"/>
+      <c r="AGW112" s="0"/>
+      <c r="AGX112" s="0"/>
+      <c r="AGY112" s="0"/>
+      <c r="AGZ112" s="0"/>
+      <c r="AHA112" s="0"/>
+      <c r="AHB112" s="0"/>
+      <c r="AHC112" s="0"/>
+      <c r="AHD112" s="0"/>
+      <c r="AHE112" s="0"/>
+      <c r="AHF112" s="0"/>
+      <c r="AHG112" s="0"/>
+      <c r="AHH112" s="0"/>
+      <c r="AHI112" s="0"/>
+      <c r="AHJ112" s="0"/>
+      <c r="AHK112" s="0"/>
+      <c r="AHL112" s="0"/>
+      <c r="AHM112" s="0"/>
+      <c r="AHN112" s="0"/>
+      <c r="AHO112" s="0"/>
+      <c r="AHP112" s="0"/>
+      <c r="AHQ112" s="0"/>
+      <c r="AHR112" s="0"/>
+      <c r="AHS112" s="0"/>
+      <c r="AHT112" s="0"/>
+      <c r="AHU112" s="0"/>
+      <c r="AHV112" s="0"/>
+      <c r="AHW112" s="0"/>
+      <c r="AHX112" s="0"/>
+      <c r="AHY112" s="0"/>
+      <c r="AHZ112" s="0"/>
+      <c r="AIA112" s="0"/>
+      <c r="AIB112" s="0"/>
+      <c r="AIC112" s="0"/>
+      <c r="AID112" s="0"/>
+      <c r="AIE112" s="0"/>
+      <c r="AIF112" s="0"/>
+      <c r="AIG112" s="0"/>
+      <c r="AIH112" s="0"/>
+      <c r="AII112" s="0"/>
+      <c r="AIJ112" s="0"/>
+      <c r="AIK112" s="0"/>
+      <c r="AIL112" s="0"/>
+      <c r="AIM112" s="0"/>
+      <c r="AIN112" s="0"/>
+      <c r="AIO112" s="0"/>
+      <c r="AIP112" s="0"/>
+      <c r="AIQ112" s="0"/>
+      <c r="AIR112" s="0"/>
+      <c r="AIS112" s="0"/>
+      <c r="AIT112" s="0"/>
+      <c r="AIU112" s="0"/>
+      <c r="AIV112" s="0"/>
+      <c r="AIW112" s="0"/>
+      <c r="AIX112" s="0"/>
+      <c r="AIY112" s="0"/>
+      <c r="AIZ112" s="0"/>
+      <c r="AJA112" s="0"/>
+      <c r="AJB112" s="0"/>
+      <c r="AJC112" s="0"/>
+      <c r="AJD112" s="0"/>
+      <c r="AJE112" s="0"/>
+      <c r="AJF112" s="0"/>
+      <c r="AJG112" s="0"/>
+      <c r="AJH112" s="0"/>
+      <c r="AJI112" s="0"/>
+      <c r="AJJ112" s="0"/>
+      <c r="AJK112" s="0"/>
+      <c r="AJL112" s="0"/>
+      <c r="AJM112" s="0"/>
+      <c r="AJN112" s="0"/>
+      <c r="AJO112" s="0"/>
+      <c r="AJP112" s="0"/>
+      <c r="AJQ112" s="0"/>
+      <c r="AJR112" s="0"/>
+      <c r="AJS112" s="0"/>
+      <c r="AJT112" s="0"/>
+      <c r="AJU112" s="0"/>
+      <c r="AJV112" s="0"/>
+      <c r="AJW112" s="0"/>
+      <c r="AJX112" s="0"/>
+      <c r="AJY112" s="0"/>
+      <c r="AJZ112" s="0"/>
+      <c r="AKA112" s="0"/>
+      <c r="AKB112" s="0"/>
+      <c r="AKC112" s="0"/>
+      <c r="AKD112" s="0"/>
+      <c r="AKE112" s="0"/>
+      <c r="AKF112" s="0"/>
+      <c r="AKG112" s="0"/>
+      <c r="AKH112" s="0"/>
+      <c r="AKI112" s="0"/>
+      <c r="AKJ112" s="0"/>
+      <c r="AKK112" s="0"/>
+      <c r="AKL112" s="0"/>
+      <c r="AKM112" s="0"/>
+      <c r="AKN112" s="0"/>
+      <c r="AKO112" s="0"/>
+      <c r="AKP112" s="0"/>
+      <c r="AKQ112" s="0"/>
+      <c r="AKR112" s="0"/>
+      <c r="AKS112" s="0"/>
+      <c r="AKT112" s="0"/>
+      <c r="AKU112" s="0"/>
+      <c r="AKV112" s="0"/>
+      <c r="AKW112" s="0"/>
+      <c r="AKX112" s="0"/>
+      <c r="AKY112" s="0"/>
+      <c r="AKZ112" s="0"/>
+      <c r="ALA112" s="0"/>
+      <c r="ALB112" s="0"/>
+      <c r="ALC112" s="0"/>
+      <c r="ALD112" s="0"/>
+      <c r="ALE112" s="0"/>
+      <c r="ALF112" s="0"/>
+      <c r="ALG112" s="0"/>
+      <c r="ALH112" s="0"/>
+      <c r="ALI112" s="0"/>
+      <c r="ALJ112" s="0"/>
+      <c r="ALK112" s="0"/>
+      <c r="ALL112" s="0"/>
+      <c r="ALM112" s="0"/>
+      <c r="ALN112" s="0"/>
+      <c r="ALO112" s="0"/>
+      <c r="ALP112" s="0"/>
+      <c r="ALQ112" s="0"/>
+      <c r="ALR112" s="0"/>
+      <c r="ALS112" s="0"/>
+      <c r="ALT112" s="0"/>
+      <c r="ALU112" s="0"/>
+      <c r="ALV112" s="0"/>
+      <c r="ALW112" s="0"/>
+      <c r="ALX112" s="0"/>
+      <c r="ALY112" s="0"/>
+      <c r="ALZ112" s="0"/>
+      <c r="AMA112" s="0"/>
+      <c r="AMB112" s="0"/>
+      <c r="AMC112" s="0"/>
+      <c r="AMD112" s="0"/>
+      <c r="AME112" s="0"/>
+      <c r="AMF112" s="0"/>
+      <c r="AMG112" s="0"/>
+      <c r="AMH112" s="0"/>
+      <c r="AMI112" s="0"/>
+      <c r="AMJ112" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H110"/>
+  <autoFilter ref="H1:H111"/>
   <mergeCells count="10">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B9:E9"/>
@@ -11730,24 +12766,24 @@
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B110:C110"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E98:E100 E102 E104:E108 E110" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E99:E101 E103 E105:E109 E111" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D98:D100 D102 D104:D108 D110" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D99:D101 D103 D105:D109 D111" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H98:H102 H104:H107 H110" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H99:H103 H105:H108 H111" type="list">
       <formula1>$C$5:$C$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H108" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H109" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11755,15 +12791,15 @@
       <formula1>Selections!$C$5:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D96 D111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D97 D112" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E96 E111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E97 E112" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H96 H111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H97 H112" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11791,13 +12827,13 @@
     <hyperlink ref="G77" r:id="rId20" display="Original PSC Master Evaluation Matrix"/>
     <hyperlink ref="G78" r:id="rId21" display="PSM State Calls Requirements_functionality needs.xlsx"/>
     <hyperlink ref="G79" r:id="rId22" display="Screening and Auditing Notes.docx"/>
-    <hyperlink ref="G101" r:id="rId23" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G104" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G105" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G106" r:id="rId26" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G107" r:id="rId27" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G108" r:id="rId28" display="INR12"/>
-    <hyperlink ref="G110" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G102" r:id="rId23" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G105" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G106" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G107" r:id="rId26" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G108" r:id="rId27" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G109" r:id="rId28" display="INR12"/>
+    <hyperlink ref="G111" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11828,7 +12864,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -11890,7 +12926,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -11968,7 +13004,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="9"/>
@@ -11982,11 +13018,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>4</v>
@@ -11995,7 +13031,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12008,7 +13044,7 @@
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="9"/>
@@ -12022,16 +13058,16 @@
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -12040,21 +13076,21 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="20"/>
       <c r="F6" s="31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12066,11 +13102,11 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>2</v>
@@ -12079,7 +13115,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12088,21 +13124,21 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="20"/>
       <c r="F8" s="31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -12114,16 +13150,16 @@
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
       <c r="F9" s="31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12132,13 +13168,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="9"/>
@@ -12152,16 +13188,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -12173,16 +13209,16 @@
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -12191,13 +13227,13 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="32" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -12211,16 +13247,16 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -12232,16 +13268,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -12253,11 +13289,11 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>2</v>
@@ -12266,7 +13302,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="20" t="s">
@@ -12278,11 +13314,11 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>2</v>
@@ -12291,7 +13327,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="20" t="s">
@@ -12303,11 +13339,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -12421,7 +13457,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -12435,16 +13471,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12457,7 +13493,7 @@
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="22"/>
@@ -12471,16 +13507,16 @@
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="33" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="36" t="s">
@@ -12489,13 +13525,13 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="22"/>
@@ -12509,16 +13545,16 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="33" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12527,13 +13563,13 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="22"/>
@@ -12547,31 +13583,31 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="37" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="29" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>2</v>
@@ -12580,7 +13616,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="20" t="s">
@@ -12589,16 +13625,16 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>2</v>
@@ -12607,7 +13643,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
@@ -12616,21 +13652,21 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20" t="s">
@@ -12642,11 +13678,11 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>1</v>
@@ -12655,7 +13691,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="20" t="s">
@@ -12667,16 +13703,16 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="20" t="s">
@@ -12787,7 +13823,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -12801,16 +13837,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="35" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12819,21 +13855,21 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -12846,7 +13882,7 @@
     <row r="5" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="22"/>
@@ -12860,16 +13896,16 @@
     </row>
     <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12881,16 +13917,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12903,7 +13939,7 @@
     <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="22"/>
@@ -12917,16 +13953,16 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12938,11 +13974,11 @@
     </row>
     <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>1</v>
@@ -12951,7 +13987,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
@@ -12960,16 +13996,16 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>1</v>
@@ -12978,7 +14014,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -12990,16 +14026,16 @@
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13008,21 +14044,21 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
@@ -13034,16 +14070,16 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13055,16 +14091,16 @@
     </row>
     <row r="15" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13076,19 +14112,19 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>108</v>
@@ -13099,16 +14135,16 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -13121,7 +14157,7 @@
     <row r="18" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="22"/>
@@ -13135,16 +14171,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -13156,16 +14192,16 @@
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
@@ -13177,11 +14213,11 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>4</v>
@@ -13190,10 +14226,10 @@
         <v>52</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>21</v>
@@ -13204,11 +14240,11 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>4</v>
@@ -13217,7 +14253,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -13331,7 +14367,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13345,11 +14381,11 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -13358,7 +14394,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13371,7 +14407,7 @@
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="22"/>
@@ -13385,16 +14421,16 @@
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13403,16 +14439,16 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="33" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>2</v>
@@ -13421,7 +14457,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13433,16 +14469,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
       <c r="F7" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -13454,11 +14490,11 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>3</v>
@@ -13467,7 +14503,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13479,16 +14515,16 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="37" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13497,13 +14533,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="33" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="22"/>
@@ -13517,16 +14553,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13538,16 +14574,16 @@
     </row>
     <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13560,7 +14596,7 @@
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -13574,16 +14610,16 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13595,16 +14631,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13616,16 +14652,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20"/>
       <c r="F16" s="38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -13634,7 +14670,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="33" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -13740,7 +14776,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13754,16 +14790,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="38" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="39" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13775,16 +14811,16 @@
     </row>
     <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -13796,16 +14832,16 @@
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13817,16 +14853,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="31" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13839,7 +14875,7 @@
     <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="22"/>
@@ -13853,16 +14889,16 @@
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="31" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13874,11 +14910,11 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -13887,7 +14923,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13899,37 +14935,37 @@
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="31" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="31" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13941,16 +14977,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13963,7 +14999,7 @@
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -13977,16 +15013,16 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13998,16 +15034,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -14019,16 +15055,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -14040,16 +15076,16 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -14061,16 +15097,16 @@
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -14082,16 +15118,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -14104,7 +15140,7 @@
     <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
@@ -14118,16 +15154,16 @@
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
@@ -14139,16 +15175,16 @@
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="31" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -14161,7 +15197,7 @@
     <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="22"/>
@@ -14175,16 +15211,16 @@
     </row>
     <row r="24" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="38" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="31" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
@@ -14196,11 +15232,11 @@
     </row>
     <row r="25" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="24" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1</v>
@@ -14209,7 +15245,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
@@ -14221,16 +15257,16 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="24" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="31" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
@@ -14242,16 +15278,16 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
       <c r="F27" s="31" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -14263,16 +15299,16 @@
     </row>
     <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="24" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="31" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
@@ -14284,16 +15320,16 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="24" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
@@ -14305,37 +15341,37 @@
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="31" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="24" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
@@ -14347,16 +15383,16 @@
     </row>
     <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="24" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="31" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
@@ -14368,11 +15404,11 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="24" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
@@ -14381,7 +15417,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
@@ -14393,16 +15429,16 @@
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="24" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
       <c r="F34" s="31" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
@@ -14414,16 +15450,16 @@
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
       <c r="F35" s="31" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
@@ -14435,16 +15471,16 @@
     </row>
     <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="38" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
       <c r="F36" s="31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
@@ -14456,16 +15492,16 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="31" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
@@ -14477,16 +15513,16 @@
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
@@ -14498,11 +15534,11 @@
     </row>
     <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>2</v>
@@ -14511,7 +15547,7 @@
         <v>52</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
@@ -14523,16 +15559,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
       <c r="F40" s="31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
@@ -14544,11 +15580,11 @@
     </row>
     <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
@@ -14612,7 +15648,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -14670,7 +15706,7 @@
     <row r="2" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -14684,11 +15720,11 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="38" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
@@ -14701,11 +15737,11 @@
     </row>
     <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14718,11 +15754,11 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14735,11 +15771,11 @@
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14752,11 +15788,11 @@
     </row>
     <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
@@ -14769,11 +15805,11 @@
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="23"/>
@@ -14856,10 +15892,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="41" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -14868,13 +15904,13 @@
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="43" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -14883,21 +15919,21 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="46" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="50" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="n">
@@ -14907,7 +15943,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="53" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="n">
@@ -14917,7 +15953,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="54" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="n">
@@ -14927,7 +15963,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="n">
@@ -14937,7 +15973,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="n">
@@ -14947,7 +15983,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="n">
@@ -14957,7 +15993,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="53" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="n">
@@ -14967,7 +16003,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="55" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
@@ -14976,7 +16012,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="40" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
@@ -14985,7 +16021,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="40" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
@@ -15076,7 +16112,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -15090,16 +16126,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="24" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15111,16 +16147,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="59" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="24" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15132,16 +16168,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15153,16 +16189,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Access and Delivery'!$H$1:$H$40</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$110</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$111</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$22</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integration and Utility'!$H$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Intermediary &amp; Interface'!$H$1:$H$17</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Pharmacy (MMIS)'!$H$1:$H$6</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="616">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -1192,6 +1192,12 @@
     <t xml:space="preserve">The PSM's user interface shall be as simple, comprehensible, navigable, reliable, robust in the face of error, and responsive as possible.</t>
   </si>
   <si>
+    <t xml:space="preserve">psm-FR-7.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall provide instructions for using the application as an administrator via a help link or similar feature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.  Manage Provider Communication</t>
   </si>
   <si>
@@ -1462,7 +1468,7 @@
     <t xml:space="preserve">1.  S&amp;C:  Business Results Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-1.1</t>
+    <t xml:space="preserve">psm-SC-1.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall accommodate customer preferences for communications by email, text, mobile devices, or phones.</t>
@@ -1474,7 +1480,7 @@
     <t xml:space="preserve">2.  S&amp;C:  Industry Standards Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-2.1</t>
+    <t xml:space="preserve">psm-SC-2.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall comply with standards and protocols adopted by the Secretary under sections 1104 and 1561 of the Affordable Care Act. </t>
@@ -1489,7 +1495,7 @@
     <t xml:space="preserve">3.  S&amp;C:  Interoperability Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-3.1</t>
+    <t xml:space="preserve">psm-SC-3.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support the architecture adopted to preserve the ability to efficiently, effectively, and appropriately exchange data with other participants in the health and human services enterprise.</t>
@@ -1504,6 +1510,9 @@
     <t xml:space="preserve">4.  S&amp;C:  Modularity Standard</t>
   </si>
   <si>
+    <t xml:space="preserve">psm-SC-4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">The PSM shall use regionally standardized business rule definitions in both human and machine-readable formats.</t>
   </si>
   <si>
@@ -1513,7 +1522,7 @@
     <t xml:space="preserve">No in the pre-cert check list but PSM will do this</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.1</t>
+    <t xml:space="preserve">psm-SC-4.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall contain modules that can be interchanged without major system design.</t>
@@ -1522,7 +1531,7 @@
     <t xml:space="preserve">Evidence: have an architecture diagram showing rules engine is an separate component</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.2</t>
+    <t xml:space="preserve">psm-SC-4.2</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use an intrastate rules engine separate from core programming with established interstate standardized business rules definitions.</t>
@@ -1531,7 +1540,7 @@
     <t xml:space="preserve">S&amp;C.MS.16</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.3</t>
+    <t xml:space="preserve">psm-SC-4.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM design documents shall utilize a widely supported modeling language (e.g., UML, BPMN).</t>
@@ -1540,7 +1549,7 @@
     <t xml:space="preserve">S&amp;C.MS.18</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.4</t>
+    <t xml:space="preserve">psm-SC-4.4</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support open standards between key interfaces have been considered for all and chosen where feasible.</t>
@@ -1549,7 +1558,7 @@
     <t xml:space="preserve">S&amp;C.MS.2</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.5</t>
+    <t xml:space="preserve">psm-SC-4.5</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support Modularity verification through extensive testing that demonstrates compliance with  chosen interface standards and specifications.</t>
@@ -1733,9 +1742,6 @@
   </si>
   <si>
     <t xml:space="preserve">TA.SP.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do PSM interface to NPI?</t>
   </si>
   <si>
     <t xml:space="preserve">1.  Technical Service Classification:  Configuration Management</t>
@@ -2192,6 +2198,9 @@
     <t xml:space="preserve">The PSM shall be secure from unauthorized access or use, and shall sanitize inputs and outputs where possible so as to avoid compromising itself or other systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Software Quality and Maintainability</t>
+  </si>
+  <si>
     <t xml:space="preserve">psm-SQ-1.1</t>
   </si>
   <si>
@@ -2207,7 +2216,7 @@
     <t xml:space="preserve">psm-SQ-1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies.</t>
+    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies and formats.</t>
   </si>
   <si>
     <t xml:space="preserve">psm-SQ-1.4</t>
@@ -2615,7 +2624,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2724,10 +2733,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2741,10 +2746,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2781,18 +2782,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2979,15 +2968,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1913040</xdr:colOff>
+      <xdr:colOff>1911600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2996,8 +2985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634680" y="0"/>
-          <a:ext cx="1913040" cy="675360"/>
+          <a:off x="635400" y="0"/>
+          <a:ext cx="1910880" cy="673920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3050,12 +3039,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ111"/>
+  <dimension ref="A1:AMJ112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8348,7 +8337,7 @@
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G95" s="20"/>
@@ -9380,11 +9369,11 @@
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="21" t="s">
         <v>174</v>
       </c>
       <c r="G96" s="20"/>
-      <c r="H96" s="28" t="s">
+      <c r="H96" s="27" t="s">
         <v>49</v>
       </c>
       <c r="I96" s="20"/>
@@ -10404,56 +10393,1063 @@
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15"/>
-      <c r="B97" s="6" t="s">
+    <row r="97" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
+      <c r="B97" s="20"/>
+      <c r="C97" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="7" t="s">
+      <c r="D97" s="22"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+      <c r="S97" s="0"/>
+      <c r="T97" s="0"/>
+      <c r="U97" s="0"/>
+      <c r="V97" s="0"/>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0"/>
+      <c r="Z97" s="0"/>
+      <c r="AA97" s="0"/>
+      <c r="AB97" s="0"/>
+      <c r="AC97" s="0"/>
+      <c r="AD97" s="0"/>
+      <c r="AE97" s="0"/>
+      <c r="AF97" s="0"/>
+      <c r="AG97" s="0"/>
+      <c r="AH97" s="0"/>
+      <c r="AI97" s="0"/>
+      <c r="AJ97" s="0"/>
+      <c r="AK97" s="0"/>
+      <c r="AL97" s="0"/>
+      <c r="AM97" s="0"/>
+      <c r="AN97" s="0"/>
+      <c r="AO97" s="0"/>
+      <c r="AP97" s="0"/>
+      <c r="AQ97" s="0"/>
+      <c r="AR97" s="0"/>
+      <c r="AS97" s="0"/>
+      <c r="AT97" s="0"/>
+      <c r="AU97" s="0"/>
+      <c r="AV97" s="0"/>
+      <c r="AW97" s="0"/>
+      <c r="AX97" s="0"/>
+      <c r="AY97" s="0"/>
+      <c r="AZ97" s="0"/>
+      <c r="BA97" s="0"/>
+      <c r="BB97" s="0"/>
+      <c r="BC97" s="0"/>
+      <c r="BD97" s="0"/>
+      <c r="BE97" s="0"/>
+      <c r="BF97" s="0"/>
+      <c r="BG97" s="0"/>
+      <c r="BH97" s="0"/>
+      <c r="BI97" s="0"/>
+      <c r="BJ97" s="0"/>
+      <c r="BK97" s="0"/>
+      <c r="BL97" s="0"/>
+      <c r="BM97" s="0"/>
+      <c r="BN97" s="0"/>
+      <c r="BO97" s="0"/>
+      <c r="BP97" s="0"/>
+      <c r="BQ97" s="0"/>
+      <c r="BR97" s="0"/>
+      <c r="BS97" s="0"/>
+      <c r="BT97" s="0"/>
+      <c r="BU97" s="0"/>
+      <c r="BV97" s="0"/>
+      <c r="BW97" s="0"/>
+      <c r="BX97" s="0"/>
+      <c r="BY97" s="0"/>
+      <c r="BZ97" s="0"/>
+      <c r="CA97" s="0"/>
+      <c r="CB97" s="0"/>
+      <c r="CC97" s="0"/>
+      <c r="CD97" s="0"/>
+      <c r="CE97" s="0"/>
+      <c r="CF97" s="0"/>
+      <c r="CG97" s="0"/>
+      <c r="CH97" s="0"/>
+      <c r="CI97" s="0"/>
+      <c r="CJ97" s="0"/>
+      <c r="CK97" s="0"/>
+      <c r="CL97" s="0"/>
+      <c r="CM97" s="0"/>
+      <c r="CN97" s="0"/>
+      <c r="CO97" s="0"/>
+      <c r="CP97" s="0"/>
+      <c r="CQ97" s="0"/>
+      <c r="CR97" s="0"/>
+      <c r="CS97" s="0"/>
+      <c r="CT97" s="0"/>
+      <c r="CU97" s="0"/>
+      <c r="CV97" s="0"/>
+      <c r="CW97" s="0"/>
+      <c r="CX97" s="0"/>
+      <c r="CY97" s="0"/>
+      <c r="CZ97" s="0"/>
+      <c r="DA97" s="0"/>
+      <c r="DB97" s="0"/>
+      <c r="DC97" s="0"/>
+      <c r="DD97" s="0"/>
+      <c r="DE97" s="0"/>
+      <c r="DF97" s="0"/>
+      <c r="DG97" s="0"/>
+      <c r="DH97" s="0"/>
+      <c r="DI97" s="0"/>
+      <c r="DJ97" s="0"/>
+      <c r="DK97" s="0"/>
+      <c r="DL97" s="0"/>
+      <c r="DM97" s="0"/>
+      <c r="DN97" s="0"/>
+      <c r="DO97" s="0"/>
+      <c r="DP97" s="0"/>
+      <c r="DQ97" s="0"/>
+      <c r="DR97" s="0"/>
+      <c r="DS97" s="0"/>
+      <c r="DT97" s="0"/>
+      <c r="DU97" s="0"/>
+      <c r="DV97" s="0"/>
+      <c r="DW97" s="0"/>
+      <c r="DX97" s="0"/>
+      <c r="DY97" s="0"/>
+      <c r="DZ97" s="0"/>
+      <c r="EA97" s="0"/>
+      <c r="EB97" s="0"/>
+      <c r="EC97" s="0"/>
+      <c r="ED97" s="0"/>
+      <c r="EE97" s="0"/>
+      <c r="EF97" s="0"/>
+      <c r="EG97" s="0"/>
+      <c r="EH97" s="0"/>
+      <c r="EI97" s="0"/>
+      <c r="EJ97" s="0"/>
+      <c r="EK97" s="0"/>
+      <c r="EL97" s="0"/>
+      <c r="EM97" s="0"/>
+      <c r="EN97" s="0"/>
+      <c r="EO97" s="0"/>
+      <c r="EP97" s="0"/>
+      <c r="EQ97" s="0"/>
+      <c r="ER97" s="0"/>
+      <c r="ES97" s="0"/>
+      <c r="ET97" s="0"/>
+      <c r="EU97" s="0"/>
+      <c r="EV97" s="0"/>
+      <c r="EW97" s="0"/>
+      <c r="EX97" s="0"/>
+      <c r="EY97" s="0"/>
+      <c r="EZ97" s="0"/>
+      <c r="FA97" s="0"/>
+      <c r="FB97" s="0"/>
+      <c r="FC97" s="0"/>
+      <c r="FD97" s="0"/>
+      <c r="FE97" s="0"/>
+      <c r="FF97" s="0"/>
+      <c r="FG97" s="0"/>
+      <c r="FH97" s="0"/>
+      <c r="FI97" s="0"/>
+      <c r="FJ97" s="0"/>
+      <c r="FK97" s="0"/>
+      <c r="FL97" s="0"/>
+      <c r="FM97" s="0"/>
+      <c r="FN97" s="0"/>
+      <c r="FO97" s="0"/>
+      <c r="FP97" s="0"/>
+      <c r="FQ97" s="0"/>
+      <c r="FR97" s="0"/>
+      <c r="FS97" s="0"/>
+      <c r="FT97" s="0"/>
+      <c r="FU97" s="0"/>
+      <c r="FV97" s="0"/>
+      <c r="FW97" s="0"/>
+      <c r="FX97" s="0"/>
+      <c r="FY97" s="0"/>
+      <c r="FZ97" s="0"/>
+      <c r="GA97" s="0"/>
+      <c r="GB97" s="0"/>
+      <c r="GC97" s="0"/>
+      <c r="GD97" s="0"/>
+      <c r="GE97" s="0"/>
+      <c r="GF97" s="0"/>
+      <c r="GG97" s="0"/>
+      <c r="GH97" s="0"/>
+      <c r="GI97" s="0"/>
+      <c r="GJ97" s="0"/>
+      <c r="GK97" s="0"/>
+      <c r="GL97" s="0"/>
+      <c r="GM97" s="0"/>
+      <c r="GN97" s="0"/>
+      <c r="GO97" s="0"/>
+      <c r="GP97" s="0"/>
+      <c r="GQ97" s="0"/>
+      <c r="GR97" s="0"/>
+      <c r="GS97" s="0"/>
+      <c r="GT97" s="0"/>
+      <c r="GU97" s="0"/>
+      <c r="GV97" s="0"/>
+      <c r="GW97" s="0"/>
+      <c r="GX97" s="0"/>
+      <c r="GY97" s="0"/>
+      <c r="GZ97" s="0"/>
+      <c r="HA97" s="0"/>
+      <c r="HB97" s="0"/>
+      <c r="HC97" s="0"/>
+      <c r="HD97" s="0"/>
+      <c r="HE97" s="0"/>
+      <c r="HF97" s="0"/>
+      <c r="HG97" s="0"/>
+      <c r="HH97" s="0"/>
+      <c r="HI97" s="0"/>
+      <c r="HJ97" s="0"/>
+      <c r="HK97" s="0"/>
+      <c r="HL97" s="0"/>
+      <c r="HM97" s="0"/>
+      <c r="HN97" s="0"/>
+      <c r="HO97" s="0"/>
+      <c r="HP97" s="0"/>
+      <c r="HQ97" s="0"/>
+      <c r="HR97" s="0"/>
+      <c r="HS97" s="0"/>
+      <c r="HT97" s="0"/>
+      <c r="HU97" s="0"/>
+      <c r="HV97" s="0"/>
+      <c r="HW97" s="0"/>
+      <c r="HX97" s="0"/>
+      <c r="HY97" s="0"/>
+      <c r="HZ97" s="0"/>
+      <c r="IA97" s="0"/>
+      <c r="IB97" s="0"/>
+      <c r="IC97" s="0"/>
+      <c r="ID97" s="0"/>
+      <c r="IE97" s="0"/>
+      <c r="IF97" s="0"/>
+      <c r="IG97" s="0"/>
+      <c r="IH97" s="0"/>
+      <c r="II97" s="0"/>
+      <c r="IJ97" s="0"/>
+      <c r="IK97" s="0"/>
+      <c r="IL97" s="0"/>
+      <c r="IM97" s="0"/>
+      <c r="IN97" s="0"/>
+      <c r="IO97" s="0"/>
+      <c r="IP97" s="0"/>
+      <c r="IQ97" s="0"/>
+      <c r="IR97" s="0"/>
+      <c r="IS97" s="0"/>
+      <c r="IT97" s="0"/>
+      <c r="IU97" s="0"/>
+      <c r="IV97" s="0"/>
+      <c r="IW97" s="0"/>
+      <c r="IX97" s="0"/>
+      <c r="IY97" s="0"/>
+      <c r="IZ97" s="0"/>
+      <c r="JA97" s="0"/>
+      <c r="JB97" s="0"/>
+      <c r="JC97" s="0"/>
+      <c r="JD97" s="0"/>
+      <c r="JE97" s="0"/>
+      <c r="JF97" s="0"/>
+      <c r="JG97" s="0"/>
+      <c r="JH97" s="0"/>
+      <c r="JI97" s="0"/>
+      <c r="JJ97" s="0"/>
+      <c r="JK97" s="0"/>
+      <c r="JL97" s="0"/>
+      <c r="JM97" s="0"/>
+      <c r="JN97" s="0"/>
+      <c r="JO97" s="0"/>
+      <c r="JP97" s="0"/>
+      <c r="JQ97" s="0"/>
+      <c r="JR97" s="0"/>
+      <c r="JS97" s="0"/>
+      <c r="JT97" s="0"/>
+      <c r="JU97" s="0"/>
+      <c r="JV97" s="0"/>
+      <c r="JW97" s="0"/>
+      <c r="JX97" s="0"/>
+      <c r="JY97" s="0"/>
+      <c r="JZ97" s="0"/>
+      <c r="KA97" s="0"/>
+      <c r="KB97" s="0"/>
+      <c r="KC97" s="0"/>
+      <c r="KD97" s="0"/>
+      <c r="KE97" s="0"/>
+      <c r="KF97" s="0"/>
+      <c r="KG97" s="0"/>
+      <c r="KH97" s="0"/>
+      <c r="KI97" s="0"/>
+      <c r="KJ97" s="0"/>
+      <c r="KK97" s="0"/>
+      <c r="KL97" s="0"/>
+      <c r="KM97" s="0"/>
+      <c r="KN97" s="0"/>
+      <c r="KO97" s="0"/>
+      <c r="KP97" s="0"/>
+      <c r="KQ97" s="0"/>
+      <c r="KR97" s="0"/>
+      <c r="KS97" s="0"/>
+      <c r="KT97" s="0"/>
+      <c r="KU97" s="0"/>
+      <c r="KV97" s="0"/>
+      <c r="KW97" s="0"/>
+      <c r="KX97" s="0"/>
+      <c r="KY97" s="0"/>
+      <c r="KZ97" s="0"/>
+      <c r="LA97" s="0"/>
+      <c r="LB97" s="0"/>
+      <c r="LC97" s="0"/>
+      <c r="LD97" s="0"/>
+      <c r="LE97" s="0"/>
+      <c r="LF97" s="0"/>
+      <c r="LG97" s="0"/>
+      <c r="LH97" s="0"/>
+      <c r="LI97" s="0"/>
+      <c r="LJ97" s="0"/>
+      <c r="LK97" s="0"/>
+      <c r="LL97" s="0"/>
+      <c r="LM97" s="0"/>
+      <c r="LN97" s="0"/>
+      <c r="LO97" s="0"/>
+      <c r="LP97" s="0"/>
+      <c r="LQ97" s="0"/>
+      <c r="LR97" s="0"/>
+      <c r="LS97" s="0"/>
+      <c r="LT97" s="0"/>
+      <c r="LU97" s="0"/>
+      <c r="LV97" s="0"/>
+      <c r="LW97" s="0"/>
+      <c r="LX97" s="0"/>
+      <c r="LY97" s="0"/>
+      <c r="LZ97" s="0"/>
+      <c r="MA97" s="0"/>
+      <c r="MB97" s="0"/>
+      <c r="MC97" s="0"/>
+      <c r="MD97" s="0"/>
+      <c r="ME97" s="0"/>
+      <c r="MF97" s="0"/>
+      <c r="MG97" s="0"/>
+      <c r="MH97" s="0"/>
+      <c r="MI97" s="0"/>
+      <c r="MJ97" s="0"/>
+      <c r="MK97" s="0"/>
+      <c r="ML97" s="0"/>
+      <c r="MM97" s="0"/>
+      <c r="MN97" s="0"/>
+      <c r="MO97" s="0"/>
+      <c r="MP97" s="0"/>
+      <c r="MQ97" s="0"/>
+      <c r="MR97" s="0"/>
+      <c r="MS97" s="0"/>
+      <c r="MT97" s="0"/>
+      <c r="MU97" s="0"/>
+      <c r="MV97" s="0"/>
+      <c r="MW97" s="0"/>
+      <c r="MX97" s="0"/>
+      <c r="MY97" s="0"/>
+      <c r="MZ97" s="0"/>
+      <c r="NA97" s="0"/>
+      <c r="NB97" s="0"/>
+      <c r="NC97" s="0"/>
+      <c r="ND97" s="0"/>
+      <c r="NE97" s="0"/>
+      <c r="NF97" s="0"/>
+      <c r="NG97" s="0"/>
+      <c r="NH97" s="0"/>
+      <c r="NI97" s="0"/>
+      <c r="NJ97" s="0"/>
+      <c r="NK97" s="0"/>
+      <c r="NL97" s="0"/>
+      <c r="NM97" s="0"/>
+      <c r="NN97" s="0"/>
+      <c r="NO97" s="0"/>
+      <c r="NP97" s="0"/>
+      <c r="NQ97" s="0"/>
+      <c r="NR97" s="0"/>
+      <c r="NS97" s="0"/>
+      <c r="NT97" s="0"/>
+      <c r="NU97" s="0"/>
+      <c r="NV97" s="0"/>
+      <c r="NW97" s="0"/>
+      <c r="NX97" s="0"/>
+      <c r="NY97" s="0"/>
+      <c r="NZ97" s="0"/>
+      <c r="OA97" s="0"/>
+      <c r="OB97" s="0"/>
+      <c r="OC97" s="0"/>
+      <c r="OD97" s="0"/>
+      <c r="OE97" s="0"/>
+      <c r="OF97" s="0"/>
+      <c r="OG97" s="0"/>
+      <c r="OH97" s="0"/>
+      <c r="OI97" s="0"/>
+      <c r="OJ97" s="0"/>
+      <c r="OK97" s="0"/>
+      <c r="OL97" s="0"/>
+      <c r="OM97" s="0"/>
+      <c r="ON97" s="0"/>
+      <c r="OO97" s="0"/>
+      <c r="OP97" s="0"/>
+      <c r="OQ97" s="0"/>
+      <c r="OR97" s="0"/>
+      <c r="OS97" s="0"/>
+      <c r="OT97" s="0"/>
+      <c r="OU97" s="0"/>
+      <c r="OV97" s="0"/>
+      <c r="OW97" s="0"/>
+      <c r="OX97" s="0"/>
+      <c r="OY97" s="0"/>
+      <c r="OZ97" s="0"/>
+      <c r="PA97" s="0"/>
+      <c r="PB97" s="0"/>
+      <c r="PC97" s="0"/>
+      <c r="PD97" s="0"/>
+      <c r="PE97" s="0"/>
+      <c r="PF97" s="0"/>
+      <c r="PG97" s="0"/>
+      <c r="PH97" s="0"/>
+      <c r="PI97" s="0"/>
+      <c r="PJ97" s="0"/>
+      <c r="PK97" s="0"/>
+      <c r="PL97" s="0"/>
+      <c r="PM97" s="0"/>
+      <c r="PN97" s="0"/>
+      <c r="PO97" s="0"/>
+      <c r="PP97" s="0"/>
+      <c r="PQ97" s="0"/>
+      <c r="PR97" s="0"/>
+      <c r="PS97" s="0"/>
+      <c r="PT97" s="0"/>
+      <c r="PU97" s="0"/>
+      <c r="PV97" s="0"/>
+      <c r="PW97" s="0"/>
+      <c r="PX97" s="0"/>
+      <c r="PY97" s="0"/>
+      <c r="PZ97" s="0"/>
+      <c r="QA97" s="0"/>
+      <c r="QB97" s="0"/>
+      <c r="QC97" s="0"/>
+      <c r="QD97" s="0"/>
+      <c r="QE97" s="0"/>
+      <c r="QF97" s="0"/>
+      <c r="QG97" s="0"/>
+      <c r="QH97" s="0"/>
+      <c r="QI97" s="0"/>
+      <c r="QJ97" s="0"/>
+      <c r="QK97" s="0"/>
+      <c r="QL97" s="0"/>
+      <c r="QM97" s="0"/>
+      <c r="QN97" s="0"/>
+      <c r="QO97" s="0"/>
+      <c r="QP97" s="0"/>
+      <c r="QQ97" s="0"/>
+      <c r="QR97" s="0"/>
+      <c r="QS97" s="0"/>
+      <c r="QT97" s="0"/>
+      <c r="QU97" s="0"/>
+      <c r="QV97" s="0"/>
+      <c r="QW97" s="0"/>
+      <c r="QX97" s="0"/>
+      <c r="QY97" s="0"/>
+      <c r="QZ97" s="0"/>
+      <c r="RA97" s="0"/>
+      <c r="RB97" s="0"/>
+      <c r="RC97" s="0"/>
+      <c r="RD97" s="0"/>
+      <c r="RE97" s="0"/>
+      <c r="RF97" s="0"/>
+      <c r="RG97" s="0"/>
+      <c r="RH97" s="0"/>
+      <c r="RI97" s="0"/>
+      <c r="RJ97" s="0"/>
+      <c r="RK97" s="0"/>
+      <c r="RL97" s="0"/>
+      <c r="RM97" s="0"/>
+      <c r="RN97" s="0"/>
+      <c r="RO97" s="0"/>
+      <c r="RP97" s="0"/>
+      <c r="RQ97" s="0"/>
+      <c r="RR97" s="0"/>
+      <c r="RS97" s="0"/>
+      <c r="RT97" s="0"/>
+      <c r="RU97" s="0"/>
+      <c r="RV97" s="0"/>
+      <c r="RW97" s="0"/>
+      <c r="RX97" s="0"/>
+      <c r="RY97" s="0"/>
+      <c r="RZ97" s="0"/>
+      <c r="SA97" s="0"/>
+      <c r="SB97" s="0"/>
+      <c r="SC97" s="0"/>
+      <c r="SD97" s="0"/>
+      <c r="SE97" s="0"/>
+      <c r="SF97" s="0"/>
+      <c r="SG97" s="0"/>
+      <c r="SH97" s="0"/>
+      <c r="SI97" s="0"/>
+      <c r="SJ97" s="0"/>
+      <c r="SK97" s="0"/>
+      <c r="SL97" s="0"/>
+      <c r="SM97" s="0"/>
+      <c r="SN97" s="0"/>
+      <c r="SO97" s="0"/>
+      <c r="SP97" s="0"/>
+      <c r="SQ97" s="0"/>
+      <c r="SR97" s="0"/>
+      <c r="SS97" s="0"/>
+      <c r="ST97" s="0"/>
+      <c r="SU97" s="0"/>
+      <c r="SV97" s="0"/>
+      <c r="SW97" s="0"/>
+      <c r="SX97" s="0"/>
+      <c r="SY97" s="0"/>
+      <c r="SZ97" s="0"/>
+      <c r="TA97" s="0"/>
+      <c r="TB97" s="0"/>
+      <c r="TC97" s="0"/>
+      <c r="TD97" s="0"/>
+      <c r="TE97" s="0"/>
+      <c r="TF97" s="0"/>
+      <c r="TG97" s="0"/>
+      <c r="TH97" s="0"/>
+      <c r="TI97" s="0"/>
+      <c r="TJ97" s="0"/>
+      <c r="TK97" s="0"/>
+      <c r="TL97" s="0"/>
+      <c r="TM97" s="0"/>
+      <c r="TN97" s="0"/>
+      <c r="TO97" s="0"/>
+      <c r="TP97" s="0"/>
+      <c r="TQ97" s="0"/>
+      <c r="TR97" s="0"/>
+      <c r="TS97" s="0"/>
+      <c r="TT97" s="0"/>
+      <c r="TU97" s="0"/>
+      <c r="TV97" s="0"/>
+      <c r="TW97" s="0"/>
+      <c r="TX97" s="0"/>
+      <c r="TY97" s="0"/>
+      <c r="TZ97" s="0"/>
+      <c r="UA97" s="0"/>
+      <c r="UB97" s="0"/>
+      <c r="UC97" s="0"/>
+      <c r="UD97" s="0"/>
+      <c r="UE97" s="0"/>
+      <c r="UF97" s="0"/>
+      <c r="UG97" s="0"/>
+      <c r="UH97" s="0"/>
+      <c r="UI97" s="0"/>
+      <c r="UJ97" s="0"/>
+      <c r="UK97" s="0"/>
+      <c r="UL97" s="0"/>
+      <c r="UM97" s="0"/>
+      <c r="UN97" s="0"/>
+      <c r="UO97" s="0"/>
+      <c r="UP97" s="0"/>
+      <c r="UQ97" s="0"/>
+      <c r="UR97" s="0"/>
+      <c r="US97" s="0"/>
+      <c r="UT97" s="0"/>
+      <c r="UU97" s="0"/>
+      <c r="UV97" s="0"/>
+      <c r="UW97" s="0"/>
+      <c r="UX97" s="0"/>
+      <c r="UY97" s="0"/>
+      <c r="UZ97" s="0"/>
+      <c r="VA97" s="0"/>
+      <c r="VB97" s="0"/>
+      <c r="VC97" s="0"/>
+      <c r="VD97" s="0"/>
+      <c r="VE97" s="0"/>
+      <c r="VF97" s="0"/>
+      <c r="VG97" s="0"/>
+      <c r="VH97" s="0"/>
+      <c r="VI97" s="0"/>
+      <c r="VJ97" s="0"/>
+      <c r="VK97" s="0"/>
+      <c r="VL97" s="0"/>
+      <c r="VM97" s="0"/>
+      <c r="VN97" s="0"/>
+      <c r="VO97" s="0"/>
+      <c r="VP97" s="0"/>
+      <c r="VQ97" s="0"/>
+      <c r="VR97" s="0"/>
+      <c r="VS97" s="0"/>
+      <c r="VT97" s="0"/>
+      <c r="VU97" s="0"/>
+      <c r="VV97" s="0"/>
+      <c r="VW97" s="0"/>
+      <c r="VX97" s="0"/>
+      <c r="VY97" s="0"/>
+      <c r="VZ97" s="0"/>
+      <c r="WA97" s="0"/>
+      <c r="WB97" s="0"/>
+      <c r="WC97" s="0"/>
+      <c r="WD97" s="0"/>
+      <c r="WE97" s="0"/>
+      <c r="WF97" s="0"/>
+      <c r="WG97" s="0"/>
+      <c r="WH97" s="0"/>
+      <c r="WI97" s="0"/>
+      <c r="WJ97" s="0"/>
+      <c r="WK97" s="0"/>
+      <c r="WL97" s="0"/>
+      <c r="WM97" s="0"/>
+      <c r="WN97" s="0"/>
+      <c r="WO97" s="0"/>
+      <c r="WP97" s="0"/>
+      <c r="WQ97" s="0"/>
+      <c r="WR97" s="0"/>
+      <c r="WS97" s="0"/>
+      <c r="WT97" s="0"/>
+      <c r="WU97" s="0"/>
+      <c r="WV97" s="0"/>
+      <c r="WW97" s="0"/>
+      <c r="WX97" s="0"/>
+      <c r="WY97" s="0"/>
+      <c r="WZ97" s="0"/>
+      <c r="XA97" s="0"/>
+      <c r="XB97" s="0"/>
+      <c r="XC97" s="0"/>
+      <c r="XD97" s="0"/>
+      <c r="XE97" s="0"/>
+      <c r="XF97" s="0"/>
+      <c r="XG97" s="0"/>
+      <c r="XH97" s="0"/>
+      <c r="XI97" s="0"/>
+      <c r="XJ97" s="0"/>
+      <c r="XK97" s="0"/>
+      <c r="XL97" s="0"/>
+      <c r="XM97" s="0"/>
+      <c r="XN97" s="0"/>
+      <c r="XO97" s="0"/>
+      <c r="XP97" s="0"/>
+      <c r="XQ97" s="0"/>
+      <c r="XR97" s="0"/>
+      <c r="XS97" s="0"/>
+      <c r="XT97" s="0"/>
+      <c r="XU97" s="0"/>
+      <c r="XV97" s="0"/>
+      <c r="XW97" s="0"/>
+      <c r="XX97" s="0"/>
+      <c r="XY97" s="0"/>
+      <c r="XZ97" s="0"/>
+      <c r="YA97" s="0"/>
+      <c r="YB97" s="0"/>
+      <c r="YC97" s="0"/>
+      <c r="YD97" s="0"/>
+      <c r="YE97" s="0"/>
+      <c r="YF97" s="0"/>
+      <c r="YG97" s="0"/>
+      <c r="YH97" s="0"/>
+      <c r="YI97" s="0"/>
+      <c r="YJ97" s="0"/>
+      <c r="YK97" s="0"/>
+      <c r="YL97" s="0"/>
+      <c r="YM97" s="0"/>
+      <c r="YN97" s="0"/>
+      <c r="YO97" s="0"/>
+      <c r="YP97" s="0"/>
+      <c r="YQ97" s="0"/>
+      <c r="YR97" s="0"/>
+      <c r="YS97" s="0"/>
+      <c r="YT97" s="0"/>
+      <c r="YU97" s="0"/>
+      <c r="YV97" s="0"/>
+      <c r="YW97" s="0"/>
+      <c r="YX97" s="0"/>
+      <c r="YY97" s="0"/>
+      <c r="YZ97" s="0"/>
+      <c r="ZA97" s="0"/>
+      <c r="ZB97" s="0"/>
+      <c r="ZC97" s="0"/>
+      <c r="ZD97" s="0"/>
+      <c r="ZE97" s="0"/>
+      <c r="ZF97" s="0"/>
+      <c r="ZG97" s="0"/>
+      <c r="ZH97" s="0"/>
+      <c r="ZI97" s="0"/>
+      <c r="ZJ97" s="0"/>
+      <c r="ZK97" s="0"/>
+      <c r="ZL97" s="0"/>
+      <c r="ZM97" s="0"/>
+      <c r="ZN97" s="0"/>
+      <c r="ZO97" s="0"/>
+      <c r="ZP97" s="0"/>
+      <c r="ZQ97" s="0"/>
+      <c r="ZR97" s="0"/>
+      <c r="ZS97" s="0"/>
+      <c r="ZT97" s="0"/>
+      <c r="ZU97" s="0"/>
+      <c r="ZV97" s="0"/>
+      <c r="ZW97" s="0"/>
+      <c r="ZX97" s="0"/>
+      <c r="ZY97" s="0"/>
+      <c r="ZZ97" s="0"/>
+      <c r="AAA97" s="0"/>
+      <c r="AAB97" s="0"/>
+      <c r="AAC97" s="0"/>
+      <c r="AAD97" s="0"/>
+      <c r="AAE97" s="0"/>
+      <c r="AAF97" s="0"/>
+      <c r="AAG97" s="0"/>
+      <c r="AAH97" s="0"/>
+      <c r="AAI97" s="0"/>
+      <c r="AAJ97" s="0"/>
+      <c r="AAK97" s="0"/>
+      <c r="AAL97" s="0"/>
+      <c r="AAM97" s="0"/>
+      <c r="AAN97" s="0"/>
+      <c r="AAO97" s="0"/>
+      <c r="AAP97" s="0"/>
+      <c r="AAQ97" s="0"/>
+      <c r="AAR97" s="0"/>
+      <c r="AAS97" s="0"/>
+      <c r="AAT97" s="0"/>
+      <c r="AAU97" s="0"/>
+      <c r="AAV97" s="0"/>
+      <c r="AAW97" s="0"/>
+      <c r="AAX97" s="0"/>
+      <c r="AAY97" s="0"/>
+      <c r="AAZ97" s="0"/>
+      <c r="ABA97" s="0"/>
+      <c r="ABB97" s="0"/>
+      <c r="ABC97" s="0"/>
+      <c r="ABD97" s="0"/>
+      <c r="ABE97" s="0"/>
+      <c r="ABF97" s="0"/>
+      <c r="ABG97" s="0"/>
+      <c r="ABH97" s="0"/>
+      <c r="ABI97" s="0"/>
+      <c r="ABJ97" s="0"/>
+      <c r="ABK97" s="0"/>
+      <c r="ABL97" s="0"/>
+      <c r="ABM97" s="0"/>
+      <c r="ABN97" s="0"/>
+      <c r="ABO97" s="0"/>
+      <c r="ABP97" s="0"/>
+      <c r="ABQ97" s="0"/>
+      <c r="ABR97" s="0"/>
+      <c r="ABS97" s="0"/>
+      <c r="ABT97" s="0"/>
+      <c r="ABU97" s="0"/>
+      <c r="ABV97" s="0"/>
+      <c r="ABW97" s="0"/>
+      <c r="ABX97" s="0"/>
+      <c r="ABY97" s="0"/>
+      <c r="ABZ97" s="0"/>
+      <c r="ACA97" s="0"/>
+      <c r="ACB97" s="0"/>
+      <c r="ACC97" s="0"/>
+      <c r="ACD97" s="0"/>
+      <c r="ACE97" s="0"/>
+      <c r="ACF97" s="0"/>
+      <c r="ACG97" s="0"/>
+      <c r="ACH97" s="0"/>
+      <c r="ACI97" s="0"/>
+      <c r="ACJ97" s="0"/>
+      <c r="ACK97" s="0"/>
+      <c r="ACL97" s="0"/>
+      <c r="ACM97" s="0"/>
+      <c r="ACN97" s="0"/>
+      <c r="ACO97" s="0"/>
+      <c r="ACP97" s="0"/>
+      <c r="ACQ97" s="0"/>
+      <c r="ACR97" s="0"/>
+      <c r="ACS97" s="0"/>
+      <c r="ACT97" s="0"/>
+      <c r="ACU97" s="0"/>
+      <c r="ACV97" s="0"/>
+      <c r="ACW97" s="0"/>
+      <c r="ACX97" s="0"/>
+      <c r="ACY97" s="0"/>
+      <c r="ACZ97" s="0"/>
+      <c r="ADA97" s="0"/>
+      <c r="ADB97" s="0"/>
+      <c r="ADC97" s="0"/>
+      <c r="ADD97" s="0"/>
+      <c r="ADE97" s="0"/>
+      <c r="ADF97" s="0"/>
+      <c r="ADG97" s="0"/>
+      <c r="ADH97" s="0"/>
+      <c r="ADI97" s="0"/>
+      <c r="ADJ97" s="0"/>
+      <c r="ADK97" s="0"/>
+      <c r="ADL97" s="0"/>
+      <c r="ADM97" s="0"/>
+      <c r="ADN97" s="0"/>
+      <c r="ADO97" s="0"/>
+      <c r="ADP97" s="0"/>
+      <c r="ADQ97" s="0"/>
+      <c r="ADR97" s="0"/>
+      <c r="ADS97" s="0"/>
+      <c r="ADT97" s="0"/>
+      <c r="ADU97" s="0"/>
+      <c r="ADV97" s="0"/>
+      <c r="ADW97" s="0"/>
+      <c r="ADX97" s="0"/>
+      <c r="ADY97" s="0"/>
+      <c r="ADZ97" s="0"/>
+      <c r="AEA97" s="0"/>
+      <c r="AEB97" s="0"/>
+      <c r="AEC97" s="0"/>
+      <c r="AED97" s="0"/>
+      <c r="AEE97" s="0"/>
+      <c r="AEF97" s="0"/>
+      <c r="AEG97" s="0"/>
+      <c r="AEH97" s="0"/>
+      <c r="AEI97" s="0"/>
+      <c r="AEJ97" s="0"/>
+      <c r="AEK97" s="0"/>
+      <c r="AEL97" s="0"/>
+      <c r="AEM97" s="0"/>
+      <c r="AEN97" s="0"/>
+      <c r="AEO97" s="0"/>
+      <c r="AEP97" s="0"/>
+      <c r="AEQ97" s="0"/>
+      <c r="AER97" s="0"/>
+      <c r="AES97" s="0"/>
+      <c r="AET97" s="0"/>
+      <c r="AEU97" s="0"/>
+      <c r="AEV97" s="0"/>
+      <c r="AEW97" s="0"/>
+      <c r="AEX97" s="0"/>
+      <c r="AEY97" s="0"/>
+      <c r="AEZ97" s="0"/>
+      <c r="AFA97" s="0"/>
+      <c r="AFB97" s="0"/>
+      <c r="AFC97" s="0"/>
+      <c r="AFD97" s="0"/>
+      <c r="AFE97" s="0"/>
+      <c r="AFF97" s="0"/>
+      <c r="AFG97" s="0"/>
+      <c r="AFH97" s="0"/>
+      <c r="AFI97" s="0"/>
+      <c r="AFJ97" s="0"/>
+      <c r="AFK97" s="0"/>
+      <c r="AFL97" s="0"/>
+      <c r="AFM97" s="0"/>
+      <c r="AFN97" s="0"/>
+      <c r="AFO97" s="0"/>
+      <c r="AFP97" s="0"/>
+      <c r="AFQ97" s="0"/>
+      <c r="AFR97" s="0"/>
+      <c r="AFS97" s="0"/>
+      <c r="AFT97" s="0"/>
+      <c r="AFU97" s="0"/>
+      <c r="AFV97" s="0"/>
+      <c r="AFW97" s="0"/>
+      <c r="AFX97" s="0"/>
+      <c r="AFY97" s="0"/>
+      <c r="AFZ97" s="0"/>
+      <c r="AGA97" s="0"/>
+      <c r="AGB97" s="0"/>
+      <c r="AGC97" s="0"/>
+      <c r="AGD97" s="0"/>
+      <c r="AGE97" s="0"/>
+      <c r="AGF97" s="0"/>
+      <c r="AGG97" s="0"/>
+      <c r="AGH97" s="0"/>
+      <c r="AGI97" s="0"/>
+      <c r="AGJ97" s="0"/>
+      <c r="AGK97" s="0"/>
+      <c r="AGL97" s="0"/>
+      <c r="AGM97" s="0"/>
+      <c r="AGN97" s="0"/>
+      <c r="AGO97" s="0"/>
+      <c r="AGP97" s="0"/>
+      <c r="AGQ97" s="0"/>
+      <c r="AGR97" s="0"/>
+      <c r="AGS97" s="0"/>
+      <c r="AGT97" s="0"/>
+      <c r="AGU97" s="0"/>
+      <c r="AGV97" s="0"/>
+      <c r="AGW97" s="0"/>
+      <c r="AGX97" s="0"/>
+      <c r="AGY97" s="0"/>
+      <c r="AGZ97" s="0"/>
+      <c r="AHA97" s="0"/>
+      <c r="AHB97" s="0"/>
+      <c r="AHC97" s="0"/>
+      <c r="AHD97" s="0"/>
+      <c r="AHE97" s="0"/>
+      <c r="AHF97" s="0"/>
+      <c r="AHG97" s="0"/>
+      <c r="AHH97" s="0"/>
+      <c r="AHI97" s="0"/>
+      <c r="AHJ97" s="0"/>
+      <c r="AHK97" s="0"/>
+      <c r="AHL97" s="0"/>
+      <c r="AHM97" s="0"/>
+      <c r="AHN97" s="0"/>
+      <c r="AHO97" s="0"/>
+      <c r="AHP97" s="0"/>
+      <c r="AHQ97" s="0"/>
+      <c r="AHR97" s="0"/>
+      <c r="AHS97" s="0"/>
+      <c r="AHT97" s="0"/>
+      <c r="AHU97" s="0"/>
+      <c r="AHV97" s="0"/>
+      <c r="AHW97" s="0"/>
+      <c r="AHX97" s="0"/>
+      <c r="AHY97" s="0"/>
+      <c r="AHZ97" s="0"/>
+      <c r="AIA97" s="0"/>
+      <c r="AIB97" s="0"/>
+      <c r="AIC97" s="0"/>
+      <c r="AID97" s="0"/>
+      <c r="AIE97" s="0"/>
+      <c r="AIF97" s="0"/>
+      <c r="AIG97" s="0"/>
+      <c r="AIH97" s="0"/>
+      <c r="AII97" s="0"/>
+      <c r="AIJ97" s="0"/>
+      <c r="AIK97" s="0"/>
+      <c r="AIL97" s="0"/>
+      <c r="AIM97" s="0"/>
+      <c r="AIN97" s="0"/>
+      <c r="AIO97" s="0"/>
+      <c r="AIP97" s="0"/>
+      <c r="AIQ97" s="0"/>
+      <c r="AIR97" s="0"/>
+      <c r="AIS97" s="0"/>
+      <c r="AIT97" s="0"/>
+      <c r="AIU97" s="0"/>
+      <c r="AIV97" s="0"/>
+      <c r="AIW97" s="0"/>
+      <c r="AIX97" s="0"/>
+      <c r="AIY97" s="0"/>
+      <c r="AIZ97" s="0"/>
+      <c r="AJA97" s="0"/>
+      <c r="AJB97" s="0"/>
+      <c r="AJC97" s="0"/>
+      <c r="AJD97" s="0"/>
+      <c r="AJE97" s="0"/>
+      <c r="AJF97" s="0"/>
+      <c r="AJG97" s="0"/>
+      <c r="AJH97" s="0"/>
+      <c r="AJI97" s="0"/>
+      <c r="AJJ97" s="0"/>
+      <c r="AJK97" s="0"/>
+      <c r="AJL97" s="0"/>
+      <c r="AJM97" s="0"/>
+      <c r="AJN97" s="0"/>
+      <c r="AJO97" s="0"/>
+      <c r="AJP97" s="0"/>
+      <c r="AJQ97" s="0"/>
+      <c r="AJR97" s="0"/>
+      <c r="AJS97" s="0"/>
+      <c r="AJT97" s="0"/>
+      <c r="AJU97" s="0"/>
+      <c r="AJV97" s="0"/>
+      <c r="AJW97" s="0"/>
+      <c r="AJX97" s="0"/>
+      <c r="AJY97" s="0"/>
+      <c r="AJZ97" s="0"/>
+      <c r="AKA97" s="0"/>
+      <c r="AKB97" s="0"/>
+      <c r="AKC97" s="0"/>
+      <c r="AKD97" s="0"/>
+      <c r="AKE97" s="0"/>
+      <c r="AKF97" s="0"/>
+      <c r="AKG97" s="0"/>
+      <c r="AKH97" s="0"/>
+      <c r="AKI97" s="0"/>
+      <c r="AKJ97" s="0"/>
+      <c r="AKK97" s="0"/>
+      <c r="AKL97" s="0"/>
+      <c r="AKM97" s="0"/>
+      <c r="AKN97" s="0"/>
+      <c r="AKO97" s="0"/>
+      <c r="AKP97" s="0"/>
+      <c r="AKQ97" s="0"/>
+      <c r="AKR97" s="0"/>
+      <c r="AKS97" s="0"/>
+      <c r="AKT97" s="0"/>
+      <c r="AKU97" s="0"/>
+      <c r="AKV97" s="0"/>
+      <c r="AKW97" s="0"/>
+      <c r="AKX97" s="0"/>
+      <c r="AKY97" s="0"/>
+      <c r="AKZ97" s="0"/>
+      <c r="ALA97" s="0"/>
+      <c r="ALB97" s="0"/>
+      <c r="ALC97" s="0"/>
+      <c r="ALD97" s="0"/>
+      <c r="ALE97" s="0"/>
+      <c r="ALF97" s="0"/>
+      <c r="ALG97" s="0"/>
+      <c r="ALH97" s="0"/>
+      <c r="ALI97" s="0"/>
+      <c r="ALJ97" s="0"/>
+      <c r="ALK97" s="0"/>
+      <c r="ALL97" s="0"/>
+      <c r="ALM97" s="0"/>
+      <c r="ALN97" s="0"/>
+      <c r="ALO97" s="0"/>
+      <c r="ALP97" s="0"/>
+      <c r="ALQ97" s="0"/>
+      <c r="ALR97" s="0"/>
+      <c r="ALS97" s="0"/>
+      <c r="ALT97" s="0"/>
+      <c r="ALU97" s="0"/>
+      <c r="ALV97" s="0"/>
+      <c r="ALW97" s="0"/>
+      <c r="ALX97" s="0"/>
+      <c r="ALY97" s="0"/>
+      <c r="ALZ97" s="0"/>
+      <c r="AMA97" s="0"/>
+      <c r="AMB97" s="0"/>
+      <c r="AMC97" s="0"/>
+      <c r="AMD97" s="0"/>
+      <c r="AME97" s="0"/>
+      <c r="AMF97" s="0"/>
+      <c r="AMG97" s="0"/>
+      <c r="AMH97" s="0"/>
+      <c r="AMI97" s="0"/>
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15"/>
+      <c r="B98" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="19"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>31</v>
@@ -10463,20 +11459,20 @@
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="K99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>31</v>
@@ -10490,16 +11486,16 @@
     </row>
     <row r="101" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>31</v>
@@ -10513,63 +11509,64 @@
     </row>
     <row r="102" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="13" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G102" s="11"/>
+      <c r="G102" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15"/>
-      <c r="B103" s="6" t="s">
+    <row r="103" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="7" t="s">
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15"/>
+      <c r="B104" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-    </row>
-    <row r="105" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="6"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
         <v>266</v>
       </c>
@@ -10586,13 +11583,12 @@
         <v>15</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I105" s="10"/>
+        <v>94</v>
+      </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>268</v>
       </c>
@@ -10603,13 +11599,13 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -10617,16 +11613,16 @@
     </row>
     <row r="107" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>31</v>
@@ -10640,1105 +11636,1128 @@
     </row>
     <row r="108" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>276</v>
+      <c r="G108" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15"/>
-      <c r="B109" s="6" t="s">
+    <row r="109" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+      <c r="D109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="7" t="s">
+      <c r="H109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15"/>
+      <c r="B110" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="7" t="s">
+      <c r="C110" s="6"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G111" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-    </row>
-    <row r="111" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="27" t="s">
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="22"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="28" t="s">
+      <c r="G112" s="20"/>
+      <c r="H112" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="0"/>
-      <c r="M111" s="0"/>
-      <c r="N111" s="0"/>
-      <c r="O111" s="0"/>
-      <c r="P111" s="0"/>
-      <c r="Q111" s="0"/>
-      <c r="R111" s="0"/>
-      <c r="S111" s="0"/>
-      <c r="T111" s="0"/>
-      <c r="U111" s="0"/>
-      <c r="V111" s="0"/>
-      <c r="W111" s="0"/>
-      <c r="X111" s="0"/>
-      <c r="Y111" s="0"/>
-      <c r="Z111" s="0"/>
-      <c r="AA111" s="0"/>
-      <c r="AB111" s="0"/>
-      <c r="AC111" s="0"/>
-      <c r="AD111" s="0"/>
-      <c r="AE111" s="0"/>
-      <c r="AF111" s="0"/>
-      <c r="AG111" s="0"/>
-      <c r="AH111" s="0"/>
-      <c r="AI111" s="0"/>
-      <c r="AJ111" s="0"/>
-      <c r="AK111" s="0"/>
-      <c r="AL111" s="0"/>
-      <c r="AM111" s="0"/>
-      <c r="AN111" s="0"/>
-      <c r="AO111" s="0"/>
-      <c r="AP111" s="0"/>
-      <c r="AQ111" s="0"/>
-      <c r="AR111" s="0"/>
-      <c r="AS111" s="0"/>
-      <c r="AT111" s="0"/>
-      <c r="AU111" s="0"/>
-      <c r="AV111" s="0"/>
-      <c r="AW111" s="0"/>
-      <c r="AX111" s="0"/>
-      <c r="AY111" s="0"/>
-      <c r="AZ111" s="0"/>
-      <c r="BA111" s="0"/>
-      <c r="BB111" s="0"/>
-      <c r="BC111" s="0"/>
-      <c r="BD111" s="0"/>
-      <c r="BE111" s="0"/>
-      <c r="BF111" s="0"/>
-      <c r="BG111" s="0"/>
-      <c r="BH111" s="0"/>
-      <c r="BI111" s="0"/>
-      <c r="BJ111" s="0"/>
-      <c r="BK111" s="0"/>
-      <c r="BL111" s="0"/>
-      <c r="BM111" s="0"/>
-      <c r="BN111" s="0"/>
-      <c r="BO111" s="0"/>
-      <c r="BP111" s="0"/>
-      <c r="BQ111" s="0"/>
-      <c r="BR111" s="0"/>
-      <c r="BS111" s="0"/>
-      <c r="BT111" s="0"/>
-      <c r="BU111" s="0"/>
-      <c r="BV111" s="0"/>
-      <c r="BW111" s="0"/>
-      <c r="BX111" s="0"/>
-      <c r="BY111" s="0"/>
-      <c r="BZ111" s="0"/>
-      <c r="CA111" s="0"/>
-      <c r="CB111" s="0"/>
-      <c r="CC111" s="0"/>
-      <c r="CD111" s="0"/>
-      <c r="CE111" s="0"/>
-      <c r="CF111" s="0"/>
-      <c r="CG111" s="0"/>
-      <c r="CH111" s="0"/>
-      <c r="CI111" s="0"/>
-      <c r="CJ111" s="0"/>
-      <c r="CK111" s="0"/>
-      <c r="CL111" s="0"/>
-      <c r="CM111" s="0"/>
-      <c r="CN111" s="0"/>
-      <c r="CO111" s="0"/>
-      <c r="CP111" s="0"/>
-      <c r="CQ111" s="0"/>
-      <c r="CR111" s="0"/>
-      <c r="CS111" s="0"/>
-      <c r="CT111" s="0"/>
-      <c r="CU111" s="0"/>
-      <c r="CV111" s="0"/>
-      <c r="CW111" s="0"/>
-      <c r="CX111" s="0"/>
-      <c r="CY111" s="0"/>
-      <c r="CZ111" s="0"/>
-      <c r="DA111" s="0"/>
-      <c r="DB111" s="0"/>
-      <c r="DC111" s="0"/>
-      <c r="DD111" s="0"/>
-      <c r="DE111" s="0"/>
-      <c r="DF111" s="0"/>
-      <c r="DG111" s="0"/>
-      <c r="DH111" s="0"/>
-      <c r="DI111" s="0"/>
-      <c r="DJ111" s="0"/>
-      <c r="DK111" s="0"/>
-      <c r="DL111" s="0"/>
-      <c r="DM111" s="0"/>
-      <c r="DN111" s="0"/>
-      <c r="DO111" s="0"/>
-      <c r="DP111" s="0"/>
-      <c r="DQ111" s="0"/>
-      <c r="DR111" s="0"/>
-      <c r="DS111" s="0"/>
-      <c r="DT111" s="0"/>
-      <c r="DU111" s="0"/>
-      <c r="DV111" s="0"/>
-      <c r="DW111" s="0"/>
-      <c r="DX111" s="0"/>
-      <c r="DY111" s="0"/>
-      <c r="DZ111" s="0"/>
-      <c r="EA111" s="0"/>
-      <c r="EB111" s="0"/>
-      <c r="EC111" s="0"/>
-      <c r="ED111" s="0"/>
-      <c r="EE111" s="0"/>
-      <c r="EF111" s="0"/>
-      <c r="EG111" s="0"/>
-      <c r="EH111" s="0"/>
-      <c r="EI111" s="0"/>
-      <c r="EJ111" s="0"/>
-      <c r="EK111" s="0"/>
-      <c r="EL111" s="0"/>
-      <c r="EM111" s="0"/>
-      <c r="EN111" s="0"/>
-      <c r="EO111" s="0"/>
-      <c r="EP111" s="0"/>
-      <c r="EQ111" s="0"/>
-      <c r="ER111" s="0"/>
-      <c r="ES111" s="0"/>
-      <c r="ET111" s="0"/>
-      <c r="EU111" s="0"/>
-      <c r="EV111" s="0"/>
-      <c r="EW111" s="0"/>
-      <c r="EX111" s="0"/>
-      <c r="EY111" s="0"/>
-      <c r="EZ111" s="0"/>
-      <c r="FA111" s="0"/>
-      <c r="FB111" s="0"/>
-      <c r="FC111" s="0"/>
-      <c r="FD111" s="0"/>
-      <c r="FE111" s="0"/>
-      <c r="FF111" s="0"/>
-      <c r="FG111" s="0"/>
-      <c r="FH111" s="0"/>
-      <c r="FI111" s="0"/>
-      <c r="FJ111" s="0"/>
-      <c r="FK111" s="0"/>
-      <c r="FL111" s="0"/>
-      <c r="FM111" s="0"/>
-      <c r="FN111" s="0"/>
-      <c r="FO111" s="0"/>
-      <c r="FP111" s="0"/>
-      <c r="FQ111" s="0"/>
-      <c r="FR111" s="0"/>
-      <c r="FS111" s="0"/>
-      <c r="FT111" s="0"/>
-      <c r="FU111" s="0"/>
-      <c r="FV111" s="0"/>
-      <c r="FW111" s="0"/>
-      <c r="FX111" s="0"/>
-      <c r="FY111" s="0"/>
-      <c r="FZ111" s="0"/>
-      <c r="GA111" s="0"/>
-      <c r="GB111" s="0"/>
-      <c r="GC111" s="0"/>
-      <c r="GD111" s="0"/>
-      <c r="GE111" s="0"/>
-      <c r="GF111" s="0"/>
-      <c r="GG111" s="0"/>
-      <c r="GH111" s="0"/>
-      <c r="GI111" s="0"/>
-      <c r="GJ111" s="0"/>
-      <c r="GK111" s="0"/>
-      <c r="GL111" s="0"/>
-      <c r="GM111" s="0"/>
-      <c r="GN111" s="0"/>
-      <c r="GO111" s="0"/>
-      <c r="GP111" s="0"/>
-      <c r="GQ111" s="0"/>
-      <c r="GR111" s="0"/>
-      <c r="GS111" s="0"/>
-      <c r="GT111" s="0"/>
-      <c r="GU111" s="0"/>
-      <c r="GV111" s="0"/>
-      <c r="GW111" s="0"/>
-      <c r="GX111" s="0"/>
-      <c r="GY111" s="0"/>
-      <c r="GZ111" s="0"/>
-      <c r="HA111" s="0"/>
-      <c r="HB111" s="0"/>
-      <c r="HC111" s="0"/>
-      <c r="HD111" s="0"/>
-      <c r="HE111" s="0"/>
-      <c r="HF111" s="0"/>
-      <c r="HG111" s="0"/>
-      <c r="HH111" s="0"/>
-      <c r="HI111" s="0"/>
-      <c r="HJ111" s="0"/>
-      <c r="HK111" s="0"/>
-      <c r="HL111" s="0"/>
-      <c r="HM111" s="0"/>
-      <c r="HN111" s="0"/>
-      <c r="HO111" s="0"/>
-      <c r="HP111" s="0"/>
-      <c r="HQ111" s="0"/>
-      <c r="HR111" s="0"/>
-      <c r="HS111" s="0"/>
-      <c r="HT111" s="0"/>
-      <c r="HU111" s="0"/>
-      <c r="HV111" s="0"/>
-      <c r="HW111" s="0"/>
-      <c r="HX111" s="0"/>
-      <c r="HY111" s="0"/>
-      <c r="HZ111" s="0"/>
-      <c r="IA111" s="0"/>
-      <c r="IB111" s="0"/>
-      <c r="IC111" s="0"/>
-      <c r="ID111" s="0"/>
-      <c r="IE111" s="0"/>
-      <c r="IF111" s="0"/>
-      <c r="IG111" s="0"/>
-      <c r="IH111" s="0"/>
-      <c r="II111" s="0"/>
-      <c r="IJ111" s="0"/>
-      <c r="IK111" s="0"/>
-      <c r="IL111" s="0"/>
-      <c r="IM111" s="0"/>
-      <c r="IN111" s="0"/>
-      <c r="IO111" s="0"/>
-      <c r="IP111" s="0"/>
-      <c r="IQ111" s="0"/>
-      <c r="IR111" s="0"/>
-      <c r="IS111" s="0"/>
-      <c r="IT111" s="0"/>
-      <c r="IU111" s="0"/>
-      <c r="IV111" s="0"/>
-      <c r="IW111" s="0"/>
-      <c r="IX111" s="0"/>
-      <c r="IY111" s="0"/>
-      <c r="IZ111" s="0"/>
-      <c r="JA111" s="0"/>
-      <c r="JB111" s="0"/>
-      <c r="JC111" s="0"/>
-      <c r="JD111" s="0"/>
-      <c r="JE111" s="0"/>
-      <c r="JF111" s="0"/>
-      <c r="JG111" s="0"/>
-      <c r="JH111" s="0"/>
-      <c r="JI111" s="0"/>
-      <c r="JJ111" s="0"/>
-      <c r="JK111" s="0"/>
-      <c r="JL111" s="0"/>
-      <c r="JM111" s="0"/>
-      <c r="JN111" s="0"/>
-      <c r="JO111" s="0"/>
-      <c r="JP111" s="0"/>
-      <c r="JQ111" s="0"/>
-      <c r="JR111" s="0"/>
-      <c r="JS111" s="0"/>
-      <c r="JT111" s="0"/>
-      <c r="JU111" s="0"/>
-      <c r="JV111" s="0"/>
-      <c r="JW111" s="0"/>
-      <c r="JX111" s="0"/>
-      <c r="JY111" s="0"/>
-      <c r="JZ111" s="0"/>
-      <c r="KA111" s="0"/>
-      <c r="KB111" s="0"/>
-      <c r="KC111" s="0"/>
-      <c r="KD111" s="0"/>
-      <c r="KE111" s="0"/>
-      <c r="KF111" s="0"/>
-      <c r="KG111" s="0"/>
-      <c r="KH111" s="0"/>
-      <c r="KI111" s="0"/>
-      <c r="KJ111" s="0"/>
-      <c r="KK111" s="0"/>
-      <c r="KL111" s="0"/>
-      <c r="KM111" s="0"/>
-      <c r="KN111" s="0"/>
-      <c r="KO111" s="0"/>
-      <c r="KP111" s="0"/>
-      <c r="KQ111" s="0"/>
-      <c r="KR111" s="0"/>
-      <c r="KS111" s="0"/>
-      <c r="KT111" s="0"/>
-      <c r="KU111" s="0"/>
-      <c r="KV111" s="0"/>
-      <c r="KW111" s="0"/>
-      <c r="KX111" s="0"/>
-      <c r="KY111" s="0"/>
-      <c r="KZ111" s="0"/>
-      <c r="LA111" s="0"/>
-      <c r="LB111" s="0"/>
-      <c r="LC111" s="0"/>
-      <c r="LD111" s="0"/>
-      <c r="LE111" s="0"/>
-      <c r="LF111" s="0"/>
-      <c r="LG111" s="0"/>
-      <c r="LH111" s="0"/>
-      <c r="LI111" s="0"/>
-      <c r="LJ111" s="0"/>
-      <c r="LK111" s="0"/>
-      <c r="LL111" s="0"/>
-      <c r="LM111" s="0"/>
-      <c r="LN111" s="0"/>
-      <c r="LO111" s="0"/>
-      <c r="LP111" s="0"/>
-      <c r="LQ111" s="0"/>
-      <c r="LR111" s="0"/>
-      <c r="LS111" s="0"/>
-      <c r="LT111" s="0"/>
-      <c r="LU111" s="0"/>
-      <c r="LV111" s="0"/>
-      <c r="LW111" s="0"/>
-      <c r="LX111" s="0"/>
-      <c r="LY111" s="0"/>
-      <c r="LZ111" s="0"/>
-      <c r="MA111" s="0"/>
-      <c r="MB111" s="0"/>
-      <c r="MC111" s="0"/>
-      <c r="MD111" s="0"/>
-      <c r="ME111" s="0"/>
-      <c r="MF111" s="0"/>
-      <c r="MG111" s="0"/>
-      <c r="MH111" s="0"/>
-      <c r="MI111" s="0"/>
-      <c r="MJ111" s="0"/>
-      <c r="MK111" s="0"/>
-      <c r="ML111" s="0"/>
-      <c r="MM111" s="0"/>
-      <c r="MN111" s="0"/>
-      <c r="MO111" s="0"/>
-      <c r="MP111" s="0"/>
-      <c r="MQ111" s="0"/>
-      <c r="MR111" s="0"/>
-      <c r="MS111" s="0"/>
-      <c r="MT111" s="0"/>
-      <c r="MU111" s="0"/>
-      <c r="MV111" s="0"/>
-      <c r="MW111" s="0"/>
-      <c r="MX111" s="0"/>
-      <c r="MY111" s="0"/>
-      <c r="MZ111" s="0"/>
-      <c r="NA111" s="0"/>
-      <c r="NB111" s="0"/>
-      <c r="NC111" s="0"/>
-      <c r="ND111" s="0"/>
-      <c r="NE111" s="0"/>
-      <c r="NF111" s="0"/>
-      <c r="NG111" s="0"/>
-      <c r="NH111" s="0"/>
-      <c r="NI111" s="0"/>
-      <c r="NJ111" s="0"/>
-      <c r="NK111" s="0"/>
-      <c r="NL111" s="0"/>
-      <c r="NM111" s="0"/>
-      <c r="NN111" s="0"/>
-      <c r="NO111" s="0"/>
-      <c r="NP111" s="0"/>
-      <c r="NQ111" s="0"/>
-      <c r="NR111" s="0"/>
-      <c r="NS111" s="0"/>
-      <c r="NT111" s="0"/>
-      <c r="NU111" s="0"/>
-      <c r="NV111" s="0"/>
-      <c r="NW111" s="0"/>
-      <c r="NX111" s="0"/>
-      <c r="NY111" s="0"/>
-      <c r="NZ111" s="0"/>
-      <c r="OA111" s="0"/>
-      <c r="OB111" s="0"/>
-      <c r="OC111" s="0"/>
-      <c r="OD111" s="0"/>
-      <c r="OE111" s="0"/>
-      <c r="OF111" s="0"/>
-      <c r="OG111" s="0"/>
-      <c r="OH111" s="0"/>
-      <c r="OI111" s="0"/>
-      <c r="OJ111" s="0"/>
-      <c r="OK111" s="0"/>
-      <c r="OL111" s="0"/>
-      <c r="OM111" s="0"/>
-      <c r="ON111" s="0"/>
-      <c r="OO111" s="0"/>
-      <c r="OP111" s="0"/>
-      <c r="OQ111" s="0"/>
-      <c r="OR111" s="0"/>
-      <c r="OS111" s="0"/>
-      <c r="OT111" s="0"/>
-      <c r="OU111" s="0"/>
-      <c r="OV111" s="0"/>
-      <c r="OW111" s="0"/>
-      <c r="OX111" s="0"/>
-      <c r="OY111" s="0"/>
-      <c r="OZ111" s="0"/>
-      <c r="PA111" s="0"/>
-      <c r="PB111" s="0"/>
-      <c r="PC111" s="0"/>
-      <c r="PD111" s="0"/>
-      <c r="PE111" s="0"/>
-      <c r="PF111" s="0"/>
-      <c r="PG111" s="0"/>
-      <c r="PH111" s="0"/>
-      <c r="PI111" s="0"/>
-      <c r="PJ111" s="0"/>
-      <c r="PK111" s="0"/>
-      <c r="PL111" s="0"/>
-      <c r="PM111" s="0"/>
-      <c r="PN111" s="0"/>
-      <c r="PO111" s="0"/>
-      <c r="PP111" s="0"/>
-      <c r="PQ111" s="0"/>
-      <c r="PR111" s="0"/>
-      <c r="PS111" s="0"/>
-      <c r="PT111" s="0"/>
-      <c r="PU111" s="0"/>
-      <c r="PV111" s="0"/>
-      <c r="PW111" s="0"/>
-      <c r="PX111" s="0"/>
-      <c r="PY111" s="0"/>
-      <c r="PZ111" s="0"/>
-      <c r="QA111" s="0"/>
-      <c r="QB111" s="0"/>
-      <c r="QC111" s="0"/>
-      <c r="QD111" s="0"/>
-      <c r="QE111" s="0"/>
-      <c r="QF111" s="0"/>
-      <c r="QG111" s="0"/>
-      <c r="QH111" s="0"/>
-      <c r="QI111" s="0"/>
-      <c r="QJ111" s="0"/>
-      <c r="QK111" s="0"/>
-      <c r="QL111" s="0"/>
-      <c r="QM111" s="0"/>
-      <c r="QN111" s="0"/>
-      <c r="QO111" s="0"/>
-      <c r="QP111" s="0"/>
-      <c r="QQ111" s="0"/>
-      <c r="QR111" s="0"/>
-      <c r="QS111" s="0"/>
-      <c r="QT111" s="0"/>
-      <c r="QU111" s="0"/>
-      <c r="QV111" s="0"/>
-      <c r="QW111" s="0"/>
-      <c r="QX111" s="0"/>
-      <c r="QY111" s="0"/>
-      <c r="QZ111" s="0"/>
-      <c r="RA111" s="0"/>
-      <c r="RB111" s="0"/>
-      <c r="RC111" s="0"/>
-      <c r="RD111" s="0"/>
-      <c r="RE111" s="0"/>
-      <c r="RF111" s="0"/>
-      <c r="RG111" s="0"/>
-      <c r="RH111" s="0"/>
-      <c r="RI111" s="0"/>
-      <c r="RJ111" s="0"/>
-      <c r="RK111" s="0"/>
-      <c r="RL111" s="0"/>
-      <c r="RM111" s="0"/>
-      <c r="RN111" s="0"/>
-      <c r="RO111" s="0"/>
-      <c r="RP111" s="0"/>
-      <c r="RQ111" s="0"/>
-      <c r="RR111" s="0"/>
-      <c r="RS111" s="0"/>
-      <c r="RT111" s="0"/>
-      <c r="RU111" s="0"/>
-      <c r="RV111" s="0"/>
-      <c r="RW111" s="0"/>
-      <c r="RX111" s="0"/>
-      <c r="RY111" s="0"/>
-      <c r="RZ111" s="0"/>
-      <c r="SA111" s="0"/>
-      <c r="SB111" s="0"/>
-      <c r="SC111" s="0"/>
-      <c r="SD111" s="0"/>
-      <c r="SE111" s="0"/>
-      <c r="SF111" s="0"/>
-      <c r="SG111" s="0"/>
-      <c r="SH111" s="0"/>
-      <c r="SI111" s="0"/>
-      <c r="SJ111" s="0"/>
-      <c r="SK111" s="0"/>
-      <c r="SL111" s="0"/>
-      <c r="SM111" s="0"/>
-      <c r="SN111" s="0"/>
-      <c r="SO111" s="0"/>
-      <c r="SP111" s="0"/>
-      <c r="SQ111" s="0"/>
-      <c r="SR111" s="0"/>
-      <c r="SS111" s="0"/>
-      <c r="ST111" s="0"/>
-      <c r="SU111" s="0"/>
-      <c r="SV111" s="0"/>
-      <c r="SW111" s="0"/>
-      <c r="SX111" s="0"/>
-      <c r="SY111" s="0"/>
-      <c r="SZ111" s="0"/>
-      <c r="TA111" s="0"/>
-      <c r="TB111" s="0"/>
-      <c r="TC111" s="0"/>
-      <c r="TD111" s="0"/>
-      <c r="TE111" s="0"/>
-      <c r="TF111" s="0"/>
-      <c r="TG111" s="0"/>
-      <c r="TH111" s="0"/>
-      <c r="TI111" s="0"/>
-      <c r="TJ111" s="0"/>
-      <c r="TK111" s="0"/>
-      <c r="TL111" s="0"/>
-      <c r="TM111" s="0"/>
-      <c r="TN111" s="0"/>
-      <c r="TO111" s="0"/>
-      <c r="TP111" s="0"/>
-      <c r="TQ111" s="0"/>
-      <c r="TR111" s="0"/>
-      <c r="TS111" s="0"/>
-      <c r="TT111" s="0"/>
-      <c r="TU111" s="0"/>
-      <c r="TV111" s="0"/>
-      <c r="TW111" s="0"/>
-      <c r="TX111" s="0"/>
-      <c r="TY111" s="0"/>
-      <c r="TZ111" s="0"/>
-      <c r="UA111" s="0"/>
-      <c r="UB111" s="0"/>
-      <c r="UC111" s="0"/>
-      <c r="UD111" s="0"/>
-      <c r="UE111" s="0"/>
-      <c r="UF111" s="0"/>
-      <c r="UG111" s="0"/>
-      <c r="UH111" s="0"/>
-      <c r="UI111" s="0"/>
-      <c r="UJ111" s="0"/>
-      <c r="UK111" s="0"/>
-      <c r="UL111" s="0"/>
-      <c r="UM111" s="0"/>
-      <c r="UN111" s="0"/>
-      <c r="UO111" s="0"/>
-      <c r="UP111" s="0"/>
-      <c r="UQ111" s="0"/>
-      <c r="UR111" s="0"/>
-      <c r="US111" s="0"/>
-      <c r="UT111" s="0"/>
-      <c r="UU111" s="0"/>
-      <c r="UV111" s="0"/>
-      <c r="UW111" s="0"/>
-      <c r="UX111" s="0"/>
-      <c r="UY111" s="0"/>
-      <c r="UZ111" s="0"/>
-      <c r="VA111" s="0"/>
-      <c r="VB111" s="0"/>
-      <c r="VC111" s="0"/>
-      <c r="VD111" s="0"/>
-      <c r="VE111" s="0"/>
-      <c r="VF111" s="0"/>
-      <c r="VG111" s="0"/>
-      <c r="VH111" s="0"/>
-      <c r="VI111" s="0"/>
-      <c r="VJ111" s="0"/>
-      <c r="VK111" s="0"/>
-      <c r="VL111" s="0"/>
-      <c r="VM111" s="0"/>
-      <c r="VN111" s="0"/>
-      <c r="VO111" s="0"/>
-      <c r="VP111" s="0"/>
-      <c r="VQ111" s="0"/>
-      <c r="VR111" s="0"/>
-      <c r="VS111" s="0"/>
-      <c r="VT111" s="0"/>
-      <c r="VU111" s="0"/>
-      <c r="VV111" s="0"/>
-      <c r="VW111" s="0"/>
-      <c r="VX111" s="0"/>
-      <c r="VY111" s="0"/>
-      <c r="VZ111" s="0"/>
-      <c r="WA111" s="0"/>
-      <c r="WB111" s="0"/>
-      <c r="WC111" s="0"/>
-      <c r="WD111" s="0"/>
-      <c r="WE111" s="0"/>
-      <c r="WF111" s="0"/>
-      <c r="WG111" s="0"/>
-      <c r="WH111" s="0"/>
-      <c r="WI111" s="0"/>
-      <c r="WJ111" s="0"/>
-      <c r="WK111" s="0"/>
-      <c r="WL111" s="0"/>
-      <c r="WM111" s="0"/>
-      <c r="WN111" s="0"/>
-      <c r="WO111" s="0"/>
-      <c r="WP111" s="0"/>
-      <c r="WQ111" s="0"/>
-      <c r="WR111" s="0"/>
-      <c r="WS111" s="0"/>
-      <c r="WT111" s="0"/>
-      <c r="WU111" s="0"/>
-      <c r="WV111" s="0"/>
-      <c r="WW111" s="0"/>
-      <c r="WX111" s="0"/>
-      <c r="WY111" s="0"/>
-      <c r="WZ111" s="0"/>
-      <c r="XA111" s="0"/>
-      <c r="XB111" s="0"/>
-      <c r="XC111" s="0"/>
-      <c r="XD111" s="0"/>
-      <c r="XE111" s="0"/>
-      <c r="XF111" s="0"/>
-      <c r="XG111" s="0"/>
-      <c r="XH111" s="0"/>
-      <c r="XI111" s="0"/>
-      <c r="XJ111" s="0"/>
-      <c r="XK111" s="0"/>
-      <c r="XL111" s="0"/>
-      <c r="XM111" s="0"/>
-      <c r="XN111" s="0"/>
-      <c r="XO111" s="0"/>
-      <c r="XP111" s="0"/>
-      <c r="XQ111" s="0"/>
-      <c r="XR111" s="0"/>
-      <c r="XS111" s="0"/>
-      <c r="XT111" s="0"/>
-      <c r="XU111" s="0"/>
-      <c r="XV111" s="0"/>
-      <c r="XW111" s="0"/>
-      <c r="XX111" s="0"/>
-      <c r="XY111" s="0"/>
-      <c r="XZ111" s="0"/>
-      <c r="YA111" s="0"/>
-      <c r="YB111" s="0"/>
-      <c r="YC111" s="0"/>
-      <c r="YD111" s="0"/>
-      <c r="YE111" s="0"/>
-      <c r="YF111" s="0"/>
-      <c r="YG111" s="0"/>
-      <c r="YH111" s="0"/>
-      <c r="YI111" s="0"/>
-      <c r="YJ111" s="0"/>
-      <c r="YK111" s="0"/>
-      <c r="YL111" s="0"/>
-      <c r="YM111" s="0"/>
-      <c r="YN111" s="0"/>
-      <c r="YO111" s="0"/>
-      <c r="YP111" s="0"/>
-      <c r="YQ111" s="0"/>
-      <c r="YR111" s="0"/>
-      <c r="YS111" s="0"/>
-      <c r="YT111" s="0"/>
-      <c r="YU111" s="0"/>
-      <c r="YV111" s="0"/>
-      <c r="YW111" s="0"/>
-      <c r="YX111" s="0"/>
-      <c r="YY111" s="0"/>
-      <c r="YZ111" s="0"/>
-      <c r="ZA111" s="0"/>
-      <c r="ZB111" s="0"/>
-      <c r="ZC111" s="0"/>
-      <c r="ZD111" s="0"/>
-      <c r="ZE111" s="0"/>
-      <c r="ZF111" s="0"/>
-      <c r="ZG111" s="0"/>
-      <c r="ZH111" s="0"/>
-      <c r="ZI111" s="0"/>
-      <c r="ZJ111" s="0"/>
-      <c r="ZK111" s="0"/>
-      <c r="ZL111" s="0"/>
-      <c r="ZM111" s="0"/>
-      <c r="ZN111" s="0"/>
-      <c r="ZO111" s="0"/>
-      <c r="ZP111" s="0"/>
-      <c r="ZQ111" s="0"/>
-      <c r="ZR111" s="0"/>
-      <c r="ZS111" s="0"/>
-      <c r="ZT111" s="0"/>
-      <c r="ZU111" s="0"/>
-      <c r="ZV111" s="0"/>
-      <c r="ZW111" s="0"/>
-      <c r="ZX111" s="0"/>
-      <c r="ZY111" s="0"/>
-      <c r="ZZ111" s="0"/>
-      <c r="AAA111" s="0"/>
-      <c r="AAB111" s="0"/>
-      <c r="AAC111" s="0"/>
-      <c r="AAD111" s="0"/>
-      <c r="AAE111" s="0"/>
-      <c r="AAF111" s="0"/>
-      <c r="AAG111" s="0"/>
-      <c r="AAH111" s="0"/>
-      <c r="AAI111" s="0"/>
-      <c r="AAJ111" s="0"/>
-      <c r="AAK111" s="0"/>
-      <c r="AAL111" s="0"/>
-      <c r="AAM111" s="0"/>
-      <c r="AAN111" s="0"/>
-      <c r="AAO111" s="0"/>
-      <c r="AAP111" s="0"/>
-      <c r="AAQ111" s="0"/>
-      <c r="AAR111" s="0"/>
-      <c r="AAS111" s="0"/>
-      <c r="AAT111" s="0"/>
-      <c r="AAU111" s="0"/>
-      <c r="AAV111" s="0"/>
-      <c r="AAW111" s="0"/>
-      <c r="AAX111" s="0"/>
-      <c r="AAY111" s="0"/>
-      <c r="AAZ111" s="0"/>
-      <c r="ABA111" s="0"/>
-      <c r="ABB111" s="0"/>
-      <c r="ABC111" s="0"/>
-      <c r="ABD111" s="0"/>
-      <c r="ABE111" s="0"/>
-      <c r="ABF111" s="0"/>
-      <c r="ABG111" s="0"/>
-      <c r="ABH111" s="0"/>
-      <c r="ABI111" s="0"/>
-      <c r="ABJ111" s="0"/>
-      <c r="ABK111" s="0"/>
-      <c r="ABL111" s="0"/>
-      <c r="ABM111" s="0"/>
-      <c r="ABN111" s="0"/>
-      <c r="ABO111" s="0"/>
-      <c r="ABP111" s="0"/>
-      <c r="ABQ111" s="0"/>
-      <c r="ABR111" s="0"/>
-      <c r="ABS111" s="0"/>
-      <c r="ABT111" s="0"/>
-      <c r="ABU111" s="0"/>
-      <c r="ABV111" s="0"/>
-      <c r="ABW111" s="0"/>
-      <c r="ABX111" s="0"/>
-      <c r="ABY111" s="0"/>
-      <c r="ABZ111" s="0"/>
-      <c r="ACA111" s="0"/>
-      <c r="ACB111" s="0"/>
-      <c r="ACC111" s="0"/>
-      <c r="ACD111" s="0"/>
-      <c r="ACE111" s="0"/>
-      <c r="ACF111" s="0"/>
-      <c r="ACG111" s="0"/>
-      <c r="ACH111" s="0"/>
-      <c r="ACI111" s="0"/>
-      <c r="ACJ111" s="0"/>
-      <c r="ACK111" s="0"/>
-      <c r="ACL111" s="0"/>
-      <c r="ACM111" s="0"/>
-      <c r="ACN111" s="0"/>
-      <c r="ACO111" s="0"/>
-      <c r="ACP111" s="0"/>
-      <c r="ACQ111" s="0"/>
-      <c r="ACR111" s="0"/>
-      <c r="ACS111" s="0"/>
-      <c r="ACT111" s="0"/>
-      <c r="ACU111" s="0"/>
-      <c r="ACV111" s="0"/>
-      <c r="ACW111" s="0"/>
-      <c r="ACX111" s="0"/>
-      <c r="ACY111" s="0"/>
-      <c r="ACZ111" s="0"/>
-      <c r="ADA111" s="0"/>
-      <c r="ADB111" s="0"/>
-      <c r="ADC111" s="0"/>
-      <c r="ADD111" s="0"/>
-      <c r="ADE111" s="0"/>
-      <c r="ADF111" s="0"/>
-      <c r="ADG111" s="0"/>
-      <c r="ADH111" s="0"/>
-      <c r="ADI111" s="0"/>
-      <c r="ADJ111" s="0"/>
-      <c r="ADK111" s="0"/>
-      <c r="ADL111" s="0"/>
-      <c r="ADM111" s="0"/>
-      <c r="ADN111" s="0"/>
-      <c r="ADO111" s="0"/>
-      <c r="ADP111" s="0"/>
-      <c r="ADQ111" s="0"/>
-      <c r="ADR111" s="0"/>
-      <c r="ADS111" s="0"/>
-      <c r="ADT111" s="0"/>
-      <c r="ADU111" s="0"/>
-      <c r="ADV111" s="0"/>
-      <c r="ADW111" s="0"/>
-      <c r="ADX111" s="0"/>
-      <c r="ADY111" s="0"/>
-      <c r="ADZ111" s="0"/>
-      <c r="AEA111" s="0"/>
-      <c r="AEB111" s="0"/>
-      <c r="AEC111" s="0"/>
-      <c r="AED111" s="0"/>
-      <c r="AEE111" s="0"/>
-      <c r="AEF111" s="0"/>
-      <c r="AEG111" s="0"/>
-      <c r="AEH111" s="0"/>
-      <c r="AEI111" s="0"/>
-      <c r="AEJ111" s="0"/>
-      <c r="AEK111" s="0"/>
-      <c r="AEL111" s="0"/>
-      <c r="AEM111" s="0"/>
-      <c r="AEN111" s="0"/>
-      <c r="AEO111" s="0"/>
-      <c r="AEP111" s="0"/>
-      <c r="AEQ111" s="0"/>
-      <c r="AER111" s="0"/>
-      <c r="AES111" s="0"/>
-      <c r="AET111" s="0"/>
-      <c r="AEU111" s="0"/>
-      <c r="AEV111" s="0"/>
-      <c r="AEW111" s="0"/>
-      <c r="AEX111" s="0"/>
-      <c r="AEY111" s="0"/>
-      <c r="AEZ111" s="0"/>
-      <c r="AFA111" s="0"/>
-      <c r="AFB111" s="0"/>
-      <c r="AFC111" s="0"/>
-      <c r="AFD111" s="0"/>
-      <c r="AFE111" s="0"/>
-      <c r="AFF111" s="0"/>
-      <c r="AFG111" s="0"/>
-      <c r="AFH111" s="0"/>
-      <c r="AFI111" s="0"/>
-      <c r="AFJ111" s="0"/>
-      <c r="AFK111" s="0"/>
-      <c r="AFL111" s="0"/>
-      <c r="AFM111" s="0"/>
-      <c r="AFN111" s="0"/>
-      <c r="AFO111" s="0"/>
-      <c r="AFP111" s="0"/>
-      <c r="AFQ111" s="0"/>
-      <c r="AFR111" s="0"/>
-      <c r="AFS111" s="0"/>
-      <c r="AFT111" s="0"/>
-      <c r="AFU111" s="0"/>
-      <c r="AFV111" s="0"/>
-      <c r="AFW111" s="0"/>
-      <c r="AFX111" s="0"/>
-      <c r="AFY111" s="0"/>
-      <c r="AFZ111" s="0"/>
-      <c r="AGA111" s="0"/>
-      <c r="AGB111" s="0"/>
-      <c r="AGC111" s="0"/>
-      <c r="AGD111" s="0"/>
-      <c r="AGE111" s="0"/>
-      <c r="AGF111" s="0"/>
-      <c r="AGG111" s="0"/>
-      <c r="AGH111" s="0"/>
-      <c r="AGI111" s="0"/>
-      <c r="AGJ111" s="0"/>
-      <c r="AGK111" s="0"/>
-      <c r="AGL111" s="0"/>
-      <c r="AGM111" s="0"/>
-      <c r="AGN111" s="0"/>
-      <c r="AGO111" s="0"/>
-      <c r="AGP111" s="0"/>
-      <c r="AGQ111" s="0"/>
-      <c r="AGR111" s="0"/>
-      <c r="AGS111" s="0"/>
-      <c r="AGT111" s="0"/>
-      <c r="AGU111" s="0"/>
-      <c r="AGV111" s="0"/>
-      <c r="AGW111" s="0"/>
-      <c r="AGX111" s="0"/>
-      <c r="AGY111" s="0"/>
-      <c r="AGZ111" s="0"/>
-      <c r="AHA111" s="0"/>
-      <c r="AHB111" s="0"/>
-      <c r="AHC111" s="0"/>
-      <c r="AHD111" s="0"/>
-      <c r="AHE111" s="0"/>
-      <c r="AHF111" s="0"/>
-      <c r="AHG111" s="0"/>
-      <c r="AHH111" s="0"/>
-      <c r="AHI111" s="0"/>
-      <c r="AHJ111" s="0"/>
-      <c r="AHK111" s="0"/>
-      <c r="AHL111" s="0"/>
-      <c r="AHM111" s="0"/>
-      <c r="AHN111" s="0"/>
-      <c r="AHO111" s="0"/>
-      <c r="AHP111" s="0"/>
-      <c r="AHQ111" s="0"/>
-      <c r="AHR111" s="0"/>
-      <c r="AHS111" s="0"/>
-      <c r="AHT111" s="0"/>
-      <c r="AHU111" s="0"/>
-      <c r="AHV111" s="0"/>
-      <c r="AHW111" s="0"/>
-      <c r="AHX111" s="0"/>
-      <c r="AHY111" s="0"/>
-      <c r="AHZ111" s="0"/>
-      <c r="AIA111" s="0"/>
-      <c r="AIB111" s="0"/>
-      <c r="AIC111" s="0"/>
-      <c r="AID111" s="0"/>
-      <c r="AIE111" s="0"/>
-      <c r="AIF111" s="0"/>
-      <c r="AIG111" s="0"/>
-      <c r="AIH111" s="0"/>
-      <c r="AII111" s="0"/>
-      <c r="AIJ111" s="0"/>
-      <c r="AIK111" s="0"/>
-      <c r="AIL111" s="0"/>
-      <c r="AIM111" s="0"/>
-      <c r="AIN111" s="0"/>
-      <c r="AIO111" s="0"/>
-      <c r="AIP111" s="0"/>
-      <c r="AIQ111" s="0"/>
-      <c r="AIR111" s="0"/>
-      <c r="AIS111" s="0"/>
-      <c r="AIT111" s="0"/>
-      <c r="AIU111" s="0"/>
-      <c r="AIV111" s="0"/>
-      <c r="AIW111" s="0"/>
-      <c r="AIX111" s="0"/>
-      <c r="AIY111" s="0"/>
-      <c r="AIZ111" s="0"/>
-      <c r="AJA111" s="0"/>
-      <c r="AJB111" s="0"/>
-      <c r="AJC111" s="0"/>
-      <c r="AJD111" s="0"/>
-      <c r="AJE111" s="0"/>
-      <c r="AJF111" s="0"/>
-      <c r="AJG111" s="0"/>
-      <c r="AJH111" s="0"/>
-      <c r="AJI111" s="0"/>
-      <c r="AJJ111" s="0"/>
-      <c r="AJK111" s="0"/>
-      <c r="AJL111" s="0"/>
-      <c r="AJM111" s="0"/>
-      <c r="AJN111" s="0"/>
-      <c r="AJO111" s="0"/>
-      <c r="AJP111" s="0"/>
-      <c r="AJQ111" s="0"/>
-      <c r="AJR111" s="0"/>
-      <c r="AJS111" s="0"/>
-      <c r="AJT111" s="0"/>
-      <c r="AJU111" s="0"/>
-      <c r="AJV111" s="0"/>
-      <c r="AJW111" s="0"/>
-      <c r="AJX111" s="0"/>
-      <c r="AJY111" s="0"/>
-      <c r="AJZ111" s="0"/>
-      <c r="AKA111" s="0"/>
-      <c r="AKB111" s="0"/>
-      <c r="AKC111" s="0"/>
-      <c r="AKD111" s="0"/>
-      <c r="AKE111" s="0"/>
-      <c r="AKF111" s="0"/>
-      <c r="AKG111" s="0"/>
-      <c r="AKH111" s="0"/>
-      <c r="AKI111" s="0"/>
-      <c r="AKJ111" s="0"/>
-      <c r="AKK111" s="0"/>
-      <c r="AKL111" s="0"/>
-      <c r="AKM111" s="0"/>
-      <c r="AKN111" s="0"/>
-      <c r="AKO111" s="0"/>
-      <c r="AKP111" s="0"/>
-      <c r="AKQ111" s="0"/>
-      <c r="AKR111" s="0"/>
-      <c r="AKS111" s="0"/>
-      <c r="AKT111" s="0"/>
-      <c r="AKU111" s="0"/>
-      <c r="AKV111" s="0"/>
-      <c r="AKW111" s="0"/>
-      <c r="AKX111" s="0"/>
-      <c r="AKY111" s="0"/>
-      <c r="AKZ111" s="0"/>
-      <c r="ALA111" s="0"/>
-      <c r="ALB111" s="0"/>
-      <c r="ALC111" s="0"/>
-      <c r="ALD111" s="0"/>
-      <c r="ALE111" s="0"/>
-      <c r="ALF111" s="0"/>
-      <c r="ALG111" s="0"/>
-      <c r="ALH111" s="0"/>
-      <c r="ALI111" s="0"/>
-      <c r="ALJ111" s="0"/>
-      <c r="ALK111" s="0"/>
-      <c r="ALL111" s="0"/>
-      <c r="ALM111" s="0"/>
-      <c r="ALN111" s="0"/>
-      <c r="ALO111" s="0"/>
-      <c r="ALP111" s="0"/>
-      <c r="ALQ111" s="0"/>
-      <c r="ALR111" s="0"/>
-      <c r="ALS111" s="0"/>
-      <c r="ALT111" s="0"/>
-      <c r="ALU111" s="0"/>
-      <c r="ALV111" s="0"/>
-      <c r="ALW111" s="0"/>
-      <c r="ALX111" s="0"/>
-      <c r="ALY111" s="0"/>
-      <c r="ALZ111" s="0"/>
-      <c r="AMA111" s="0"/>
-      <c r="AMB111" s="0"/>
-      <c r="AMC111" s="0"/>
-      <c r="AMD111" s="0"/>
-      <c r="AME111" s="0"/>
-      <c r="AMF111" s="0"/>
-      <c r="AMG111" s="0"/>
-      <c r="AMH111" s="0"/>
-      <c r="AMI111" s="0"/>
-      <c r="AMJ111" s="0"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="0"/>
+      <c r="M112" s="0"/>
+      <c r="N112" s="0"/>
+      <c r="O112" s="0"/>
+      <c r="P112" s="0"/>
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0"/>
+      <c r="S112" s="0"/>
+      <c r="T112" s="0"/>
+      <c r="U112" s="0"/>
+      <c r="V112" s="0"/>
+      <c r="W112" s="0"/>
+      <c r="X112" s="0"/>
+      <c r="Y112" s="0"/>
+      <c r="Z112" s="0"/>
+      <c r="AA112" s="0"/>
+      <c r="AB112" s="0"/>
+      <c r="AC112" s="0"/>
+      <c r="AD112" s="0"/>
+      <c r="AE112" s="0"/>
+      <c r="AF112" s="0"/>
+      <c r="AG112" s="0"/>
+      <c r="AH112" s="0"/>
+      <c r="AI112" s="0"/>
+      <c r="AJ112" s="0"/>
+      <c r="AK112" s="0"/>
+      <c r="AL112" s="0"/>
+      <c r="AM112" s="0"/>
+      <c r="AN112" s="0"/>
+      <c r="AO112" s="0"/>
+      <c r="AP112" s="0"/>
+      <c r="AQ112" s="0"/>
+      <c r="AR112" s="0"/>
+      <c r="AS112" s="0"/>
+      <c r="AT112" s="0"/>
+      <c r="AU112" s="0"/>
+      <c r="AV112" s="0"/>
+      <c r="AW112" s="0"/>
+      <c r="AX112" s="0"/>
+      <c r="AY112" s="0"/>
+      <c r="AZ112" s="0"/>
+      <c r="BA112" s="0"/>
+      <c r="BB112" s="0"/>
+      <c r="BC112" s="0"/>
+      <c r="BD112" s="0"/>
+      <c r="BE112" s="0"/>
+      <c r="BF112" s="0"/>
+      <c r="BG112" s="0"/>
+      <c r="BH112" s="0"/>
+      <c r="BI112" s="0"/>
+      <c r="BJ112" s="0"/>
+      <c r="BK112" s="0"/>
+      <c r="BL112" s="0"/>
+      <c r="BM112" s="0"/>
+      <c r="BN112" s="0"/>
+      <c r="BO112" s="0"/>
+      <c r="BP112" s="0"/>
+      <c r="BQ112" s="0"/>
+      <c r="BR112" s="0"/>
+      <c r="BS112" s="0"/>
+      <c r="BT112" s="0"/>
+      <c r="BU112" s="0"/>
+      <c r="BV112" s="0"/>
+      <c r="BW112" s="0"/>
+      <c r="BX112" s="0"/>
+      <c r="BY112" s="0"/>
+      <c r="BZ112" s="0"/>
+      <c r="CA112" s="0"/>
+      <c r="CB112" s="0"/>
+      <c r="CC112" s="0"/>
+      <c r="CD112" s="0"/>
+      <c r="CE112" s="0"/>
+      <c r="CF112" s="0"/>
+      <c r="CG112" s="0"/>
+      <c r="CH112" s="0"/>
+      <c r="CI112" s="0"/>
+      <c r="CJ112" s="0"/>
+      <c r="CK112" s="0"/>
+      <c r="CL112" s="0"/>
+      <c r="CM112" s="0"/>
+      <c r="CN112" s="0"/>
+      <c r="CO112" s="0"/>
+      <c r="CP112" s="0"/>
+      <c r="CQ112" s="0"/>
+      <c r="CR112" s="0"/>
+      <c r="CS112" s="0"/>
+      <c r="CT112" s="0"/>
+      <c r="CU112" s="0"/>
+      <c r="CV112" s="0"/>
+      <c r="CW112" s="0"/>
+      <c r="CX112" s="0"/>
+      <c r="CY112" s="0"/>
+      <c r="CZ112" s="0"/>
+      <c r="DA112" s="0"/>
+      <c r="DB112" s="0"/>
+      <c r="DC112" s="0"/>
+      <c r="DD112" s="0"/>
+      <c r="DE112" s="0"/>
+      <c r="DF112" s="0"/>
+      <c r="DG112" s="0"/>
+      <c r="DH112" s="0"/>
+      <c r="DI112" s="0"/>
+      <c r="DJ112" s="0"/>
+      <c r="DK112" s="0"/>
+      <c r="DL112" s="0"/>
+      <c r="DM112" s="0"/>
+      <c r="DN112" s="0"/>
+      <c r="DO112" s="0"/>
+      <c r="DP112" s="0"/>
+      <c r="DQ112" s="0"/>
+      <c r="DR112" s="0"/>
+      <c r="DS112" s="0"/>
+      <c r="DT112" s="0"/>
+      <c r="DU112" s="0"/>
+      <c r="DV112" s="0"/>
+      <c r="DW112" s="0"/>
+      <c r="DX112" s="0"/>
+      <c r="DY112" s="0"/>
+      <c r="DZ112" s="0"/>
+      <c r="EA112" s="0"/>
+      <c r="EB112" s="0"/>
+      <c r="EC112" s="0"/>
+      <c r="ED112" s="0"/>
+      <c r="EE112" s="0"/>
+      <c r="EF112" s="0"/>
+      <c r="EG112" s="0"/>
+      <c r="EH112" s="0"/>
+      <c r="EI112" s="0"/>
+      <c r="EJ112" s="0"/>
+      <c r="EK112" s="0"/>
+      <c r="EL112" s="0"/>
+      <c r="EM112" s="0"/>
+      <c r="EN112" s="0"/>
+      <c r="EO112" s="0"/>
+      <c r="EP112" s="0"/>
+      <c r="EQ112" s="0"/>
+      <c r="ER112" s="0"/>
+      <c r="ES112" s="0"/>
+      <c r="ET112" s="0"/>
+      <c r="EU112" s="0"/>
+      <c r="EV112" s="0"/>
+      <c r="EW112" s="0"/>
+      <c r="EX112" s="0"/>
+      <c r="EY112" s="0"/>
+      <c r="EZ112" s="0"/>
+      <c r="FA112" s="0"/>
+      <c r="FB112" s="0"/>
+      <c r="FC112" s="0"/>
+      <c r="FD112" s="0"/>
+      <c r="FE112" s="0"/>
+      <c r="FF112" s="0"/>
+      <c r="FG112" s="0"/>
+      <c r="FH112" s="0"/>
+      <c r="FI112" s="0"/>
+      <c r="FJ112" s="0"/>
+      <c r="FK112" s="0"/>
+      <c r="FL112" s="0"/>
+      <c r="FM112" s="0"/>
+      <c r="FN112" s="0"/>
+      <c r="FO112" s="0"/>
+      <c r="FP112" s="0"/>
+      <c r="FQ112" s="0"/>
+      <c r="FR112" s="0"/>
+      <c r="FS112" s="0"/>
+      <c r="FT112" s="0"/>
+      <c r="FU112" s="0"/>
+      <c r="FV112" s="0"/>
+      <c r="FW112" s="0"/>
+      <c r="FX112" s="0"/>
+      <c r="FY112" s="0"/>
+      <c r="FZ112" s="0"/>
+      <c r="GA112" s="0"/>
+      <c r="GB112" s="0"/>
+      <c r="GC112" s="0"/>
+      <c r="GD112" s="0"/>
+      <c r="GE112" s="0"/>
+      <c r="GF112" s="0"/>
+      <c r="GG112" s="0"/>
+      <c r="GH112" s="0"/>
+      <c r="GI112" s="0"/>
+      <c r="GJ112" s="0"/>
+      <c r="GK112" s="0"/>
+      <c r="GL112" s="0"/>
+      <c r="GM112" s="0"/>
+      <c r="GN112" s="0"/>
+      <c r="GO112" s="0"/>
+      <c r="GP112" s="0"/>
+      <c r="GQ112" s="0"/>
+      <c r="GR112" s="0"/>
+      <c r="GS112" s="0"/>
+      <c r="GT112" s="0"/>
+      <c r="GU112" s="0"/>
+      <c r="GV112" s="0"/>
+      <c r="GW112" s="0"/>
+      <c r="GX112" s="0"/>
+      <c r="GY112" s="0"/>
+      <c r="GZ112" s="0"/>
+      <c r="HA112" s="0"/>
+      <c r="HB112" s="0"/>
+      <c r="HC112" s="0"/>
+      <c r="HD112" s="0"/>
+      <c r="HE112" s="0"/>
+      <c r="HF112" s="0"/>
+      <c r="HG112" s="0"/>
+      <c r="HH112" s="0"/>
+      <c r="HI112" s="0"/>
+      <c r="HJ112" s="0"/>
+      <c r="HK112" s="0"/>
+      <c r="HL112" s="0"/>
+      <c r="HM112" s="0"/>
+      <c r="HN112" s="0"/>
+      <c r="HO112" s="0"/>
+      <c r="HP112" s="0"/>
+      <c r="HQ112" s="0"/>
+      <c r="HR112" s="0"/>
+      <c r="HS112" s="0"/>
+      <c r="HT112" s="0"/>
+      <c r="HU112" s="0"/>
+      <c r="HV112" s="0"/>
+      <c r="HW112" s="0"/>
+      <c r="HX112" s="0"/>
+      <c r="HY112" s="0"/>
+      <c r="HZ112" s="0"/>
+      <c r="IA112" s="0"/>
+      <c r="IB112" s="0"/>
+      <c r="IC112" s="0"/>
+      <c r="ID112" s="0"/>
+      <c r="IE112" s="0"/>
+      <c r="IF112" s="0"/>
+      <c r="IG112" s="0"/>
+      <c r="IH112" s="0"/>
+      <c r="II112" s="0"/>
+      <c r="IJ112" s="0"/>
+      <c r="IK112" s="0"/>
+      <c r="IL112" s="0"/>
+      <c r="IM112" s="0"/>
+      <c r="IN112" s="0"/>
+      <c r="IO112" s="0"/>
+      <c r="IP112" s="0"/>
+      <c r="IQ112" s="0"/>
+      <c r="IR112" s="0"/>
+      <c r="IS112" s="0"/>
+      <c r="IT112" s="0"/>
+      <c r="IU112" s="0"/>
+      <c r="IV112" s="0"/>
+      <c r="IW112" s="0"/>
+      <c r="IX112" s="0"/>
+      <c r="IY112" s="0"/>
+      <c r="IZ112" s="0"/>
+      <c r="JA112" s="0"/>
+      <c r="JB112" s="0"/>
+      <c r="JC112" s="0"/>
+      <c r="JD112" s="0"/>
+      <c r="JE112" s="0"/>
+      <c r="JF112" s="0"/>
+      <c r="JG112" s="0"/>
+      <c r="JH112" s="0"/>
+      <c r="JI112" s="0"/>
+      <c r="JJ112" s="0"/>
+      <c r="JK112" s="0"/>
+      <c r="JL112" s="0"/>
+      <c r="JM112" s="0"/>
+      <c r="JN112" s="0"/>
+      <c r="JO112" s="0"/>
+      <c r="JP112" s="0"/>
+      <c r="JQ112" s="0"/>
+      <c r="JR112" s="0"/>
+      <c r="JS112" s="0"/>
+      <c r="JT112" s="0"/>
+      <c r="JU112" s="0"/>
+      <c r="JV112" s="0"/>
+      <c r="JW112" s="0"/>
+      <c r="JX112" s="0"/>
+      <c r="JY112" s="0"/>
+      <c r="JZ112" s="0"/>
+      <c r="KA112" s="0"/>
+      <c r="KB112" s="0"/>
+      <c r="KC112" s="0"/>
+      <c r="KD112" s="0"/>
+      <c r="KE112" s="0"/>
+      <c r="KF112" s="0"/>
+      <c r="KG112" s="0"/>
+      <c r="KH112" s="0"/>
+      <c r="KI112" s="0"/>
+      <c r="KJ112" s="0"/>
+      <c r="KK112" s="0"/>
+      <c r="KL112" s="0"/>
+      <c r="KM112" s="0"/>
+      <c r="KN112" s="0"/>
+      <c r="KO112" s="0"/>
+      <c r="KP112" s="0"/>
+      <c r="KQ112" s="0"/>
+      <c r="KR112" s="0"/>
+      <c r="KS112" s="0"/>
+      <c r="KT112" s="0"/>
+      <c r="KU112" s="0"/>
+      <c r="KV112" s="0"/>
+      <c r="KW112" s="0"/>
+      <c r="KX112" s="0"/>
+      <c r="KY112" s="0"/>
+      <c r="KZ112" s="0"/>
+      <c r="LA112" s="0"/>
+      <c r="LB112" s="0"/>
+      <c r="LC112" s="0"/>
+      <c r="LD112" s="0"/>
+      <c r="LE112" s="0"/>
+      <c r="LF112" s="0"/>
+      <c r="LG112" s="0"/>
+      <c r="LH112" s="0"/>
+      <c r="LI112" s="0"/>
+      <c r="LJ112" s="0"/>
+      <c r="LK112" s="0"/>
+      <c r="LL112" s="0"/>
+      <c r="LM112" s="0"/>
+      <c r="LN112" s="0"/>
+      <c r="LO112" s="0"/>
+      <c r="LP112" s="0"/>
+      <c r="LQ112" s="0"/>
+      <c r="LR112" s="0"/>
+      <c r="LS112" s="0"/>
+      <c r="LT112" s="0"/>
+      <c r="LU112" s="0"/>
+      <c r="LV112" s="0"/>
+      <c r="LW112" s="0"/>
+      <c r="LX112" s="0"/>
+      <c r="LY112" s="0"/>
+      <c r="LZ112" s="0"/>
+      <c r="MA112" s="0"/>
+      <c r="MB112" s="0"/>
+      <c r="MC112" s="0"/>
+      <c r="MD112" s="0"/>
+      <c r="ME112" s="0"/>
+      <c r="MF112" s="0"/>
+      <c r="MG112" s="0"/>
+      <c r="MH112" s="0"/>
+      <c r="MI112" s="0"/>
+      <c r="MJ112" s="0"/>
+      <c r="MK112" s="0"/>
+      <c r="ML112" s="0"/>
+      <c r="MM112" s="0"/>
+      <c r="MN112" s="0"/>
+      <c r="MO112" s="0"/>
+      <c r="MP112" s="0"/>
+      <c r="MQ112" s="0"/>
+      <c r="MR112" s="0"/>
+      <c r="MS112" s="0"/>
+      <c r="MT112" s="0"/>
+      <c r="MU112" s="0"/>
+      <c r="MV112" s="0"/>
+      <c r="MW112" s="0"/>
+      <c r="MX112" s="0"/>
+      <c r="MY112" s="0"/>
+      <c r="MZ112" s="0"/>
+      <c r="NA112" s="0"/>
+      <c r="NB112" s="0"/>
+      <c r="NC112" s="0"/>
+      <c r="ND112" s="0"/>
+      <c r="NE112" s="0"/>
+      <c r="NF112" s="0"/>
+      <c r="NG112" s="0"/>
+      <c r="NH112" s="0"/>
+      <c r="NI112" s="0"/>
+      <c r="NJ112" s="0"/>
+      <c r="NK112" s="0"/>
+      <c r="NL112" s="0"/>
+      <c r="NM112" s="0"/>
+      <c r="NN112" s="0"/>
+      <c r="NO112" s="0"/>
+      <c r="NP112" s="0"/>
+      <c r="NQ112" s="0"/>
+      <c r="NR112" s="0"/>
+      <c r="NS112" s="0"/>
+      <c r="NT112" s="0"/>
+      <c r="NU112" s="0"/>
+      <c r="NV112" s="0"/>
+      <c r="NW112" s="0"/>
+      <c r="NX112" s="0"/>
+      <c r="NY112" s="0"/>
+      <c r="NZ112" s="0"/>
+      <c r="OA112" s="0"/>
+      <c r="OB112" s="0"/>
+      <c r="OC112" s="0"/>
+      <c r="OD112" s="0"/>
+      <c r="OE112" s="0"/>
+      <c r="OF112" s="0"/>
+      <c r="OG112" s="0"/>
+      <c r="OH112" s="0"/>
+      <c r="OI112" s="0"/>
+      <c r="OJ112" s="0"/>
+      <c r="OK112" s="0"/>
+      <c r="OL112" s="0"/>
+      <c r="OM112" s="0"/>
+      <c r="ON112" s="0"/>
+      <c r="OO112" s="0"/>
+      <c r="OP112" s="0"/>
+      <c r="OQ112" s="0"/>
+      <c r="OR112" s="0"/>
+      <c r="OS112" s="0"/>
+      <c r="OT112" s="0"/>
+      <c r="OU112" s="0"/>
+      <c r="OV112" s="0"/>
+      <c r="OW112" s="0"/>
+      <c r="OX112" s="0"/>
+      <c r="OY112" s="0"/>
+      <c r="OZ112" s="0"/>
+      <c r="PA112" s="0"/>
+      <c r="PB112" s="0"/>
+      <c r="PC112" s="0"/>
+      <c r="PD112" s="0"/>
+      <c r="PE112" s="0"/>
+      <c r="PF112" s="0"/>
+      <c r="PG112" s="0"/>
+      <c r="PH112" s="0"/>
+      <c r="PI112" s="0"/>
+      <c r="PJ112" s="0"/>
+      <c r="PK112" s="0"/>
+      <c r="PL112" s="0"/>
+      <c r="PM112" s="0"/>
+      <c r="PN112" s="0"/>
+      <c r="PO112" s="0"/>
+      <c r="PP112" s="0"/>
+      <c r="PQ112" s="0"/>
+      <c r="PR112" s="0"/>
+      <c r="PS112" s="0"/>
+      <c r="PT112" s="0"/>
+      <c r="PU112" s="0"/>
+      <c r="PV112" s="0"/>
+      <c r="PW112" s="0"/>
+      <c r="PX112" s="0"/>
+      <c r="PY112" s="0"/>
+      <c r="PZ112" s="0"/>
+      <c r="QA112" s="0"/>
+      <c r="QB112" s="0"/>
+      <c r="QC112" s="0"/>
+      <c r="QD112" s="0"/>
+      <c r="QE112" s="0"/>
+      <c r="QF112" s="0"/>
+      <c r="QG112" s="0"/>
+      <c r="QH112" s="0"/>
+      <c r="QI112" s="0"/>
+      <c r="QJ112" s="0"/>
+      <c r="QK112" s="0"/>
+      <c r="QL112" s="0"/>
+      <c r="QM112" s="0"/>
+      <c r="QN112" s="0"/>
+      <c r="QO112" s="0"/>
+      <c r="QP112" s="0"/>
+      <c r="QQ112" s="0"/>
+      <c r="QR112" s="0"/>
+      <c r="QS112" s="0"/>
+      <c r="QT112" s="0"/>
+      <c r="QU112" s="0"/>
+      <c r="QV112" s="0"/>
+      <c r="QW112" s="0"/>
+      <c r="QX112" s="0"/>
+      <c r="QY112" s="0"/>
+      <c r="QZ112" s="0"/>
+      <c r="RA112" s="0"/>
+      <c r="RB112" s="0"/>
+      <c r="RC112" s="0"/>
+      <c r="RD112" s="0"/>
+      <c r="RE112" s="0"/>
+      <c r="RF112" s="0"/>
+      <c r="RG112" s="0"/>
+      <c r="RH112" s="0"/>
+      <c r="RI112" s="0"/>
+      <c r="RJ112" s="0"/>
+      <c r="RK112" s="0"/>
+      <c r="RL112" s="0"/>
+      <c r="RM112" s="0"/>
+      <c r="RN112" s="0"/>
+      <c r="RO112" s="0"/>
+      <c r="RP112" s="0"/>
+      <c r="RQ112" s="0"/>
+      <c r="RR112" s="0"/>
+      <c r="RS112" s="0"/>
+      <c r="RT112" s="0"/>
+      <c r="RU112" s="0"/>
+      <c r="RV112" s="0"/>
+      <c r="RW112" s="0"/>
+      <c r="RX112" s="0"/>
+      <c r="RY112" s="0"/>
+      <c r="RZ112" s="0"/>
+      <c r="SA112" s="0"/>
+      <c r="SB112" s="0"/>
+      <c r="SC112" s="0"/>
+      <c r="SD112" s="0"/>
+      <c r="SE112" s="0"/>
+      <c r="SF112" s="0"/>
+      <c r="SG112" s="0"/>
+      <c r="SH112" s="0"/>
+      <c r="SI112" s="0"/>
+      <c r="SJ112" s="0"/>
+      <c r="SK112" s="0"/>
+      <c r="SL112" s="0"/>
+      <c r="SM112" s="0"/>
+      <c r="SN112" s="0"/>
+      <c r="SO112" s="0"/>
+      <c r="SP112" s="0"/>
+      <c r="SQ112" s="0"/>
+      <c r="SR112" s="0"/>
+      <c r="SS112" s="0"/>
+      <c r="ST112" s="0"/>
+      <c r="SU112" s="0"/>
+      <c r="SV112" s="0"/>
+      <c r="SW112" s="0"/>
+      <c r="SX112" s="0"/>
+      <c r="SY112" s="0"/>
+      <c r="SZ112" s="0"/>
+      <c r="TA112" s="0"/>
+      <c r="TB112" s="0"/>
+      <c r="TC112" s="0"/>
+      <c r="TD112" s="0"/>
+      <c r="TE112" s="0"/>
+      <c r="TF112" s="0"/>
+      <c r="TG112" s="0"/>
+      <c r="TH112" s="0"/>
+      <c r="TI112" s="0"/>
+      <c r="TJ112" s="0"/>
+      <c r="TK112" s="0"/>
+      <c r="TL112" s="0"/>
+      <c r="TM112" s="0"/>
+      <c r="TN112" s="0"/>
+      <c r="TO112" s="0"/>
+      <c r="TP112" s="0"/>
+      <c r="TQ112" s="0"/>
+      <c r="TR112" s="0"/>
+      <c r="TS112" s="0"/>
+      <c r="TT112" s="0"/>
+      <c r="TU112" s="0"/>
+      <c r="TV112" s="0"/>
+      <c r="TW112" s="0"/>
+      <c r="TX112" s="0"/>
+      <c r="TY112" s="0"/>
+      <c r="TZ112" s="0"/>
+      <c r="UA112" s="0"/>
+      <c r="UB112" s="0"/>
+      <c r="UC112" s="0"/>
+      <c r="UD112" s="0"/>
+      <c r="UE112" s="0"/>
+      <c r="UF112" s="0"/>
+      <c r="UG112" s="0"/>
+      <c r="UH112" s="0"/>
+      <c r="UI112" s="0"/>
+      <c r="UJ112" s="0"/>
+      <c r="UK112" s="0"/>
+      <c r="UL112" s="0"/>
+      <c r="UM112" s="0"/>
+      <c r="UN112" s="0"/>
+      <c r="UO112" s="0"/>
+      <c r="UP112" s="0"/>
+      <c r="UQ112" s="0"/>
+      <c r="UR112" s="0"/>
+      <c r="US112" s="0"/>
+      <c r="UT112" s="0"/>
+      <c r="UU112" s="0"/>
+      <c r="UV112" s="0"/>
+      <c r="UW112" s="0"/>
+      <c r="UX112" s="0"/>
+      <c r="UY112" s="0"/>
+      <c r="UZ112" s="0"/>
+      <c r="VA112" s="0"/>
+      <c r="VB112" s="0"/>
+      <c r="VC112" s="0"/>
+      <c r="VD112" s="0"/>
+      <c r="VE112" s="0"/>
+      <c r="VF112" s="0"/>
+      <c r="VG112" s="0"/>
+      <c r="VH112" s="0"/>
+      <c r="VI112" s="0"/>
+      <c r="VJ112" s="0"/>
+      <c r="VK112" s="0"/>
+      <c r="VL112" s="0"/>
+      <c r="VM112" s="0"/>
+      <c r="VN112" s="0"/>
+      <c r="VO112" s="0"/>
+      <c r="VP112" s="0"/>
+      <c r="VQ112" s="0"/>
+      <c r="VR112" s="0"/>
+      <c r="VS112" s="0"/>
+      <c r="VT112" s="0"/>
+      <c r="VU112" s="0"/>
+      <c r="VV112" s="0"/>
+      <c r="VW112" s="0"/>
+      <c r="VX112" s="0"/>
+      <c r="VY112" s="0"/>
+      <c r="VZ112" s="0"/>
+      <c r="WA112" s="0"/>
+      <c r="WB112" s="0"/>
+      <c r="WC112" s="0"/>
+      <c r="WD112" s="0"/>
+      <c r="WE112" s="0"/>
+      <c r="WF112" s="0"/>
+      <c r="WG112" s="0"/>
+      <c r="WH112" s="0"/>
+      <c r="WI112" s="0"/>
+      <c r="WJ112" s="0"/>
+      <c r="WK112" s="0"/>
+      <c r="WL112" s="0"/>
+      <c r="WM112" s="0"/>
+      <c r="WN112" s="0"/>
+      <c r="WO112" s="0"/>
+      <c r="WP112" s="0"/>
+      <c r="WQ112" s="0"/>
+      <c r="WR112" s="0"/>
+      <c r="WS112" s="0"/>
+      <c r="WT112" s="0"/>
+      <c r="WU112" s="0"/>
+      <c r="WV112" s="0"/>
+      <c r="WW112" s="0"/>
+      <c r="WX112" s="0"/>
+      <c r="WY112" s="0"/>
+      <c r="WZ112" s="0"/>
+      <c r="XA112" s="0"/>
+      <c r="XB112" s="0"/>
+      <c r="XC112" s="0"/>
+      <c r="XD112" s="0"/>
+      <c r="XE112" s="0"/>
+      <c r="XF112" s="0"/>
+      <c r="XG112" s="0"/>
+      <c r="XH112" s="0"/>
+      <c r="XI112" s="0"/>
+      <c r="XJ112" s="0"/>
+      <c r="XK112" s="0"/>
+      <c r="XL112" s="0"/>
+      <c r="XM112" s="0"/>
+      <c r="XN112" s="0"/>
+      <c r="XO112" s="0"/>
+      <c r="XP112" s="0"/>
+      <c r="XQ112" s="0"/>
+      <c r="XR112" s="0"/>
+      <c r="XS112" s="0"/>
+      <c r="XT112" s="0"/>
+      <c r="XU112" s="0"/>
+      <c r="XV112" s="0"/>
+      <c r="XW112" s="0"/>
+      <c r="XX112" s="0"/>
+      <c r="XY112" s="0"/>
+      <c r="XZ112" s="0"/>
+      <c r="YA112" s="0"/>
+      <c r="YB112" s="0"/>
+      <c r="YC112" s="0"/>
+      <c r="YD112" s="0"/>
+      <c r="YE112" s="0"/>
+      <c r="YF112" s="0"/>
+      <c r="YG112" s="0"/>
+      <c r="YH112" s="0"/>
+      <c r="YI112" s="0"/>
+      <c r="YJ112" s="0"/>
+      <c r="YK112" s="0"/>
+      <c r="YL112" s="0"/>
+      <c r="YM112" s="0"/>
+      <c r="YN112" s="0"/>
+      <c r="YO112" s="0"/>
+      <c r="YP112" s="0"/>
+      <c r="YQ112" s="0"/>
+      <c r="YR112" s="0"/>
+      <c r="YS112" s="0"/>
+      <c r="YT112" s="0"/>
+      <c r="YU112" s="0"/>
+      <c r="YV112" s="0"/>
+      <c r="YW112" s="0"/>
+      <c r="YX112" s="0"/>
+      <c r="YY112" s="0"/>
+      <c r="YZ112" s="0"/>
+      <c r="ZA112" s="0"/>
+      <c r="ZB112" s="0"/>
+      <c r="ZC112" s="0"/>
+      <c r="ZD112" s="0"/>
+      <c r="ZE112" s="0"/>
+      <c r="ZF112" s="0"/>
+      <c r="ZG112" s="0"/>
+      <c r="ZH112" s="0"/>
+      <c r="ZI112" s="0"/>
+      <c r="ZJ112" s="0"/>
+      <c r="ZK112" s="0"/>
+      <c r="ZL112" s="0"/>
+      <c r="ZM112" s="0"/>
+      <c r="ZN112" s="0"/>
+      <c r="ZO112" s="0"/>
+      <c r="ZP112" s="0"/>
+      <c r="ZQ112" s="0"/>
+      <c r="ZR112" s="0"/>
+      <c r="ZS112" s="0"/>
+      <c r="ZT112" s="0"/>
+      <c r="ZU112" s="0"/>
+      <c r="ZV112" s="0"/>
+      <c r="ZW112" s="0"/>
+      <c r="ZX112" s="0"/>
+      <c r="ZY112" s="0"/>
+      <c r="ZZ112" s="0"/>
+      <c r="AAA112" s="0"/>
+      <c r="AAB112" s="0"/>
+      <c r="AAC112" s="0"/>
+      <c r="AAD112" s="0"/>
+      <c r="AAE112" s="0"/>
+      <c r="AAF112" s="0"/>
+      <c r="AAG112" s="0"/>
+      <c r="AAH112" s="0"/>
+      <c r="AAI112" s="0"/>
+      <c r="AAJ112" s="0"/>
+      <c r="AAK112" s="0"/>
+      <c r="AAL112" s="0"/>
+      <c r="AAM112" s="0"/>
+      <c r="AAN112" s="0"/>
+      <c r="AAO112" s="0"/>
+      <c r="AAP112" s="0"/>
+      <c r="AAQ112" s="0"/>
+      <c r="AAR112" s="0"/>
+      <c r="AAS112" s="0"/>
+      <c r="AAT112" s="0"/>
+      <c r="AAU112" s="0"/>
+      <c r="AAV112" s="0"/>
+      <c r="AAW112" s="0"/>
+      <c r="AAX112" s="0"/>
+      <c r="AAY112" s="0"/>
+      <c r="AAZ112" s="0"/>
+      <c r="ABA112" s="0"/>
+      <c r="ABB112" s="0"/>
+      <c r="ABC112" s="0"/>
+      <c r="ABD112" s="0"/>
+      <c r="ABE112" s="0"/>
+      <c r="ABF112" s="0"/>
+      <c r="ABG112" s="0"/>
+      <c r="ABH112" s="0"/>
+      <c r="ABI112" s="0"/>
+      <c r="ABJ112" s="0"/>
+      <c r="ABK112" s="0"/>
+      <c r="ABL112" s="0"/>
+      <c r="ABM112" s="0"/>
+      <c r="ABN112" s="0"/>
+      <c r="ABO112" s="0"/>
+      <c r="ABP112" s="0"/>
+      <c r="ABQ112" s="0"/>
+      <c r="ABR112" s="0"/>
+      <c r="ABS112" s="0"/>
+      <c r="ABT112" s="0"/>
+      <c r="ABU112" s="0"/>
+      <c r="ABV112" s="0"/>
+      <c r="ABW112" s="0"/>
+      <c r="ABX112" s="0"/>
+      <c r="ABY112" s="0"/>
+      <c r="ABZ112" s="0"/>
+      <c r="ACA112" s="0"/>
+      <c r="ACB112" s="0"/>
+      <c r="ACC112" s="0"/>
+      <c r="ACD112" s="0"/>
+      <c r="ACE112" s="0"/>
+      <c r="ACF112" s="0"/>
+      <c r="ACG112" s="0"/>
+      <c r="ACH112" s="0"/>
+      <c r="ACI112" s="0"/>
+      <c r="ACJ112" s="0"/>
+      <c r="ACK112" s="0"/>
+      <c r="ACL112" s="0"/>
+      <c r="ACM112" s="0"/>
+      <c r="ACN112" s="0"/>
+      <c r="ACO112" s="0"/>
+      <c r="ACP112" s="0"/>
+      <c r="ACQ112" s="0"/>
+      <c r="ACR112" s="0"/>
+      <c r="ACS112" s="0"/>
+      <c r="ACT112" s="0"/>
+      <c r="ACU112" s="0"/>
+      <c r="ACV112" s="0"/>
+      <c r="ACW112" s="0"/>
+      <c r="ACX112" s="0"/>
+      <c r="ACY112" s="0"/>
+      <c r="ACZ112" s="0"/>
+      <c r="ADA112" s="0"/>
+      <c r="ADB112" s="0"/>
+      <c r="ADC112" s="0"/>
+      <c r="ADD112" s="0"/>
+      <c r="ADE112" s="0"/>
+      <c r="ADF112" s="0"/>
+      <c r="ADG112" s="0"/>
+      <c r="ADH112" s="0"/>
+      <c r="ADI112" s="0"/>
+      <c r="ADJ112" s="0"/>
+      <c r="ADK112" s="0"/>
+      <c r="ADL112" s="0"/>
+      <c r="ADM112" s="0"/>
+      <c r="ADN112" s="0"/>
+      <c r="ADO112" s="0"/>
+      <c r="ADP112" s="0"/>
+      <c r="ADQ112" s="0"/>
+      <c r="ADR112" s="0"/>
+      <c r="ADS112" s="0"/>
+      <c r="ADT112" s="0"/>
+      <c r="ADU112" s="0"/>
+      <c r="ADV112" s="0"/>
+      <c r="ADW112" s="0"/>
+      <c r="ADX112" s="0"/>
+      <c r="ADY112" s="0"/>
+      <c r="ADZ112" s="0"/>
+      <c r="AEA112" s="0"/>
+      <c r="AEB112" s="0"/>
+      <c r="AEC112" s="0"/>
+      <c r="AED112" s="0"/>
+      <c r="AEE112" s="0"/>
+      <c r="AEF112" s="0"/>
+      <c r="AEG112" s="0"/>
+      <c r="AEH112" s="0"/>
+      <c r="AEI112" s="0"/>
+      <c r="AEJ112" s="0"/>
+      <c r="AEK112" s="0"/>
+      <c r="AEL112" s="0"/>
+      <c r="AEM112" s="0"/>
+      <c r="AEN112" s="0"/>
+      <c r="AEO112" s="0"/>
+      <c r="AEP112" s="0"/>
+      <c r="AEQ112" s="0"/>
+      <c r="AER112" s="0"/>
+      <c r="AES112" s="0"/>
+      <c r="AET112" s="0"/>
+      <c r="AEU112" s="0"/>
+      <c r="AEV112" s="0"/>
+      <c r="AEW112" s="0"/>
+      <c r="AEX112" s="0"/>
+      <c r="AEY112" s="0"/>
+      <c r="AEZ112" s="0"/>
+      <c r="AFA112" s="0"/>
+      <c r="AFB112" s="0"/>
+      <c r="AFC112" s="0"/>
+      <c r="AFD112" s="0"/>
+      <c r="AFE112" s="0"/>
+      <c r="AFF112" s="0"/>
+      <c r="AFG112" s="0"/>
+      <c r="AFH112" s="0"/>
+      <c r="AFI112" s="0"/>
+      <c r="AFJ112" s="0"/>
+      <c r="AFK112" s="0"/>
+      <c r="AFL112" s="0"/>
+      <c r="AFM112" s="0"/>
+      <c r="AFN112" s="0"/>
+      <c r="AFO112" s="0"/>
+      <c r="AFP112" s="0"/>
+      <c r="AFQ112" s="0"/>
+      <c r="AFR112" s="0"/>
+      <c r="AFS112" s="0"/>
+      <c r="AFT112" s="0"/>
+      <c r="AFU112" s="0"/>
+      <c r="AFV112" s="0"/>
+      <c r="AFW112" s="0"/>
+      <c r="AFX112" s="0"/>
+      <c r="AFY112" s="0"/>
+      <c r="AFZ112" s="0"/>
+      <c r="AGA112" s="0"/>
+      <c r="AGB112" s="0"/>
+      <c r="AGC112" s="0"/>
+      <c r="AGD112" s="0"/>
+      <c r="AGE112" s="0"/>
+      <c r="AGF112" s="0"/>
+      <c r="AGG112" s="0"/>
+      <c r="AGH112" s="0"/>
+      <c r="AGI112" s="0"/>
+      <c r="AGJ112" s="0"/>
+      <c r="AGK112" s="0"/>
+      <c r="AGL112" s="0"/>
+      <c r="AGM112" s="0"/>
+      <c r="AGN112" s="0"/>
+      <c r="AGO112" s="0"/>
+      <c r="AGP112" s="0"/>
+      <c r="AGQ112" s="0"/>
+      <c r="AGR112" s="0"/>
+      <c r="AGS112" s="0"/>
+      <c r="AGT112" s="0"/>
+      <c r="AGU112" s="0"/>
+      <c r="AGV112" s="0"/>
+      <c r="AGW112" s="0"/>
+      <c r="AGX112" s="0"/>
+      <c r="AGY112" s="0"/>
+      <c r="AGZ112" s="0"/>
+      <c r="AHA112" s="0"/>
+      <c r="AHB112" s="0"/>
+      <c r="AHC112" s="0"/>
+      <c r="AHD112" s="0"/>
+      <c r="AHE112" s="0"/>
+      <c r="AHF112" s="0"/>
+      <c r="AHG112" s="0"/>
+      <c r="AHH112" s="0"/>
+      <c r="AHI112" s="0"/>
+      <c r="AHJ112" s="0"/>
+      <c r="AHK112" s="0"/>
+      <c r="AHL112" s="0"/>
+      <c r="AHM112" s="0"/>
+      <c r="AHN112" s="0"/>
+      <c r="AHO112" s="0"/>
+      <c r="AHP112" s="0"/>
+      <c r="AHQ112" s="0"/>
+      <c r="AHR112" s="0"/>
+      <c r="AHS112" s="0"/>
+      <c r="AHT112" s="0"/>
+      <c r="AHU112" s="0"/>
+      <c r="AHV112" s="0"/>
+      <c r="AHW112" s="0"/>
+      <c r="AHX112" s="0"/>
+      <c r="AHY112" s="0"/>
+      <c r="AHZ112" s="0"/>
+      <c r="AIA112" s="0"/>
+      <c r="AIB112" s="0"/>
+      <c r="AIC112" s="0"/>
+      <c r="AID112" s="0"/>
+      <c r="AIE112" s="0"/>
+      <c r="AIF112" s="0"/>
+      <c r="AIG112" s="0"/>
+      <c r="AIH112" s="0"/>
+      <c r="AII112" s="0"/>
+      <c r="AIJ112" s="0"/>
+      <c r="AIK112" s="0"/>
+      <c r="AIL112" s="0"/>
+      <c r="AIM112" s="0"/>
+      <c r="AIN112" s="0"/>
+      <c r="AIO112" s="0"/>
+      <c r="AIP112" s="0"/>
+      <c r="AIQ112" s="0"/>
+      <c r="AIR112" s="0"/>
+      <c r="AIS112" s="0"/>
+      <c r="AIT112" s="0"/>
+      <c r="AIU112" s="0"/>
+      <c r="AIV112" s="0"/>
+      <c r="AIW112" s="0"/>
+      <c r="AIX112" s="0"/>
+      <c r="AIY112" s="0"/>
+      <c r="AIZ112" s="0"/>
+      <c r="AJA112" s="0"/>
+      <c r="AJB112" s="0"/>
+      <c r="AJC112" s="0"/>
+      <c r="AJD112" s="0"/>
+      <c r="AJE112" s="0"/>
+      <c r="AJF112" s="0"/>
+      <c r="AJG112" s="0"/>
+      <c r="AJH112" s="0"/>
+      <c r="AJI112" s="0"/>
+      <c r="AJJ112" s="0"/>
+      <c r="AJK112" s="0"/>
+      <c r="AJL112" s="0"/>
+      <c r="AJM112" s="0"/>
+      <c r="AJN112" s="0"/>
+      <c r="AJO112" s="0"/>
+      <c r="AJP112" s="0"/>
+      <c r="AJQ112" s="0"/>
+      <c r="AJR112" s="0"/>
+      <c r="AJS112" s="0"/>
+      <c r="AJT112" s="0"/>
+      <c r="AJU112" s="0"/>
+      <c r="AJV112" s="0"/>
+      <c r="AJW112" s="0"/>
+      <c r="AJX112" s="0"/>
+      <c r="AJY112" s="0"/>
+      <c r="AJZ112" s="0"/>
+      <c r="AKA112" s="0"/>
+      <c r="AKB112" s="0"/>
+      <c r="AKC112" s="0"/>
+      <c r="AKD112" s="0"/>
+      <c r="AKE112" s="0"/>
+      <c r="AKF112" s="0"/>
+      <c r="AKG112" s="0"/>
+      <c r="AKH112" s="0"/>
+      <c r="AKI112" s="0"/>
+      <c r="AKJ112" s="0"/>
+      <c r="AKK112" s="0"/>
+      <c r="AKL112" s="0"/>
+      <c r="AKM112" s="0"/>
+      <c r="AKN112" s="0"/>
+      <c r="AKO112" s="0"/>
+      <c r="AKP112" s="0"/>
+      <c r="AKQ112" s="0"/>
+      <c r="AKR112" s="0"/>
+      <c r="AKS112" s="0"/>
+      <c r="AKT112" s="0"/>
+      <c r="AKU112" s="0"/>
+      <c r="AKV112" s="0"/>
+      <c r="AKW112" s="0"/>
+      <c r="AKX112" s="0"/>
+      <c r="AKY112" s="0"/>
+      <c r="AKZ112" s="0"/>
+      <c r="ALA112" s="0"/>
+      <c r="ALB112" s="0"/>
+      <c r="ALC112" s="0"/>
+      <c r="ALD112" s="0"/>
+      <c r="ALE112" s="0"/>
+      <c r="ALF112" s="0"/>
+      <c r="ALG112" s="0"/>
+      <c r="ALH112" s="0"/>
+      <c r="ALI112" s="0"/>
+      <c r="ALJ112" s="0"/>
+      <c r="ALK112" s="0"/>
+      <c r="ALL112" s="0"/>
+      <c r="ALM112" s="0"/>
+      <c r="ALN112" s="0"/>
+      <c r="ALO112" s="0"/>
+      <c r="ALP112" s="0"/>
+      <c r="ALQ112" s="0"/>
+      <c r="ALR112" s="0"/>
+      <c r="ALS112" s="0"/>
+      <c r="ALT112" s="0"/>
+      <c r="ALU112" s="0"/>
+      <c r="ALV112" s="0"/>
+      <c r="ALW112" s="0"/>
+      <c r="ALX112" s="0"/>
+      <c r="ALY112" s="0"/>
+      <c r="ALZ112" s="0"/>
+      <c r="AMA112" s="0"/>
+      <c r="AMB112" s="0"/>
+      <c r="AMC112" s="0"/>
+      <c r="AMD112" s="0"/>
+      <c r="AME112" s="0"/>
+      <c r="AMF112" s="0"/>
+      <c r="AMG112" s="0"/>
+      <c r="AMH112" s="0"/>
+      <c r="AMI112" s="0"/>
+      <c r="AMJ112" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H110"/>
+  <autoFilter ref="H1:H111"/>
   <mergeCells count="10">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B9:E9"/>
@@ -11747,40 +12766,40 @@
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B110:C110"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E98:E100 E102 E104:E108 E110" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54 E56:E60 E65:E72 E74:E81 E83:E94 E99:E101 E103 E105:E109 E111" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D96 D111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D99:D101 D103 D105:D109 D111" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H96 H111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H99:H103 H105:H108 H111" type="list">
+      <formula1>$C$5:$C$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H109" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E96 E111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H56:H59 H65 H68:H72 H75:H77 H79:H81" type="list">
+      <formula1>Selections!$C$5:$C$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D61:D63 D95:D97 D112" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E61:E63 E95:E97 E112" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H74 H78 H83:H85 H92 H94 H98:H102 H104:H107 H110" type="list">
-      <formula1>$C$5:$C$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54 D56:D60 D65:D72 D74:D81 D83:D94 D98:D100 D102 D104:D108 D110" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H56:H59 H65 H68:H72 H75:H77 H79:H81" type="list">
-      <formula1>Selections!$C$5:$C$9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54 H60 H66:H67 H86:H91 H93 H108" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H61:H63 H95:H97 H112" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11808,13 +12827,13 @@
     <hyperlink ref="G77" r:id="rId20" display="Original PSC Master Evaluation Matrix"/>
     <hyperlink ref="G78" r:id="rId21" display="PSM State Calls Requirements_functionality needs.xlsx"/>
     <hyperlink ref="G79" r:id="rId22" display="Screening and Auditing Notes.docx"/>
-    <hyperlink ref="G101" r:id="rId23" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G104" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G105" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G106" r:id="rId26" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G107" r:id="rId27" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G108" r:id="rId28" display="INR12"/>
-    <hyperlink ref="G110" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G102" r:id="rId23" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G105" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G106" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G107" r:id="rId26" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G108" r:id="rId27" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G109" r:id="rId28" display="INR12"/>
+    <hyperlink ref="G111" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11845,7 +12864,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -11907,7 +12926,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -11948,10 +12967,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -11983,11 +13002,11 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="9"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -11999,11 +13018,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>284</v>
+      <c r="C3" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>4</v>
@@ -12011,8 +13030,8 @@
       <c r="E3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>285</v>
+      <c r="F3" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12023,11 +13042,11 @@
       <c r="K3" s="20"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="9"/>
       <c r="E4" s="20"/>
       <c r="F4" s="7"/>
@@ -12039,16 +13058,16 @@
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>288</v>
+      <c r="C5" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="33" t="s">
-        <v>289</v>
+      <c r="F5" s="31" t="s">
+        <v>291</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -12056,22 +13075,22 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="34" t="s">
-        <v>290</v>
+      <c r="K5" s="32" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>292</v>
+      <c r="C6" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="33" t="s">
-        <v>293</v>
+      <c r="F6" s="31" t="s">
+        <v>295</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12083,11 +13102,11 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>295</v>
+      <c r="C7" s="24" t="s">
+        <v>297</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>2</v>
@@ -12095,8 +13114,8 @@
       <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>296</v>
+      <c r="F7" s="31" t="s">
+        <v>298</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12105,21 +13124,21 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>299</v>
+      <c r="C8" s="24" t="s">
+        <v>301</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="33" t="s">
-        <v>300</v>
+      <c r="F8" s="31" t="s">
+        <v>302</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -12131,16 +13150,16 @@
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
-        <v>302</v>
+      <c r="C9" s="24" t="s">
+        <v>304</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="33" t="s">
-        <v>303</v>
+      <c r="F9" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12148,16 +13167,16 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="35" t="s">
-        <v>304</v>
+      <c r="K9" s="33" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="9"/>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -12169,16 +13188,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
-        <v>307</v>
+      <c r="C11" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="33" t="s">
-        <v>308</v>
+      <c r="F11" s="31" t="s">
+        <v>310</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -12190,16 +13209,16 @@
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>310</v>
+      <c r="C12" s="24" t="s">
+        <v>312</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="33" t="s">
-        <v>311</v>
+      <c r="F12" s="31" t="s">
+        <v>313</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -12207,16 +13226,16 @@
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="34" t="s">
-        <v>312</v>
+      <c r="K12" s="32" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -12228,16 +13247,16 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>315</v>
+      <c r="C14" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="33" t="s">
-        <v>316</v>
+      <c r="F14" s="31" t="s">
+        <v>318</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -12249,16 +13268,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>318</v>
+      <c r="C15" s="24" t="s">
+        <v>320</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="33" t="s">
-        <v>319</v>
+      <c r="F15" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -12270,11 +13289,11 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
-        <v>321</v>
+      <c r="C16" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>2</v>
@@ -12282,8 +13301,8 @@
       <c r="E16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>322</v>
+      <c r="F16" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="20" t="s">
@@ -12291,15 +13310,15 @@
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
-        <v>324</v>
+      <c r="C17" s="24" t="s">
+        <v>326</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>2</v>
@@ -12307,8 +13326,8 @@
       <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>322</v>
+      <c r="F17" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="20" t="s">
@@ -12316,15 +13335,15 @@
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="32" t="s">
-        <v>326</v>
+      <c r="C18" s="24" t="s">
+        <v>328</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -12348,19 +13367,19 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12384,7 +13403,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12401,10 +13420,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -12435,12 +13454,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -12450,18 +13469,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="35" t="s">
-        <v>329</v>
+      <c r="C3" s="33" t="s">
+        <v>331</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="37" t="s">
-        <v>330</v>
+      <c r="F3" s="35" t="s">
+        <v>332</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12471,12 +13490,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="31"/>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="7"/>
@@ -12486,35 +13505,35 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="35" t="s">
-        <v>333</v>
+      <c r="C5" s="33" t="s">
+        <v>335</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="33" t="s">
-        <v>334</v>
+      <c r="F5" s="31" t="s">
+        <v>336</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="36" t="s">
         <v>94</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="31"/>
+      <c r="K5" s="33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="7"/>
@@ -12526,16 +13545,16 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="35" t="s">
-        <v>338</v>
+      <c r="C7" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="33" t="s">
-        <v>339</v>
+      <c r="F7" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12544,15 +13563,15 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="31"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="7"/>
@@ -12562,31 +13581,33 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32" t="s">
-        <v>342</v>
+    <row r="9" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="39" t="s">
-        <v>343</v>
+      <c r="F9" s="37" t="s">
+        <v>346</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
+        <v>349</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>2</v>
@@ -12594,8 +13615,8 @@
       <c r="E10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>322</v>
+      <c r="F10" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="20" t="s">
@@ -12603,17 +13624,17 @@
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="24" t="s">
+        <v>352</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>2</v>
@@ -12621,8 +13642,8 @@
       <c r="E11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>350</v>
+      <c r="F11" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
@@ -12630,22 +13651,22 @@
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="true" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>353</v>
+      <c r="F12" s="31" t="s">
+        <v>356</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20" t="s">
@@ -12657,11 +13678,11 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>1</v>
@@ -12669,8 +13690,8 @@
       <c r="E13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>356</v>
+      <c r="F13" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="20" t="s">
@@ -12680,18 +13701,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="4" customFormat="true" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>359</v>
+      <c r="F14" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="20" t="s">
@@ -12716,16 +13737,16 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12745,10 +13766,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12765,10 +13786,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -12799,12 +13820,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -12814,18 +13835,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>362</v>
+      <c r="C3" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="37" t="s">
-        <v>363</v>
+      <c r="F3" s="35" t="s">
+        <v>366</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12834,21 +13855,21 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>366</v>
+      <c r="C4" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="33" t="s">
-        <v>367</v>
+      <c r="F4" s="31" t="s">
+        <v>370</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -12858,12 +13879,12 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="31"/>
+    <row r="5" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="7"/>
@@ -12873,18 +13894,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>370</v>
+      <c r="C6" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="33" t="s">
-        <v>371</v>
+      <c r="F6" s="31" t="s">
+        <v>374</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12894,18 +13915,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>373</v>
+      <c r="C7" s="24" t="s">
+        <v>376</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="33" t="s">
-        <v>374</v>
+      <c r="F7" s="31" t="s">
+        <v>377</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12915,12 +13936,12 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="31"/>
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="30"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="7"/>
@@ -12930,18 +13951,18 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
-        <v>377</v>
+      <c r="C9" s="24" t="s">
+        <v>380</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="33" t="s">
-        <v>378</v>
+      <c r="F9" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12951,13 +13972,13 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="32" t="s">
-        <v>380</v>
+      <c r="C10" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>1</v>
@@ -12965,8 +13986,8 @@
       <c r="E10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>381</v>
+      <c r="F10" s="31" t="s">
+        <v>384</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
@@ -12974,17 +13995,17 @@
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="35" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
-        <v>384</v>
+      <c r="C11" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>1</v>
@@ -12992,8 +14013,8 @@
       <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>385</v>
+      <c r="F11" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13003,18 +14024,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>387</v>
+      <c r="C12" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>388</v>
+      <c r="F12" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13023,21 +14044,21 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="32" t="s">
-        <v>391</v>
+      <c r="C13" s="24" t="s">
+        <v>394</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="33" t="s">
-        <v>392</v>
+      <c r="F13" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
@@ -13047,18 +14068,18 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>394</v>
+      <c r="C14" s="24" t="s">
+        <v>397</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>395</v>
+      <c r="F14" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13068,18 +14089,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="71.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>397</v>
+      <c r="C15" s="24" t="s">
+        <v>400</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="33" t="s">
-        <v>398</v>
+      <c r="F15" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13089,21 +14110,21 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
-        <v>400</v>
+      <c r="C16" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="33" t="s">
-        <v>401</v>
+      <c r="F16" s="31" t="s">
+        <v>404</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>108</v>
@@ -13112,18 +14133,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
-        <v>404</v>
+      <c r="C17" s="24" t="s">
+        <v>407</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="33" t="s">
-        <v>405</v>
+      <c r="F17" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -13133,12 +14154,12 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="31"/>
+    <row r="18" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="30"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="7"/>
@@ -13150,16 +14171,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="32" t="s">
-        <v>408</v>
+      <c r="C19" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
-        <v>409</v>
+      <c r="F19" s="31" t="s">
+        <v>412</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -13169,18 +14190,18 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="32" t="s">
-        <v>411</v>
+      <c r="C20" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="33" t="s">
-        <v>412</v>
+      <c r="F20" s="31" t="s">
+        <v>415</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
@@ -13190,13 +14211,13 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="32" t="s">
-        <v>414</v>
+      <c r="C21" s="24" t="s">
+        <v>417</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>4</v>
@@ -13204,11 +14225,11 @@
       <c r="E21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>415</v>
+      <c r="F21" s="31" t="s">
+        <v>418</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>21</v>
@@ -13217,13 +14238,13 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="32" t="s">
-        <v>417</v>
+      <c r="C22" s="24" t="s">
+        <v>420</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>4</v>
@@ -13231,8 +14252,8 @@
       <c r="E22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>418</v>
+      <c r="F22" s="31" t="s">
+        <v>421</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -13242,13 +14263,9 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="H1:H23">
+  <autoFilter ref="H1:H22">
     <filterColumn colId="0">
       <customFilters and="true">
         <customFilter operator="equal" val="MVP - Dec"/>
@@ -13262,16 +14279,16 @@
     <mergeCell ref="B18:C18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -13294,9 +14311,9 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13313,10 +14330,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -13347,12 +14364,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -13362,13 +14379,13 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>422</v>
+      <c r="C3" s="24" t="s">
+        <v>424</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -13376,8 +14393,8 @@
       <c r="E3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>423</v>
+      <c r="F3" s="31" t="s">
+        <v>425</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13387,12 +14404,12 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="C4" s="31"/>
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="7"/>
@@ -13402,18 +14419,18 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>426</v>
+      <c r="C5" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="33" t="s">
-        <v>427</v>
+      <c r="F5" s="31" t="s">
+        <v>429</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13421,17 +14438,17 @@
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>430</v>
+      <c r="C6" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>2</v>
@@ -13439,8 +14456,8 @@
       <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>431</v>
+      <c r="F6" s="31" t="s">
+        <v>433</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13450,18 +14467,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>433</v>
+      <c r="C7" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="33" t="s">
-        <v>434</v>
+      <c r="F7" s="31" t="s">
+        <v>436</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -13471,13 +14488,13 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>436</v>
+      <c r="C8" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>3</v>
@@ -13485,8 +14502,8 @@
       <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>437</v>
+      <c r="F8" s="31" t="s">
+        <v>439</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13496,18 +14513,18 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="39" t="s">
-        <v>439</v>
+      <c r="C9" s="37" t="s">
+        <v>441</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="40" t="s">
-        <v>440</v>
+      <c r="F9" s="38" t="s">
+        <v>442</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13515,16 +14532,16 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="31"/>
+      <c r="K9" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="22"/>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -13536,16 +14553,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="40" t="s">
-        <v>444</v>
+      <c r="C11" s="38" t="s">
+        <v>446</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="33" t="s">
-        <v>445</v>
+      <c r="F11" s="31" t="s">
+        <v>447</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13555,18 +14572,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>447</v>
+      <c r="C12" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="33" t="s">
-        <v>448</v>
+      <c r="F12" s="31" t="s">
+        <v>450</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13576,12 +14593,12 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="31"/>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20"/>
       <c r="F13" s="7"/>
@@ -13591,18 +14608,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>451</v>
+      <c r="C14" s="24" t="s">
+        <v>453</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="33" t="s">
-        <v>452</v>
+      <c r="F14" s="31" t="s">
+        <v>454</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13612,18 +14629,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>454</v>
+      <c r="C15" s="24" t="s">
+        <v>456</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="33" t="s">
-        <v>455</v>
+      <c r="F15" s="31" t="s">
+        <v>457</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13635,16 +14652,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="39" t="s">
-        <v>457</v>
+      <c r="C16" s="37" t="s">
+        <v>459</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="40" t="s">
-        <v>458</v>
+      <c r="F16" s="38" t="s">
+        <v>460</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -13652,8 +14669,8 @@
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="35" t="s">
-        <v>441</v>
+      <c r="K16" s="33" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -13671,15 +14688,15 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13705,7 +14722,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13722,10 +14739,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -13756,12 +14773,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -13771,18 +14788,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="40" t="s">
-        <v>461</v>
+      <c r="C3" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="41" t="s">
-        <v>462</v>
+      <c r="F3" s="39" t="s">
+        <v>464</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13792,18 +14809,18 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>464</v>
+      <c r="C4" s="24" t="s">
+        <v>466</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="33" t="s">
-        <v>465</v>
+      <c r="F4" s="31" t="s">
+        <v>467</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -13813,18 +14830,18 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>467</v>
+      <c r="C5" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="33" t="s">
-        <v>468</v>
+      <c r="F5" s="31" t="s">
+        <v>470</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13834,18 +14851,18 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>470</v>
+      <c r="C6" s="24" t="s">
+        <v>472</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="33" t="s">
-        <v>471</v>
+      <c r="F6" s="31" t="s">
+        <v>473</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13855,12 +14872,12 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="31"/>
+    <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="7"/>
@@ -13870,18 +14887,18 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>474</v>
+      <c r="C8" s="24" t="s">
+        <v>476</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="33" t="s">
-        <v>475</v>
+      <c r="F8" s="31" t="s">
+        <v>477</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13891,13 +14908,13 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="32" t="s">
-        <v>477</v>
+      <c r="C9" s="24" t="s">
+        <v>479</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -13905,8 +14922,8 @@
       <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>478</v>
+      <c r="F9" s="31" t="s">
+        <v>480</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13916,39 +14933,39 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="32" t="s">
-        <v>480</v>
+      <c r="C10" s="24" t="s">
+        <v>482</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="33" t="s">
-        <v>481</v>
+      <c r="F10" s="31" t="s">
+        <v>483</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="32" t="s">
-        <v>483</v>
+      <c r="C11" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="33" t="s">
-        <v>484</v>
+      <c r="F11" s="31" t="s">
+        <v>486</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13960,16 +14977,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="32" t="s">
-        <v>486</v>
+      <c r="C12" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="33" t="s">
-        <v>487</v>
+      <c r="F12" s="31" t="s">
+        <v>489</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13979,12 +14996,12 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="31"/>
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="30"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="7"/>
@@ -13994,18 +15011,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="32" t="s">
-        <v>490</v>
+      <c r="C14" s="24" t="s">
+        <v>492</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="33" t="s">
-        <v>491</v>
+      <c r="F14" s="31" t="s">
+        <v>493</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -14015,18 +15032,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="32" t="s">
-        <v>493</v>
+      <c r="C15" s="24" t="s">
+        <v>495</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="33" t="s">
-        <v>494</v>
+      <c r="F15" s="31" t="s">
+        <v>496</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -14036,18 +15053,18 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="32" t="s">
-        <v>496</v>
+      <c r="C16" s="24" t="s">
+        <v>498</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="33" t="s">
-        <v>497</v>
+      <c r="F16" s="31" t="s">
+        <v>499</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -14057,18 +15074,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="32" t="s">
-        <v>499</v>
+      <c r="C17" s="24" t="s">
+        <v>501</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="33" t="s">
-        <v>500</v>
+      <c r="F17" s="31" t="s">
+        <v>502</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -14078,18 +15095,18 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="32" t="s">
-        <v>502</v>
+      <c r="C18" s="24" t="s">
+        <v>504</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="33" t="s">
-        <v>503</v>
+      <c r="F18" s="31" t="s">
+        <v>505</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -14099,18 +15116,18 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="32" t="s">
-        <v>505</v>
+      <c r="C19" s="24" t="s">
+        <v>507</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="33" t="s">
-        <v>506</v>
+      <c r="F19" s="31" t="s">
+        <v>508</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -14120,12 +15137,12 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="31"/>
+    <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="7"/>
@@ -14135,18 +15152,18 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="32" t="s">
-        <v>509</v>
+      <c r="C21" s="24" t="s">
+        <v>511</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="33" t="s">
-        <v>510</v>
+      <c r="F21" s="31" t="s">
+        <v>512</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
@@ -14156,18 +15173,18 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="32" t="s">
-        <v>512</v>
+      <c r="C22" s="24" t="s">
+        <v>514</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="33" t="s">
-        <v>513</v>
+      <c r="F22" s="31" t="s">
+        <v>515</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -14177,12 +15194,12 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="C23" s="31"/>
+    <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
       <c r="F23" s="7"/>
@@ -14192,18 +15209,18 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="93.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="40" t="s">
-        <v>516</v>
+      <c r="C24" s="38" t="s">
+        <v>518</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="33" t="s">
-        <v>517</v>
+      <c r="F24" s="31" t="s">
+        <v>519</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
@@ -14213,13 +15230,13 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="32" t="s">
-        <v>519</v>
+      <c r="C25" s="24" t="s">
+        <v>521</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1</v>
@@ -14227,8 +15244,8 @@
       <c r="E25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>520</v>
+      <c r="F25" s="31" t="s">
+        <v>522</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
@@ -14238,18 +15255,18 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="32" t="s">
-        <v>522</v>
+      <c r="C26" s="24" t="s">
+        <v>524</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="33" t="s">
-        <v>523</v>
+      <c r="F26" s="31" t="s">
+        <v>525</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
@@ -14261,16 +15278,16 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="32" t="s">
-        <v>525</v>
+      <c r="C27" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="33" t="s">
-        <v>526</v>
+      <c r="F27" s="31" t="s">
+        <v>528</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -14280,18 +15297,18 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="32" t="s">
-        <v>528</v>
+      <c r="C28" s="24" t="s">
+        <v>530</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="33" t="s">
-        <v>529</v>
+      <c r="F28" s="31" t="s">
+        <v>531</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
@@ -14301,18 +15318,18 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="32" t="s">
-        <v>531</v>
+      <c r="C29" s="24" t="s">
+        <v>533</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="33" t="s">
-        <v>532</v>
+      <c r="F29" s="31" t="s">
+        <v>534</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
@@ -14322,39 +15339,39 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="32" t="s">
-        <v>534</v>
+      <c r="C30" s="24" t="s">
+        <v>536</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="33" t="s">
-        <v>535</v>
+      <c r="F30" s="31" t="s">
+        <v>537</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="32" t="s">
-        <v>537</v>
+      <c r="C31" s="24" t="s">
+        <v>539</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="33" t="s">
-        <v>538</v>
+      <c r="F31" s="31" t="s">
+        <v>540</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
@@ -14364,18 +15381,18 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="32" t="s">
-        <v>540</v>
+      <c r="C32" s="24" t="s">
+        <v>542</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="33" t="s">
-        <v>541</v>
+      <c r="F32" s="31" t="s">
+        <v>543</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
@@ -14385,13 +15402,13 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="32" t="s">
-        <v>543</v>
+      <c r="C33" s="24" t="s">
+        <v>545</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
@@ -14399,8 +15416,8 @@
       <c r="E33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>544</v>
+      <c r="F33" s="31" t="s">
+        <v>546</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
@@ -14412,16 +15429,16 @@
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="32" t="s">
-        <v>546</v>
+      <c r="C34" s="24" t="s">
+        <v>548</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="33" t="s">
-        <v>547</v>
+      <c r="F34" s="31" t="s">
+        <v>549</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
@@ -14433,16 +15450,16 @@
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B35" s="20"/>
-      <c r="C35" s="32" t="s">
-        <v>549</v>
+      <c r="C35" s="24" t="s">
+        <v>551</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
-      <c r="F35" s="33" t="s">
-        <v>550</v>
+      <c r="F35" s="31" t="s">
+        <v>552</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
@@ -14452,18 +15469,18 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="40" t="s">
-        <v>552</v>
+      <c r="C36" s="38" t="s">
+        <v>554</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="33" t="s">
-        <v>553</v>
+      <c r="F36" s="31" t="s">
+        <v>555</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
@@ -14473,18 +15490,18 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="32" t="s">
-        <v>555</v>
+      <c r="C37" s="24" t="s">
+        <v>557</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="33" t="s">
-        <v>556</v>
+      <c r="F37" s="31" t="s">
+        <v>558</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
@@ -14496,16 +15513,16 @@
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B38" s="20"/>
-      <c r="C38" s="32" t="s">
-        <v>558</v>
+      <c r="C38" s="24" t="s">
+        <v>560</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="33" t="s">
-        <v>559</v>
+      <c r="F38" s="31" t="s">
+        <v>561</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
@@ -14515,13 +15532,13 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="32" t="s">
-        <v>561</v>
+      <c r="C39" s="24" t="s">
+        <v>563</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>2</v>
@@ -14529,8 +15546,8 @@
       <c r="E39" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>562</v>
+      <c r="F39" s="31" t="s">
+        <v>564</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
@@ -14542,16 +15559,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B40" s="20"/>
-      <c r="C40" s="32" t="s">
-        <v>564</v>
+      <c r="C40" s="24" t="s">
+        <v>566</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
-      <c r="F40" s="33" t="s">
-        <v>565</v>
+      <c r="F40" s="31" t="s">
+        <v>567</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
@@ -14563,11 +15580,11 @@
     </row>
     <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="32" t="s">
-        <v>567</v>
+      <c r="C41" s="24" t="s">
+        <v>569</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
@@ -14600,15 +15617,15 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14632,28 +15649,30 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="42" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -14662,8 +15681,10 @@
       <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
@@ -14682,47 +15703,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="40" t="s">
-        <v>569</v>
-      </c>
+    <row r="2" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>571</v>
+      <c r="C3" s="38" t="s">
+        <v>572</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="32" t="s">
-        <v>573</v>
+      <c r="C4" s="24" t="s">
+        <v>574</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14733,13 +15752,13 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>575</v>
+      <c r="C5" s="24" t="s">
+        <v>576</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14750,13 +15769,13 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>577</v>
+      <c r="C6" s="24" t="s">
+        <v>578</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14767,15 +15786,15 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="20"/>
@@ -14784,7 +15803,23 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14811,15 +15846,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H8" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14847,148 +15882,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="71.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="6.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="45" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="71.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="25.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="40" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1" s="46" t="s">
-        <v>580</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>587</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>588</v>
       </c>
+      <c r="C3" s="47" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57" t="n">
+      <c r="B4" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="58" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57" t="n">
+      <c r="B5" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="n">
+      <c r="B6" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57" t="n">
+      <c r="B7" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="58" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="n">
+      <c r="B8" s="53" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57" t="n">
+      <c r="B9" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57" t="n">
+      <c r="B10" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="60" t="s">
-        <v>596</v>
-      </c>
-      <c r="D11" s="61" t="n">
+      <c r="C11" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" s="62" t="n">
+      <c r="C12" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="D13" s="63" t="n">
+      <c r="C13" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
         <v>0</v>
       </c>
@@ -14999,7 +16034,7 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
       <formula1>"0,1,2"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15040,10 +16075,10 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -15075,11 +16110,11 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="7"/>
@@ -15091,16 +16126,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="32" t="s">
-        <v>601</v>
+      <c r="C3" s="24" t="s">
+        <v>604</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="32" t="s">
-        <v>602</v>
+      <c r="F3" s="24" t="s">
+        <v>605</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15112,16 +16147,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="64" t="s">
-        <v>604</v>
+      <c r="C4" s="59" t="s">
+        <v>607</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="32" t="s">
-        <v>605</v>
+      <c r="F4" s="24" t="s">
+        <v>608</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15133,16 +16168,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="32" t="s">
-        <v>607</v>
+      <c r="C5" s="24" t="s">
+        <v>610</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="32" t="s">
-        <v>608</v>
+      <c r="F5" s="24" t="s">
+        <v>611</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15154,16 +16189,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="32" t="s">
-        <v>610</v>
+      <c r="C6" s="24" t="s">
+        <v>613</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="32" t="s">
-        <v>611</v>
+      <c r="F6" s="24" t="s">
+        <v>614</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -15179,16 +16214,16 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/requirements/RTM.xlsx
+++ b/requirements/RTM.xlsx
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Access and Delivery'!$H$1:$H$40</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$111</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$23</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'FUNC Reqs'!$H$1:$H$112</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Information Architecture'!$H$1:$H$22</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Integration and Utility'!$H$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Intermediary &amp; Interface'!$H$1:$H$17</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Pharmacy (MMIS)'!$H$1:$H$6</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="618">
   <si>
     <t xml:space="preserve">Requirement ID Number</t>
   </si>
@@ -1198,6 +1198,12 @@
     <t xml:space="preserve">The PSM's user interface shall be as simple, comprehensible, navigable, reliable, robust in the face of error, and responsive as possible.</t>
   </si>
   <si>
+    <t xml:space="preserve">psm-FR-7.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PSM shall provide instructions for using the application as an administrator via a help link or similar feature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.  Manage Provider Communication</t>
   </si>
   <si>
@@ -1468,7 +1474,7 @@
     <t xml:space="preserve">1.  S&amp;C:  Business Results Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-1.1</t>
+    <t xml:space="preserve">psm-SC-1.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall accommodate customer preferences for communications by email, text, mobile devices, or phones.</t>
@@ -1480,7 +1486,7 @@
     <t xml:space="preserve">2.  S&amp;C:  Industry Standards Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-2.1</t>
+    <t xml:space="preserve">psm-SC-2.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall comply with standards and protocols adopted by the Secretary under sections 1104 and 1561 of the Affordable Care Act. </t>
@@ -1495,7 +1501,7 @@
     <t xml:space="preserve">3.  S&amp;C:  Interoperability Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-3.1</t>
+    <t xml:space="preserve">psm-SC-3.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support the architecture adopted to preserve the ability to efficiently, effectively, and appropriately exchange data with other participants in the health and human services enterprise.</t>
@@ -1510,6 +1516,9 @@
     <t xml:space="preserve">4.  S&amp;C:  Modularity Standard</t>
   </si>
   <si>
+    <t xml:space="preserve">psm-SC-4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">The PSM shall use regionally standardized business rule definitions in both human and machine-readable formats.</t>
   </si>
   <si>
@@ -1519,7 +1528,7 @@
     <t xml:space="preserve">No in the pre-cert check list but PSM will do this</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.1</t>
+    <t xml:space="preserve">psm-SC-4.1</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall contain modules that can be interchanged without major system design.</t>
@@ -1528,7 +1537,7 @@
     <t xml:space="preserve">Evidence: have an architecture diagram showing rules engine is an separate component</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.2</t>
+    <t xml:space="preserve">psm-SC-4.2</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall use an intrastate rules engine separate from core programming with established interstate standardized business rules definitions.</t>
@@ -1537,7 +1546,7 @@
     <t xml:space="preserve">S&amp;C.MS.16</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.3</t>
+    <t xml:space="preserve">psm-SC-4.3</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM design documents shall utilize a widely supported modeling language (e.g., UML, BPMN).</t>
@@ -1546,7 +1555,7 @@
     <t xml:space="preserve">S&amp;C.MS.18</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.4</t>
+    <t xml:space="preserve">psm-SC-4.4</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support open standards between key interfaces have been considered for all and chosen where feasible.</t>
@@ -1555,7 +1564,7 @@
     <t xml:space="preserve">S&amp;C.MS.2</t>
   </si>
   <si>
-    <t xml:space="preserve">psm-SA-4.5</t>
+    <t xml:space="preserve">psm-SC-4.5</t>
   </si>
   <si>
     <t xml:space="preserve">The PSM shall support Modularity verification through extensive testing that demonstrates compliance with  chosen interface standards and specifications.</t>
@@ -1739,9 +1748,6 @@
   </si>
   <si>
     <t xml:space="preserve">TA.SP.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do PSM interface to NPI?</t>
   </si>
   <si>
     <t xml:space="preserve">1.  Technical Service Classification:  Configuration Management</t>
@@ -2198,6 +2204,9 @@
     <t xml:space="preserve">The PSM shall be secure from unauthorized access or use, and shall sanitize inputs and outputs where possible so as to avoid compromising itself or other systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Software Quality and Maintainability</t>
+  </si>
+  <si>
     <t xml:space="preserve">psm-SQ-1.1</t>
   </si>
   <si>
@@ -2213,7 +2222,7 @@
     <t xml:space="preserve">psm-SQ-1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies.</t>
+    <t xml:space="preserve">The PSM shall use modern source code dependency management techniques, and shall use up-to-date versions of upstream third-party dependencies and formats.</t>
   </si>
   <si>
     <t xml:space="preserve">psm-SQ-1.4</t>
@@ -2965,15 +2974,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1912320</xdr:colOff>
+      <xdr:colOff>1911240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2982,8 +2991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634680" y="0"/>
-          <a:ext cx="1912320" cy="674640"/>
+          <a:off x="635400" y="0"/>
+          <a:ext cx="1910520" cy="673560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3041,7 +3050,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10409,56 +10418,1063 @@
       <c r="AMI97" s="0"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15"/>
-      <c r="B98" s="6" t="s">
+    <row r="98" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-    </row>
-    <row r="99" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="7" t="s">
+      <c r="D98" s="22"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
+      <c r="O98" s="0"/>
+      <c r="P98" s="0"/>
+      <c r="Q98" s="0"/>
+      <c r="R98" s="0"/>
+      <c r="S98" s="0"/>
+      <c r="T98" s="0"/>
+      <c r="U98" s="0"/>
+      <c r="V98" s="0"/>
+      <c r="W98" s="0"/>
+      <c r="X98" s="0"/>
+      <c r="Y98" s="0"/>
+      <c r="Z98" s="0"/>
+      <c r="AA98" s="0"/>
+      <c r="AB98" s="0"/>
+      <c r="AC98" s="0"/>
+      <c r="AD98" s="0"/>
+      <c r="AE98" s="0"/>
+      <c r="AF98" s="0"/>
+      <c r="AG98" s="0"/>
+      <c r="AH98" s="0"/>
+      <c r="AI98" s="0"/>
+      <c r="AJ98" s="0"/>
+      <c r="AK98" s="0"/>
+      <c r="AL98" s="0"/>
+      <c r="AM98" s="0"/>
+      <c r="AN98" s="0"/>
+      <c r="AO98" s="0"/>
+      <c r="AP98" s="0"/>
+      <c r="AQ98" s="0"/>
+      <c r="AR98" s="0"/>
+      <c r="AS98" s="0"/>
+      <c r="AT98" s="0"/>
+      <c r="AU98" s="0"/>
+      <c r="AV98" s="0"/>
+      <c r="AW98" s="0"/>
+      <c r="AX98" s="0"/>
+      <c r="AY98" s="0"/>
+      <c r="AZ98" s="0"/>
+      <c r="BA98" s="0"/>
+      <c r="BB98" s="0"/>
+      <c r="BC98" s="0"/>
+      <c r="BD98" s="0"/>
+      <c r="BE98" s="0"/>
+      <c r="BF98" s="0"/>
+      <c r="BG98" s="0"/>
+      <c r="BH98" s="0"/>
+      <c r="BI98" s="0"/>
+      <c r="BJ98" s="0"/>
+      <c r="BK98" s="0"/>
+      <c r="BL98" s="0"/>
+      <c r="BM98" s="0"/>
+      <c r="BN98" s="0"/>
+      <c r="BO98" s="0"/>
+      <c r="BP98" s="0"/>
+      <c r="BQ98" s="0"/>
+      <c r="BR98" s="0"/>
+      <c r="BS98" s="0"/>
+      <c r="BT98" s="0"/>
+      <c r="BU98" s="0"/>
+      <c r="BV98" s="0"/>
+      <c r="BW98" s="0"/>
+      <c r="BX98" s="0"/>
+      <c r="BY98" s="0"/>
+      <c r="BZ98" s="0"/>
+      <c r="CA98" s="0"/>
+      <c r="CB98" s="0"/>
+      <c r="CC98" s="0"/>
+      <c r="CD98" s="0"/>
+      <c r="CE98" s="0"/>
+      <c r="CF98" s="0"/>
+      <c r="CG98" s="0"/>
+      <c r="CH98" s="0"/>
+      <c r="CI98" s="0"/>
+      <c r="CJ98" s="0"/>
+      <c r="CK98" s="0"/>
+      <c r="CL98" s="0"/>
+      <c r="CM98" s="0"/>
+      <c r="CN98" s="0"/>
+      <c r="CO98" s="0"/>
+      <c r="CP98" s="0"/>
+      <c r="CQ98" s="0"/>
+      <c r="CR98" s="0"/>
+      <c r="CS98" s="0"/>
+      <c r="CT98" s="0"/>
+      <c r="CU98" s="0"/>
+      <c r="CV98" s="0"/>
+      <c r="CW98" s="0"/>
+      <c r="CX98" s="0"/>
+      <c r="CY98" s="0"/>
+      <c r="CZ98" s="0"/>
+      <c r="DA98" s="0"/>
+      <c r="DB98" s="0"/>
+      <c r="DC98" s="0"/>
+      <c r="DD98" s="0"/>
+      <c r="DE98" s="0"/>
+      <c r="DF98" s="0"/>
+      <c r="DG98" s="0"/>
+      <c r="DH98" s="0"/>
+      <c r="DI98" s="0"/>
+      <c r="DJ98" s="0"/>
+      <c r="DK98" s="0"/>
+      <c r="DL98" s="0"/>
+      <c r="DM98" s="0"/>
+      <c r="DN98" s="0"/>
+      <c r="DO98" s="0"/>
+      <c r="DP98" s="0"/>
+      <c r="DQ98" s="0"/>
+      <c r="DR98" s="0"/>
+      <c r="DS98" s="0"/>
+      <c r="DT98" s="0"/>
+      <c r="DU98" s="0"/>
+      <c r="DV98" s="0"/>
+      <c r="DW98" s="0"/>
+      <c r="DX98" s="0"/>
+      <c r="DY98" s="0"/>
+      <c r="DZ98" s="0"/>
+      <c r="EA98" s="0"/>
+      <c r="EB98" s="0"/>
+      <c r="EC98" s="0"/>
+      <c r="ED98" s="0"/>
+      <c r="EE98" s="0"/>
+      <c r="EF98" s="0"/>
+      <c r="EG98" s="0"/>
+      <c r="EH98" s="0"/>
+      <c r="EI98" s="0"/>
+      <c r="EJ98" s="0"/>
+      <c r="EK98" s="0"/>
+      <c r="EL98" s="0"/>
+      <c r="EM98" s="0"/>
+      <c r="EN98" s="0"/>
+      <c r="EO98" s="0"/>
+      <c r="EP98" s="0"/>
+      <c r="EQ98" s="0"/>
+      <c r="ER98" s="0"/>
+      <c r="ES98" s="0"/>
+      <c r="ET98" s="0"/>
+      <c r="EU98" s="0"/>
+      <c r="EV98" s="0"/>
+      <c r="EW98" s="0"/>
+      <c r="EX98" s="0"/>
+      <c r="EY98" s="0"/>
+      <c r="EZ98" s="0"/>
+      <c r="FA98" s="0"/>
+      <c r="FB98" s="0"/>
+      <c r="FC98" s="0"/>
+      <c r="FD98" s="0"/>
+      <c r="FE98" s="0"/>
+      <c r="FF98" s="0"/>
+      <c r="FG98" s="0"/>
+      <c r="FH98" s="0"/>
+      <c r="FI98" s="0"/>
+      <c r="FJ98" s="0"/>
+      <c r="FK98" s="0"/>
+      <c r="FL98" s="0"/>
+      <c r="FM98" s="0"/>
+      <c r="FN98" s="0"/>
+      <c r="FO98" s="0"/>
+      <c r="FP98" s="0"/>
+      <c r="FQ98" s="0"/>
+      <c r="FR98" s="0"/>
+      <c r="FS98" s="0"/>
+      <c r="FT98" s="0"/>
+      <c r="FU98" s="0"/>
+      <c r="FV98" s="0"/>
+      <c r="FW98" s="0"/>
+      <c r="FX98" s="0"/>
+      <c r="FY98" s="0"/>
+      <c r="FZ98" s="0"/>
+      <c r="GA98" s="0"/>
+      <c r="GB98" s="0"/>
+      <c r="GC98" s="0"/>
+      <c r="GD98" s="0"/>
+      <c r="GE98" s="0"/>
+      <c r="GF98" s="0"/>
+      <c r="GG98" s="0"/>
+      <c r="GH98" s="0"/>
+      <c r="GI98" s="0"/>
+      <c r="GJ98" s="0"/>
+      <c r="GK98" s="0"/>
+      <c r="GL98" s="0"/>
+      <c r="GM98" s="0"/>
+      <c r="GN98" s="0"/>
+      <c r="GO98" s="0"/>
+      <c r="GP98" s="0"/>
+      <c r="GQ98" s="0"/>
+      <c r="GR98" s="0"/>
+      <c r="GS98" s="0"/>
+      <c r="GT98" s="0"/>
+      <c r="GU98" s="0"/>
+      <c r="GV98" s="0"/>
+      <c r="GW98" s="0"/>
+      <c r="GX98" s="0"/>
+      <c r="GY98" s="0"/>
+      <c r="GZ98" s="0"/>
+      <c r="HA98" s="0"/>
+      <c r="HB98" s="0"/>
+      <c r="HC98" s="0"/>
+      <c r="HD98" s="0"/>
+      <c r="HE98" s="0"/>
+      <c r="HF98" s="0"/>
+      <c r="HG98" s="0"/>
+      <c r="HH98" s="0"/>
+      <c r="HI98" s="0"/>
+      <c r="HJ98" s="0"/>
+      <c r="HK98" s="0"/>
+      <c r="HL98" s="0"/>
+      <c r="HM98" s="0"/>
+      <c r="HN98" s="0"/>
+      <c r="HO98" s="0"/>
+      <c r="HP98" s="0"/>
+      <c r="HQ98" s="0"/>
+      <c r="HR98" s="0"/>
+      <c r="HS98" s="0"/>
+      <c r="HT98" s="0"/>
+      <c r="HU98" s="0"/>
+      <c r="HV98" s="0"/>
+      <c r="HW98" s="0"/>
+      <c r="HX98" s="0"/>
+      <c r="HY98" s="0"/>
+      <c r="HZ98" s="0"/>
+      <c r="IA98" s="0"/>
+      <c r="IB98" s="0"/>
+      <c r="IC98" s="0"/>
+      <c r="ID98" s="0"/>
+      <c r="IE98" s="0"/>
+      <c r="IF98" s="0"/>
+      <c r="IG98" s="0"/>
+      <c r="IH98" s="0"/>
+      <c r="II98" s="0"/>
+      <c r="IJ98" s="0"/>
+      <c r="IK98" s="0"/>
+      <c r="IL98" s="0"/>
+      <c r="IM98" s="0"/>
+      <c r="IN98" s="0"/>
+      <c r="IO98" s="0"/>
+      <c r="IP98" s="0"/>
+      <c r="IQ98" s="0"/>
+      <c r="IR98" s="0"/>
+      <c r="IS98" s="0"/>
+      <c r="IT98" s="0"/>
+      <c r="IU98" s="0"/>
+      <c r="IV98" s="0"/>
+      <c r="IW98" s="0"/>
+      <c r="IX98" s="0"/>
+      <c r="IY98" s="0"/>
+      <c r="IZ98" s="0"/>
+      <c r="JA98" s="0"/>
+      <c r="JB98" s="0"/>
+      <c r="JC98" s="0"/>
+      <c r="JD98" s="0"/>
+      <c r="JE98" s="0"/>
+      <c r="JF98" s="0"/>
+      <c r="JG98" s="0"/>
+      <c r="JH98" s="0"/>
+      <c r="JI98" s="0"/>
+      <c r="JJ98" s="0"/>
+      <c r="JK98" s="0"/>
+      <c r="JL98" s="0"/>
+      <c r="JM98" s="0"/>
+      <c r="JN98" s="0"/>
+      <c r="JO98" s="0"/>
+      <c r="JP98" s="0"/>
+      <c r="JQ98" s="0"/>
+      <c r="JR98" s="0"/>
+      <c r="JS98" s="0"/>
+      <c r="JT98" s="0"/>
+      <c r="JU98" s="0"/>
+      <c r="JV98" s="0"/>
+      <c r="JW98" s="0"/>
+      <c r="JX98" s="0"/>
+      <c r="JY98" s="0"/>
+      <c r="JZ98" s="0"/>
+      <c r="KA98" s="0"/>
+      <c r="KB98" s="0"/>
+      <c r="KC98" s="0"/>
+      <c r="KD98" s="0"/>
+      <c r="KE98" s="0"/>
+      <c r="KF98" s="0"/>
+      <c r="KG98" s="0"/>
+      <c r="KH98" s="0"/>
+      <c r="KI98" s="0"/>
+      <c r="KJ98" s="0"/>
+      <c r="KK98" s="0"/>
+      <c r="KL98" s="0"/>
+      <c r="KM98" s="0"/>
+      <c r="KN98" s="0"/>
+      <c r="KO98" s="0"/>
+      <c r="KP98" s="0"/>
+      <c r="KQ98" s="0"/>
+      <c r="KR98" s="0"/>
+      <c r="KS98" s="0"/>
+      <c r="KT98" s="0"/>
+      <c r="KU98" s="0"/>
+      <c r="KV98" s="0"/>
+      <c r="KW98" s="0"/>
+      <c r="KX98" s="0"/>
+      <c r="KY98" s="0"/>
+      <c r="KZ98" s="0"/>
+      <c r="LA98" s="0"/>
+      <c r="LB98" s="0"/>
+      <c r="LC98" s="0"/>
+      <c r="LD98" s="0"/>
+      <c r="LE98" s="0"/>
+      <c r="LF98" s="0"/>
+      <c r="LG98" s="0"/>
+      <c r="LH98" s="0"/>
+      <c r="LI98" s="0"/>
+      <c r="LJ98" s="0"/>
+      <c r="LK98" s="0"/>
+      <c r="LL98" s="0"/>
+      <c r="LM98" s="0"/>
+      <c r="LN98" s="0"/>
+      <c r="LO98" s="0"/>
+      <c r="LP98" s="0"/>
+      <c r="LQ98" s="0"/>
+      <c r="LR98" s="0"/>
+      <c r="LS98" s="0"/>
+      <c r="LT98" s="0"/>
+      <c r="LU98" s="0"/>
+      <c r="LV98" s="0"/>
+      <c r="LW98" s="0"/>
+      <c r="LX98" s="0"/>
+      <c r="LY98" s="0"/>
+      <c r="LZ98" s="0"/>
+      <c r="MA98" s="0"/>
+      <c r="MB98" s="0"/>
+      <c r="MC98" s="0"/>
+      <c r="MD98" s="0"/>
+      <c r="ME98" s="0"/>
+      <c r="MF98" s="0"/>
+      <c r="MG98" s="0"/>
+      <c r="MH98" s="0"/>
+      <c r="MI98" s="0"/>
+      <c r="MJ98" s="0"/>
+      <c r="MK98" s="0"/>
+      <c r="ML98" s="0"/>
+      <c r="MM98" s="0"/>
+      <c r="MN98" s="0"/>
+      <c r="MO98" s="0"/>
+      <c r="MP98" s="0"/>
+      <c r="MQ98" s="0"/>
+      <c r="MR98" s="0"/>
+      <c r="MS98" s="0"/>
+      <c r="MT98" s="0"/>
+      <c r="MU98" s="0"/>
+      <c r="MV98" s="0"/>
+      <c r="MW98" s="0"/>
+      <c r="MX98" s="0"/>
+      <c r="MY98" s="0"/>
+      <c r="MZ98" s="0"/>
+      <c r="NA98" s="0"/>
+      <c r="NB98" s="0"/>
+      <c r="NC98" s="0"/>
+      <c r="ND98" s="0"/>
+      <c r="NE98" s="0"/>
+      <c r="NF98" s="0"/>
+      <c r="NG98" s="0"/>
+      <c r="NH98" s="0"/>
+      <c r="NI98" s="0"/>
+      <c r="NJ98" s="0"/>
+      <c r="NK98" s="0"/>
+      <c r="NL98" s="0"/>
+      <c r="NM98" s="0"/>
+      <c r="NN98" s="0"/>
+      <c r="NO98" s="0"/>
+      <c r="NP98" s="0"/>
+      <c r="NQ98" s="0"/>
+      <c r="NR98" s="0"/>
+      <c r="NS98" s="0"/>
+      <c r="NT98" s="0"/>
+      <c r="NU98" s="0"/>
+      <c r="NV98" s="0"/>
+      <c r="NW98" s="0"/>
+      <c r="NX98" s="0"/>
+      <c r="NY98" s="0"/>
+      <c r="NZ98" s="0"/>
+      <c r="OA98" s="0"/>
+      <c r="OB98" s="0"/>
+      <c r="OC98" s="0"/>
+      <c r="OD98" s="0"/>
+      <c r="OE98" s="0"/>
+      <c r="OF98" s="0"/>
+      <c r="OG98" s="0"/>
+      <c r="OH98" s="0"/>
+      <c r="OI98" s="0"/>
+      <c r="OJ98" s="0"/>
+      <c r="OK98" s="0"/>
+      <c r="OL98" s="0"/>
+      <c r="OM98" s="0"/>
+      <c r="ON98" s="0"/>
+      <c r="OO98" s="0"/>
+      <c r="OP98" s="0"/>
+      <c r="OQ98" s="0"/>
+      <c r="OR98" s="0"/>
+      <c r="OS98" s="0"/>
+      <c r="OT98" s="0"/>
+      <c r="OU98" s="0"/>
+      <c r="OV98" s="0"/>
+      <c r="OW98" s="0"/>
+      <c r="OX98" s="0"/>
+      <c r="OY98" s="0"/>
+      <c r="OZ98" s="0"/>
+      <c r="PA98" s="0"/>
+      <c r="PB98" s="0"/>
+      <c r="PC98" s="0"/>
+      <c r="PD98" s="0"/>
+      <c r="PE98" s="0"/>
+      <c r="PF98" s="0"/>
+      <c r="PG98" s="0"/>
+      <c r="PH98" s="0"/>
+      <c r="PI98" s="0"/>
+      <c r="PJ98" s="0"/>
+      <c r="PK98" s="0"/>
+      <c r="PL98" s="0"/>
+      <c r="PM98" s="0"/>
+      <c r="PN98" s="0"/>
+      <c r="PO98" s="0"/>
+      <c r="PP98" s="0"/>
+      <c r="PQ98" s="0"/>
+      <c r="PR98" s="0"/>
+      <c r="PS98" s="0"/>
+      <c r="PT98" s="0"/>
+      <c r="PU98" s="0"/>
+      <c r="PV98" s="0"/>
+      <c r="PW98" s="0"/>
+      <c r="PX98" s="0"/>
+      <c r="PY98" s="0"/>
+      <c r="PZ98" s="0"/>
+      <c r="QA98" s="0"/>
+      <c r="QB98" s="0"/>
+      <c r="QC98" s="0"/>
+      <c r="QD98" s="0"/>
+      <c r="QE98" s="0"/>
+      <c r="QF98" s="0"/>
+      <c r="QG98" s="0"/>
+      <c r="QH98" s="0"/>
+      <c r="QI98" s="0"/>
+      <c r="QJ98" s="0"/>
+      <c r="QK98" s="0"/>
+      <c r="QL98" s="0"/>
+      <c r="QM98" s="0"/>
+      <c r="QN98" s="0"/>
+      <c r="QO98" s="0"/>
+      <c r="QP98" s="0"/>
+      <c r="QQ98" s="0"/>
+      <c r="QR98" s="0"/>
+      <c r="QS98" s="0"/>
+      <c r="QT98" s="0"/>
+      <c r="QU98" s="0"/>
+      <c r="QV98" s="0"/>
+      <c r="QW98" s="0"/>
+      <c r="QX98" s="0"/>
+      <c r="QY98" s="0"/>
+      <c r="QZ98" s="0"/>
+      <c r="RA98" s="0"/>
+      <c r="RB98" s="0"/>
+      <c r="RC98" s="0"/>
+      <c r="RD98" s="0"/>
+      <c r="RE98" s="0"/>
+      <c r="RF98" s="0"/>
+      <c r="RG98" s="0"/>
+      <c r="RH98" s="0"/>
+      <c r="RI98" s="0"/>
+      <c r="RJ98" s="0"/>
+      <c r="RK98" s="0"/>
+      <c r="RL98" s="0"/>
+      <c r="RM98" s="0"/>
+      <c r="RN98" s="0"/>
+      <c r="RO98" s="0"/>
+      <c r="RP98" s="0"/>
+      <c r="RQ98" s="0"/>
+      <c r="RR98" s="0"/>
+      <c r="RS98" s="0"/>
+      <c r="RT98" s="0"/>
+      <c r="RU98" s="0"/>
+      <c r="RV98" s="0"/>
+      <c r="RW98" s="0"/>
+      <c r="RX98" s="0"/>
+      <c r="RY98" s="0"/>
+      <c r="RZ98" s="0"/>
+      <c r="SA98" s="0"/>
+      <c r="SB98" s="0"/>
+      <c r="SC98" s="0"/>
+      <c r="SD98" s="0"/>
+      <c r="SE98" s="0"/>
+      <c r="SF98" s="0"/>
+      <c r="SG98" s="0"/>
+      <c r="SH98" s="0"/>
+      <c r="SI98" s="0"/>
+      <c r="SJ98" s="0"/>
+      <c r="SK98" s="0"/>
+      <c r="SL98" s="0"/>
+      <c r="SM98" s="0"/>
+      <c r="SN98" s="0"/>
+      <c r="SO98" s="0"/>
+      <c r="SP98" s="0"/>
+      <c r="SQ98" s="0"/>
+      <c r="SR98" s="0"/>
+      <c r="SS98" s="0"/>
+      <c r="ST98" s="0"/>
+      <c r="SU98" s="0"/>
+      <c r="SV98" s="0"/>
+      <c r="SW98" s="0"/>
+      <c r="SX98" s="0"/>
+      <c r="SY98" s="0"/>
+      <c r="SZ98" s="0"/>
+      <c r="TA98" s="0"/>
+      <c r="TB98" s="0"/>
+      <c r="TC98" s="0"/>
+      <c r="TD98" s="0"/>
+      <c r="TE98" s="0"/>
+      <c r="TF98" s="0"/>
+      <c r="TG98" s="0"/>
+      <c r="TH98" s="0"/>
+      <c r="TI98" s="0"/>
+      <c r="TJ98" s="0"/>
+      <c r="TK98" s="0"/>
+      <c r="TL98" s="0"/>
+      <c r="TM98" s="0"/>
+      <c r="TN98" s="0"/>
+      <c r="TO98" s="0"/>
+      <c r="TP98" s="0"/>
+      <c r="TQ98" s="0"/>
+      <c r="TR98" s="0"/>
+      <c r="TS98" s="0"/>
+      <c r="TT98" s="0"/>
+      <c r="TU98" s="0"/>
+      <c r="TV98" s="0"/>
+      <c r="TW98" s="0"/>
+      <c r="TX98" s="0"/>
+      <c r="TY98" s="0"/>
+      <c r="TZ98" s="0"/>
+      <c r="UA98" s="0"/>
+      <c r="UB98" s="0"/>
+      <c r="UC98" s="0"/>
+      <c r="UD98" s="0"/>
+      <c r="UE98" s="0"/>
+      <c r="UF98" s="0"/>
+      <c r="UG98" s="0"/>
+      <c r="UH98" s="0"/>
+      <c r="UI98" s="0"/>
+      <c r="UJ98" s="0"/>
+      <c r="UK98" s="0"/>
+      <c r="UL98" s="0"/>
+      <c r="UM98" s="0"/>
+      <c r="UN98" s="0"/>
+      <c r="UO98" s="0"/>
+      <c r="UP98" s="0"/>
+      <c r="UQ98" s="0"/>
+      <c r="UR98" s="0"/>
+      <c r="US98" s="0"/>
+      <c r="UT98" s="0"/>
+      <c r="UU98" s="0"/>
+      <c r="UV98" s="0"/>
+      <c r="UW98" s="0"/>
+      <c r="UX98" s="0"/>
+      <c r="UY98" s="0"/>
+      <c r="UZ98" s="0"/>
+      <c r="VA98" s="0"/>
+      <c r="VB98" s="0"/>
+      <c r="VC98" s="0"/>
+      <c r="VD98" s="0"/>
+      <c r="VE98" s="0"/>
+      <c r="VF98" s="0"/>
+      <c r="VG98" s="0"/>
+      <c r="VH98" s="0"/>
+      <c r="VI98" s="0"/>
+      <c r="VJ98" s="0"/>
+      <c r="VK98" s="0"/>
+      <c r="VL98" s="0"/>
+      <c r="VM98" s="0"/>
+      <c r="VN98" s="0"/>
+      <c r="VO98" s="0"/>
+      <c r="VP98" s="0"/>
+      <c r="VQ98" s="0"/>
+      <c r="VR98" s="0"/>
+      <c r="VS98" s="0"/>
+      <c r="VT98" s="0"/>
+      <c r="VU98" s="0"/>
+      <c r="VV98" s="0"/>
+      <c r="VW98" s="0"/>
+      <c r="VX98" s="0"/>
+      <c r="VY98" s="0"/>
+      <c r="VZ98" s="0"/>
+      <c r="WA98" s="0"/>
+      <c r="WB98" s="0"/>
+      <c r="WC98" s="0"/>
+      <c r="WD98" s="0"/>
+      <c r="WE98" s="0"/>
+      <c r="WF98" s="0"/>
+      <c r="WG98" s="0"/>
+      <c r="WH98" s="0"/>
+      <c r="WI98" s="0"/>
+      <c r="WJ98" s="0"/>
+      <c r="WK98" s="0"/>
+      <c r="WL98" s="0"/>
+      <c r="WM98" s="0"/>
+      <c r="WN98" s="0"/>
+      <c r="WO98" s="0"/>
+      <c r="WP98" s="0"/>
+      <c r="WQ98" s="0"/>
+      <c r="WR98" s="0"/>
+      <c r="WS98" s="0"/>
+      <c r="WT98" s="0"/>
+      <c r="WU98" s="0"/>
+      <c r="WV98" s="0"/>
+      <c r="WW98" s="0"/>
+      <c r="WX98" s="0"/>
+      <c r="WY98" s="0"/>
+      <c r="WZ98" s="0"/>
+      <c r="XA98" s="0"/>
+      <c r="XB98" s="0"/>
+      <c r="XC98" s="0"/>
+      <c r="XD98" s="0"/>
+      <c r="XE98" s="0"/>
+      <c r="XF98" s="0"/>
+      <c r="XG98" s="0"/>
+      <c r="XH98" s="0"/>
+      <c r="XI98" s="0"/>
+      <c r="XJ98" s="0"/>
+      <c r="XK98" s="0"/>
+      <c r="XL98" s="0"/>
+      <c r="XM98" s="0"/>
+      <c r="XN98" s="0"/>
+      <c r="XO98" s="0"/>
+      <c r="XP98" s="0"/>
+      <c r="XQ98" s="0"/>
+      <c r="XR98" s="0"/>
+      <c r="XS98" s="0"/>
+      <c r="XT98" s="0"/>
+      <c r="XU98" s="0"/>
+      <c r="XV98" s="0"/>
+      <c r="XW98" s="0"/>
+      <c r="XX98" s="0"/>
+      <c r="XY98" s="0"/>
+      <c r="XZ98" s="0"/>
+      <c r="YA98" s="0"/>
+      <c r="YB98" s="0"/>
+      <c r="YC98" s="0"/>
+      <c r="YD98" s="0"/>
+      <c r="YE98" s="0"/>
+      <c r="YF98" s="0"/>
+      <c r="YG98" s="0"/>
+      <c r="YH98" s="0"/>
+      <c r="YI98" s="0"/>
+      <c r="YJ98" s="0"/>
+      <c r="YK98" s="0"/>
+      <c r="YL98" s="0"/>
+      <c r="YM98" s="0"/>
+      <c r="YN98" s="0"/>
+      <c r="YO98" s="0"/>
+      <c r="YP98" s="0"/>
+      <c r="YQ98" s="0"/>
+      <c r="YR98" s="0"/>
+      <c r="YS98" s="0"/>
+      <c r="YT98" s="0"/>
+      <c r="YU98" s="0"/>
+      <c r="YV98" s="0"/>
+      <c r="YW98" s="0"/>
+      <c r="YX98" s="0"/>
+      <c r="YY98" s="0"/>
+      <c r="YZ98" s="0"/>
+      <c r="ZA98" s="0"/>
+      <c r="ZB98" s="0"/>
+      <c r="ZC98" s="0"/>
+      <c r="ZD98" s="0"/>
+      <c r="ZE98" s="0"/>
+      <c r="ZF98" s="0"/>
+      <c r="ZG98" s="0"/>
+      <c r="ZH98" s="0"/>
+      <c r="ZI98" s="0"/>
+      <c r="ZJ98" s="0"/>
+      <c r="ZK98" s="0"/>
+      <c r="ZL98" s="0"/>
+      <c r="ZM98" s="0"/>
+      <c r="ZN98" s="0"/>
+      <c r="ZO98" s="0"/>
+      <c r="ZP98" s="0"/>
+      <c r="ZQ98" s="0"/>
+      <c r="ZR98" s="0"/>
+      <c r="ZS98" s="0"/>
+      <c r="ZT98" s="0"/>
+      <c r="ZU98" s="0"/>
+      <c r="ZV98" s="0"/>
+      <c r="ZW98" s="0"/>
+      <c r="ZX98" s="0"/>
+      <c r="ZY98" s="0"/>
+      <c r="ZZ98" s="0"/>
+      <c r="AAA98" s="0"/>
+      <c r="AAB98" s="0"/>
+      <c r="AAC98" s="0"/>
+      <c r="AAD98" s="0"/>
+      <c r="AAE98" s="0"/>
+      <c r="AAF98" s="0"/>
+      <c r="AAG98" s="0"/>
+      <c r="AAH98" s="0"/>
+      <c r="AAI98" s="0"/>
+      <c r="AAJ98" s="0"/>
+      <c r="AAK98" s="0"/>
+      <c r="AAL98" s="0"/>
+      <c r="AAM98" s="0"/>
+      <c r="AAN98" s="0"/>
+      <c r="AAO98" s="0"/>
+      <c r="AAP98" s="0"/>
+      <c r="AAQ98" s="0"/>
+      <c r="AAR98" s="0"/>
+      <c r="AAS98" s="0"/>
+      <c r="AAT98" s="0"/>
+      <c r="AAU98" s="0"/>
+      <c r="AAV98" s="0"/>
+      <c r="AAW98" s="0"/>
+      <c r="AAX98" s="0"/>
+      <c r="AAY98" s="0"/>
+      <c r="AAZ98" s="0"/>
+      <c r="ABA98" s="0"/>
+      <c r="ABB98" s="0"/>
+      <c r="ABC98" s="0"/>
+      <c r="ABD98" s="0"/>
+      <c r="ABE98" s="0"/>
+      <c r="ABF98" s="0"/>
+      <c r="ABG98" s="0"/>
+      <c r="ABH98" s="0"/>
+      <c r="ABI98" s="0"/>
+      <c r="ABJ98" s="0"/>
+      <c r="ABK98" s="0"/>
+      <c r="ABL98" s="0"/>
+      <c r="ABM98" s="0"/>
+      <c r="ABN98" s="0"/>
+      <c r="ABO98" s="0"/>
+      <c r="ABP98" s="0"/>
+      <c r="ABQ98" s="0"/>
+      <c r="ABR98" s="0"/>
+      <c r="ABS98" s="0"/>
+      <c r="ABT98" s="0"/>
+      <c r="ABU98" s="0"/>
+      <c r="ABV98" s="0"/>
+      <c r="ABW98" s="0"/>
+      <c r="ABX98" s="0"/>
+      <c r="ABY98" s="0"/>
+      <c r="ABZ98" s="0"/>
+      <c r="ACA98" s="0"/>
+      <c r="ACB98" s="0"/>
+      <c r="ACC98" s="0"/>
+      <c r="ACD98" s="0"/>
+      <c r="ACE98" s="0"/>
+      <c r="ACF98" s="0"/>
+      <c r="ACG98" s="0"/>
+      <c r="ACH98" s="0"/>
+      <c r="ACI98" s="0"/>
+      <c r="ACJ98" s="0"/>
+      <c r="ACK98" s="0"/>
+      <c r="ACL98" s="0"/>
+      <c r="ACM98" s="0"/>
+      <c r="ACN98" s="0"/>
+      <c r="ACO98" s="0"/>
+      <c r="ACP98" s="0"/>
+      <c r="ACQ98" s="0"/>
+      <c r="ACR98" s="0"/>
+      <c r="ACS98" s="0"/>
+      <c r="ACT98" s="0"/>
+      <c r="ACU98" s="0"/>
+      <c r="ACV98" s="0"/>
+      <c r="ACW98" s="0"/>
+      <c r="ACX98" s="0"/>
+      <c r="ACY98" s="0"/>
+      <c r="ACZ98" s="0"/>
+      <c r="ADA98" s="0"/>
+      <c r="ADB98" s="0"/>
+      <c r="ADC98" s="0"/>
+      <c r="ADD98" s="0"/>
+      <c r="ADE98" s="0"/>
+      <c r="ADF98" s="0"/>
+      <c r="ADG98" s="0"/>
+      <c r="ADH98" s="0"/>
+      <c r="ADI98" s="0"/>
+      <c r="ADJ98" s="0"/>
+      <c r="ADK98" s="0"/>
+      <c r="ADL98" s="0"/>
+      <c r="ADM98" s="0"/>
+      <c r="ADN98" s="0"/>
+      <c r="ADO98" s="0"/>
+      <c r="ADP98" s="0"/>
+      <c r="ADQ98" s="0"/>
+      <c r="ADR98" s="0"/>
+      <c r="ADS98" s="0"/>
+      <c r="ADT98" s="0"/>
+      <c r="ADU98" s="0"/>
+      <c r="ADV98" s="0"/>
+      <c r="ADW98" s="0"/>
+      <c r="ADX98" s="0"/>
+      <c r="ADY98" s="0"/>
+      <c r="ADZ98" s="0"/>
+      <c r="AEA98" s="0"/>
+      <c r="AEB98" s="0"/>
+      <c r="AEC98" s="0"/>
+      <c r="AED98" s="0"/>
+      <c r="AEE98" s="0"/>
+      <c r="AEF98" s="0"/>
+      <c r="AEG98" s="0"/>
+      <c r="AEH98" s="0"/>
+      <c r="AEI98" s="0"/>
+      <c r="AEJ98" s="0"/>
+      <c r="AEK98" s="0"/>
+      <c r="AEL98" s="0"/>
+      <c r="AEM98" s="0"/>
+      <c r="AEN98" s="0"/>
+      <c r="AEO98" s="0"/>
+      <c r="AEP98" s="0"/>
+      <c r="AEQ98" s="0"/>
+      <c r="AER98" s="0"/>
+      <c r="AES98" s="0"/>
+      <c r="AET98" s="0"/>
+      <c r="AEU98" s="0"/>
+      <c r="AEV98" s="0"/>
+      <c r="AEW98" s="0"/>
+      <c r="AEX98" s="0"/>
+      <c r="AEY98" s="0"/>
+      <c r="AEZ98" s="0"/>
+      <c r="AFA98" s="0"/>
+      <c r="AFB98" s="0"/>
+      <c r="AFC98" s="0"/>
+      <c r="AFD98" s="0"/>
+      <c r="AFE98" s="0"/>
+      <c r="AFF98" s="0"/>
+      <c r="AFG98" s="0"/>
+      <c r="AFH98" s="0"/>
+      <c r="AFI98" s="0"/>
+      <c r="AFJ98" s="0"/>
+      <c r="AFK98" s="0"/>
+      <c r="AFL98" s="0"/>
+      <c r="AFM98" s="0"/>
+      <c r="AFN98" s="0"/>
+      <c r="AFO98" s="0"/>
+      <c r="AFP98" s="0"/>
+      <c r="AFQ98" s="0"/>
+      <c r="AFR98" s="0"/>
+      <c r="AFS98" s="0"/>
+      <c r="AFT98" s="0"/>
+      <c r="AFU98" s="0"/>
+      <c r="AFV98" s="0"/>
+      <c r="AFW98" s="0"/>
+      <c r="AFX98" s="0"/>
+      <c r="AFY98" s="0"/>
+      <c r="AFZ98" s="0"/>
+      <c r="AGA98" s="0"/>
+      <c r="AGB98" s="0"/>
+      <c r="AGC98" s="0"/>
+      <c r="AGD98" s="0"/>
+      <c r="AGE98" s="0"/>
+      <c r="AGF98" s="0"/>
+      <c r="AGG98" s="0"/>
+      <c r="AGH98" s="0"/>
+      <c r="AGI98" s="0"/>
+      <c r="AGJ98" s="0"/>
+      <c r="AGK98" s="0"/>
+      <c r="AGL98" s="0"/>
+      <c r="AGM98" s="0"/>
+      <c r="AGN98" s="0"/>
+      <c r="AGO98" s="0"/>
+      <c r="AGP98" s="0"/>
+      <c r="AGQ98" s="0"/>
+      <c r="AGR98" s="0"/>
+      <c r="AGS98" s="0"/>
+      <c r="AGT98" s="0"/>
+      <c r="AGU98" s="0"/>
+      <c r="AGV98" s="0"/>
+      <c r="AGW98" s="0"/>
+      <c r="AGX98" s="0"/>
+      <c r="AGY98" s="0"/>
+      <c r="AGZ98" s="0"/>
+      <c r="AHA98" s="0"/>
+      <c r="AHB98" s="0"/>
+      <c r="AHC98" s="0"/>
+      <c r="AHD98" s="0"/>
+      <c r="AHE98" s="0"/>
+      <c r="AHF98" s="0"/>
+      <c r="AHG98" s="0"/>
+      <c r="AHH98" s="0"/>
+      <c r="AHI98" s="0"/>
+      <c r="AHJ98" s="0"/>
+      <c r="AHK98" s="0"/>
+      <c r="AHL98" s="0"/>
+      <c r="AHM98" s="0"/>
+      <c r="AHN98" s="0"/>
+      <c r="AHO98" s="0"/>
+      <c r="AHP98" s="0"/>
+      <c r="AHQ98" s="0"/>
+      <c r="AHR98" s="0"/>
+      <c r="AHS98" s="0"/>
+      <c r="AHT98" s="0"/>
+      <c r="AHU98" s="0"/>
+      <c r="AHV98" s="0"/>
+      <c r="AHW98" s="0"/>
+      <c r="AHX98" s="0"/>
+      <c r="AHY98" s="0"/>
+      <c r="AHZ98" s="0"/>
+      <c r="AIA98" s="0"/>
+      <c r="AIB98" s="0"/>
+      <c r="AIC98" s="0"/>
+      <c r="AID98" s="0"/>
+      <c r="AIE98" s="0"/>
+      <c r="AIF98" s="0"/>
+      <c r="AIG98" s="0"/>
+      <c r="AIH98" s="0"/>
+      <c r="AII98" s="0"/>
+      <c r="AIJ98" s="0"/>
+      <c r="AIK98" s="0"/>
+      <c r="AIL98" s="0"/>
+      <c r="AIM98" s="0"/>
+      <c r="AIN98" s="0"/>
+      <c r="AIO98" s="0"/>
+      <c r="AIP98" s="0"/>
+      <c r="AIQ98" s="0"/>
+      <c r="AIR98" s="0"/>
+      <c r="AIS98" s="0"/>
+      <c r="AIT98" s="0"/>
+      <c r="AIU98" s="0"/>
+      <c r="AIV98" s="0"/>
+      <c r="AIW98" s="0"/>
+      <c r="AIX98" s="0"/>
+      <c r="AIY98" s="0"/>
+      <c r="AIZ98" s="0"/>
+      <c r="AJA98" s="0"/>
+      <c r="AJB98" s="0"/>
+      <c r="AJC98" s="0"/>
+      <c r="AJD98" s="0"/>
+      <c r="AJE98" s="0"/>
+      <c r="AJF98" s="0"/>
+      <c r="AJG98" s="0"/>
+      <c r="AJH98" s="0"/>
+      <c r="AJI98" s="0"/>
+      <c r="AJJ98" s="0"/>
+      <c r="AJK98" s="0"/>
+      <c r="AJL98" s="0"/>
+      <c r="AJM98" s="0"/>
+      <c r="AJN98" s="0"/>
+      <c r="AJO98" s="0"/>
+      <c r="AJP98" s="0"/>
+      <c r="AJQ98" s="0"/>
+      <c r="AJR98" s="0"/>
+      <c r="AJS98" s="0"/>
+      <c r="AJT98" s="0"/>
+      <c r="AJU98" s="0"/>
+      <c r="AJV98" s="0"/>
+      <c r="AJW98" s="0"/>
+      <c r="AJX98" s="0"/>
+      <c r="AJY98" s="0"/>
+      <c r="AJZ98" s="0"/>
+      <c r="AKA98" s="0"/>
+      <c r="AKB98" s="0"/>
+      <c r="AKC98" s="0"/>
+      <c r="AKD98" s="0"/>
+      <c r="AKE98" s="0"/>
+      <c r="AKF98" s="0"/>
+      <c r="AKG98" s="0"/>
+      <c r="AKH98" s="0"/>
+      <c r="AKI98" s="0"/>
+      <c r="AKJ98" s="0"/>
+      <c r="AKK98" s="0"/>
+      <c r="AKL98" s="0"/>
+      <c r="AKM98" s="0"/>
+      <c r="AKN98" s="0"/>
+      <c r="AKO98" s="0"/>
+      <c r="AKP98" s="0"/>
+      <c r="AKQ98" s="0"/>
+      <c r="AKR98" s="0"/>
+      <c r="AKS98" s="0"/>
+      <c r="AKT98" s="0"/>
+      <c r="AKU98" s="0"/>
+      <c r="AKV98" s="0"/>
+      <c r="AKW98" s="0"/>
+      <c r="AKX98" s="0"/>
+      <c r="AKY98" s="0"/>
+      <c r="AKZ98" s="0"/>
+      <c r="ALA98" s="0"/>
+      <c r="ALB98" s="0"/>
+      <c r="ALC98" s="0"/>
+      <c r="ALD98" s="0"/>
+      <c r="ALE98" s="0"/>
+      <c r="ALF98" s="0"/>
+      <c r="ALG98" s="0"/>
+      <c r="ALH98" s="0"/>
+      <c r="ALI98" s="0"/>
+      <c r="ALJ98" s="0"/>
+      <c r="ALK98" s="0"/>
+      <c r="ALL98" s="0"/>
+      <c r="ALM98" s="0"/>
+      <c r="ALN98" s="0"/>
+      <c r="ALO98" s="0"/>
+      <c r="ALP98" s="0"/>
+      <c r="ALQ98" s="0"/>
+      <c r="ALR98" s="0"/>
+      <c r="ALS98" s="0"/>
+      <c r="ALT98" s="0"/>
+      <c r="ALU98" s="0"/>
+      <c r="ALV98" s="0"/>
+      <c r="ALW98" s="0"/>
+      <c r="ALX98" s="0"/>
+      <c r="ALY98" s="0"/>
+      <c r="ALZ98" s="0"/>
+      <c r="AMA98" s="0"/>
+      <c r="AMB98" s="0"/>
+      <c r="AMC98" s="0"/>
+      <c r="AMD98" s="0"/>
+      <c r="AME98" s="0"/>
+      <c r="AMF98" s="0"/>
+      <c r="AMG98" s="0"/>
+      <c r="AMH98" s="0"/>
+      <c r="AMI98" s="0"/>
+      <c r="AMJ98" s="0"/>
+    </row>
+    <row r="99" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="15"/>
+      <c r="B99" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="19"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>31</v>
@@ -10468,20 +11484,20 @@
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="K100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>31</v>
@@ -10495,16 +11511,16 @@
     </row>
     <row r="102" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>31</v>
@@ -10518,63 +11534,64 @@
     </row>
     <row r="103" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="13" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G103" s="11"/>
+      <c r="G103" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="15"/>
-      <c r="B104" s="6" t="s">
+    <row r="104" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="7" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15"/>
+      <c r="B105" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-    </row>
-    <row r="106" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="6"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>268</v>
       </c>
@@ -10591,13 +11608,12 @@
         <v>15</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I106" s="10"/>
+        <v>94</v>
+      </c>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
         <v>270</v>
       </c>
@@ -10608,13 +11624,13 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -10622,16 +11638,16 @@
     </row>
     <row r="108" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>31</v>
@@ -10645,1107 +11661,1128 @@
     </row>
     <row r="109" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>278</v>
+      <c r="G109" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="15"/>
-      <c r="B110" s="6" t="s">
+    <row r="110" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
+      <c r="D110" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="7" t="s">
+      <c r="H110" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15"/>
+      <c r="B111" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="7" t="s">
+      <c r="C111" s="6"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="11" t="s">
+      <c r="G112" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="112" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="21" t="s">
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="G112" s="20"/>
-      <c r="H112" s="27" t="s">
+      <c r="G113" s="20"/>
+      <c r="H113" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="0"/>
-      <c r="M112" s="0"/>
-      <c r="N112" s="0"/>
-      <c r="O112" s="0"/>
-      <c r="P112" s="0"/>
-      <c r="Q112" s="0"/>
-      <c r="R112" s="0"/>
-      <c r="S112" s="0"/>
-      <c r="T112" s="0"/>
-      <c r="U112" s="0"/>
-      <c r="V112" s="0"/>
-      <c r="W112" s="0"/>
-      <c r="X112" s="0"/>
-      <c r="Y112" s="0"/>
-      <c r="Z112" s="0"/>
-      <c r="AA112" s="0"/>
-      <c r="AB112" s="0"/>
-      <c r="AC112" s="0"/>
-      <c r="AD112" s="0"/>
-      <c r="AE112" s="0"/>
-      <c r="AF112" s="0"/>
-      <c r="AG112" s="0"/>
-      <c r="AH112" s="0"/>
-      <c r="AI112" s="0"/>
-      <c r="AJ112" s="0"/>
-      <c r="AK112" s="0"/>
-      <c r="AL112" s="0"/>
-      <c r="AM112" s="0"/>
-      <c r="AN112" s="0"/>
-      <c r="AO112" s="0"/>
-      <c r="AP112" s="0"/>
-      <c r="AQ112" s="0"/>
-      <c r="AR112" s="0"/>
-      <c r="AS112" s="0"/>
-      <c r="AT112" s="0"/>
-      <c r="AU112" s="0"/>
-      <c r="AV112" s="0"/>
-      <c r="AW112" s="0"/>
-      <c r="AX112" s="0"/>
-      <c r="AY112" s="0"/>
-      <c r="AZ112" s="0"/>
-      <c r="BA112" s="0"/>
-      <c r="BB112" s="0"/>
-      <c r="BC112" s="0"/>
-      <c r="BD112" s="0"/>
-      <c r="BE112" s="0"/>
-      <c r="BF112" s="0"/>
-      <c r="BG112" s="0"/>
-      <c r="BH112" s="0"/>
-      <c r="BI112" s="0"/>
-      <c r="BJ112" s="0"/>
-      <c r="BK112" s="0"/>
-      <c r="BL112" s="0"/>
-      <c r="BM112" s="0"/>
-      <c r="BN112" s="0"/>
-      <c r="BO112" s="0"/>
-      <c r="BP112" s="0"/>
-      <c r="BQ112" s="0"/>
-      <c r="BR112" s="0"/>
-      <c r="BS112" s="0"/>
-      <c r="BT112" s="0"/>
-      <c r="BU112" s="0"/>
-      <c r="BV112" s="0"/>
-      <c r="BW112" s="0"/>
-      <c r="BX112" s="0"/>
-      <c r="BY112" s="0"/>
-      <c r="BZ112" s="0"/>
-      <c r="CA112" s="0"/>
-      <c r="CB112" s="0"/>
-      <c r="CC112" s="0"/>
-      <c r="CD112" s="0"/>
-      <c r="CE112" s="0"/>
-      <c r="CF112" s="0"/>
-      <c r="CG112" s="0"/>
-      <c r="CH112" s="0"/>
-      <c r="CI112" s="0"/>
-      <c r="CJ112" s="0"/>
-      <c r="CK112" s="0"/>
-      <c r="CL112" s="0"/>
-      <c r="CM112" s="0"/>
-      <c r="CN112" s="0"/>
-      <c r="CO112" s="0"/>
-      <c r="CP112" s="0"/>
-      <c r="CQ112" s="0"/>
-      <c r="CR112" s="0"/>
-      <c r="CS112" s="0"/>
-      <c r="CT112" s="0"/>
-      <c r="CU112" s="0"/>
-      <c r="CV112" s="0"/>
-      <c r="CW112" s="0"/>
-      <c r="CX112" s="0"/>
-      <c r="CY112" s="0"/>
-      <c r="CZ112" s="0"/>
-      <c r="DA112" s="0"/>
-      <c r="DB112" s="0"/>
-      <c r="DC112" s="0"/>
-      <c r="DD112" s="0"/>
-      <c r="DE112" s="0"/>
-      <c r="DF112" s="0"/>
-      <c r="DG112" s="0"/>
-      <c r="DH112" s="0"/>
-      <c r="DI112" s="0"/>
-      <c r="DJ112" s="0"/>
-      <c r="DK112" s="0"/>
-      <c r="DL112" s="0"/>
-      <c r="DM112" s="0"/>
-      <c r="DN112" s="0"/>
-      <c r="DO112" s="0"/>
-      <c r="DP112" s="0"/>
-      <c r="DQ112" s="0"/>
-      <c r="DR112" s="0"/>
-      <c r="DS112" s="0"/>
-      <c r="DT112" s="0"/>
-      <c r="DU112" s="0"/>
-      <c r="DV112" s="0"/>
-      <c r="DW112" s="0"/>
-      <c r="DX112" s="0"/>
-      <c r="DY112" s="0"/>
-      <c r="DZ112" s="0"/>
-      <c r="EA112" s="0"/>
-      <c r="EB112" s="0"/>
-      <c r="EC112" s="0"/>
-      <c r="ED112" s="0"/>
-      <c r="EE112" s="0"/>
-      <c r="EF112" s="0"/>
-      <c r="EG112" s="0"/>
-      <c r="EH112" s="0"/>
-      <c r="EI112" s="0"/>
-      <c r="EJ112" s="0"/>
-      <c r="EK112" s="0"/>
-      <c r="EL112" s="0"/>
-      <c r="EM112" s="0"/>
-      <c r="EN112" s="0"/>
-      <c r="EO112" s="0"/>
-      <c r="EP112" s="0"/>
-      <c r="EQ112" s="0"/>
-      <c r="ER112" s="0"/>
-      <c r="ES112" s="0"/>
-      <c r="ET112" s="0"/>
-      <c r="EU112" s="0"/>
-      <c r="EV112" s="0"/>
-      <c r="EW112" s="0"/>
-      <c r="EX112" s="0"/>
-      <c r="EY112" s="0"/>
-      <c r="EZ112" s="0"/>
-      <c r="FA112" s="0"/>
-      <c r="FB112" s="0"/>
-      <c r="FC112" s="0"/>
-      <c r="FD112" s="0"/>
-      <c r="FE112" s="0"/>
-      <c r="FF112" s="0"/>
-      <c r="FG112" s="0"/>
-      <c r="FH112" s="0"/>
-      <c r="FI112" s="0"/>
-      <c r="FJ112" s="0"/>
-      <c r="FK112" s="0"/>
-      <c r="FL112" s="0"/>
-      <c r="FM112" s="0"/>
-      <c r="FN112" s="0"/>
-      <c r="FO112" s="0"/>
-      <c r="FP112" s="0"/>
-      <c r="FQ112" s="0"/>
-      <c r="FR112" s="0"/>
-      <c r="FS112" s="0"/>
-      <c r="FT112" s="0"/>
-      <c r="FU112" s="0"/>
-      <c r="FV112" s="0"/>
-      <c r="FW112" s="0"/>
-      <c r="FX112" s="0"/>
-      <c r="FY112" s="0"/>
-      <c r="FZ112" s="0"/>
-      <c r="GA112" s="0"/>
-      <c r="GB112" s="0"/>
-      <c r="GC112" s="0"/>
-      <c r="GD112" s="0"/>
-      <c r="GE112" s="0"/>
-      <c r="GF112" s="0"/>
-      <c r="GG112" s="0"/>
-      <c r="GH112" s="0"/>
-      <c r="GI112" s="0"/>
-      <c r="GJ112" s="0"/>
-      <c r="GK112" s="0"/>
-      <c r="GL112" s="0"/>
-      <c r="GM112" s="0"/>
-      <c r="GN112" s="0"/>
-      <c r="GO112" s="0"/>
-      <c r="GP112" s="0"/>
-      <c r="GQ112" s="0"/>
-      <c r="GR112" s="0"/>
-      <c r="GS112" s="0"/>
-      <c r="GT112" s="0"/>
-      <c r="GU112" s="0"/>
-      <c r="GV112" s="0"/>
-      <c r="GW112" s="0"/>
-      <c r="GX112" s="0"/>
-      <c r="GY112" s="0"/>
-      <c r="GZ112" s="0"/>
-      <c r="HA112" s="0"/>
-      <c r="HB112" s="0"/>
-      <c r="HC112" s="0"/>
-      <c r="HD112" s="0"/>
-      <c r="HE112" s="0"/>
-      <c r="HF112" s="0"/>
-      <c r="HG112" s="0"/>
-      <c r="HH112" s="0"/>
-      <c r="HI112" s="0"/>
-      <c r="HJ112" s="0"/>
-      <c r="HK112" s="0"/>
-      <c r="HL112" s="0"/>
-      <c r="HM112" s="0"/>
-      <c r="HN112" s="0"/>
-      <c r="HO112" s="0"/>
-      <c r="HP112" s="0"/>
-      <c r="HQ112" s="0"/>
-      <c r="HR112" s="0"/>
-      <c r="HS112" s="0"/>
-      <c r="HT112" s="0"/>
-      <c r="HU112" s="0"/>
-      <c r="HV112" s="0"/>
-      <c r="HW112" s="0"/>
-      <c r="HX112" s="0"/>
-      <c r="HY112" s="0"/>
-      <c r="HZ112" s="0"/>
-      <c r="IA112" s="0"/>
-      <c r="IB112" s="0"/>
-      <c r="IC112" s="0"/>
-      <c r="ID112" s="0"/>
-      <c r="IE112" s="0"/>
-      <c r="IF112" s="0"/>
-      <c r="IG112" s="0"/>
-      <c r="IH112" s="0"/>
-      <c r="II112" s="0"/>
-      <c r="IJ112" s="0"/>
-      <c r="IK112" s="0"/>
-      <c r="IL112" s="0"/>
-      <c r="IM112" s="0"/>
-      <c r="IN112" s="0"/>
-      <c r="IO112" s="0"/>
-      <c r="IP112" s="0"/>
-      <c r="IQ112" s="0"/>
-      <c r="IR112" s="0"/>
-      <c r="IS112" s="0"/>
-      <c r="IT112" s="0"/>
-      <c r="IU112" s="0"/>
-      <c r="IV112" s="0"/>
-      <c r="IW112" s="0"/>
-      <c r="IX112" s="0"/>
-      <c r="IY112" s="0"/>
-      <c r="IZ112" s="0"/>
-      <c r="JA112" s="0"/>
-      <c r="JB112" s="0"/>
-      <c r="JC112" s="0"/>
-      <c r="JD112" s="0"/>
-      <c r="JE112" s="0"/>
-      <c r="JF112" s="0"/>
-      <c r="JG112" s="0"/>
-      <c r="JH112" s="0"/>
-      <c r="JI112" s="0"/>
-      <c r="JJ112" s="0"/>
-      <c r="JK112" s="0"/>
-      <c r="JL112" s="0"/>
-      <c r="JM112" s="0"/>
-      <c r="JN112" s="0"/>
-      <c r="JO112" s="0"/>
-      <c r="JP112" s="0"/>
-      <c r="JQ112" s="0"/>
-      <c r="JR112" s="0"/>
-      <c r="JS112" s="0"/>
-      <c r="JT112" s="0"/>
-      <c r="JU112" s="0"/>
-      <c r="JV112" s="0"/>
-      <c r="JW112" s="0"/>
-      <c r="JX112" s="0"/>
-      <c r="JY112" s="0"/>
-      <c r="JZ112" s="0"/>
-      <c r="KA112" s="0"/>
-      <c r="KB112" s="0"/>
-      <c r="KC112" s="0"/>
-      <c r="KD112" s="0"/>
-      <c r="KE112" s="0"/>
-      <c r="KF112" s="0"/>
-      <c r="KG112" s="0"/>
-      <c r="KH112" s="0"/>
-      <c r="KI112" s="0"/>
-      <c r="KJ112" s="0"/>
-      <c r="KK112" s="0"/>
-      <c r="KL112" s="0"/>
-      <c r="KM112" s="0"/>
-      <c r="KN112" s="0"/>
-      <c r="KO112" s="0"/>
-      <c r="KP112" s="0"/>
-      <c r="KQ112" s="0"/>
-      <c r="KR112" s="0"/>
-      <c r="KS112" s="0"/>
-      <c r="KT112" s="0"/>
-      <c r="KU112" s="0"/>
-      <c r="KV112" s="0"/>
-      <c r="KW112" s="0"/>
-      <c r="KX112" s="0"/>
-      <c r="KY112" s="0"/>
-      <c r="KZ112" s="0"/>
-      <c r="LA112" s="0"/>
-      <c r="LB112" s="0"/>
-      <c r="LC112" s="0"/>
-      <c r="LD112" s="0"/>
-      <c r="LE112" s="0"/>
-      <c r="LF112" s="0"/>
-      <c r="LG112" s="0"/>
-      <c r="LH112" s="0"/>
-      <c r="LI112" s="0"/>
-      <c r="LJ112" s="0"/>
-      <c r="LK112" s="0"/>
-      <c r="LL112" s="0"/>
-      <c r="LM112" s="0"/>
-      <c r="LN112" s="0"/>
-      <c r="LO112" s="0"/>
-      <c r="LP112" s="0"/>
-      <c r="LQ112" s="0"/>
-      <c r="LR112" s="0"/>
-      <c r="LS112" s="0"/>
-      <c r="LT112" s="0"/>
-      <c r="LU112" s="0"/>
-      <c r="LV112" s="0"/>
-      <c r="LW112" s="0"/>
-      <c r="LX112" s="0"/>
-      <c r="LY112" s="0"/>
-      <c r="LZ112" s="0"/>
-      <c r="MA112" s="0"/>
-      <c r="MB112" s="0"/>
-      <c r="MC112" s="0"/>
-      <c r="MD112" s="0"/>
-      <c r="ME112" s="0"/>
-      <c r="MF112" s="0"/>
-      <c r="MG112" s="0"/>
-      <c r="MH112" s="0"/>
-      <c r="MI112" s="0"/>
-      <c r="MJ112" s="0"/>
-      <c r="MK112" s="0"/>
-      <c r="ML112" s="0"/>
-      <c r="MM112" s="0"/>
-      <c r="MN112" s="0"/>
-      <c r="MO112" s="0"/>
-      <c r="MP112" s="0"/>
-      <c r="MQ112" s="0"/>
-      <c r="MR112" s="0"/>
-      <c r="MS112" s="0"/>
-      <c r="MT112" s="0"/>
-      <c r="MU112" s="0"/>
-      <c r="MV112" s="0"/>
-      <c r="MW112" s="0"/>
-      <c r="MX112" s="0"/>
-      <c r="MY112" s="0"/>
-      <c r="MZ112" s="0"/>
-      <c r="NA112" s="0"/>
-      <c r="NB112" s="0"/>
-      <c r="NC112" s="0"/>
-      <c r="ND112" s="0"/>
-      <c r="NE112" s="0"/>
-      <c r="NF112" s="0"/>
-      <c r="NG112" s="0"/>
-      <c r="NH112" s="0"/>
-      <c r="NI112" s="0"/>
-      <c r="NJ112" s="0"/>
-      <c r="NK112" s="0"/>
-      <c r="NL112" s="0"/>
-      <c r="NM112" s="0"/>
-      <c r="NN112" s="0"/>
-      <c r="NO112" s="0"/>
-      <c r="NP112" s="0"/>
-      <c r="NQ112" s="0"/>
-      <c r="NR112" s="0"/>
-      <c r="NS112" s="0"/>
-      <c r="NT112" s="0"/>
-      <c r="NU112" s="0"/>
-      <c r="NV112" s="0"/>
-      <c r="NW112" s="0"/>
-      <c r="NX112" s="0"/>
-      <c r="NY112" s="0"/>
-      <c r="NZ112" s="0"/>
-      <c r="OA112" s="0"/>
-      <c r="OB112" s="0"/>
-      <c r="OC112" s="0"/>
-      <c r="OD112" s="0"/>
-      <c r="OE112" s="0"/>
-      <c r="OF112" s="0"/>
-      <c r="OG112" s="0"/>
-      <c r="OH112" s="0"/>
-      <c r="OI112" s="0"/>
-      <c r="OJ112" s="0"/>
-      <c r="OK112" s="0"/>
-      <c r="OL112" s="0"/>
-      <c r="OM112" s="0"/>
-      <c r="ON112" s="0"/>
-      <c r="OO112" s="0"/>
-      <c r="OP112" s="0"/>
-      <c r="OQ112" s="0"/>
-      <c r="OR112" s="0"/>
-      <c r="OS112" s="0"/>
-      <c r="OT112" s="0"/>
-      <c r="OU112" s="0"/>
-      <c r="OV112" s="0"/>
-      <c r="OW112" s="0"/>
-      <c r="OX112" s="0"/>
-      <c r="OY112" s="0"/>
-      <c r="OZ112" s="0"/>
-      <c r="PA112" s="0"/>
-      <c r="PB112" s="0"/>
-      <c r="PC112" s="0"/>
-      <c r="PD112" s="0"/>
-      <c r="PE112" s="0"/>
-      <c r="PF112" s="0"/>
-      <c r="PG112" s="0"/>
-      <c r="PH112" s="0"/>
-      <c r="PI112" s="0"/>
-      <c r="PJ112" s="0"/>
-      <c r="PK112" s="0"/>
-      <c r="PL112" s="0"/>
-      <c r="PM112" s="0"/>
-      <c r="PN112" s="0"/>
-      <c r="PO112" s="0"/>
-      <c r="PP112" s="0"/>
-      <c r="PQ112" s="0"/>
-      <c r="PR112" s="0"/>
-      <c r="PS112" s="0"/>
-      <c r="PT112" s="0"/>
-      <c r="PU112" s="0"/>
-      <c r="PV112" s="0"/>
-      <c r="PW112" s="0"/>
-      <c r="PX112" s="0"/>
-      <c r="PY112" s="0"/>
-      <c r="PZ112" s="0"/>
-      <c r="QA112" s="0"/>
-      <c r="QB112" s="0"/>
-      <c r="QC112" s="0"/>
-      <c r="QD112" s="0"/>
-      <c r="QE112" s="0"/>
-      <c r="QF112" s="0"/>
-      <c r="QG112" s="0"/>
-      <c r="QH112" s="0"/>
-      <c r="QI112" s="0"/>
-      <c r="QJ112" s="0"/>
-      <c r="QK112" s="0"/>
-      <c r="QL112" s="0"/>
-      <c r="QM112" s="0"/>
-      <c r="QN112" s="0"/>
-      <c r="QO112" s="0"/>
-      <c r="QP112" s="0"/>
-      <c r="QQ112" s="0"/>
-      <c r="QR112" s="0"/>
-      <c r="QS112" s="0"/>
-      <c r="QT112" s="0"/>
-      <c r="QU112" s="0"/>
-      <c r="QV112" s="0"/>
-      <c r="QW112" s="0"/>
-      <c r="QX112" s="0"/>
-      <c r="QY112" s="0"/>
-      <c r="QZ112" s="0"/>
-      <c r="RA112" s="0"/>
-      <c r="RB112" s="0"/>
-      <c r="RC112" s="0"/>
-      <c r="RD112" s="0"/>
-      <c r="RE112" s="0"/>
-      <c r="RF112" s="0"/>
-      <c r="RG112" s="0"/>
-      <c r="RH112" s="0"/>
-      <c r="RI112" s="0"/>
-      <c r="RJ112" s="0"/>
-      <c r="RK112" s="0"/>
-      <c r="RL112" s="0"/>
-      <c r="RM112" s="0"/>
-      <c r="RN112" s="0"/>
-      <c r="RO112" s="0"/>
-      <c r="RP112" s="0"/>
-      <c r="RQ112" s="0"/>
-      <c r="RR112" s="0"/>
-      <c r="RS112" s="0"/>
-      <c r="RT112" s="0"/>
-      <c r="RU112" s="0"/>
-      <c r="RV112" s="0"/>
-      <c r="RW112" s="0"/>
-      <c r="RX112" s="0"/>
-      <c r="RY112" s="0"/>
-      <c r="RZ112" s="0"/>
-      <c r="SA112" s="0"/>
-      <c r="SB112" s="0"/>
-      <c r="SC112" s="0"/>
-      <c r="SD112" s="0"/>
-      <c r="SE112" s="0"/>
-      <c r="SF112" s="0"/>
-      <c r="SG112" s="0"/>
-      <c r="SH112" s="0"/>
-      <c r="SI112" s="0"/>
-      <c r="SJ112" s="0"/>
-      <c r="SK112" s="0"/>
-      <c r="SL112" s="0"/>
-      <c r="SM112" s="0"/>
-      <c r="SN112" s="0"/>
-      <c r="SO112" s="0"/>
-      <c r="SP112" s="0"/>
-      <c r="SQ112" s="0"/>
-      <c r="SR112" s="0"/>
-      <c r="SS112" s="0"/>
-      <c r="ST112" s="0"/>
-      <c r="SU112" s="0"/>
-      <c r="SV112" s="0"/>
-      <c r="SW112" s="0"/>
-      <c r="SX112" s="0"/>
-      <c r="SY112" s="0"/>
-      <c r="SZ112" s="0"/>
-      <c r="TA112" s="0"/>
-      <c r="TB112" s="0"/>
-      <c r="TC112" s="0"/>
-      <c r="TD112" s="0"/>
-      <c r="TE112" s="0"/>
-      <c r="TF112" s="0"/>
-      <c r="TG112" s="0"/>
-      <c r="TH112" s="0"/>
-      <c r="TI112" s="0"/>
-      <c r="TJ112" s="0"/>
-      <c r="TK112" s="0"/>
-      <c r="TL112" s="0"/>
-      <c r="TM112" s="0"/>
-      <c r="TN112" s="0"/>
-      <c r="TO112" s="0"/>
-      <c r="TP112" s="0"/>
-      <c r="TQ112" s="0"/>
-      <c r="TR112" s="0"/>
-      <c r="TS112" s="0"/>
-      <c r="TT112" s="0"/>
-      <c r="TU112" s="0"/>
-      <c r="TV112" s="0"/>
-      <c r="TW112" s="0"/>
-      <c r="TX112" s="0"/>
-      <c r="TY112" s="0"/>
-      <c r="TZ112" s="0"/>
-      <c r="UA112" s="0"/>
-      <c r="UB112" s="0"/>
-      <c r="UC112" s="0"/>
-      <c r="UD112" s="0"/>
-      <c r="UE112" s="0"/>
-      <c r="UF112" s="0"/>
-      <c r="UG112" s="0"/>
-      <c r="UH112" s="0"/>
-      <c r="UI112" s="0"/>
-      <c r="UJ112" s="0"/>
-      <c r="UK112" s="0"/>
-      <c r="UL112" s="0"/>
-      <c r="UM112" s="0"/>
-      <c r="UN112" s="0"/>
-      <c r="UO112" s="0"/>
-      <c r="UP112" s="0"/>
-      <c r="UQ112" s="0"/>
-      <c r="UR112" s="0"/>
-      <c r="US112" s="0"/>
-      <c r="UT112" s="0"/>
-      <c r="UU112" s="0"/>
-      <c r="UV112" s="0"/>
-      <c r="UW112" s="0"/>
-      <c r="UX112" s="0"/>
-      <c r="UY112" s="0"/>
-      <c r="UZ112" s="0"/>
-      <c r="VA112" s="0"/>
-      <c r="VB112" s="0"/>
-      <c r="VC112" s="0"/>
-      <c r="VD112" s="0"/>
-      <c r="VE112" s="0"/>
-      <c r="VF112" s="0"/>
-      <c r="VG112" s="0"/>
-      <c r="VH112" s="0"/>
-      <c r="VI112" s="0"/>
-      <c r="VJ112" s="0"/>
-      <c r="VK112" s="0"/>
-      <c r="VL112" s="0"/>
-      <c r="VM112" s="0"/>
-      <c r="VN112" s="0"/>
-      <c r="VO112" s="0"/>
-      <c r="VP112" s="0"/>
-      <c r="VQ112" s="0"/>
-      <c r="VR112" s="0"/>
-      <c r="VS112" s="0"/>
-      <c r="VT112" s="0"/>
-      <c r="VU112" s="0"/>
-      <c r="VV112" s="0"/>
-      <c r="VW112" s="0"/>
-      <c r="VX112" s="0"/>
-      <c r="VY112" s="0"/>
-      <c r="VZ112" s="0"/>
-      <c r="WA112" s="0"/>
-      <c r="WB112" s="0"/>
-      <c r="WC112" s="0"/>
-      <c r="WD112" s="0"/>
-      <c r="WE112" s="0"/>
-      <c r="WF112" s="0"/>
-      <c r="WG112" s="0"/>
-      <c r="WH112" s="0"/>
-      <c r="WI112" s="0"/>
-      <c r="WJ112" s="0"/>
-      <c r="WK112" s="0"/>
-      <c r="WL112" s="0"/>
-      <c r="WM112" s="0"/>
-      <c r="WN112" s="0"/>
-      <c r="WO112" s="0"/>
-      <c r="WP112" s="0"/>
-      <c r="WQ112" s="0"/>
-      <c r="WR112" s="0"/>
-      <c r="WS112" s="0"/>
-      <c r="WT112" s="0"/>
-      <c r="WU112" s="0"/>
-      <c r="WV112" s="0"/>
-      <c r="WW112" s="0"/>
-      <c r="WX112" s="0"/>
-      <c r="WY112" s="0"/>
-      <c r="WZ112" s="0"/>
-      <c r="XA112" s="0"/>
-      <c r="XB112" s="0"/>
-      <c r="XC112" s="0"/>
-      <c r="XD112" s="0"/>
-      <c r="XE112" s="0"/>
-      <c r="XF112" s="0"/>
-      <c r="XG112" s="0"/>
-      <c r="XH112" s="0"/>
-      <c r="XI112" s="0"/>
-      <c r="XJ112" s="0"/>
-      <c r="XK112" s="0"/>
-      <c r="XL112" s="0"/>
-      <c r="XM112" s="0"/>
-      <c r="XN112" s="0"/>
-      <c r="XO112" s="0"/>
-      <c r="XP112" s="0"/>
-      <c r="XQ112" s="0"/>
-      <c r="XR112" s="0"/>
-      <c r="XS112" s="0"/>
-      <c r="XT112" s="0"/>
-      <c r="XU112" s="0"/>
-      <c r="XV112" s="0"/>
-      <c r="XW112" s="0"/>
-      <c r="XX112" s="0"/>
-      <c r="XY112" s="0"/>
-      <c r="XZ112" s="0"/>
-      <c r="YA112" s="0"/>
-      <c r="YB112" s="0"/>
-      <c r="YC112" s="0"/>
-      <c r="YD112" s="0"/>
-      <c r="YE112" s="0"/>
-      <c r="YF112" s="0"/>
-      <c r="YG112" s="0"/>
-      <c r="YH112" s="0"/>
-      <c r="YI112" s="0"/>
-      <c r="YJ112" s="0"/>
-      <c r="YK112" s="0"/>
-      <c r="YL112" s="0"/>
-      <c r="YM112" s="0"/>
-      <c r="YN112" s="0"/>
-      <c r="YO112" s="0"/>
-      <c r="YP112" s="0"/>
-      <c r="YQ112" s="0"/>
-      <c r="YR112" s="0"/>
-      <c r="YS112" s="0"/>
-      <c r="YT112" s="0"/>
-      <c r="YU112" s="0"/>
-      <c r="YV112" s="0"/>
-      <c r="YW112" s="0"/>
-      <c r="YX112" s="0"/>
-      <c r="YY112" s="0"/>
-      <c r="YZ112" s="0"/>
-      <c r="ZA112" s="0"/>
-      <c r="ZB112" s="0"/>
-      <c r="ZC112" s="0"/>
-      <c r="ZD112" s="0"/>
-      <c r="ZE112" s="0"/>
-      <c r="ZF112" s="0"/>
-      <c r="ZG112" s="0"/>
-      <c r="ZH112" s="0"/>
-      <c r="ZI112" s="0"/>
-      <c r="ZJ112" s="0"/>
-      <c r="ZK112" s="0"/>
-      <c r="ZL112" s="0"/>
-      <c r="ZM112" s="0"/>
-      <c r="ZN112" s="0"/>
-      <c r="ZO112" s="0"/>
-      <c r="ZP112" s="0"/>
-      <c r="ZQ112" s="0"/>
-      <c r="ZR112" s="0"/>
-      <c r="ZS112" s="0"/>
-      <c r="ZT112" s="0"/>
-      <c r="ZU112" s="0"/>
-      <c r="ZV112" s="0"/>
-      <c r="ZW112" s="0"/>
-      <c r="ZX112" s="0"/>
-      <c r="ZY112" s="0"/>
-      <c r="ZZ112" s="0"/>
-      <c r="AAA112" s="0"/>
-      <c r="AAB112" s="0"/>
-      <c r="AAC112" s="0"/>
-      <c r="AAD112" s="0"/>
-      <c r="AAE112" s="0"/>
-      <c r="AAF112" s="0"/>
-      <c r="AAG112" s="0"/>
-      <c r="AAH112" s="0"/>
-      <c r="AAI112" s="0"/>
-      <c r="AAJ112" s="0"/>
-      <c r="AAK112" s="0"/>
-      <c r="AAL112" s="0"/>
-      <c r="AAM112" s="0"/>
-      <c r="AAN112" s="0"/>
-      <c r="AAO112" s="0"/>
-      <c r="AAP112" s="0"/>
-      <c r="AAQ112" s="0"/>
-      <c r="AAR112" s="0"/>
-      <c r="AAS112" s="0"/>
-      <c r="AAT112" s="0"/>
-      <c r="AAU112" s="0"/>
-      <c r="AAV112" s="0"/>
-      <c r="AAW112" s="0"/>
-      <c r="AAX112" s="0"/>
-      <c r="AAY112" s="0"/>
-      <c r="AAZ112" s="0"/>
-      <c r="ABA112" s="0"/>
-      <c r="ABB112" s="0"/>
-      <c r="ABC112" s="0"/>
-      <c r="ABD112" s="0"/>
-      <c r="ABE112" s="0"/>
-      <c r="ABF112" s="0"/>
-      <c r="ABG112" s="0"/>
-      <c r="ABH112" s="0"/>
-      <c r="ABI112" s="0"/>
-      <c r="ABJ112" s="0"/>
-      <c r="ABK112" s="0"/>
-      <c r="ABL112" s="0"/>
-      <c r="ABM112" s="0"/>
-      <c r="ABN112" s="0"/>
-      <c r="ABO112" s="0"/>
-      <c r="ABP112" s="0"/>
-      <c r="ABQ112" s="0"/>
-      <c r="ABR112" s="0"/>
-      <c r="ABS112" s="0"/>
-      <c r="ABT112" s="0"/>
-      <c r="ABU112" s="0"/>
-      <c r="ABV112" s="0"/>
-      <c r="ABW112" s="0"/>
-      <c r="ABX112" s="0"/>
-      <c r="ABY112" s="0"/>
-      <c r="ABZ112" s="0"/>
-      <c r="ACA112" s="0"/>
-      <c r="ACB112" s="0"/>
-      <c r="ACC112" s="0"/>
-      <c r="ACD112" s="0"/>
-      <c r="ACE112" s="0"/>
-      <c r="ACF112" s="0"/>
-      <c r="ACG112" s="0"/>
-      <c r="ACH112" s="0"/>
-      <c r="ACI112" s="0"/>
-      <c r="ACJ112" s="0"/>
-      <c r="ACK112" s="0"/>
-      <c r="ACL112" s="0"/>
-      <c r="ACM112" s="0"/>
-      <c r="ACN112" s="0"/>
-      <c r="ACO112" s="0"/>
-      <c r="ACP112" s="0"/>
-      <c r="ACQ112" s="0"/>
-      <c r="ACR112" s="0"/>
-      <c r="ACS112" s="0"/>
-      <c r="ACT112" s="0"/>
-      <c r="ACU112" s="0"/>
-      <c r="ACV112" s="0"/>
-      <c r="ACW112" s="0"/>
-      <c r="ACX112" s="0"/>
-      <c r="ACY112" s="0"/>
-      <c r="ACZ112" s="0"/>
-      <c r="ADA112" s="0"/>
-      <c r="ADB112" s="0"/>
-      <c r="ADC112" s="0"/>
-      <c r="ADD112" s="0"/>
-      <c r="ADE112" s="0"/>
-      <c r="ADF112" s="0"/>
-      <c r="ADG112" s="0"/>
-      <c r="ADH112" s="0"/>
-      <c r="ADI112" s="0"/>
-      <c r="ADJ112" s="0"/>
-      <c r="ADK112" s="0"/>
-      <c r="ADL112" s="0"/>
-      <c r="ADM112" s="0"/>
-      <c r="ADN112" s="0"/>
-      <c r="ADO112" s="0"/>
-      <c r="ADP112" s="0"/>
-      <c r="ADQ112" s="0"/>
-      <c r="ADR112" s="0"/>
-      <c r="ADS112" s="0"/>
-      <c r="ADT112" s="0"/>
-      <c r="ADU112" s="0"/>
-      <c r="ADV112" s="0"/>
-      <c r="ADW112" s="0"/>
-      <c r="ADX112" s="0"/>
-      <c r="ADY112" s="0"/>
-      <c r="ADZ112" s="0"/>
-      <c r="AEA112" s="0"/>
-      <c r="AEB112" s="0"/>
-      <c r="AEC112" s="0"/>
-      <c r="AED112" s="0"/>
-      <c r="AEE112" s="0"/>
-      <c r="AEF112" s="0"/>
-      <c r="AEG112" s="0"/>
-      <c r="AEH112" s="0"/>
-      <c r="AEI112" s="0"/>
-      <c r="AEJ112" s="0"/>
-      <c r="AEK112" s="0"/>
-      <c r="AEL112" s="0"/>
-      <c r="AEM112" s="0"/>
-      <c r="AEN112" s="0"/>
-      <c r="AEO112" s="0"/>
-      <c r="AEP112" s="0"/>
-      <c r="AEQ112" s="0"/>
-      <c r="AER112" s="0"/>
-      <c r="AES112" s="0"/>
-      <c r="AET112" s="0"/>
-      <c r="AEU112" s="0"/>
-      <c r="AEV112" s="0"/>
-      <c r="AEW112" s="0"/>
-      <c r="AEX112" s="0"/>
-      <c r="AEY112" s="0"/>
-      <c r="AEZ112" s="0"/>
-      <c r="AFA112" s="0"/>
-      <c r="AFB112" s="0"/>
-      <c r="AFC112" s="0"/>
-      <c r="AFD112" s="0"/>
-      <c r="AFE112" s="0"/>
-      <c r="AFF112" s="0"/>
-      <c r="AFG112" s="0"/>
-      <c r="AFH112" s="0"/>
-      <c r="AFI112" s="0"/>
-      <c r="AFJ112" s="0"/>
-      <c r="AFK112" s="0"/>
-      <c r="AFL112" s="0"/>
-      <c r="AFM112" s="0"/>
-      <c r="AFN112" s="0"/>
-      <c r="AFO112" s="0"/>
-      <c r="AFP112" s="0"/>
-      <c r="AFQ112" s="0"/>
-      <c r="AFR112" s="0"/>
-      <c r="AFS112" s="0"/>
-      <c r="AFT112" s="0"/>
-      <c r="AFU112" s="0"/>
-      <c r="AFV112" s="0"/>
-      <c r="AFW112" s="0"/>
-      <c r="AFX112" s="0"/>
-      <c r="AFY112" s="0"/>
-      <c r="AFZ112" s="0"/>
-      <c r="AGA112" s="0"/>
-      <c r="AGB112" s="0"/>
-      <c r="AGC112" s="0"/>
-      <c r="AGD112" s="0"/>
-      <c r="AGE112" s="0"/>
-      <c r="AGF112" s="0"/>
-      <c r="AGG112" s="0"/>
-      <c r="AGH112" s="0"/>
-      <c r="AGI112" s="0"/>
-      <c r="AGJ112" s="0"/>
-      <c r="AGK112" s="0"/>
-      <c r="AGL112" s="0"/>
-      <c r="AGM112" s="0"/>
-      <c r="AGN112" s="0"/>
-      <c r="AGO112" s="0"/>
-      <c r="AGP112" s="0"/>
-      <c r="AGQ112" s="0"/>
-      <c r="AGR112" s="0"/>
-      <c r="AGS112" s="0"/>
-      <c r="AGT112" s="0"/>
-      <c r="AGU112" s="0"/>
-      <c r="AGV112" s="0"/>
-      <c r="AGW112" s="0"/>
-      <c r="AGX112" s="0"/>
-      <c r="AGY112" s="0"/>
-      <c r="AGZ112" s="0"/>
-      <c r="AHA112" s="0"/>
-      <c r="AHB112" s="0"/>
-      <c r="AHC112" s="0"/>
-      <c r="AHD112" s="0"/>
-      <c r="AHE112" s="0"/>
-      <c r="AHF112" s="0"/>
-      <c r="AHG112" s="0"/>
-      <c r="AHH112" s="0"/>
-      <c r="AHI112" s="0"/>
-      <c r="AHJ112" s="0"/>
-      <c r="AHK112" s="0"/>
-      <c r="AHL112" s="0"/>
-      <c r="AHM112" s="0"/>
-      <c r="AHN112" s="0"/>
-      <c r="AHO112" s="0"/>
-      <c r="AHP112" s="0"/>
-      <c r="AHQ112" s="0"/>
-      <c r="AHR112" s="0"/>
-      <c r="AHS112" s="0"/>
-      <c r="AHT112" s="0"/>
-      <c r="AHU112" s="0"/>
-      <c r="AHV112" s="0"/>
-      <c r="AHW112" s="0"/>
-      <c r="AHX112" s="0"/>
-      <c r="AHY112" s="0"/>
-      <c r="AHZ112" s="0"/>
-      <c r="AIA112" s="0"/>
-      <c r="AIB112" s="0"/>
-      <c r="AIC112" s="0"/>
-      <c r="AID112" s="0"/>
-      <c r="AIE112" s="0"/>
-      <c r="AIF112" s="0"/>
-      <c r="AIG112" s="0"/>
-      <c r="AIH112" s="0"/>
-      <c r="AII112" s="0"/>
-      <c r="AIJ112" s="0"/>
-      <c r="AIK112" s="0"/>
-      <c r="AIL112" s="0"/>
-      <c r="AIM112" s="0"/>
-      <c r="AIN112" s="0"/>
-      <c r="AIO112" s="0"/>
-      <c r="AIP112" s="0"/>
-      <c r="AIQ112" s="0"/>
-      <c r="AIR112" s="0"/>
-      <c r="AIS112" s="0"/>
-      <c r="AIT112" s="0"/>
-      <c r="AIU112" s="0"/>
-      <c r="AIV112" s="0"/>
-      <c r="AIW112" s="0"/>
-      <c r="AIX112" s="0"/>
-      <c r="AIY112" s="0"/>
-      <c r="AIZ112" s="0"/>
-      <c r="AJA112" s="0"/>
-      <c r="AJB112" s="0"/>
-      <c r="AJC112" s="0"/>
-      <c r="AJD112" s="0"/>
-      <c r="AJE112" s="0"/>
-      <c r="AJF112" s="0"/>
-      <c r="AJG112" s="0"/>
-      <c r="AJH112" s="0"/>
-      <c r="AJI112" s="0"/>
-      <c r="AJJ112" s="0"/>
-      <c r="AJK112" s="0"/>
-      <c r="AJL112" s="0"/>
-      <c r="AJM112" s="0"/>
-      <c r="AJN112" s="0"/>
-      <c r="AJO112" s="0"/>
-      <c r="AJP112" s="0"/>
-      <c r="AJQ112" s="0"/>
-      <c r="AJR112" s="0"/>
-      <c r="AJS112" s="0"/>
-      <c r="AJT112" s="0"/>
-      <c r="AJU112" s="0"/>
-      <c r="AJV112" s="0"/>
-      <c r="AJW112" s="0"/>
-      <c r="AJX112" s="0"/>
-      <c r="AJY112" s="0"/>
-      <c r="AJZ112" s="0"/>
-      <c r="AKA112" s="0"/>
-      <c r="AKB112" s="0"/>
-      <c r="AKC112" s="0"/>
-      <c r="AKD112" s="0"/>
-      <c r="AKE112" s="0"/>
-      <c r="AKF112" s="0"/>
-      <c r="AKG112" s="0"/>
-      <c r="AKH112" s="0"/>
-      <c r="AKI112" s="0"/>
-      <c r="AKJ112" s="0"/>
-      <c r="AKK112" s="0"/>
-      <c r="AKL112" s="0"/>
-      <c r="AKM112" s="0"/>
-      <c r="AKN112" s="0"/>
-      <c r="AKO112" s="0"/>
-      <c r="AKP112" s="0"/>
-      <c r="AKQ112" s="0"/>
-      <c r="AKR112" s="0"/>
-      <c r="AKS112" s="0"/>
-      <c r="AKT112" s="0"/>
-      <c r="AKU112" s="0"/>
-      <c r="AKV112" s="0"/>
-      <c r="AKW112" s="0"/>
-      <c r="AKX112" s="0"/>
-      <c r="AKY112" s="0"/>
-      <c r="AKZ112" s="0"/>
-      <c r="ALA112" s="0"/>
-      <c r="ALB112" s="0"/>
-      <c r="ALC112" s="0"/>
-      <c r="ALD112" s="0"/>
-      <c r="ALE112" s="0"/>
-      <c r="ALF112" s="0"/>
-      <c r="ALG112" s="0"/>
-      <c r="ALH112" s="0"/>
-      <c r="ALI112" s="0"/>
-      <c r="ALJ112" s="0"/>
-      <c r="ALK112" s="0"/>
-      <c r="ALL112" s="0"/>
-      <c r="ALM112" s="0"/>
-      <c r="ALN112" s="0"/>
-      <c r="ALO112" s="0"/>
-      <c r="ALP112" s="0"/>
-      <c r="ALQ112" s="0"/>
-      <c r="ALR112" s="0"/>
-      <c r="ALS112" s="0"/>
-      <c r="ALT112" s="0"/>
-      <c r="ALU112" s="0"/>
-      <c r="ALV112" s="0"/>
-      <c r="ALW112" s="0"/>
-      <c r="ALX112" s="0"/>
-      <c r="ALY112" s="0"/>
-      <c r="ALZ112" s="0"/>
-      <c r="AMA112" s="0"/>
-      <c r="AMB112" s="0"/>
-      <c r="AMC112" s="0"/>
-      <c r="AMD112" s="0"/>
-      <c r="AME112" s="0"/>
-      <c r="AMF112" s="0"/>
-      <c r="AMG112" s="0"/>
-      <c r="AMH112" s="0"/>
-      <c r="AMI112" s="0"/>
-      <c r="AMJ112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+      <c r="R113" s="0"/>
+      <c r="S113" s="0"/>
+      <c r="T113" s="0"/>
+      <c r="U113" s="0"/>
+      <c r="V113" s="0"/>
+      <c r="W113" s="0"/>
+      <c r="X113" s="0"/>
+      <c r="Y113" s="0"/>
+      <c r="Z113" s="0"/>
+      <c r="AA113" s="0"/>
+      <c r="AB113" s="0"/>
+      <c r="AC113" s="0"/>
+      <c r="AD113" s="0"/>
+      <c r="AE113" s="0"/>
+      <c r="AF113" s="0"/>
+      <c r="AG113" s="0"/>
+      <c r="AH113" s="0"/>
+      <c r="AI113" s="0"/>
+      <c r="AJ113" s="0"/>
+      <c r="AK113" s="0"/>
+      <c r="AL113" s="0"/>
+      <c r="AM113" s="0"/>
+      <c r="AN113" s="0"/>
+      <c r="AO113" s="0"/>
+      <c r="AP113" s="0"/>
+      <c r="AQ113" s="0"/>
+      <c r="AR113" s="0"/>
+      <c r="AS113" s="0"/>
+      <c r="AT113" s="0"/>
+      <c r="AU113" s="0"/>
+      <c r="AV113" s="0"/>
+      <c r="AW113" s="0"/>
+      <c r="AX113" s="0"/>
+      <c r="AY113" s="0"/>
+      <c r="AZ113" s="0"/>
+      <c r="BA113" s="0"/>
+      <c r="BB113" s="0"/>
+      <c r="BC113" s="0"/>
+      <c r="BD113" s="0"/>
+      <c r="BE113" s="0"/>
+      <c r="BF113" s="0"/>
+      <c r="BG113" s="0"/>
+      <c r="BH113" s="0"/>
+      <c r="BI113" s="0"/>
+      <c r="BJ113" s="0"/>
+      <c r="BK113" s="0"/>
+      <c r="BL113" s="0"/>
+      <c r="BM113" s="0"/>
+      <c r="BN113" s="0"/>
+      <c r="BO113" s="0"/>
+      <c r="BP113" s="0"/>
+      <c r="BQ113" s="0"/>
+      <c r="BR113" s="0"/>
+      <c r="BS113" s="0"/>
+      <c r="BT113" s="0"/>
+      <c r="BU113" s="0"/>
+      <c r="BV113" s="0"/>
+      <c r="BW113" s="0"/>
+      <c r="BX113" s="0"/>
+      <c r="BY113" s="0"/>
+      <c r="BZ113" s="0"/>
+      <c r="CA113" s="0"/>
+      <c r="CB113" s="0"/>
+      <c r="CC113" s="0"/>
+      <c r="CD113" s="0"/>
+      <c r="CE113" s="0"/>
+      <c r="CF113" s="0"/>
+      <c r="CG113" s="0"/>
+      <c r="CH113" s="0"/>
+      <c r="CI113" s="0"/>
+      <c r="CJ113" s="0"/>
+      <c r="CK113" s="0"/>
+      <c r="CL113" s="0"/>
+      <c r="CM113" s="0"/>
+      <c r="CN113" s="0"/>
+      <c r="CO113" s="0"/>
+      <c r="CP113" s="0"/>
+      <c r="CQ113" s="0"/>
+      <c r="CR113" s="0"/>
+      <c r="CS113" s="0"/>
+      <c r="CT113" s="0"/>
+      <c r="CU113" s="0"/>
+      <c r="CV113" s="0"/>
+      <c r="CW113" s="0"/>
+      <c r="CX113" s="0"/>
+      <c r="CY113" s="0"/>
+      <c r="CZ113" s="0"/>
+      <c r="DA113" s="0"/>
+      <c r="DB113" s="0"/>
+      <c r="DC113" s="0"/>
+      <c r="DD113" s="0"/>
+      <c r="DE113" s="0"/>
+      <c r="DF113" s="0"/>
+      <c r="DG113" s="0"/>
+      <c r="DH113" s="0"/>
+      <c r="DI113" s="0"/>
+      <c r="DJ113" s="0"/>
+      <c r="DK113" s="0"/>
+      <c r="DL113" s="0"/>
+      <c r="DM113" s="0"/>
+      <c r="DN113" s="0"/>
+      <c r="DO113" s="0"/>
+      <c r="DP113" s="0"/>
+      <c r="DQ113" s="0"/>
+      <c r="DR113" s="0"/>
+      <c r="DS113" s="0"/>
+      <c r="DT113" s="0"/>
+      <c r="DU113" s="0"/>
+      <c r="DV113" s="0"/>
+      <c r="DW113" s="0"/>
+      <c r="DX113" s="0"/>
+      <c r="DY113" s="0"/>
+      <c r="DZ113" s="0"/>
+      <c r="EA113" s="0"/>
+      <c r="EB113" s="0"/>
+      <c r="EC113" s="0"/>
+      <c r="ED113" s="0"/>
+      <c r="EE113" s="0"/>
+      <c r="EF113" s="0"/>
+      <c r="EG113" s="0"/>
+      <c r="EH113" s="0"/>
+      <c r="EI113" s="0"/>
+      <c r="EJ113" s="0"/>
+      <c r="EK113" s="0"/>
+      <c r="EL113" s="0"/>
+      <c r="EM113" s="0"/>
+      <c r="EN113" s="0"/>
+      <c r="EO113" s="0"/>
+      <c r="EP113" s="0"/>
+      <c r="EQ113" s="0"/>
+      <c r="ER113" s="0"/>
+      <c r="ES113" s="0"/>
+      <c r="ET113" s="0"/>
+      <c r="EU113" s="0"/>
+      <c r="EV113" s="0"/>
+      <c r="EW113" s="0"/>
+      <c r="EX113" s="0"/>
+      <c r="EY113" s="0"/>
+      <c r="EZ113" s="0"/>
+      <c r="FA113" s="0"/>
+      <c r="FB113" s="0"/>
+      <c r="FC113" s="0"/>
+      <c r="FD113" s="0"/>
+      <c r="FE113" s="0"/>
+      <c r="FF113" s="0"/>
+      <c r="FG113" s="0"/>
+      <c r="FH113" s="0"/>
+      <c r="FI113" s="0"/>
+      <c r="FJ113" s="0"/>
+      <c r="FK113" s="0"/>
+      <c r="FL113" s="0"/>
+      <c r="FM113" s="0"/>
+      <c r="FN113" s="0"/>
+      <c r="FO113" s="0"/>
+      <c r="FP113" s="0"/>
+      <c r="FQ113" s="0"/>
+      <c r="FR113" s="0"/>
+      <c r="FS113" s="0"/>
+      <c r="FT113" s="0"/>
+      <c r="FU113" s="0"/>
+      <c r="FV113" s="0"/>
+      <c r="FW113" s="0"/>
+      <c r="FX113" s="0"/>
+      <c r="FY113" s="0"/>
+      <c r="FZ113" s="0"/>
+      <c r="GA113" s="0"/>
+      <c r="GB113" s="0"/>
+      <c r="GC113" s="0"/>
+      <c r="GD113" s="0"/>
+      <c r="GE113" s="0"/>
+      <c r="GF113" s="0"/>
+      <c r="GG113" s="0"/>
+      <c r="GH113" s="0"/>
+      <c r="GI113" s="0"/>
+      <c r="GJ113" s="0"/>
+      <c r="GK113" s="0"/>
+      <c r="GL113" s="0"/>
+      <c r="GM113" s="0"/>
+      <c r="GN113" s="0"/>
+      <c r="GO113" s="0"/>
+      <c r="GP113" s="0"/>
+      <c r="GQ113" s="0"/>
+      <c r="GR113" s="0"/>
+      <c r="GS113" s="0"/>
+      <c r="GT113" s="0"/>
+      <c r="GU113" s="0"/>
+      <c r="GV113" s="0"/>
+      <c r="GW113" s="0"/>
+      <c r="GX113" s="0"/>
+      <c r="GY113" s="0"/>
+      <c r="GZ113" s="0"/>
+      <c r="HA113" s="0"/>
+      <c r="HB113" s="0"/>
+      <c r="HC113" s="0"/>
+      <c r="HD113" s="0"/>
+      <c r="HE113" s="0"/>
+      <c r="HF113" s="0"/>
+      <c r="HG113" s="0"/>
+      <c r="HH113" s="0"/>
+      <c r="HI113" s="0"/>
+      <c r="HJ113" s="0"/>
+      <c r="HK113" s="0"/>
+      <c r="HL113" s="0"/>
+      <c r="HM113" s="0"/>
+      <c r="HN113" s="0"/>
+      <c r="HO113" s="0"/>
+      <c r="HP113" s="0"/>
+      <c r="HQ113" s="0"/>
+      <c r="HR113" s="0"/>
+      <c r="HS113" s="0"/>
+      <c r="HT113" s="0"/>
+      <c r="HU113" s="0"/>
+      <c r="HV113" s="0"/>
+      <c r="HW113" s="0"/>
+      <c r="HX113" s="0"/>
+      <c r="HY113" s="0"/>
+      <c r="HZ113" s="0"/>
+      <c r="IA113" s="0"/>
+      <c r="IB113" s="0"/>
+      <c r="IC113" s="0"/>
+      <c r="ID113" s="0"/>
+      <c r="IE113" s="0"/>
+      <c r="IF113" s="0"/>
+      <c r="IG113" s="0"/>
+      <c r="IH113" s="0"/>
+      <c r="II113" s="0"/>
+      <c r="IJ113" s="0"/>
+      <c r="IK113" s="0"/>
+      <c r="IL113" s="0"/>
+      <c r="IM113" s="0"/>
+      <c r="IN113" s="0"/>
+      <c r="IO113" s="0"/>
+      <c r="IP113" s="0"/>
+      <c r="IQ113" s="0"/>
+      <c r="IR113" s="0"/>
+      <c r="IS113" s="0"/>
+      <c r="IT113" s="0"/>
+      <c r="IU113" s="0"/>
+      <c r="IV113" s="0"/>
+      <c r="IW113" s="0"/>
+      <c r="IX113" s="0"/>
+      <c r="IY113" s="0"/>
+      <c r="IZ113" s="0"/>
+      <c r="JA113" s="0"/>
+      <c r="JB113" s="0"/>
+      <c r="JC113" s="0"/>
+      <c r="JD113" s="0"/>
+      <c r="JE113" s="0"/>
+      <c r="JF113" s="0"/>
+      <c r="JG113" s="0"/>
+      <c r="JH113" s="0"/>
+      <c r="JI113" s="0"/>
+      <c r="JJ113" s="0"/>
+      <c r="JK113" s="0"/>
+      <c r="JL113" s="0"/>
+      <c r="JM113" s="0"/>
+      <c r="JN113" s="0"/>
+      <c r="JO113" s="0"/>
+      <c r="JP113" s="0"/>
+      <c r="JQ113" s="0"/>
+      <c r="JR113" s="0"/>
+      <c r="JS113" s="0"/>
+      <c r="JT113" s="0"/>
+      <c r="JU113" s="0"/>
+      <c r="JV113" s="0"/>
+      <c r="JW113" s="0"/>
+      <c r="JX113" s="0"/>
+      <c r="JY113" s="0"/>
+      <c r="JZ113" s="0"/>
+      <c r="KA113" s="0"/>
+      <c r="KB113" s="0"/>
+      <c r="KC113" s="0"/>
+      <c r="KD113" s="0"/>
+      <c r="KE113" s="0"/>
+      <c r="KF113" s="0"/>
+      <c r="KG113" s="0"/>
+      <c r="KH113" s="0"/>
+      <c r="KI113" s="0"/>
+      <c r="KJ113" s="0"/>
+      <c r="KK113" s="0"/>
+      <c r="KL113" s="0"/>
+      <c r="KM113" s="0"/>
+      <c r="KN113" s="0"/>
+      <c r="KO113" s="0"/>
+      <c r="KP113" s="0"/>
+      <c r="KQ113" s="0"/>
+      <c r="KR113" s="0"/>
+      <c r="KS113" s="0"/>
+      <c r="KT113" s="0"/>
+      <c r="KU113" s="0"/>
+      <c r="KV113" s="0"/>
+      <c r="KW113" s="0"/>
+      <c r="KX113" s="0"/>
+      <c r="KY113" s="0"/>
+      <c r="KZ113" s="0"/>
+      <c r="LA113" s="0"/>
+      <c r="LB113" s="0"/>
+      <c r="LC113" s="0"/>
+      <c r="LD113" s="0"/>
+      <c r="LE113" s="0"/>
+      <c r="LF113" s="0"/>
+      <c r="LG113" s="0"/>
+      <c r="LH113" s="0"/>
+      <c r="LI113" s="0"/>
+      <c r="LJ113" s="0"/>
+      <c r="LK113" s="0"/>
+      <c r="LL113" s="0"/>
+      <c r="LM113" s="0"/>
+      <c r="LN113" s="0"/>
+      <c r="LO113" s="0"/>
+      <c r="LP113" s="0"/>
+      <c r="LQ113" s="0"/>
+      <c r="LR113" s="0"/>
+      <c r="LS113" s="0"/>
+      <c r="LT113" s="0"/>
+      <c r="LU113" s="0"/>
+      <c r="LV113" s="0"/>
+      <c r="LW113" s="0"/>
+      <c r="LX113" s="0"/>
+      <c r="LY113" s="0"/>
+      <c r="LZ113" s="0"/>
+      <c r="MA113" s="0"/>
+      <c r="MB113" s="0"/>
+      <c r="MC113" s="0"/>
+      <c r="MD113" s="0"/>
+      <c r="ME113" s="0"/>
+      <c r="MF113" s="0"/>
+      <c r="MG113" s="0"/>
+      <c r="MH113" s="0"/>
+      <c r="MI113" s="0"/>
+      <c r="MJ113" s="0"/>
+      <c r="MK113" s="0"/>
+      <c r="ML113" s="0"/>
+      <c r="MM113" s="0"/>
+      <c r="MN113" s="0"/>
+      <c r="MO113" s="0"/>
+      <c r="MP113" s="0"/>
+      <c r="MQ113" s="0"/>
+      <c r="MR113" s="0"/>
+      <c r="MS113" s="0"/>
+      <c r="MT113" s="0"/>
+      <c r="MU113" s="0"/>
+      <c r="MV113" s="0"/>
+      <c r="MW113" s="0"/>
+      <c r="MX113" s="0"/>
+      <c r="MY113" s="0"/>
+      <c r="MZ113" s="0"/>
+      <c r="NA113" s="0"/>
+      <c r="NB113" s="0"/>
+      <c r="NC113" s="0"/>
+      <c r="ND113" s="0"/>
+      <c r="NE113" s="0"/>
+      <c r="NF113" s="0"/>
+      <c r="NG113" s="0"/>
+      <c r="NH113" s="0"/>
+      <c r="NI113" s="0"/>
+      <c r="NJ113" s="0"/>
+      <c r="NK113" s="0"/>
+      <c r="NL113" s="0"/>
+      <c r="NM113" s="0"/>
+      <c r="NN113" s="0"/>
+      <c r="NO113" s="0"/>
+      <c r="NP113" s="0"/>
+      <c r="NQ113" s="0"/>
+      <c r="NR113" s="0"/>
+      <c r="NS113" s="0"/>
+      <c r="NT113" s="0"/>
+      <c r="NU113" s="0"/>
+      <c r="NV113" s="0"/>
+      <c r="NW113" s="0"/>
+      <c r="NX113" s="0"/>
+      <c r="NY113" s="0"/>
+      <c r="NZ113" s="0"/>
+      <c r="OA113" s="0"/>
+      <c r="OB113" s="0"/>
+      <c r="OC113" s="0"/>
+      <c r="OD113" s="0"/>
+      <c r="OE113" s="0"/>
+      <c r="OF113" s="0"/>
+      <c r="OG113" s="0"/>
+      <c r="OH113" s="0"/>
+      <c r="OI113" s="0"/>
+      <c r="OJ113" s="0"/>
+      <c r="OK113" s="0"/>
+      <c r="OL113" s="0"/>
+      <c r="OM113" s="0"/>
+      <c r="ON113" s="0"/>
+      <c r="OO113" s="0"/>
+      <c r="OP113" s="0"/>
+      <c r="OQ113" s="0"/>
+      <c r="OR113" s="0"/>
+      <c r="OS113" s="0"/>
+      <c r="OT113" s="0"/>
+      <c r="OU113" s="0"/>
+      <c r="OV113" s="0"/>
+      <c r="OW113" s="0"/>
+      <c r="OX113" s="0"/>
+      <c r="OY113" s="0"/>
+      <c r="OZ113" s="0"/>
+      <c r="PA113" s="0"/>
+      <c r="PB113" s="0"/>
+      <c r="PC113" s="0"/>
+      <c r="PD113" s="0"/>
+      <c r="PE113" s="0"/>
+      <c r="PF113" s="0"/>
+      <c r="PG113" s="0"/>
+      <c r="PH113" s="0"/>
+      <c r="PI113" s="0"/>
+      <c r="PJ113" s="0"/>
+      <c r="PK113" s="0"/>
+      <c r="PL113" s="0"/>
+      <c r="PM113" s="0"/>
+      <c r="PN113" s="0"/>
+      <c r="PO113" s="0"/>
+      <c r="PP113" s="0"/>
+      <c r="PQ113" s="0"/>
+      <c r="PR113" s="0"/>
+      <c r="PS113" s="0"/>
+      <c r="PT113" s="0"/>
+      <c r="PU113" s="0"/>
+      <c r="PV113" s="0"/>
+      <c r="PW113" s="0"/>
+      <c r="PX113" s="0"/>
+      <c r="PY113" s="0"/>
+      <c r="PZ113" s="0"/>
+      <c r="QA113" s="0"/>
+      <c r="QB113" s="0"/>
+      <c r="QC113" s="0"/>
+      <c r="QD113" s="0"/>
+      <c r="QE113" s="0"/>
+      <c r="QF113" s="0"/>
+      <c r="QG113" s="0"/>
+      <c r="QH113" s="0"/>
+      <c r="QI113" s="0"/>
+      <c r="QJ113" s="0"/>
+      <c r="QK113" s="0"/>
+      <c r="QL113" s="0"/>
+      <c r="QM113" s="0"/>
+      <c r="QN113" s="0"/>
+      <c r="QO113" s="0"/>
+      <c r="QP113" s="0"/>
+      <c r="QQ113" s="0"/>
+      <c r="QR113" s="0"/>
+      <c r="QS113" s="0"/>
+      <c r="QT113" s="0"/>
+      <c r="QU113" s="0"/>
+      <c r="QV113" s="0"/>
+      <c r="QW113" s="0"/>
+      <c r="QX113" s="0"/>
+      <c r="QY113" s="0"/>
+      <c r="QZ113" s="0"/>
+      <c r="RA113" s="0"/>
+      <c r="RB113" s="0"/>
+      <c r="RC113" s="0"/>
+      <c r="RD113" s="0"/>
+      <c r="RE113" s="0"/>
+      <c r="RF113" s="0"/>
+      <c r="RG113" s="0"/>
+      <c r="RH113" s="0"/>
+      <c r="RI113" s="0"/>
+      <c r="RJ113" s="0"/>
+      <c r="RK113" s="0"/>
+      <c r="RL113" s="0"/>
+      <c r="RM113" s="0"/>
+      <c r="RN113" s="0"/>
+      <c r="RO113" s="0"/>
+      <c r="RP113" s="0"/>
+      <c r="RQ113" s="0"/>
+      <c r="RR113" s="0"/>
+      <c r="RS113" s="0"/>
+      <c r="RT113" s="0"/>
+      <c r="RU113" s="0"/>
+      <c r="RV113" s="0"/>
+      <c r="RW113" s="0"/>
+      <c r="RX113" s="0"/>
+      <c r="RY113" s="0"/>
+      <c r="RZ113" s="0"/>
+      <c r="SA113" s="0"/>
+      <c r="SB113" s="0"/>
+      <c r="SC113" s="0"/>
+      <c r="SD113" s="0"/>
+      <c r="SE113" s="0"/>
+      <c r="SF113" s="0"/>
+      <c r="SG113" s="0"/>
+      <c r="SH113" s="0"/>
+      <c r="SI113" s="0"/>
+      <c r="SJ113" s="0"/>
+      <c r="SK113" s="0"/>
+      <c r="SL113" s="0"/>
+      <c r="SM113" s="0"/>
+      <c r="SN113" s="0"/>
+      <c r="SO113" s="0"/>
+      <c r="SP113" s="0"/>
+      <c r="SQ113" s="0"/>
+      <c r="SR113" s="0"/>
+      <c r="SS113" s="0"/>
+      <c r="ST113" s="0"/>
+      <c r="SU113" s="0"/>
+      <c r="SV113" s="0"/>
+      <c r="SW113" s="0"/>
+      <c r="SX113" s="0"/>
+      <c r="SY113" s="0"/>
+      <c r="SZ113" s="0"/>
+      <c r="TA113" s="0"/>
+      <c r="TB113" s="0"/>
+      <c r="TC113" s="0"/>
+      <c r="TD113" s="0"/>
+      <c r="TE113" s="0"/>
+      <c r="TF113" s="0"/>
+      <c r="TG113" s="0"/>
+      <c r="TH113" s="0"/>
+      <c r="TI113" s="0"/>
+      <c r="TJ113" s="0"/>
+      <c r="TK113" s="0"/>
+      <c r="TL113" s="0"/>
+      <c r="TM113" s="0"/>
+      <c r="TN113" s="0"/>
+      <c r="TO113" s="0"/>
+      <c r="TP113" s="0"/>
+      <c r="TQ113" s="0"/>
+      <c r="TR113" s="0"/>
+      <c r="TS113" s="0"/>
+      <c r="TT113" s="0"/>
+      <c r="TU113" s="0"/>
+      <c r="TV113" s="0"/>
+      <c r="TW113" s="0"/>
+      <c r="TX113" s="0"/>
+      <c r="TY113" s="0"/>
+      <c r="TZ113" s="0"/>
+      <c r="UA113" s="0"/>
+      <c r="UB113" s="0"/>
+      <c r="UC113" s="0"/>
+      <c r="UD113" s="0"/>
+      <c r="UE113" s="0"/>
+      <c r="UF113" s="0"/>
+      <c r="UG113" s="0"/>
+      <c r="UH113" s="0"/>
+      <c r="UI113" s="0"/>
+      <c r="UJ113" s="0"/>
+      <c r="UK113" s="0"/>
+      <c r="UL113" s="0"/>
+      <c r="UM113" s="0"/>
+      <c r="UN113" s="0"/>
+      <c r="UO113" s="0"/>
+      <c r="UP113" s="0"/>
+      <c r="UQ113" s="0"/>
+      <c r="UR113" s="0"/>
+      <c r="US113" s="0"/>
+      <c r="UT113" s="0"/>
+      <c r="UU113" s="0"/>
+      <c r="UV113" s="0"/>
+      <c r="UW113" s="0"/>
+      <c r="UX113" s="0"/>
+      <c r="UY113" s="0"/>
+      <c r="UZ113" s="0"/>
+      <c r="VA113" s="0"/>
+      <c r="VB113" s="0"/>
+      <c r="VC113" s="0"/>
+      <c r="VD113" s="0"/>
+      <c r="VE113" s="0"/>
+      <c r="VF113" s="0"/>
+      <c r="VG113" s="0"/>
+      <c r="VH113" s="0"/>
+      <c r="VI113" s="0"/>
+      <c r="VJ113" s="0"/>
+      <c r="VK113" s="0"/>
+      <c r="VL113" s="0"/>
+      <c r="VM113" s="0"/>
+      <c r="VN113" s="0"/>
+      <c r="VO113" s="0"/>
+      <c r="VP113" s="0"/>
+      <c r="VQ113" s="0"/>
+      <c r="VR113" s="0"/>
+      <c r="VS113" s="0"/>
+      <c r="VT113" s="0"/>
+      <c r="VU113" s="0"/>
+      <c r="VV113" s="0"/>
+      <c r="VW113" s="0"/>
+      <c r="VX113" s="0"/>
+      <c r="VY113" s="0"/>
+      <c r="VZ113" s="0"/>
+      <c r="WA113" s="0"/>
+      <c r="WB113" s="0"/>
+      <c r="WC113" s="0"/>
+      <c r="WD113" s="0"/>
+      <c r="WE113" s="0"/>
+      <c r="WF113" s="0"/>
+      <c r="WG113" s="0"/>
+      <c r="WH113" s="0"/>
+      <c r="WI113" s="0"/>
+      <c r="WJ113" s="0"/>
+      <c r="WK113" s="0"/>
+      <c r="WL113" s="0"/>
+      <c r="WM113" s="0"/>
+      <c r="WN113" s="0"/>
+      <c r="WO113" s="0"/>
+      <c r="WP113" s="0"/>
+      <c r="WQ113" s="0"/>
+      <c r="WR113" s="0"/>
+      <c r="WS113" s="0"/>
+      <c r="WT113" s="0"/>
+      <c r="WU113" s="0"/>
+      <c r="WV113" s="0"/>
+      <c r="WW113" s="0"/>
+      <c r="WX113" s="0"/>
+      <c r="WY113" s="0"/>
+      <c r="WZ113" s="0"/>
+      <c r="XA113" s="0"/>
+      <c r="XB113" s="0"/>
+      <c r="XC113" s="0"/>
+      <c r="XD113" s="0"/>
+      <c r="XE113" s="0"/>
+      <c r="XF113" s="0"/>
+      <c r="XG113" s="0"/>
+      <c r="XH113" s="0"/>
+      <c r="XI113" s="0"/>
+      <c r="XJ113" s="0"/>
+      <c r="XK113" s="0"/>
+      <c r="XL113" s="0"/>
+      <c r="XM113" s="0"/>
+      <c r="XN113" s="0"/>
+      <c r="XO113" s="0"/>
+      <c r="XP113" s="0"/>
+      <c r="XQ113" s="0"/>
+      <c r="XR113" s="0"/>
+      <c r="XS113" s="0"/>
+      <c r="XT113" s="0"/>
+      <c r="XU113" s="0"/>
+      <c r="XV113" s="0"/>
+      <c r="XW113" s="0"/>
+      <c r="XX113" s="0"/>
+      <c r="XY113" s="0"/>
+      <c r="XZ113" s="0"/>
+      <c r="YA113" s="0"/>
+      <c r="YB113" s="0"/>
+      <c r="YC113" s="0"/>
+      <c r="YD113" s="0"/>
+      <c r="YE113" s="0"/>
+      <c r="YF113" s="0"/>
+      <c r="YG113" s="0"/>
+      <c r="YH113" s="0"/>
+      <c r="YI113" s="0"/>
+      <c r="YJ113" s="0"/>
+      <c r="YK113" s="0"/>
+      <c r="YL113" s="0"/>
+      <c r="YM113" s="0"/>
+      <c r="YN113" s="0"/>
+      <c r="YO113" s="0"/>
+      <c r="YP113" s="0"/>
+      <c r="YQ113" s="0"/>
+      <c r="YR113" s="0"/>
+      <c r="YS113" s="0"/>
+      <c r="YT113" s="0"/>
+      <c r="YU113" s="0"/>
+      <c r="YV113" s="0"/>
+      <c r="YW113" s="0"/>
+      <c r="YX113" s="0"/>
+      <c r="YY113" s="0"/>
+      <c r="YZ113" s="0"/>
+      <c r="ZA113" s="0"/>
+      <c r="ZB113" s="0"/>
+      <c r="ZC113" s="0"/>
+      <c r="ZD113" s="0"/>
+      <c r="ZE113" s="0"/>
+      <c r="ZF113" s="0"/>
+      <c r="ZG113" s="0"/>
+      <c r="ZH113" s="0"/>
+      <c r="ZI113" s="0"/>
+      <c r="ZJ113" s="0"/>
+      <c r="ZK113" s="0"/>
+      <c r="ZL113" s="0"/>
+      <c r="ZM113" s="0"/>
+      <c r="ZN113" s="0"/>
+      <c r="ZO113" s="0"/>
+      <c r="ZP113" s="0"/>
+      <c r="ZQ113" s="0"/>
+      <c r="ZR113" s="0"/>
+      <c r="ZS113" s="0"/>
+      <c r="ZT113" s="0"/>
+      <c r="ZU113" s="0"/>
+      <c r="ZV113" s="0"/>
+      <c r="ZW113" s="0"/>
+      <c r="ZX113" s="0"/>
+      <c r="ZY113" s="0"/>
+      <c r="ZZ113" s="0"/>
+      <c r="AAA113" s="0"/>
+      <c r="AAB113" s="0"/>
+      <c r="AAC113" s="0"/>
+      <c r="AAD113" s="0"/>
+      <c r="AAE113" s="0"/>
+      <c r="AAF113" s="0"/>
+      <c r="AAG113" s="0"/>
+      <c r="AAH113" s="0"/>
+      <c r="AAI113" s="0"/>
+      <c r="AAJ113" s="0"/>
+      <c r="AAK113" s="0"/>
+      <c r="AAL113" s="0"/>
+      <c r="AAM113" s="0"/>
+      <c r="AAN113" s="0"/>
+      <c r="AAO113" s="0"/>
+      <c r="AAP113" s="0"/>
+      <c r="AAQ113" s="0"/>
+      <c r="AAR113" s="0"/>
+      <c r="AAS113" s="0"/>
+      <c r="AAT113" s="0"/>
+      <c r="AAU113" s="0"/>
+      <c r="AAV113" s="0"/>
+      <c r="AAW113" s="0"/>
+      <c r="AAX113" s="0"/>
+      <c r="AAY113" s="0"/>
+      <c r="AAZ113" s="0"/>
+      <c r="ABA113" s="0"/>
+      <c r="ABB113" s="0"/>
+      <c r="ABC113" s="0"/>
+      <c r="ABD113" s="0"/>
+      <c r="ABE113" s="0"/>
+      <c r="ABF113" s="0"/>
+      <c r="ABG113" s="0"/>
+      <c r="ABH113" s="0"/>
+      <c r="ABI113" s="0"/>
+      <c r="ABJ113" s="0"/>
+      <c r="ABK113" s="0"/>
+      <c r="ABL113" s="0"/>
+      <c r="ABM113" s="0"/>
+      <c r="ABN113" s="0"/>
+      <c r="ABO113" s="0"/>
+      <c r="ABP113" s="0"/>
+      <c r="ABQ113" s="0"/>
+      <c r="ABR113" s="0"/>
+      <c r="ABS113" s="0"/>
+      <c r="ABT113" s="0"/>
+      <c r="ABU113" s="0"/>
+      <c r="ABV113" s="0"/>
+      <c r="ABW113" s="0"/>
+      <c r="ABX113" s="0"/>
+      <c r="ABY113" s="0"/>
+      <c r="ABZ113" s="0"/>
+      <c r="ACA113" s="0"/>
+      <c r="ACB113" s="0"/>
+      <c r="ACC113" s="0"/>
+      <c r="ACD113" s="0"/>
+      <c r="ACE113" s="0"/>
+      <c r="ACF113" s="0"/>
+      <c r="ACG113" s="0"/>
+      <c r="ACH113" s="0"/>
+      <c r="ACI113" s="0"/>
+      <c r="ACJ113" s="0"/>
+      <c r="ACK113" s="0"/>
+      <c r="ACL113" s="0"/>
+      <c r="ACM113" s="0"/>
+      <c r="ACN113" s="0"/>
+      <c r="ACO113" s="0"/>
+      <c r="ACP113" s="0"/>
+      <c r="ACQ113" s="0"/>
+      <c r="ACR113" s="0"/>
+      <c r="ACS113" s="0"/>
+      <c r="ACT113" s="0"/>
+      <c r="ACU113" s="0"/>
+      <c r="ACV113" s="0"/>
+      <c r="ACW113" s="0"/>
+      <c r="ACX113" s="0"/>
+      <c r="ACY113" s="0"/>
+      <c r="ACZ113" s="0"/>
+      <c r="ADA113" s="0"/>
+      <c r="ADB113" s="0"/>
+      <c r="ADC113" s="0"/>
+      <c r="ADD113" s="0"/>
+      <c r="ADE113" s="0"/>
+      <c r="ADF113" s="0"/>
+      <c r="ADG113" s="0"/>
+      <c r="ADH113" s="0"/>
+      <c r="ADI113" s="0"/>
+      <c r="ADJ113" s="0"/>
+      <c r="ADK113" s="0"/>
+      <c r="ADL113" s="0"/>
+      <c r="ADM113" s="0"/>
+      <c r="ADN113" s="0"/>
+      <c r="ADO113" s="0"/>
+      <c r="ADP113" s="0"/>
+      <c r="ADQ113" s="0"/>
+      <c r="ADR113" s="0"/>
+      <c r="ADS113" s="0"/>
+      <c r="ADT113" s="0"/>
+      <c r="ADU113" s="0"/>
+      <c r="ADV113" s="0"/>
+      <c r="ADW113" s="0"/>
+      <c r="ADX113" s="0"/>
+      <c r="ADY113" s="0"/>
+      <c r="ADZ113" s="0"/>
+      <c r="AEA113" s="0"/>
+      <c r="AEB113" s="0"/>
+      <c r="AEC113" s="0"/>
+      <c r="AED113" s="0"/>
+      <c r="AEE113" s="0"/>
+      <c r="AEF113" s="0"/>
+      <c r="AEG113" s="0"/>
+      <c r="AEH113" s="0"/>
+      <c r="AEI113" s="0"/>
+      <c r="AEJ113" s="0"/>
+      <c r="AEK113" s="0"/>
+      <c r="AEL113" s="0"/>
+      <c r="AEM113" s="0"/>
+      <c r="AEN113" s="0"/>
+      <c r="AEO113" s="0"/>
+      <c r="AEP113" s="0"/>
+      <c r="AEQ113" s="0"/>
+      <c r="AER113" s="0"/>
+      <c r="AES113" s="0"/>
+      <c r="AET113" s="0"/>
+      <c r="AEU113" s="0"/>
+      <c r="AEV113" s="0"/>
+      <c r="AEW113" s="0"/>
+      <c r="AEX113" s="0"/>
+      <c r="AEY113" s="0"/>
+      <c r="AEZ113" s="0"/>
+      <c r="AFA113" s="0"/>
+      <c r="AFB113" s="0"/>
+      <c r="AFC113" s="0"/>
+      <c r="AFD113" s="0"/>
+      <c r="AFE113" s="0"/>
+      <c r="AFF113" s="0"/>
+      <c r="AFG113" s="0"/>
+      <c r="AFH113" s="0"/>
+      <c r="AFI113" s="0"/>
+      <c r="AFJ113" s="0"/>
+      <c r="AFK113" s="0"/>
+      <c r="AFL113" s="0"/>
+      <c r="AFM113" s="0"/>
+      <c r="AFN113" s="0"/>
+      <c r="AFO113" s="0"/>
+      <c r="AFP113" s="0"/>
+      <c r="AFQ113" s="0"/>
+      <c r="AFR113" s="0"/>
+      <c r="AFS113" s="0"/>
+      <c r="AFT113" s="0"/>
+      <c r="AFU113" s="0"/>
+      <c r="AFV113" s="0"/>
+      <c r="AFW113" s="0"/>
+      <c r="AFX113" s="0"/>
+      <c r="AFY113" s="0"/>
+      <c r="AFZ113" s="0"/>
+      <c r="AGA113" s="0"/>
+      <c r="AGB113" s="0"/>
+      <c r="AGC113" s="0"/>
+      <c r="AGD113" s="0"/>
+      <c r="AGE113" s="0"/>
+      <c r="AGF113" s="0"/>
+      <c r="AGG113" s="0"/>
+      <c r="AGH113" s="0"/>
+      <c r="AGI113" s="0"/>
+      <c r="AGJ113" s="0"/>
+      <c r="AGK113" s="0"/>
+      <c r="AGL113" s="0"/>
+      <c r="AGM113" s="0"/>
+      <c r="AGN113" s="0"/>
+      <c r="AGO113" s="0"/>
+      <c r="AGP113" s="0"/>
+      <c r="AGQ113" s="0"/>
+      <c r="AGR113" s="0"/>
+      <c r="AGS113" s="0"/>
+      <c r="AGT113" s="0"/>
+      <c r="AGU113" s="0"/>
+      <c r="AGV113" s="0"/>
+      <c r="AGW113" s="0"/>
+      <c r="AGX113" s="0"/>
+      <c r="AGY113" s="0"/>
+      <c r="AGZ113" s="0"/>
+      <c r="AHA113" s="0"/>
+      <c r="AHB113" s="0"/>
+      <c r="AHC113" s="0"/>
+      <c r="AHD113" s="0"/>
+      <c r="AHE113" s="0"/>
+      <c r="AHF113" s="0"/>
+      <c r="AHG113" s="0"/>
+      <c r="AHH113" s="0"/>
+      <c r="AHI113" s="0"/>
+      <c r="AHJ113" s="0"/>
+      <c r="AHK113" s="0"/>
+      <c r="AHL113" s="0"/>
+      <c r="AHM113" s="0"/>
+      <c r="AHN113" s="0"/>
+      <c r="AHO113" s="0"/>
+      <c r="AHP113" s="0"/>
+      <c r="AHQ113" s="0"/>
+      <c r="AHR113" s="0"/>
+      <c r="AHS113" s="0"/>
+      <c r="AHT113" s="0"/>
+      <c r="AHU113" s="0"/>
+      <c r="AHV113" s="0"/>
+      <c r="AHW113" s="0"/>
+      <c r="AHX113" s="0"/>
+      <c r="AHY113" s="0"/>
+      <c r="AHZ113" s="0"/>
+      <c r="AIA113" s="0"/>
+      <c r="AIB113" s="0"/>
+      <c r="AIC113" s="0"/>
+      <c r="AID113" s="0"/>
+      <c r="AIE113" s="0"/>
+      <c r="AIF113" s="0"/>
+      <c r="AIG113" s="0"/>
+      <c r="AIH113" s="0"/>
+      <c r="AII113" s="0"/>
+      <c r="AIJ113" s="0"/>
+      <c r="AIK113" s="0"/>
+      <c r="AIL113" s="0"/>
+      <c r="AIM113" s="0"/>
+      <c r="AIN113" s="0"/>
+      <c r="AIO113" s="0"/>
+      <c r="AIP113" s="0"/>
+      <c r="AIQ113" s="0"/>
+      <c r="AIR113" s="0"/>
+      <c r="AIS113" s="0"/>
+      <c r="AIT113" s="0"/>
+      <c r="AIU113" s="0"/>
+      <c r="AIV113" s="0"/>
+      <c r="AIW113" s="0"/>
+      <c r="AIX113" s="0"/>
+      <c r="AIY113" s="0"/>
+      <c r="AIZ113" s="0"/>
+      <c r="AJA113" s="0"/>
+      <c r="AJB113" s="0"/>
+      <c r="AJC113" s="0"/>
+      <c r="AJD113" s="0"/>
+      <c r="AJE113" s="0"/>
+      <c r="AJF113" s="0"/>
+      <c r="AJG113" s="0"/>
+      <c r="AJH113" s="0"/>
+      <c r="AJI113" s="0"/>
+      <c r="AJJ113" s="0"/>
+      <c r="AJK113" s="0"/>
+      <c r="AJL113" s="0"/>
+      <c r="AJM113" s="0"/>
+      <c r="AJN113" s="0"/>
+      <c r="AJO113" s="0"/>
+      <c r="AJP113" s="0"/>
+      <c r="AJQ113" s="0"/>
+      <c r="AJR113" s="0"/>
+      <c r="AJS113" s="0"/>
+      <c r="AJT113" s="0"/>
+      <c r="AJU113" s="0"/>
+      <c r="AJV113" s="0"/>
+      <c r="AJW113" s="0"/>
+      <c r="AJX113" s="0"/>
+      <c r="AJY113" s="0"/>
+      <c r="AJZ113" s="0"/>
+      <c r="AKA113" s="0"/>
+      <c r="AKB113" s="0"/>
+      <c r="AKC113" s="0"/>
+      <c r="AKD113" s="0"/>
+      <c r="AKE113" s="0"/>
+      <c r="AKF113" s="0"/>
+      <c r="AKG113" s="0"/>
+      <c r="AKH113" s="0"/>
+      <c r="AKI113" s="0"/>
+      <c r="AKJ113" s="0"/>
+      <c r="AKK113" s="0"/>
+      <c r="AKL113" s="0"/>
+      <c r="AKM113" s="0"/>
+      <c r="AKN113" s="0"/>
+      <c r="AKO113" s="0"/>
+      <c r="AKP113" s="0"/>
+      <c r="AKQ113" s="0"/>
+      <c r="AKR113" s="0"/>
+      <c r="AKS113" s="0"/>
+      <c r="AKT113" s="0"/>
+      <c r="AKU113" s="0"/>
+      <c r="AKV113" s="0"/>
+      <c r="AKW113" s="0"/>
+      <c r="AKX113" s="0"/>
+      <c r="AKY113" s="0"/>
+      <c r="AKZ113" s="0"/>
+      <c r="ALA113" s="0"/>
+      <c r="ALB113" s="0"/>
+      <c r="ALC113" s="0"/>
+      <c r="ALD113" s="0"/>
+      <c r="ALE113" s="0"/>
+      <c r="ALF113" s="0"/>
+      <c r="ALG113" s="0"/>
+      <c r="ALH113" s="0"/>
+      <c r="ALI113" s="0"/>
+      <c r="ALJ113" s="0"/>
+      <c r="ALK113" s="0"/>
+      <c r="ALL113" s="0"/>
+      <c r="ALM113" s="0"/>
+      <c r="ALN113" s="0"/>
+      <c r="ALO113" s="0"/>
+      <c r="ALP113" s="0"/>
+      <c r="ALQ113" s="0"/>
+      <c r="ALR113" s="0"/>
+      <c r="ALS113" s="0"/>
+      <c r="ALT113" s="0"/>
+      <c r="ALU113" s="0"/>
+      <c r="ALV113" s="0"/>
+      <c r="ALW113" s="0"/>
+      <c r="ALX113" s="0"/>
+      <c r="ALY113" s="0"/>
+      <c r="ALZ113" s="0"/>
+      <c r="AMA113" s="0"/>
+      <c r="AMB113" s="0"/>
+      <c r="AMC113" s="0"/>
+      <c r="AMD113" s="0"/>
+      <c r="AME113" s="0"/>
+      <c r="AMF113" s="0"/>
+      <c r="AMG113" s="0"/>
+      <c r="AMH113" s="0"/>
+      <c r="AMI113" s="0"/>
+      <c r="AMJ113" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:H111"/>
+  <autoFilter ref="H1:H112"/>
   <mergeCells count="10">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B9:E9"/>
@@ -11754,40 +12791,40 @@
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B111:C111"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54:E55 E57:E61 E66:E73 E75:E82 E84:E95 E99:E101 E103 E105:E109 E111" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8 E10:E29 E31:E47 E54:E55 E57:E61 E66:E73 E75:E82 E84:E95 E100:E102 E104 E106:E110 E112" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D62:D64 D96:D97 D112" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54:D55 D57:D61 D66:D73 D75:D82 D84:D95 D100:D102 D104 D106:D110 D112" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H62:H64 H96:H97 H112" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H75 H79 H84:H86 H93 H95 H100:H104 H106:H109 H112" type="list">
+      <formula1>$C$5:$C$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54:H55 H61 H67:H68 H87:H92 H94 H110" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E62:E64 E96:E97 E112" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H57:H60 H66 H69:H73 H76:H78 H80:H82" type="list">
+      <formula1>Selections!$C$5:$C$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D62:D64 D96:D98 D113" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E62:E64 E96:E98 E113" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H12 H16:H17 H19:H23 H26:H28 H40:H41 H43:H44 H46:H53 H75 H79 H84:H86 H93 H95 H99:H103 H105:H108 H111" type="list">
-      <formula1>$C$5:$C$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8 D10:D29 D31:D47 D54:D55 D57:D61 D66:D73 D75:D82 D84:D95 D99:D101 D103 D105:D109 D111" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H31:H33 H35:H39 H57:H60 H66 H69:H73 H76:H78 H80:H82" type="list">
-      <formula1>Selections!$C$5:$C$9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4 H6 H8 H10:H11 H13:H15 H18 H24:H25 H29 H34 H42 H45 H54:H55 H61 H67:H68 H87:H92 H94 H109" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H62:H64 H96:H98 H113" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11815,13 +12852,13 @@
     <hyperlink ref="G78" r:id="rId20" display="Original PSC Master Evaluation Matrix"/>
     <hyperlink ref="G79" r:id="rId21" display="PSM State Calls Requirements_functionality needs.xlsx"/>
     <hyperlink ref="G80" r:id="rId22" display="Screening and Auditing Notes.docx"/>
-    <hyperlink ref="G102" r:id="rId23" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G105" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G106" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
-    <hyperlink ref="G107" r:id="rId26" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G108" r:id="rId27" display="pre-certification-requirements.md"/>
-    <hyperlink ref="G109" r:id="rId28" display="INR12"/>
-    <hyperlink ref="G111" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G103" r:id="rId23" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G106" r:id="rId24" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G107" r:id="rId25" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
+    <hyperlink ref="G108" r:id="rId26" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G109" r:id="rId27" display="pre-certification-requirements.md"/>
+    <hyperlink ref="G110" r:id="rId28" display="INR12"/>
+    <hyperlink ref="G112" r:id="rId29" display="MISSOURI MEDICAID PROVIDER ENROLLMENT INFORMATION GUIDE.docx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11852,7 +12889,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -11914,7 +12951,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -11992,7 +13029,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="9"/>
@@ -12006,11 +13043,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>4</v>
@@ -12019,7 +13056,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12032,7 +13069,7 @@
     <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="9"/>
@@ -12046,16 +13083,16 @@
     </row>
     <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -12064,21 +13101,21 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="20"/>
       <c r="F6" s="31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12090,11 +13127,11 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>2</v>
@@ -12103,7 +13140,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12112,21 +13149,21 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="20"/>
       <c r="F8" s="31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -12138,16 +13175,16 @@
     </row>
     <row r="9" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="20"/>
       <c r="F9" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12156,13 +13193,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="9"/>
@@ -12176,16 +13213,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -12197,16 +13234,16 @@
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -12215,13 +13252,13 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -12235,16 +13272,16 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -12256,16 +13293,16 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -12277,11 +13314,11 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>2</v>
@@ -12290,7 +13327,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="20" t="s">
@@ -12302,11 +13339,11 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>2</v>
@@ -12315,7 +13352,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="20" t="s">
@@ -12327,11 +13364,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -12355,19 +13392,19 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H18" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D18" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E17" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E18" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12391,7 +13428,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12442,10 +13479,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -12457,18 +13494,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="33" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="35" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12478,10 +13515,10 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="22"/>
@@ -12493,18 +13530,18 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="36" t="s">
@@ -12513,13 +13550,13 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="22"/>
@@ -12533,16 +13570,16 @@
     </row>
     <row r="7" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12551,13 +13588,13 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="22"/>
@@ -12569,31 +13606,33 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
+    <row r="9" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
+        <v>346</v>
+      </c>
       <c r="B9" s="30"/>
       <c r="C9" s="24" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="37" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>2</v>
@@ -12602,7 +13641,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="20" t="s">
@@ -12611,16 +13650,16 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="34" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>2</v>
@@ -12629,7 +13668,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="20" t="s">
@@ -12638,21 +13677,21 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="34" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="true" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="20" t="s">
@@ -12664,11 +13703,11 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="24" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>1</v>
@@ -12677,7 +13716,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="20" t="s">
@@ -12687,18 +13726,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="4" customFormat="true" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="20" t="s">
@@ -12723,16 +13762,16 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
+      <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D14" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E14" type="list">
-      <formula1>Selections!$B$4:$B$6</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5 H7 H10:H14" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12752,10 +13791,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12806,10 +13845,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -12821,18 +13860,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="35" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -12841,21 +13880,21 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -12865,10 +13904,10 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="22"/>
@@ -12880,18 +13919,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="31" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -12901,18 +13940,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -12922,10 +13961,10 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="22"/>
@@ -12937,18 +13976,18 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -12958,13 +13997,13 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>1</v>
@@ -12973,7 +14012,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
@@ -12982,16 +14021,16 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>1</v>
@@ -13000,7 +14039,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13010,18 +14049,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13030,21 +14069,21 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="24" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
@@ -13054,18 +14093,18 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13075,18 +14114,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="71.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13096,21 +14135,21 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="31" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>108</v>
@@ -13119,18 +14158,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -13140,10 +14179,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29"/>
       <c r="B18" s="30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="22"/>
@@ -13157,16 +14196,16 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -13176,18 +14215,18 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="24" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="31" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
@@ -13197,13 +14236,13 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>4</v>
@@ -13212,10 +14251,10 @@
         <v>52</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>21</v>
@@ -13224,13 +14263,13 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>4</v>
@@ -13239,7 +14278,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -13249,13 +14288,9 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="0" t="s">
-        <v>421</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="H1:H23">
+  <autoFilter ref="H1:H22">
     <filterColumn colId="0">
       <customFilters and="true">
         <customFilter operator="equal" val="MVP - Dec"/>
@@ -13269,16 +14304,16 @@
     <mergeCell ref="B18:C18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E22" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D22" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4 H6:H7 H9:H17 H19:H22" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -13301,9 +14336,9 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13354,10 +14389,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13369,13 +14404,13 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>1</v>
@@ -13384,7 +14419,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13394,10 +14429,10 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="22"/>
@@ -13409,18 +14444,18 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13429,16 +14464,16 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>2</v>
@@ -13447,7 +14482,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13457,18 +14492,18 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
       <c r="F7" s="31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
@@ -13478,13 +14513,13 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>3</v>
@@ -13493,7 +14528,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13503,18 +14538,18 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="37" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13523,13 +14558,13 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="33" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="30" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="22"/>
@@ -13543,16 +14578,16 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13562,18 +14597,18 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13583,10 +14618,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -13598,18 +14633,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -13619,18 +14654,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -13642,16 +14677,16 @@
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20"/>
       <c r="F16" s="38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -13660,7 +14695,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -13678,16 +14713,16 @@
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
-      <formula1>Selections!$C$4:$C$9</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D16" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3 E5:E16" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3 H5:H9 H11:H12 H14:H16" type="list">
+      <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -13710,9 +14745,9 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13763,10 +14798,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -13778,18 +14813,18 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="38" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="39" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -13799,18 +14834,18 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -13820,18 +14855,18 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -13841,18 +14876,18 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="31" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -13862,10 +14897,10 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="22"/>
@@ -13877,18 +14912,18 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
@@ -13898,13 +14933,13 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
@@ -13913,7 +14948,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -13923,39 +14958,39 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="31" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
@@ -13967,16 +15002,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
@@ -13986,10 +15021,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="30" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -14001,18 +15036,18 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
@@ -14022,18 +15057,18 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
@@ -14043,18 +15078,18 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20" t="s">
@@ -14064,18 +15099,18 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="24" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="s">
@@ -14085,18 +15120,18 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
@@ -14106,18 +15141,18 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="31" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
@@ -14127,10 +15162,10 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
@@ -14142,18 +15177,18 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
@@ -14163,18 +15198,18 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="31" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="s">
@@ -14184,10 +15219,10 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="22"/>
@@ -14199,18 +15234,18 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="93.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="93.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="38" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="31" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
@@ -14220,13 +15255,13 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="57" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="24" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D25" s="22" t="n">
         <v>1</v>
@@ -14235,7 +15270,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
@@ -14245,18 +15280,18 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="24" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="31" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
@@ -14268,16 +15303,16 @@
     </row>
     <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
       <c r="F27" s="31" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="s">
@@ -14287,18 +15322,18 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
@@ -14308,18 +15343,18 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="24" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="31" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20" t="s">
@@ -14329,39 +15364,39 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="31" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
@@ -14371,18 +15406,18 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="31" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
@@ -14392,13 +15427,13 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="24" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>1</v>
@@ -14407,7 +15442,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="s">
@@ -14419,16 +15454,16 @@
     </row>
     <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="24" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
       <c r="F34" s="31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
@@ -14440,16 +15475,16 @@
     </row>
     <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
       <c r="F35" s="31" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
@@ -14459,18 +15494,18 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="38" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
       <c r="F36" s="31" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
@@ -14480,18 +15515,18 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="24" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="31" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
@@ -14503,16 +15538,16 @@
     </row>
     <row r="38" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="24" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="31" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20" t="s">
@@ -14522,13 +15557,13 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" customFormat="false" ht="42.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>2</v>
@@ -14537,7 +15572,7 @@
         <v>52</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
@@ -14549,16 +15584,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="24" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
       <c r="F40" s="31" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
@@ -14570,11 +15605,11 @@
     </row>
     <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
@@ -14607,15 +15642,15 @@
     <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
+      <formula1>Selections!$A$4:$A$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H6 H8:H12 H14:H19 H21:H22 H24:H41" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D41" type="list">
-      <formula1>Selections!$A$4:$A$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E41" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14639,7 +15674,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14671,7 +15706,9 @@
       <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
@@ -14691,47 +15728,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="38" t="s">
-        <v>571</v>
-      </c>
+    <row r="2" s="4" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="24" t="s">
-        <v>573</v>
+      <c r="C3" s="38" t="s">
+        <v>574</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -14742,13 +15777,13 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -14759,13 +15794,13 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -14776,15 +15811,15 @@
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>582</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="20"/>
@@ -14793,7 +15828,23 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14820,15 +15871,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D8" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H8" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E8" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14866,10 +15917,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="41" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -14878,13 +15929,13 @@
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="43" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -14893,21 +15944,21 @@
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="46" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="50" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="n">
@@ -14917,7 +15968,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="53" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="n">
@@ -14927,7 +15978,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="54" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="n">
@@ -14937,7 +15988,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="n">
@@ -14947,7 +15998,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="n">
@@ -14957,7 +16008,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52" t="n">
@@ -14967,7 +16018,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="53" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="n">
@@ -14977,7 +16028,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="55" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D11" s="56" t="n">
         <f aca="false">SUM(D4:D10)</f>
@@ -14986,7 +16037,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="40" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D12" s="57" t="n">
         <f aca="false">COUNT(D4:D10)</f>
@@ -14995,7 +16046,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="40" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D13" s="58" t="n">
         <f aca="false">IFERROR(D11/(D12*2), 0)</f>
@@ -15008,7 +16059,7 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D10" type="list">
       <formula1>"0,1,2"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15086,7 +16137,7 @@
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="22"/>
@@ -15100,16 +16151,16 @@
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="24" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
@@ -15121,16 +16172,16 @@
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="59" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="24" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
@@ -15142,16 +16193,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="24" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
@@ -15163,16 +16214,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="24" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
@@ -15188,15 +16239,15 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
       <formula1>Selections!$A$4:$A$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E6" type="list">
       <formula1>Selections!$B$4:$B$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H6" type="list">
       <formula1>Selections!$C$4:$C$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
